--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5</v>
@@ -1106,7 +1106,7 @@
         <v>2.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>1.75</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU16" t="n">
         <v>2.25</v>
@@ -3948,7 +3948,7 @@
         <v>2.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT19" t="n">
         <v>0.25</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT21" t="n">
         <v>1.25</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT27" t="n">
         <v>0.75</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>1.25</v>
@@ -6587,7 +6587,7 @@
         <v>1.75</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>2.28</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -7602,7 +7602,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>0.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT38" t="n">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>1.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.06</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>2</v>
@@ -9429,7 +9429,7 @@
         <v>2.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU44" t="n">
         <v>2.1</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>0.25</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU47" t="n">
         <v>1.15</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU48" t="n">
         <v>1.74</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU52" t="n">
         <v>1.33</v>
@@ -11256,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -11459,7 +11459,7 @@
         <v>2.25</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU54" t="n">
         <v>1.38</v>
@@ -11659,10 +11659,10 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
         <v>0.75</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>2.33</v>
@@ -12877,10 +12877,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU61" t="n">
         <v>1.6</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT67" t="n">
         <v>1.25</v>
@@ -14298,10 +14298,10 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU68" t="n">
         <v>1.9</v>
@@ -14504,7 +14504,7 @@
         <v>3</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>1.85</v>
@@ -14707,7 +14707,7 @@
         <v>2.6</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU70" t="n">
         <v>1.67</v>
@@ -15110,7 +15110,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT74" t="n">
         <v>1.5</v>
@@ -16128,7 +16128,7 @@
         <v>2.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU77" t="n">
         <v>2.05</v>
@@ -16331,7 +16331,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU78" t="n">
         <v>1.12</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.27</v>
@@ -16737,7 +16737,7 @@
         <v>2.25</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU80" t="n">
         <v>1.69</v>
@@ -16937,10 +16937,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17140,10 +17140,10 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU82" t="n">
         <v>1.36</v>
@@ -17749,7 +17749,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT85" t="n">
         <v>1.25</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT86" t="n">
         <v>0</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>1.49</v>
@@ -18361,7 +18361,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU88" t="n">
         <v>1.29</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU91" t="n">
         <v>1.97</v>
@@ -19173,7 +19173,7 @@
         <v>1.4</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU92" t="n">
         <v>1.11</v>
@@ -19779,10 +19779,10 @@
         <v>0.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU95" t="n">
         <v>1.36</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20185,10 +20185,10 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.83</v>
@@ -20391,7 +20391,7 @@
         <v>1.75</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU98" t="n">
         <v>2.05</v>
@@ -20591,7 +20591,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -20794,10 +20794,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU100" t="n">
         <v>1.48</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -22827,7 +22827,7 @@
         <v>2.6</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.56</v>
@@ -23230,10 +23230,10 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -23285,6 +23285,2645 @@
       </c>
       <c r="BK112" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4926049</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>6</v>
+      </c>
+      <c r="T113" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X113" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4926050</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['34', '58']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>4</v>
+      </c>
+      <c r="R114" t="n">
+        <v>8</v>
+      </c>
+      <c r="S114" t="n">
+        <v>12</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X114" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4926051</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['25', '90+2']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>3</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>8</v>
+      </c>
+      <c r="T115" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4926052</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['31', '35']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>3</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V116" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4926053</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>4</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['44', '50', '55']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>3</v>
+      </c>
+      <c r="R117" t="n">
+        <v>6</v>
+      </c>
+      <c r="S117" t="n">
+        <v>9</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V117" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4926054</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
+      <c r="N118" t="n">
+        <v>4</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['15', '52', '62']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>9</v>
+      </c>
+      <c r="R118" t="n">
+        <v>3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>12</v>
+      </c>
+      <c r="T118" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V118" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X118" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4926055</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>3</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3</v>
+      </c>
+      <c r="L119" t="n">
+        <v>4</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="n">
+        <v>6</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['16', '20', '43', '56']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['66', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>6</v>
+      </c>
+      <c r="R119" t="n">
+        <v>7</v>
+      </c>
+      <c r="S119" t="n">
+        <v>13</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V119" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X119" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4926056</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45038.89583333334</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>3</v>
+      </c>
+      <c r="R120" t="n">
+        <v>7</v>
+      </c>
+      <c r="S120" t="n">
+        <v>10</v>
+      </c>
+      <c r="T120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V120" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X120" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4926057</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45038.89583333334</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>6</v>
+      </c>
+      <c r="R121" t="n">
+        <v>5</v>
+      </c>
+      <c r="S121" t="n">
+        <v>11</v>
+      </c>
+      <c r="T121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4926058</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45038.9375</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>4</v>
+      </c>
+      <c r="R122" t="n">
+        <v>5</v>
+      </c>
+      <c r="S122" t="n">
+        <v>9</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V122" t="n">
+        <v>4</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X122" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4926059</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45038.9375</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['39', '54', '80']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>3</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1</v>
+      </c>
+      <c r="S123" t="n">
+        <v>4</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4926060</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45038.97916666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['54', '64']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>12</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2</v>
+      </c>
+      <c r="S124" t="n">
+        <v>14</v>
+      </c>
+      <c r="T124" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V124" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4926061</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45038.97916666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>9</v>
+      </c>
+      <c r="R125" t="n">
+        <v>3</v>
+      </c>
+      <c r="S125" t="n">
+        <v>12</v>
+      </c>
+      <c r="T125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V125" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X125" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK125"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT3" t="n">
         <v>0.25</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT16" t="n">
         <v>0.6</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT44" t="n">
         <v>0.2</v>
@@ -12677,7 +12677,7 @@
         <v>1.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.52</v>
@@ -16125,7 +16125,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT77" t="n">
         <v>0.4</v>
@@ -25924,6 +25924,209 @@
       </c>
       <c r="BK125" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4926062</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45039.72916666666</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['13', '90+9']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>4</v>
+      </c>
+      <c r="R126" t="n">
+        <v>5</v>
+      </c>
+      <c r="S126" t="n">
+        <v>9</v>
+      </c>
+      <c r="T126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V126" t="n">
+        <v>5</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X126" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>2.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT6" t="n">
         <v>0.6</v>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT10" t="n">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
         <v>0.75</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>1.4</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT19" t="n">
         <v>0.25</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU21" t="n">
         <v>0.93</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.37</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU24" t="n">
         <v>1.31</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.85</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT32" t="n">
         <v>2.33</v>
@@ -7196,7 +7196,7 @@
         <v>2.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT35" t="n">
         <v>0.8</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>0.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.41</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT39" t="n">
         <v>0.75</v>
@@ -9429,7 +9429,7 @@
         <v>2.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU44" t="n">
         <v>2.1</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT49" t="n">
         <v>0.8</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>0.89</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT50" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU50" t="n">
         <v>1.01</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU51" t="n">
         <v>0.99</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.38</v>
@@ -12068,7 +12068,7 @@
         <v>1.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT59" t="n">
         <v>1.75</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.6</v>
@@ -13080,10 +13080,10 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.31</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -13489,7 +13489,7 @@
         <v>3</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU64" t="n">
         <v>1.56</v>
@@ -13689,10 +13689,10 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU65" t="n">
         <v>2.67</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU67" t="n">
         <v>1.3</v>
@@ -14298,7 +14298,7 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT68" t="n">
         <v>2</v>
@@ -14907,10 +14907,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT71" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU71" t="n">
         <v>1.3</v>
@@ -15110,7 +15110,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15313,10 +15313,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU73" t="n">
         <v>1.3</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>0.75</v>
@@ -15925,7 +15925,7 @@
         <v>3</v>
       </c>
       <c r="AT76" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU76" t="n">
         <v>1.31</v>
@@ -16128,7 +16128,7 @@
         <v>2.6</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU77" t="n">
         <v>2.05</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT78" t="n">
         <v>1.4</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU79" t="n">
         <v>1.27</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT80" t="n">
         <v>1.8</v>
@@ -17546,10 +17546,10 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT84" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU84" t="n">
         <v>1.84</v>
@@ -17752,7 +17752,7 @@
         <v>2.6</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU85" t="n">
         <v>1.58</v>
@@ -17952,10 +17952,10 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU86" t="n">
         <v>1.24</v>
@@ -18361,7 +18361,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU88" t="n">
         <v>1.29</v>
@@ -18561,7 +18561,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT89" t="n">
         <v>0.8</v>
@@ -19170,7 +19170,7 @@
         <v>3</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT92" t="n">
         <v>1.8</v>
@@ -19376,7 +19376,7 @@
         <v>3</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU93" t="n">
         <v>1.29</v>
@@ -19576,7 +19576,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT94" t="n">
         <v>1</v>
@@ -19779,7 +19779,7 @@
         <v>0.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT95" t="n">
         <v>0.6</v>
@@ -19982,10 +19982,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU96" t="n">
         <v>1.86</v>
@@ -20388,10 +20388,10 @@
         <v>0.33</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU98" t="n">
         <v>2.05</v>
@@ -20997,10 +20997,10 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU101" t="n">
         <v>1.25</v>
@@ -21403,7 +21403,7 @@
         <v>2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
         <v>1.75</v>
@@ -21809,7 +21809,7 @@
         <v>0.67</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT105" t="n">
         <v>0.75</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT106" t="n">
         <v>0.25</v>
@@ -22624,7 +22624,7 @@
         <v>1.75</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU109" t="n">
         <v>1.13</v>
@@ -23027,10 +23027,10 @@
         <v>1.67</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -23639,7 +23639,7 @@
         <v>3</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -23842,7 +23842,7 @@
         <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU115" t="n">
         <v>1.21</v>
@@ -24042,7 +24042,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT116" t="n">
         <v>0.33</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT118" t="n">
         <v>1.4</v>
@@ -24857,7 +24857,7 @@
         <v>3</v>
       </c>
       <c r="AT120" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU120" t="n">
         <v>1.28</v>
@@ -25057,7 +25057,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT121" t="n">
         <v>1.5</v>
@@ -25463,10 +25463,10 @@
         <v>0.33</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU123" t="n">
         <v>2</v>
@@ -26127,6 +26127,2442 @@
       </c>
       <c r="BK126" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4926063</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45045.60416666666</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>3</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>4</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['36', '56', '90+1']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>3</v>
+      </c>
+      <c r="R127" t="n">
+        <v>7</v>
+      </c>
+      <c r="S127" t="n">
+        <v>10</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4926064</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45045.85416666666</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>3</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['7', '41']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>10</v>
+      </c>
+      <c r="R128" t="n">
+        <v>5</v>
+      </c>
+      <c r="S128" t="n">
+        <v>15</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4926065</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45045.85416666666</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>3</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['34', '75', '90+5']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>2</v>
+      </c>
+      <c r="R129" t="n">
+        <v>5</v>
+      </c>
+      <c r="S129" t="n">
+        <v>7</v>
+      </c>
+      <c r="T129" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4926066</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45045.85416666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>3</v>
+      </c>
+      <c r="R130" t="n">
+        <v>8</v>
+      </c>
+      <c r="S130" t="n">
+        <v>11</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X130" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4926067</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45045.85416666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['38', '57']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>4</v>
+      </c>
+      <c r="R131" t="n">
+        <v>6</v>
+      </c>
+      <c r="S131" t="n">
+        <v>10</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4926068</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45045.85416666666</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>2</v>
+      </c>
+      <c r="R132" t="n">
+        <v>4</v>
+      </c>
+      <c r="S132" t="n">
+        <v>6</v>
+      </c>
+      <c r="T132" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4926072</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45045.89583333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2</v>
+      </c>
+      <c r="N133" t="n">
+        <v>3</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['63', '82']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>2</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1</v>
+      </c>
+      <c r="S133" t="n">
+        <v>3</v>
+      </c>
+      <c r="T133" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V133" t="n">
+        <v>4</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X133" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4926071</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45045.89583333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['35', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>5</v>
+      </c>
+      <c r="R134" t="n">
+        <v>6</v>
+      </c>
+      <c r="S134" t="n">
+        <v>11</v>
+      </c>
+      <c r="T134" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4926070</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45045.89583333334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>5</v>
+      </c>
+      <c r="S135" t="n">
+        <v>5</v>
+      </c>
+      <c r="T135" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U135" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4926069</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45045.89583333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['40', '78']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['21', '75']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>11</v>
+      </c>
+      <c r="R136" t="n">
+        <v>10</v>
+      </c>
+      <c r="S136" t="n">
+        <v>21</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4926073</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45045.9375</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>7</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2</v>
+      </c>
+      <c r="S137" t="n">
+        <v>9</v>
+      </c>
+      <c r="T137" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4926075</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45045.97916666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>13</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1</v>
+      </c>
+      <c r="S138" t="n">
+        <v>14</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK138"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT66" t="n">
         <v>0.75</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT108" t="n">
         <v>2.33</v>
@@ -28563,6 +28563,209 @@
       </c>
       <c r="BK138" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4926076</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45046.91666666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>6</v>
+      </c>
+      <c r="R139" t="n">
+        <v>3</v>
+      </c>
+      <c r="S139" t="n">
+        <v>9</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT7" t="n">
         <v>0.5</v>
@@ -2527,7 +2527,7 @@
         <v>1.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.6</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT14" t="n">
         <v>0.33</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU18" t="n">
         <v>2.18</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT24" t="n">
         <v>0.4</v>
@@ -5978,7 +5978,7 @@
         <v>2.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU27" t="n">
         <v>2.09</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT28" t="n">
         <v>0.75</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU29" t="n">
         <v>1.85</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>1.4</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU32" t="n">
         <v>1.43</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>0.8</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
         <v>0.5</v>
@@ -8414,7 +8414,7 @@
         <v>1.4</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU40" t="n">
         <v>1.06</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9023,7 +9023,7 @@
         <v>3</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.38</v>
@@ -9226,7 +9226,7 @@
         <v>2.6</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>2</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT47" t="n">
         <v>0.8</v>
@@ -10241,7 +10241,7 @@
         <v>2.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU48" t="n">
         <v>1.74</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
         <v>0.6</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT52" t="n">
         <v>0.33</v>
@@ -11253,10 +11253,10 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>0.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT56" t="n">
         <v>0.75</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT57" t="n">
         <v>0.4</v>
@@ -12271,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU58" t="n">
         <v>1.5</v>
@@ -12474,7 +12474,7 @@
         <v>1.4</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.59</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU60" t="n">
         <v>1.52</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT61" t="n">
         <v>0.5</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU62" t="n">
         <v>1.31</v>
@@ -13286,7 +13286,7 @@
         <v>1.2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU63" t="n">
         <v>1.34</v>
@@ -13486,10 +13486,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU64" t="n">
         <v>1.56</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT67" t="n">
         <v>1.2</v>
@@ -14301,7 +14301,7 @@
         <v>1.4</v>
       </c>
       <c r="AT68" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU68" t="n">
         <v>1.9</v>
@@ -14704,7 +14704,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT70" t="n">
         <v>0.6</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT71" t="n">
         <v>0.8</v>
@@ -15316,7 +15316,7 @@
         <v>2.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU73" t="n">
         <v>1.3</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT74" t="n">
         <v>1.4</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -16331,7 +16331,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU78" t="n">
         <v>1.12</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT79" t="n">
         <v>0.67</v>
@@ -16737,7 +16737,7 @@
         <v>1.8</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.69</v>
@@ -17143,7 +17143,7 @@
         <v>0.75</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU82" t="n">
         <v>1.36</v>
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT83" t="n">
         <v>0.25</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5</v>
@@ -17752,7 +17752,7 @@
         <v>2.6</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU85" t="n">
         <v>1.58</v>
@@ -18155,7 +18155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT87" t="n">
         <v>1</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT88" t="n">
         <v>0.4</v>
@@ -18767,7 +18767,7 @@
         <v>3</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU90" t="n">
         <v>1.26</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU91" t="n">
         <v>1.97</v>
@@ -19173,7 +19173,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.11</v>
@@ -19373,7 +19373,7 @@
         <v>0.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT93" t="n">
         <v>0.4</v>
@@ -19579,7 +19579,7 @@
         <v>0.25</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU94" t="n">
         <v>1.87</v>
@@ -19779,7 +19779,7 @@
         <v>0.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT95" t="n">
         <v>0.6</v>
@@ -20188,7 +20188,7 @@
         <v>2.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU97" t="n">
         <v>1.83</v>
@@ -20388,7 +20388,7 @@
         <v>0.33</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT98" t="n">
         <v>0.67</v>
@@ -20794,10 +20794,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU100" t="n">
         <v>1.48</v>
@@ -20997,10 +20997,10 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT101" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU101" t="n">
         <v>1.25</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU102" t="n">
         <v>1.34</v>
@@ -21406,7 +21406,7 @@
         <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU103" t="n">
         <v>1.63</v>
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT104" t="n">
         <v>0.25</v>
@@ -22015,7 +22015,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU106" t="n">
         <v>1.15</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU107" t="n">
         <v>1.38</v>
@@ -22421,7 +22421,7 @@
         <v>0.75</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU108" t="n">
         <v>1.02</v>
@@ -22621,7 +22621,7 @@
         <v>2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT109" t="n">
         <v>1.4</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT110" t="n">
         <v>0.33</v>
@@ -23230,10 +23230,10 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT113" t="n">
         <v>0.8</v>
@@ -23839,7 +23839,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT115" t="n">
         <v>0.5</v>
@@ -24451,7 +24451,7 @@
         <v>1.17</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU118" t="n">
         <v>1.38</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="AS120" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT120" t="n">
         <v>0.6</v>
@@ -25057,10 +25057,10 @@
         <v>1.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU121" t="n">
         <v>1.3</v>
@@ -25263,7 +25263,7 @@
         <v>0.75</v>
       </c>
       <c r="AT122" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU122" t="n">
         <v>1.3</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU124" t="n">
         <v>1.96</v>
@@ -25872,7 +25872,7 @@
         <v>2.6</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU125" t="n">
         <v>1.74</v>
@@ -26075,7 +26075,7 @@
         <v>2.6</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -26275,10 +26275,10 @@
         <v>1.25</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT127" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU127" t="n">
         <v>1.32</v>
@@ -27290,10 +27290,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU132" t="n">
         <v>1.23</v>
@@ -28508,10 +28508,10 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT138" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU138" t="n">
         <v>2.02</v>
@@ -28766,6 +28766,2645 @@
       </c>
       <c r="BK139" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4926083</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['19', '62']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>5</v>
+      </c>
+      <c r="R140" t="n">
+        <v>4</v>
+      </c>
+      <c r="S140" t="n">
+        <v>9</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4926077</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>5</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['8', '39', '74']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['37', '57']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>8</v>
+      </c>
+      <c r="R141" t="n">
+        <v>7</v>
+      </c>
+      <c r="S141" t="n">
+        <v>15</v>
+      </c>
+      <c r="T141" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4926078</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['59', '73']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>6</v>
+      </c>
+      <c r="R142" t="n">
+        <v>6</v>
+      </c>
+      <c r="S142" t="n">
+        <v>12</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V142" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4926079</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['59', '75']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>3</v>
+      </c>
+      <c r="R143" t="n">
+        <v>7</v>
+      </c>
+      <c r="S143" t="n">
+        <v>10</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4926080</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['62', '66']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>5</v>
+      </c>
+      <c r="S144" t="n">
+        <v>9</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4926081</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>3</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2</v>
+      </c>
+      <c r="S145" t="n">
+        <v>5</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4926082</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['8', '83']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>4</v>
+      </c>
+      <c r="R146" t="n">
+        <v>5</v>
+      </c>
+      <c r="S146" t="n">
+        <v>9</v>
+      </c>
+      <c r="T146" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4926084</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45052.89583333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>3</v>
+      </c>
+      <c r="S147" t="n">
+        <v>4</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V147" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4926086</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45052.89583333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>3</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['45+3', '70', '90+1']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>10</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2</v>
+      </c>
+      <c r="S148" t="n">
+        <v>12</v>
+      </c>
+      <c r="T148" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4926085</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45052.89583333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>4</v>
+      </c>
+      <c r="R149" t="n">
+        <v>9</v>
+      </c>
+      <c r="S149" t="n">
+        <v>13</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4926088</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45052.97916666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>4</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['33', '71']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['59', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>5</v>
+      </c>
+      <c r="R150" t="n">
+        <v>3</v>
+      </c>
+      <c r="S150" t="n">
+        <v>8</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4926089</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45052.97916666666</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>5</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['17', '52', '56']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['33', '65']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>8</v>
+      </c>
+      <c r="R151" t="n">
+        <v>5</v>
+      </c>
+      <c r="S151" t="n">
+        <v>13</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4926087</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45052.97916666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3</v>
+      </c>
+      <c r="N152" t="n">
+        <v>4</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['14', '65', '81']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>6</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1</v>
+      </c>
+      <c r="S152" t="n">
+        <v>7</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -2527,7 +2527,7 @@
         <v>1.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1.5</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT13" t="n">
         <v>1.29</v>
@@ -3339,7 +3339,7 @@
         <v>1.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>0.4</v>
@@ -5775,7 +5775,7 @@
         <v>0.75</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT27" t="n">
         <v>0.8</v>
@@ -8617,7 +8617,7 @@
         <v>1.6</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.06</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT43" t="n">
         <v>1.2</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU52" t="n">
         <v>1.33</v>
@@ -14301,7 +14301,7 @@
         <v>1.4</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU68" t="n">
         <v>1.9</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.67</v>
@@ -16940,7 +16940,7 @@
         <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -20185,10 +20185,10 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.83</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
         <v>0.8</v>
@@ -22827,7 +22827,7 @@
         <v>2.67</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU110" t="n">
         <v>1.56</v>
@@ -24045,7 +24045,7 @@
         <v>2.33</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU116" t="n">
         <v>1.46</v>
@@ -25263,7 +25263,7 @@
         <v>0.75</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU122" t="n">
         <v>1.3</v>
@@ -25869,7 +25869,7 @@
         <v>2.25</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT125" t="n">
         <v>1.5</v>
@@ -29036,10 +29036,10 @@
         <v>8</v>
       </c>
       <c r="R141" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S141" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T141" t="n">
         <v>3.27</v>
@@ -30194,7 +30194,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>4926084</v>
+        <v>4926086</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -30214,182 +30214,182 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
+          <t>['45+3', '70', '90+1']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q147" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S147" t="n">
+        <v>12</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG147" t="n">
         <v>4</v>
       </c>
-      <c r="T147" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="U147" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V147" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="W147" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X147" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y147" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Z147" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA147" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB147" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC147" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AD147" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE147" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF147" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG147" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AJ147" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM147" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AO147" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP147" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AQ147" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR147" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS147" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AT147" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AU147" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AV147" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AW147" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AX147" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AY147" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ147" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BA147" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB147" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BC147" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BD147" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BE147" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BF147" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG147" t="n">
-        <v>2</v>
-      </c>
       <c r="BH147" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="BI147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ147" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK147" t="n">
         <v>6</v>
-      </c>
-      <c r="BK147" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="148">
@@ -30397,7 +30397,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>4926086</v>
+        <v>4926085</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -30417,35 +30417,35 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M148" t="n">
         <v>0</v>
       </c>
       <c r="N148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>['45+3', '70', '90+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -30454,145 +30454,145 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R148" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T148" t="n">
-        <v>2.43</v>
+        <v>2.57</v>
       </c>
       <c r="U148" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="V148" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="W148" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="X148" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="Y148" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="Z148" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA148" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB148" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AC148" t="n">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="AD148" t="n">
         <v>3.65</v>
       </c>
       <c r="AE148" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="AF148" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG148" t="n">
-        <v>8.5</v>
+        <v>14.25</v>
       </c>
       <c r="AH148" t="n">
         <v>1.25</v>
       </c>
       <c r="AI148" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ148" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="AK148" t="n">
-        <v>1.84</v>
+        <v>2.09</v>
       </c>
       <c r="AL148" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AM148" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="AN148" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AO148" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="AR148" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AS148" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU148" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV148" t="n">
         <v>1.31</v>
       </c>
-      <c r="AV148" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AW148" t="n">
-        <v>2.74</v>
+        <v>2.55</v>
       </c>
       <c r="AX148" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AY148" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ148" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="BA148" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BB148" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="BC148" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="BD148" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="BE148" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BF148" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BG148" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH148" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BI148" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ148" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="BK148" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
@@ -30600,7 +30600,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>4926085</v>
+        <v>4926088</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -30613,69 +30613,69 @@
         </is>
       </c>
       <c r="E149" s="2" t="n">
-        <v>45052.89583333334</v>
+        <v>45052.97916666666</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['33', '71']</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['59', '90+2']</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R149" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S149" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T149" t="n">
-        <v>2.57</v>
+        <v>2.76</v>
       </c>
       <c r="U149" t="n">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
       <c r="V149" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="W149" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X149" t="n">
         <v>3.25</v>
@@ -30693,109 +30693,109 @@
         <v>1.11</v>
       </c>
       <c r="AC149" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="AD149" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AE149" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="AF149" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG149" t="n">
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="AH149" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AI149" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="AJ149" t="n">
         <v>1.74</v>
       </c>
       <c r="AK149" t="n">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="AL149" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AM149" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="AN149" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AO149" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AQ149" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AR149" t="n">
         <v>0.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="AT149" t="n">
         <v>0.8</v>
       </c>
       <c r="AU149" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AV149" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AW149" t="n">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AX149" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AY149" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ149" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="BA149" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB149" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="BC149" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="BD149" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BE149" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BF149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG149" t="n">
         <v>5</v>
       </c>
-      <c r="BG149" t="n">
+      <c r="BH149" t="n">
         <v>7</v>
-      </c>
-      <c r="BH149" t="n">
-        <v>11</v>
       </c>
       <c r="BI149" t="n">
         <v>7</v>
       </c>
       <c r="BJ149" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BK149" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -30803,7 +30803,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>4926088</v>
+        <v>4926089</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -30823,182 +30823,182 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M150" t="n">
         <v>2</v>
       </c>
       <c r="N150" t="n">
+        <v>5</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['17', '52', '56']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['33', '65']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>8</v>
+      </c>
+      <c r="R150" t="n">
+        <v>5</v>
+      </c>
+      <c r="S150" t="n">
+        <v>13</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE150" t="n">
         <v>4</v>
       </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>['33', '71']</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>['59', '90+2']</t>
-        </is>
-      </c>
-      <c r="Q150" t="n">
-        <v>5</v>
-      </c>
-      <c r="R150" t="n">
-        <v>3</v>
-      </c>
-      <c r="S150" t="n">
+      <c r="AF150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG150" t="n">
         <v>8</v>
       </c>
-      <c r="T150" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="U150" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="V150" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W150" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X150" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y150" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z150" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA150" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB150" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC150" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AD150" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AE150" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AF150" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG150" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH150" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AI150" t="n">
-        <v>4.05</v>
+        <v>3.3</v>
       </c>
       <c r="AJ150" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="AK150" t="n">
-        <v>2.16</v>
+        <v>1.79</v>
       </c>
       <c r="AL150" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AM150" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="AN150" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AO150" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR150" t="n">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU150" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AV150" t="n">
         <v>1.18</v>
       </c>
       <c r="AW150" t="n">
-        <v>2.48</v>
+        <v>3.18</v>
       </c>
       <c r="AX150" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AY150" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ150" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="BA150" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BB150" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="BC150" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="BD150" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BE150" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BF150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI150" t="n">
         <v>4</v>
       </c>
-      <c r="BG150" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH150" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI150" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ150" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BK150" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -31006,7 +31006,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>4926089</v>
+        <v>4926087</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -31026,113 +31026,113 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>LA Galaxy</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>['17', '52', '56']</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>['33', '65']</t>
+          <t>['14', '65', '81']</t>
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R151" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S151" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T151" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y151" t="n">
         <v>2.5</v>
       </c>
-      <c r="U151" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V151" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W151" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X151" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="Y151" t="n">
-        <v>2.96</v>
-      </c>
       <c r="Z151" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AA151" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB151" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AC151" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AD151" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AE151" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AF151" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG151" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AH151" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AI151" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AJ151" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="AK151" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="AL151" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AM151" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="AN151" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AO151" t="n">
         <v>1.22</v>
@@ -31141,49 +31141,49 @@
         <v>1.95</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AR151" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.83</v>
+        <v>0.8</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU151" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AV151" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AW151" t="n">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="AX151" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AY151" t="n">
         <v>8</v>
       </c>
       <c r="AZ151" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BA151" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BB151" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BC151" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="BD151" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BE151" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="BF151" t="n">
         <v>8</v>
@@ -31192,16 +31192,16 @@
         <v>6</v>
       </c>
       <c r="BH151" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK151" t="n">
         <v>11</v>
-      </c>
-      <c r="BI151" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ151" t="n">
-        <v>19</v>
-      </c>
-      <c r="BK151" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -31209,7 +31209,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>4926087</v>
+        <v>4926090</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -31222,189 +31222,189 @@
         </is>
       </c>
       <c r="E152" s="2" t="n">
-        <v>45052.97916666666</v>
+        <v>45053.72916666666</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>LA Galaxy</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Sporting KC</t>
         </is>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
       <c r="M152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>['89']</t>
+          <t>['66']</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>['14', '65', '81']</t>
+          <t>['4', '31']</t>
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R152" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S152" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T152" t="n">
-        <v>2.47</v>
+        <v>2.24</v>
       </c>
       <c r="U152" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="V152" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="W152" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X152" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Y152" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="Z152" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA152" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB152" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AC152" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK152" t="n">
         <v>1.95</v>
       </c>
-      <c r="AD152" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AE152" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AF152" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG152" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH152" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI152" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ152" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK152" t="n">
-        <v>2.12</v>
-      </c>
       <c r="AL152" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AM152" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="AN152" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AO152" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="AR152" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.8</v>
+        <v>2.17</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AU152" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AV152" t="n">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AW152" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="AX152" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AY152" t="n">
         <v>8</v>
       </c>
       <c r="AZ152" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="BA152" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BB152" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="BC152" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BD152" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="BE152" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="BF152" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG152" t="n">
         <v>6</v>
       </c>
       <c r="BH152" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BI152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ152" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="BK152" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -25119,7 +25119,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>4926058</v>
+        <v>4926059</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -25139,65 +25139,65 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>SJ Earthquakes</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
       <c r="N122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>['39', '54', '80']</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>['49']</t>
         </is>
       </c>
       <c r="Q122" t="n">
+        <v>3</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1</v>
+      </c>
+      <c r="S122" t="n">
         <v>4</v>
       </c>
-      <c r="R122" t="n">
-        <v>5</v>
-      </c>
-      <c r="S122" t="n">
-        <v>9</v>
-      </c>
       <c r="T122" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="U122" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V122" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W122" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X122" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y122" t="n">
         <v>2.63</v>
@@ -25206,100 +25206,100 @@
         <v>1.44</v>
       </c>
       <c r="AA122" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB122" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC122" t="n">
         <v>2</v>
       </c>
       <c r="AD122" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AE122" t="n">
         <v>3.4</v>
       </c>
       <c r="AF122" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AG122" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AH122" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AI122" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AJ122" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK122" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AL122" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AM122" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AN122" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AO122" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR122" t="n">
-        <v>2.25</v>
+        <v>0.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT122" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="AU122" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AV122" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="AW122" t="n">
-        <v>2.83</v>
+        <v>3.26</v>
       </c>
       <c r="AX122" t="n">
         <v>1.75</v>
       </c>
       <c r="AY122" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ122" t="n">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="BA122" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BB122" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="BC122" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="BD122" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="BE122" t="n">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="BF122" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BG122" t="n">
         <v>5</v>
@@ -25308,13 +25308,13 @@
         <v>5</v>
       </c>
       <c r="BI122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ122" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BK122" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
@@ -25322,7 +25322,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>4926059</v>
+        <v>4926058</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -25342,65 +25342,65 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>SJ Earthquakes</t>
+          <t>St. Louis City</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
       <c r="N123" t="n">
+        <v>2</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
         <v>4</v>
       </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>['39', '54', '80']</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>['49']</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>3</v>
-      </c>
       <c r="R123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S123" t="n">
+        <v>9</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V123" t="n">
         <v>4</v>
       </c>
-      <c r="T123" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U123" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V123" t="n">
-        <v>3.75</v>
-      </c>
       <c r="W123" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X123" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y123" t="n">
         <v>2.63</v>
@@ -25409,100 +25409,100 @@
         <v>1.44</v>
       </c>
       <c r="AA123" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB123" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC123" t="n">
         <v>2</v>
       </c>
       <c r="AD123" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE123" t="n">
         <v>3.4</v>
       </c>
       <c r="AF123" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AG123" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AH123" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AI123" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AJ123" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK123" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AL123" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AM123" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AN123" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AO123" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR123" t="n">
-        <v>0.33</v>
+        <v>2.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="AU123" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AV123" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="AW123" t="n">
-        <v>3.26</v>
+        <v>2.83</v>
       </c>
       <c r="AX123" t="n">
         <v>1.75</v>
       </c>
       <c r="AY123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ123" t="n">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
       <c r="BA123" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BB123" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="BC123" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="BD123" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="BE123" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="BF123" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BG123" t="n">
         <v>5</v>
@@ -25511,13 +25511,13 @@
         <v>5</v>
       </c>
       <c r="BI123" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ123" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BK123" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
@@ -30803,7 +30803,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>4926089</v>
+        <v>4926087</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -30823,113 +30823,113 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>LA Galaxy</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>['17', '52', '56']</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>['33', '65']</t>
+          <t>['14', '65', '81']</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R150" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S150" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T150" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y150" t="n">
         <v>2.5</v>
       </c>
-      <c r="U150" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V150" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W150" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X150" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="Y150" t="n">
-        <v>2.96</v>
-      </c>
       <c r="Z150" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AA150" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB150" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AC150" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AD150" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AE150" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AF150" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG150" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AH150" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AI150" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AJ150" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="AK150" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="AL150" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AM150" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="AN150" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AO150" t="n">
         <v>1.22</v>
@@ -30938,49 +30938,49 @@
         <v>1.95</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AR150" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.83</v>
+        <v>0.8</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU150" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AV150" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AW150" t="n">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="AX150" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AY150" t="n">
         <v>8</v>
       </c>
       <c r="AZ150" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BA150" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BB150" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BC150" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="BD150" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BE150" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="BF150" t="n">
         <v>8</v>
@@ -30989,16 +30989,16 @@
         <v>6</v>
       </c>
       <c r="BH150" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK150" t="n">
         <v>11</v>
-      </c>
-      <c r="BI150" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ150" t="n">
-        <v>19</v>
-      </c>
-      <c r="BK150" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -31006,7 +31006,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>4926087</v>
+        <v>4926089</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -31026,113 +31026,113 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>LA Galaxy</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N151" t="n">
+        <v>5</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['17', '52', '56']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['33', '65']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>8</v>
+      </c>
+      <c r="R151" t="n">
+        <v>5</v>
+      </c>
+      <c r="S151" t="n">
+        <v>13</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE151" t="n">
         <v>4</v>
       </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>['89']</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>['14', '65', '81']</t>
-        </is>
-      </c>
-      <c r="Q151" t="n">
-        <v>6</v>
-      </c>
-      <c r="R151" t="n">
-        <v>1</v>
-      </c>
-      <c r="S151" t="n">
-        <v>7</v>
-      </c>
-      <c r="T151" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U151" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="V151" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="W151" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X151" t="n">
+      <c r="AF151" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI151" t="n">
         <v>3.3</v>
       </c>
-      <c r="Y151" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z151" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA151" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB151" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC151" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AD151" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AE151" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AF151" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG151" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH151" t="n">
+      <c r="AJ151" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN151" t="n">
         <v>1.22</v>
-      </c>
-      <c r="AI151" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ151" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK151" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AL151" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AM151" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AN151" t="n">
-        <v>1.28</v>
       </c>
       <c r="AO151" t="n">
         <v>1.22</v>
@@ -31141,49 +31141,49 @@
         <v>1.95</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AR151" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.8</v>
+        <v>1.83</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU151" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AV151" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AW151" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="AX151" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AY151" t="n">
         <v>8</v>
       </c>
       <c r="AZ151" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BA151" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BB151" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="BC151" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="BD151" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BE151" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="BF151" t="n">
         <v>8</v>
@@ -31192,16 +31192,16 @@
         <v>6</v>
       </c>
       <c r="BH151" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BI151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ151" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BK151" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -28976,7 +28976,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>4926077</v>
+        <v>4926082</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -28996,182 +28996,182 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>SJ Earthquakes</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N141" t="n">
+        <v>3</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['8', '83']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>4</v>
+      </c>
+      <c r="R141" t="n">
         <v>5</v>
       </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>['8', '39', '74']</t>
-        </is>
-      </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>['37', '57']</t>
-        </is>
-      </c>
-      <c r="Q141" t="n">
-        <v>8</v>
-      </c>
-      <c r="R141" t="n">
-        <v>6</v>
-      </c>
       <c r="S141" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T141" t="n">
-        <v>3.27</v>
+        <v>3.37</v>
       </c>
       <c r="U141" t="n">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="V141" t="n">
-        <v>3.49</v>
+        <v>3.13</v>
       </c>
       <c r="W141" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="X141" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW141" t="n">
         <v>3.02</v>
       </c>
-      <c r="Y141" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="Z141" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA141" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB141" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC141" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD141" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE141" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AF141" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG141" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH141" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI141" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AJ141" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AK141" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AL141" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AM141" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AN141" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AO141" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP141" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR141" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AS141" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT141" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AU141" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AV141" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AW141" t="n">
-        <v>2.3</v>
-      </c>
       <c r="AX141" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AY141" t="n">
         <v>7</v>
       </c>
       <c r="AZ141" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BA141" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="BB141" t="n">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="BC141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD141" t="n">
         <v>1.98</v>
       </c>
-      <c r="BD141" t="n">
-        <v>2.45</v>
-      </c>
       <c r="BE141" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="BF141" t="n">
         <v>4</v>
       </c>
       <c r="BG141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH141" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI141" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BJ141" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK141" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
@@ -29179,7 +29179,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>4926078</v>
+        <v>4926077</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -29199,104 +29199,104 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N142" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>['59', '73']</t>
+          <t>['8', '39', '74']</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>['37', '57']</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R142" t="n">
         <v>6</v>
       </c>
       <c r="S142" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T142" t="n">
-        <v>2.22</v>
+        <v>3.27</v>
       </c>
       <c r="U142" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="V142" t="n">
-        <v>4.75</v>
+        <v>3.49</v>
       </c>
       <c r="W142" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="X142" t="n">
-        <v>3.16</v>
+        <v>3.02</v>
       </c>
       <c r="Y142" t="n">
-        <v>2.52</v>
+        <v>3.02</v>
       </c>
       <c r="Z142" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AA142" t="n">
-        <v>6.05</v>
+        <v>7</v>
       </c>
       <c r="AB142" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AC142" t="n">
-        <v>1.74</v>
+        <v>2.6</v>
       </c>
       <c r="AD142" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="AE142" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="AF142" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG142" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH142" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AI142" t="n">
-        <v>3.82</v>
+        <v>3.32</v>
       </c>
       <c r="AJ142" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="AK142" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="AL142" t="n">
         <v>1.71</v>
@@ -29305,76 +29305,76 @@
         <v>2.06</v>
       </c>
       <c r="AN142" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AO142" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR142" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="AS142" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AU142" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AV142" t="n">
-        <v>1.25</v>
+        <v>0.97</v>
       </c>
       <c r="AW142" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AX142" t="n">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="AY142" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ142" t="n">
-        <v>3.95</v>
+        <v>2.4</v>
       </c>
       <c r="BA142" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BB142" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="BC142" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BD142" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BE142" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BF142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI142" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BJ142" t="n">
         <v>11</v>
       </c>
       <c r="BK142" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
@@ -29382,7 +29382,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>4926079</v>
+        <v>4926078</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -29402,12 +29402,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Atlanta United FC</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -29430,61 +29430,61 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>['59', '75']</t>
+          <t>['59', '73']</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S143" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T143" t="n">
-        <v>3.12</v>
+        <v>2.22</v>
       </c>
       <c r="U143" t="n">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="V143" t="n">
-        <v>3.41</v>
+        <v>4.75</v>
       </c>
       <c r="W143" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X143" t="n">
-        <v>3.33</v>
+        <v>3.16</v>
       </c>
       <c r="Y143" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="Z143" t="n">
         <v>1.49</v>
       </c>
       <c r="AA143" t="n">
-        <v>6.1</v>
+        <v>6.05</v>
       </c>
       <c r="AB143" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC143" t="n">
-        <v>2.55</v>
+        <v>1.74</v>
       </c>
       <c r="AD143" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="AE143" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AF143" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AG143" t="n">
         <v>10.5</v>
@@ -29496,88 +29496,88 @@
         <v>3.82</v>
       </c>
       <c r="AJ143" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AK143" t="n">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="AL143" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="AM143" t="n">
-        <v>2.23</v>
+        <v>2.06</v>
       </c>
       <c r="AN143" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AO143" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AR143" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AU143" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
       <c r="AV143" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AW143" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AX143" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="AY143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ143" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD143" t="n">
         <v>2.4</v>
       </c>
-      <c r="BA143" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB143" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BC143" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BD143" t="n">
-        <v>2.2</v>
-      </c>
       <c r="BE143" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BF143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG143" t="n">
         <v>6</v>
       </c>
       <c r="BH143" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI143" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BJ143" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BK143" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
@@ -29585,7 +29585,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>4926080</v>
+        <v>4926079</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -29605,12 +29605,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Montreal Impact</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Atlanta United FC</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -29626,161 +29626,161 @@
         <v>2</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>['62', '66']</t>
+          <t>['59', '75']</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+2']</t>
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R144" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S144" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T144" t="n">
-        <v>2.79</v>
+        <v>3.12</v>
       </c>
       <c r="U144" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="V144" t="n">
-        <v>3.72</v>
+        <v>3.41</v>
       </c>
       <c r="W144" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X144" t="n">
-        <v>3.18</v>
+        <v>3.33</v>
       </c>
       <c r="Y144" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="Z144" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AA144" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB144" t="n">
         <v>1.1</v>
       </c>
       <c r="AC144" t="n">
-        <v>2.19</v>
+        <v>2.55</v>
       </c>
       <c r="AD144" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AE144" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="AF144" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AG144" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AI144" t="n">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="AJ144" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="AK144" t="n">
-        <v>1.96</v>
+        <v>2.17</v>
       </c>
       <c r="AL144" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AM144" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="AN144" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AO144" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR144" t="n">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.75</v>
+        <v>0.83</v>
       </c>
       <c r="AU144" t="n">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="AV144" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="AW144" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="AX144" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="AY144" t="n">
         <v>7</v>
       </c>
       <c r="AZ144" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="BA144" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BB144" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="BC144" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="BD144" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="BE144" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="BF144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH144" t="n">
         <v>5</v>
       </c>
-      <c r="BG144" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH144" t="n">
-        <v>4</v>
-      </c>
       <c r="BI144" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BJ144" t="n">
         <v>9</v>
       </c>
       <c r="BK144" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145">
@@ -29788,7 +29788,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>4926081</v>
+        <v>4926080</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -29808,149 +29808,149 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>New York RB</t>
+          <t>Montreal Impact</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
+          <t>['62', '66']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>['31']</t>
-        </is>
-      </c>
       <c r="Q145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R145" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S145" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T145" t="n">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="U145" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="V145" t="n">
-        <v>3.9</v>
+        <v>3.72</v>
       </c>
       <c r="W145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z145" t="n">
         <v>1.45</v>
       </c>
-      <c r="X145" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z145" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AA145" t="n">
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB145" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AC145" t="n">
-        <v>2.11</v>
+        <v>2.19</v>
       </c>
       <c r="AD145" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AE145" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AF145" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG145" t="n">
-        <v>9.949999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AI145" t="n">
-        <v>3.18</v>
+        <v>3.83</v>
       </c>
       <c r="AJ145" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="AK145" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="AL145" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AM145" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="AN145" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AO145" t="n">
         <v>1.32</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR145" t="n">
-        <v>0.25</v>
+        <v>2.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU145" t="n">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AV145" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AW145" t="n">
-        <v>3.01</v>
+        <v>2.34</v>
       </c>
       <c r="AX145" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AY145" t="n">
         <v>7</v>
       </c>
       <c r="AZ145" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="BA145" t="n">
         <v>1.26</v>
@@ -29968,22 +29968,22 @@
         <v>3.5</v>
       </c>
       <c r="BF145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH145" t="n">
         <v>4</v>
       </c>
-      <c r="BG145" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH145" t="n">
-        <v>15</v>
-      </c>
       <c r="BI145" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BJ145" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="BK145" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
@@ -29991,7 +29991,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>4926082</v>
+        <v>4926081</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -30011,182 +30011,182 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>SJ Earthquakes</t>
+          <t>New York RB</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
       <c r="N146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['8', '83']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R146" t="n">
+        <v>2</v>
+      </c>
+      <c r="S146" t="n">
         <v>5</v>
       </c>
-      <c r="S146" t="n">
-        <v>9</v>
-      </c>
       <c r="T146" t="n">
-        <v>3.37</v>
+        <v>2.75</v>
       </c>
       <c r="U146" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="V146" t="n">
-        <v>3.13</v>
+        <v>3.9</v>
       </c>
       <c r="W146" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="X146" t="n">
-        <v>3.38</v>
+        <v>2.64</v>
       </c>
       <c r="Y146" t="n">
-        <v>2.67</v>
+        <v>3.1</v>
       </c>
       <c r="Z146" t="n">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AA146" t="n">
-        <v>5.5</v>
+        <v>8.1</v>
       </c>
       <c r="AB146" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AC146" t="n">
-        <v>2.8</v>
+        <v>2.11</v>
       </c>
       <c r="AD146" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AE146" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="AF146" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AG146" t="n">
-        <v>10</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AH146" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AI146" t="n">
-        <v>4</v>
+        <v>3.18</v>
       </c>
       <c r="AJ146" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="AK146" t="n">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="AL146" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="AM146" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AN146" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AO146" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="AQ146" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR146" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.67</v>
+        <v>1.2</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AU146" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AV146" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AW146" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="AX146" t="n">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="AY146" t="n">
         <v>7</v>
       </c>
       <c r="AZ146" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="BA146" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="BB146" t="n">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="BC146" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="BD146" t="n">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
       <c r="BE146" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="BF146" t="n">
         <v>4</v>
       </c>
       <c r="BG146" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BH146" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BI146" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BJ146" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BK146" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -30600,7 +30600,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>4926088</v>
+        <v>4926087</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -30620,182 +30620,182 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>LA Galaxy</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
         <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N149" t="n">
         <v>4</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>['33', '71']</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>['59', '90+2']</t>
+          <t>['14', '65', '81']</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S149" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T149" t="n">
-        <v>2.76</v>
+        <v>2.47</v>
       </c>
       <c r="U149" t="n">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="V149" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="W149" t="n">
         <v>1.33</v>
       </c>
       <c r="X149" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Y149" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z149" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA149" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB149" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC149" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AD149" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AE149" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AF149" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG149" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH149" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AI149" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="AJ149" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AK149" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="AL149" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AM149" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="AN149" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AO149" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR149" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AS149" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC149" t="n">
         <v>1.6</v>
       </c>
-      <c r="AT149" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AU149" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AV149" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AW149" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AX149" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AY149" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ149" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="BA149" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB149" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BC149" t="n">
-        <v>1.63</v>
-      </c>
       <c r="BD149" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BE149" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BF149" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI149" t="n">
         <v>5</v>
       </c>
-      <c r="BH149" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI149" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ149" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK149" t="n">
         <v>11</v>
-      </c>
-      <c r="BK149" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -30803,7 +30803,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>4926087</v>
+        <v>4926089</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -30823,113 +30823,113 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>LA Galaxy</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N150" t="n">
+        <v>5</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['17', '52', '56']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['33', '65']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>8</v>
+      </c>
+      <c r="R150" t="n">
+        <v>5</v>
+      </c>
+      <c r="S150" t="n">
+        <v>13</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE150" t="n">
         <v>4</v>
       </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>['89']</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>['14', '65', '81']</t>
-        </is>
-      </c>
-      <c r="Q150" t="n">
-        <v>6</v>
-      </c>
-      <c r="R150" t="n">
-        <v>1</v>
-      </c>
-      <c r="S150" t="n">
-        <v>7</v>
-      </c>
-      <c r="T150" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U150" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="V150" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="W150" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X150" t="n">
+      <c r="AF150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI150" t="n">
         <v>3.3</v>
       </c>
-      <c r="Y150" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z150" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA150" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB150" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC150" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AD150" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AE150" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AF150" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG150" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH150" t="n">
+      <c r="AJ150" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN150" t="n">
         <v>1.22</v>
-      </c>
-      <c r="AI150" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ150" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK150" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AL150" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AM150" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AN150" t="n">
-        <v>1.28</v>
       </c>
       <c r="AO150" t="n">
         <v>1.22</v>
@@ -30938,49 +30938,49 @@
         <v>1.95</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AR150" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.8</v>
+        <v>1.83</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU150" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AV150" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AW150" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="AX150" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AY150" t="n">
         <v>8</v>
       </c>
       <c r="AZ150" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BA150" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BB150" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="BC150" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="BD150" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BE150" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="BF150" t="n">
         <v>8</v>
@@ -30989,16 +30989,16 @@
         <v>6</v>
       </c>
       <c r="BH150" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BI150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ150" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BK150" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -31006,7 +31006,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>4926089</v>
+        <v>4926088</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -31026,182 +31026,182 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M151" t="n">
         <v>2</v>
       </c>
       <c r="N151" t="n">
+        <v>4</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['33', '71']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['59', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
         <v>5</v>
       </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>['17', '52', '56']</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>['33', '65']</t>
-        </is>
-      </c>
-      <c r="Q151" t="n">
+      <c r="R151" t="n">
+        <v>3</v>
+      </c>
+      <c r="S151" t="n">
         <v>8</v>
       </c>
-      <c r="R151" t="n">
-        <v>5</v>
-      </c>
-      <c r="S151" t="n">
-        <v>13</v>
-      </c>
       <c r="T151" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="U151" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC151" t="n">
         <v>2.2</v>
       </c>
-      <c r="V151" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W151" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X151" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="Y151" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Z151" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA151" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB151" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC151" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AD151" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="AE151" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="AF151" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG151" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AH151" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AI151" t="n">
-        <v>3.3</v>
+        <v>4.05</v>
       </c>
       <c r="AJ151" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="AK151" t="n">
-        <v>1.79</v>
+        <v>2.16</v>
       </c>
       <c r="AL151" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ151" t="n">
         <v>1.75</v>
       </c>
-      <c r="AM151" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN151" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO151" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP151" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ151" t="n">
+      <c r="AR151" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS151" t="n">
         <v>1.6</v>
       </c>
-      <c r="AR151" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AS151" t="n">
-        <v>1.83</v>
-      </c>
       <c r="AT151" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AU151" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AV151" t="n">
         <v>1.18</v>
       </c>
       <c r="AW151" t="n">
-        <v>3.18</v>
+        <v>2.48</v>
       </c>
       <c r="AX151" t="n">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AY151" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ151" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="BA151" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BB151" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="BC151" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="BD151" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BE151" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BF151" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG151" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ151" t="n">
         <v>11</v>
       </c>
-      <c r="BI151" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ151" t="n">
-        <v>19</v>
-      </c>
       <c r="BK151" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.5</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT14" t="n">
         <v>0.71</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU16" t="n">
         <v>2.25</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT17" t="n">
         <v>1.17</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU18" t="n">
         <v>2.18</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>0.5</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.8</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT26" t="n">
         <v>0.71</v>
@@ -6181,7 +6181,7 @@
         <v>2.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.83</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>2.28</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.43</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT36" t="n">
         <v>0.4</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT39" t="n">
         <v>0.8</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.06</v>
@@ -9023,7 +9023,7 @@
         <v>3</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.38</v>
@@ -9226,7 +9226,7 @@
         <v>2.17</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>2</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT44" t="n">
         <v>0.67</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT47" t="n">
         <v>0.8</v>
@@ -10444,7 +10444,7 @@
         <v>1.17</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU49" t="n">
         <v>0.89</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT51" t="n">
         <v>1.2</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT53" t="n">
         <v>0.8</v>
@@ -11459,7 +11459,7 @@
         <v>1.8</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU54" t="n">
         <v>1.38</v>
@@ -11659,10 +11659,10 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT57" t="n">
         <v>0.4</v>
@@ -12271,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU58" t="n">
         <v>1.5</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU59" t="n">
         <v>1.59</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT60" t="n">
         <v>0.75</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT62" t="n">
         <v>0.83</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>1.29</v>
@@ -13486,10 +13486,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU64" t="n">
         <v>1.56</v>
@@ -13689,10 +13689,10 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU65" t="n">
         <v>2.67</v>
@@ -13895,7 +13895,7 @@
         <v>0.75</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU66" t="n">
         <v>1.14</v>
@@ -14298,10 +14298,10 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT68" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU68" t="n">
         <v>1.9</v>
@@ -14504,7 +14504,7 @@
         <v>3</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU69" t="n">
         <v>1.85</v>
@@ -14707,7 +14707,7 @@
         <v>2.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.67</v>
@@ -14910,7 +14910,7 @@
         <v>1.5</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU71" t="n">
         <v>1.3</v>
@@ -15316,7 +15316,7 @@
         <v>2.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU73" t="n">
         <v>1.3</v>
@@ -15516,10 +15516,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT75" t="n">
         <v>0.8</v>
@@ -16125,7 +16125,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT77" t="n">
         <v>0.5</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT78" t="n">
         <v>1.17</v>
@@ -16737,7 +16737,7 @@
         <v>1.8</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU80" t="n">
         <v>1.69</v>
@@ -17140,10 +17140,10 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU82" t="n">
         <v>1.36</v>
@@ -18155,10 +18155,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU87" t="n">
         <v>1.49</v>
@@ -18358,10 +18358,10 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU88" t="n">
         <v>1.29</v>
@@ -18561,7 +18561,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT89" t="n">
         <v>0.8</v>
@@ -18767,7 +18767,7 @@
         <v>3</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU90" t="n">
         <v>1.26</v>
@@ -19170,10 +19170,10 @@
         <v>3</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU92" t="n">
         <v>1.11</v>
@@ -19373,7 +19373,7 @@
         <v>0.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT93" t="n">
         <v>0.4</v>
@@ -19576,7 +19576,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT94" t="n">
         <v>1.29</v>
@@ -19782,7 +19782,7 @@
         <v>2</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.36</v>
@@ -19982,10 +19982,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU96" t="n">
         <v>1.86</v>
@@ -20188,7 +20188,7 @@
         <v>2.17</v>
       </c>
       <c r="AT97" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU97" t="n">
         <v>1.83</v>
@@ -20794,7 +20794,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT100" t="n">
         <v>1.17</v>
@@ -21403,10 +21403,10 @@
         <v>2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT103" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU103" t="n">
         <v>1.63</v>
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT104" t="n">
         <v>0.25</v>
@@ -21809,10 +21809,10 @@
         <v>0.67</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU105" t="n">
         <v>1.29</v>
@@ -22012,10 +22012,10 @@
         <v>0</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU106" t="n">
         <v>1.15</v>
@@ -22421,7 +22421,7 @@
         <v>0.75</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU108" t="n">
         <v>1.02</v>
@@ -22621,10 +22621,10 @@
         <v>2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU109" t="n">
         <v>1.13</v>
@@ -23230,10 +23230,10 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -23839,7 +23839,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT115" t="n">
         <v>0.5</v>
@@ -24248,7 +24248,7 @@
         <v>2.6</v>
       </c>
       <c r="AT117" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24654,7 +24654,7 @@
         <v>2</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU119" t="n">
         <v>1.66</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT120" t="n">
         <v>0.6</v>
@@ -25060,7 +25060,7 @@
         <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU121" t="n">
         <v>1.3</v>
@@ -25260,10 +25260,10 @@
         <v>0.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU122" t="n">
         <v>2</v>
@@ -25463,10 +25463,10 @@
         <v>2.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT123" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU123" t="n">
         <v>1.3</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT124" t="n">
         <v>0.8</v>
@@ -25872,7 +25872,7 @@
         <v>2.17</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU125" t="n">
         <v>1.74</v>
@@ -26072,7 +26072,7 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT126" t="n">
         <v>0.75</v>
@@ -26478,7 +26478,7 @@
         <v>0</v>
       </c>
       <c r="AS128" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT128" t="n">
         <v>0.6</v>
@@ -26681,10 +26681,10 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU129" t="n">
         <v>1.59</v>
@@ -27293,7 +27293,7 @@
         <v>1.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU132" t="n">
         <v>1.23</v>
@@ -27696,7 +27696,7 @@
         <v>0</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AT134" t="n">
         <v>0.5</v>
@@ -27899,7 +27899,7 @@
         <v>0.4</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT135" t="n">
         <v>0.5</v>
@@ -28102,10 +28102,10 @@
         <v>0.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU136" t="n">
         <v>1.44</v>
@@ -28305,10 +28305,10 @@
         <v>1.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU137" t="n">
         <v>1.87</v>
@@ -28714,7 +28714,7 @@
         <v>0.75</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU139" t="n">
         <v>1.22</v>
@@ -28917,7 +28917,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU140" t="n">
         <v>1.27</v>
@@ -29120,7 +29120,7 @@
         <v>2.67</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.54</v>
@@ -29323,7 +29323,7 @@
         <v>1.33</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU142" t="n">
         <v>1.33</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT144" t="n">
         <v>0.83</v>
@@ -29929,10 +29929,10 @@
         <v>2.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU145" t="n">
         <v>1.17</v>
@@ -30132,10 +30132,10 @@
         <v>0.25</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU146" t="n">
         <v>1.58</v>
@@ -30538,7 +30538,7 @@
         <v>0.75</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT148" t="n">
         <v>0.8</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT149" t="n">
         <v>1.29</v>
@@ -30947,7 +30947,7 @@
         <v>1.83</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU150" t="n">
         <v>2</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT151" t="n">
         <v>0.8</v>
@@ -31405,6 +31405,2848 @@
       </c>
       <c r="BK152" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4926091</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45059.58333333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>5</v>
+      </c>
+      <c r="R153" t="n">
+        <v>3</v>
+      </c>
+      <c r="S153" t="n">
+        <v>8</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V153" t="n">
+        <v>4</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4926097</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45059.85416666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3</v>
+      </c>
+      <c r="R154" t="n">
+        <v>4</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V154" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4926092</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45059.85416666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>3</v>
+      </c>
+      <c r="N155" t="n">
+        <v>4</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['18', '52', '57']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>9</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V155" t="n">
+        <v>5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4926093</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45059.85416666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>4</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['39', '45+2']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['49', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>6</v>
+      </c>
+      <c r="R156" t="n">
+        <v>5</v>
+      </c>
+      <c r="S156" t="n">
+        <v>11</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4926094</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45059.85416666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2</v>
+      </c>
+      <c r="S157" t="n">
+        <v>6</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4926095</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45059.85416666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['6', '44']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>2</v>
+      </c>
+      <c r="R158" t="n">
+        <v>6</v>
+      </c>
+      <c r="S158" t="n">
+        <v>8</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4926096</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45059.85416666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['53', '68']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>8</v>
+      </c>
+      <c r="R159" t="n">
+        <v>5</v>
+      </c>
+      <c r="S159" t="n">
+        <v>13</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4926099</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45059.89583333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>2</v>
+      </c>
+      <c r="R160" t="n">
+        <v>5</v>
+      </c>
+      <c r="S160" t="n">
+        <v>7</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4926098</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45059.89583333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2</v>
+      </c>
+      <c r="R161" t="n">
+        <v>5</v>
+      </c>
+      <c r="S161" t="n">
+        <v>7</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4926100</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45059.89583333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>2</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>3</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['9', '22', '84']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>5</v>
+      </c>
+      <c r="R162" t="n">
+        <v>3</v>
+      </c>
+      <c r="S162" t="n">
+        <v>8</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4926101</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45059.9375</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['45+2', '52']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>6</v>
+      </c>
+      <c r="R163" t="n">
+        <v>6</v>
+      </c>
+      <c r="S163" t="n">
+        <v>12</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4926102</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45059.9375</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>3</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['8', '34', '87']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>6</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2</v>
+      </c>
+      <c r="S164" t="n">
+        <v>8</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4926103</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45059.97916666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3</v>
+      </c>
+      <c r="L165" t="n">
+        <v>3</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>4</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['2', '18', '54']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>4</v>
+      </c>
+      <c r="R165" t="n">
+        <v>7</v>
+      </c>
+      <c r="S165" t="n">
+        <v>11</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4926104</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45060.9375</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['60', '90+1']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>4</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2</v>
+      </c>
+      <c r="S166" t="n">
+        <v>6</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V166" t="n">
+        <v>4</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT3" t="n">
         <v>0.33</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT4" t="n">
         <v>1.67</v>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT9" t="n">
         <v>0.8</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT11" t="n">
         <v>1.29</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.83</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT21" t="n">
         <v>1.2</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU22" t="n">
         <v>1.37</v>
@@ -5166,7 +5166,7 @@
         <v>1.57</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.31</v>
@@ -5775,7 +5775,7 @@
         <v>0.6</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT27" t="n">
         <v>0.8</v>
@@ -6181,7 +6181,7 @@
         <v>2.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT29" t="n">
         <v>0.83</v>
@@ -7196,7 +7196,7 @@
         <v>2.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT35" t="n">
         <v>0.8</v>
@@ -7805,7 +7805,7 @@
         <v>0.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU38" t="n">
         <v>1.41</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT39" t="n">
         <v>1.17</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0.8</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>2.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT42" t="n">
         <v>1.67</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU44" t="n">
         <v>2.1</v>
@@ -10241,7 +10241,7 @@
         <v>2.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU48" t="n">
         <v>1.74</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT49" t="n">
         <v>1.17</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.01</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU52" t="n">
         <v>1.33</v>
@@ -11256,7 +11256,7 @@
         <v>2.17</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>1.17</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>1.83</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT58" t="n">
         <v>1.6</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.52</v>
@@ -12877,10 +12877,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU61" t="n">
         <v>1.6</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>0.83</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU63" t="n">
         <v>1.34</v>
@@ -13489,7 +13489,7 @@
         <v>2.17</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU64" t="n">
         <v>1.56</v>
@@ -13892,10 +13892,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.14</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT67" t="n">
         <v>1.2</v>
@@ -14298,7 +14298,7 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT68" t="n">
         <v>1.67</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT69" t="n">
         <v>1.33</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT71" t="n">
         <v>1.17</v>
@@ -15110,7 +15110,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15316,7 +15316,7 @@
         <v>2.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU73" t="n">
         <v>1.3</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>0.8</v>
@@ -15925,7 +15925,7 @@
         <v>3</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.31</v>
@@ -16125,10 +16125,10 @@
         <v>0.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU77" t="n">
         <v>2.05</v>
@@ -16331,7 +16331,7 @@
         <v>1.57</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU78" t="n">
         <v>1.12</v>
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU79" t="n">
         <v>1.27</v>
@@ -16937,10 +16937,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17346,7 +17346,7 @@
         <v>2.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU83" t="n">
         <v>1.68</v>
@@ -17549,7 +17549,7 @@
         <v>1.83</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU84" t="n">
         <v>1.84</v>
@@ -17955,7 +17955,7 @@
         <v>2.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU86" t="n">
         <v>1.24</v>
@@ -18967,10 +18967,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU91" t="n">
         <v>1.97</v>
@@ -19376,7 +19376,7 @@
         <v>2.17</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU93" t="n">
         <v>1.29</v>
@@ -19579,7 +19579,7 @@
         <v>0.8</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU94" t="n">
         <v>1.87</v>
@@ -19779,7 +19779,7 @@
         <v>0.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT95" t="n">
         <v>0.5</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT96" t="n">
         <v>1.17</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT97" t="n">
         <v>1.67</v>
@@ -20391,7 +20391,7 @@
         <v>1.83</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU98" t="n">
         <v>2.05</v>
@@ -20797,7 +20797,7 @@
         <v>2.4</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU100" t="n">
         <v>1.48</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT101" t="n">
         <v>0.83</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU102" t="n">
         <v>1.34</v>
@@ -21403,7 +21403,7 @@
         <v>2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
         <v>1.67</v>
@@ -21609,7 +21609,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU104" t="n">
         <v>1.41</v>
@@ -21812,7 +21812,7 @@
         <v>1</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.29</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT107" t="n">
         <v>0.8</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT108" t="n">
         <v>1.6</v>
@@ -22827,7 +22827,7 @@
         <v>2.67</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU110" t="n">
         <v>1.56</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT113" t="n">
         <v>0.8</v>
@@ -23639,7 +23639,7 @@
         <v>3</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -23842,7 +23842,7 @@
         <v>2.4</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU115" t="n">
         <v>1.21</v>
@@ -24045,7 +24045,7 @@
         <v>2.33</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU116" t="n">
         <v>1.46</v>
@@ -24448,10 +24448,10 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU118" t="n">
         <v>1.38</v>
@@ -24651,7 +24651,7 @@
         <v>0.75</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT119" t="n">
         <v>0.5</v>
@@ -24857,7 +24857,7 @@
         <v>2.17</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU120" t="n">
         <v>1.28</v>
@@ -25057,7 +25057,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT121" t="n">
         <v>1.5</v>
@@ -25260,7 +25260,7 @@
         <v>0.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT122" t="n">
         <v>0.33</v>
@@ -25669,7 +25669,7 @@
         <v>1.17</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU124" t="n">
         <v>1.96</v>
@@ -25869,7 +25869,7 @@
         <v>2.25</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT125" t="n">
         <v>1.29</v>
@@ -26072,10 +26072,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -26275,7 +26275,7 @@
         <v>1.25</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT127" t="n">
         <v>0.83</v>
@@ -26478,10 +26478,10 @@
         <v>0</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU128" t="n">
         <v>1.75</v>
@@ -27087,10 +27087,10 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU131" t="n">
         <v>1.42</v>
@@ -27290,10 +27290,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU132" t="n">
         <v>1.23</v>
@@ -27496,7 +27496,7 @@
         <v>1.8</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU133" t="n">
         <v>1.66</v>
@@ -27699,7 +27699,7 @@
         <v>0.8</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU134" t="n">
         <v>1.68</v>
@@ -27902,7 +27902,7 @@
         <v>1.57</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU135" t="n">
         <v>1.16</v>
@@ -28305,7 +28305,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT137" t="n">
         <v>1.67</v>
@@ -28511,7 +28511,7 @@
         <v>1.83</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU138" t="n">
         <v>2.02</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT139" t="n">
         <v>1.33</v>
@@ -28914,7 +28914,7 @@
         <v>1.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT140" t="n">
         <v>1.67</v>
@@ -29320,10 +29320,10 @@
         <v>0.4</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU142" t="n">
         <v>1.33</v>
@@ -29526,7 +29526,7 @@
         <v>3</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU143" t="n">
         <v>1.25</v>
@@ -30194,7 +30194,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>4926086</v>
+        <v>4926085</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -30214,35 +30214,35 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>['45+3', '70', '90+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -30251,145 +30251,145 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R147" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T147" t="n">
-        <v>2.43</v>
+        <v>2.57</v>
       </c>
       <c r="U147" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="V147" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="W147" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="X147" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="Y147" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA147" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB147" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AC147" t="n">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="AD147" t="n">
         <v>3.65</v>
       </c>
       <c r="AE147" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="AF147" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG147" t="n">
-        <v>8.5</v>
+        <v>14.25</v>
       </c>
       <c r="AH147" t="n">
         <v>1.25</v>
       </c>
       <c r="AI147" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ147" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="AK147" t="n">
-        <v>1.84</v>
+        <v>2.09</v>
       </c>
       <c r="AL147" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AM147" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="AN147" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AO147" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="AR147" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU147" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV147" t="n">
         <v>1.31</v>
       </c>
-      <c r="AV147" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AW147" t="n">
-        <v>2.74</v>
+        <v>2.55</v>
       </c>
       <c r="AX147" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AY147" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ147" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="BA147" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BB147" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="BC147" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="BD147" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="BE147" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BF147" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BG147" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH147" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BI147" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ147" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="BK147" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -30397,7 +30397,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>4926085</v>
+        <v>4926086</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -30417,182 +30417,182 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M148" t="n">
         <v>0</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
+          <t>['45+3', '70', '90+1']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q148" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R148" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T148" t="n">
-        <v>2.57</v>
+        <v>2.43</v>
       </c>
       <c r="U148" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="V148" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="W148" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="X148" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="Y148" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="Z148" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA148" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB148" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AC148" t="n">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="AD148" t="n">
         <v>3.65</v>
       </c>
       <c r="AE148" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="AF148" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG148" t="n">
-        <v>14.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH148" t="n">
         <v>1.25</v>
       </c>
       <c r="AI148" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ148" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="AK148" t="n">
-        <v>2.09</v>
+        <v>1.84</v>
       </c>
       <c r="AL148" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="AM148" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="AN148" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AO148" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ148" t="n">
         <v>1.83</v>
       </c>
-      <c r="AQ148" t="n">
-        <v>3</v>
-      </c>
       <c r="AR148" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AU148" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AV148" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AW148" t="n">
-        <v>2.55</v>
+        <v>2.74</v>
       </c>
       <c r="AX148" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AY148" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ148" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="BA148" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BB148" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="BC148" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="BD148" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="BE148" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BF148" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BG148" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH148" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BI148" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ148" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="BK148" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
@@ -30744,7 +30744,7 @@
         <v>1.17</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU149" t="n">
         <v>1.91</v>
@@ -31150,7 +31150,7 @@
         <v>1.83</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU151" t="n">
         <v>1.3</v>
@@ -31350,10 +31350,10 @@
         <v>0.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU152" t="n">
         <v>1.67</v>
@@ -31759,7 +31759,7 @@
         <v>1.5</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU154" t="n">
         <v>1.64</v>
@@ -31959,7 +31959,7 @@
         <v>0.8</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT155" t="n">
         <v>1.17</v>
@@ -32162,7 +32162,7 @@
         <v>1.75</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT156" t="n">
         <v>1.6</v>
@@ -32833,7 +32833,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>4926099</v>
+        <v>4926100</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -32853,182 +32853,182 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Sporting KC</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
+          <t>['9', '22', '84']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>['87']</t>
-        </is>
-      </c>
       <c r="Q160" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R160" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S160" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T160" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="U160" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V160" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="W160" t="n">
         <v>1.38</v>
       </c>
       <c r="X160" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y160" t="n">
         <v>2.8</v>
       </c>
-      <c r="Y160" t="n">
-        <v>2.7</v>
-      </c>
       <c r="Z160" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AA160" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB160" t="n">
         <v>1.09</v>
       </c>
       <c r="AC160" t="n">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="AD160" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="AE160" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AF160" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG160" t="n">
         <v>11</v>
       </c>
       <c r="AH160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT160" t="n">
         <v>1.29</v>
       </c>
-      <c r="AI160" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ160" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK160" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AL160" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AM160" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AN160" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AO160" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP160" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ160" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AR160" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AS160" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AT160" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AU160" t="n">
-        <v>1.32</v>
+        <v>1.68</v>
       </c>
       <c r="AV160" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AW160" t="n">
-        <v>2.53</v>
+        <v>2.88</v>
       </c>
       <c r="AX160" t="n">
-        <v>1.95</v>
+        <v>1.37</v>
       </c>
       <c r="AY160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK160" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ160" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BA160" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB160" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BC160" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BD160" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE160" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BF160" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG160" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH160" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI160" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ160" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK160" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="161">
@@ -33239,7 +33239,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>4926100</v>
+        <v>4926099</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -33259,182 +33259,182 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Sporting KC</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>['9', '22', '84']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q162" t="n">
+        <v>2</v>
+      </c>
+      <c r="R162" t="n">
         <v>5</v>
       </c>
-      <c r="R162" t="n">
-        <v>3</v>
-      </c>
       <c r="S162" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T162" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="U162" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V162" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="W162" t="n">
         <v>1.38</v>
       </c>
       <c r="X162" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y162" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AA162" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB162" t="n">
         <v>1.09</v>
       </c>
       <c r="AC162" t="n">
-        <v>1.91</v>
+        <v>2.36</v>
       </c>
       <c r="AD162" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="AE162" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AF162" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG162" t="n">
         <v>11</v>
       </c>
       <c r="AH162" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AI162" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AJ162" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="AK162" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="AL162" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="AM162" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AN162" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AO162" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.25</v>
+        <v>2.6</v>
       </c>
       <c r="AR162" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.8</v>
+        <v>2.17</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AU162" t="n">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="AV162" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AW162" t="n">
-        <v>2.88</v>
+        <v>2.53</v>
       </c>
       <c r="AX162" t="n">
-        <v>1.37</v>
+        <v>1.95</v>
       </c>
       <c r="AY162" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ162" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="BA162" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BB162" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="BC162" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="BD162" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="BE162" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="BF162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ162" t="n">
         <v>5</v>
       </c>
-      <c r="BG162" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH162" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI162" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ162" t="n">
-        <v>11</v>
-      </c>
       <c r="BK162" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -33786,7 +33786,7 @@
         <v>1.2</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT164" t="n">
         <v>1.5</v>
@@ -33992,7 +33992,7 @@
         <v>1.83</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU165" t="n">
         <v>1.3</v>
@@ -34247,6 +34247,2645 @@
       </c>
       <c r="BK166" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4926109</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45063.85416666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>5</v>
+      </c>
+      <c r="R167" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" t="n">
+        <v>8</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X167" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4926111</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45063.85416666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>6</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1</v>
+      </c>
+      <c r="S168" t="n">
+        <v>7</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4926105</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45063.85416666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>4</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>4</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['29', '80', '87', '90']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>7</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2</v>
+      </c>
+      <c r="S169" t="n">
+        <v>9</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V169" t="n">
+        <v>5</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4926106</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45063.85416666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['68', '81']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>8</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2</v>
+      </c>
+      <c r="S170" t="n">
+        <v>10</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4926107</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45063.85416666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>3</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['2', '26', '65']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>5</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2</v>
+      </c>
+      <c r="S171" t="n">
+        <v>7</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V171" t="n">
+        <v>5</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4926108</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45063.85416666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['25', '43']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R172" t="n">
+        <v>6</v>
+      </c>
+      <c r="S172" t="n">
+        <v>7</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V172" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4926110</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45063.87152777778</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>4</v>
+      </c>
+      <c r="R173" t="n">
+        <v>4</v>
+      </c>
+      <c r="S173" t="n">
+        <v>8</v>
+      </c>
+      <c r="T173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V173" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4926114</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45063.89583333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>3</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['33', '49']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>6</v>
+      </c>
+      <c r="R174" t="n">
+        <v>3</v>
+      </c>
+      <c r="S174" t="n">
+        <v>9</v>
+      </c>
+      <c r="T174" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V174" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4926113</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45063.89583333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>4</v>
+      </c>
+      <c r="R175" t="n">
+        <v>8</v>
+      </c>
+      <c r="S175" t="n">
+        <v>12</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4926112</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45063.89583333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['37', '54']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>5</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2</v>
+      </c>
+      <c r="S176" t="n">
+        <v>7</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V176" t="n">
+        <v>5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4926116</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45063.97916666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>5</v>
+      </c>
+      <c r="R177" t="n">
+        <v>3</v>
+      </c>
+      <c r="S177" t="n">
+        <v>8</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V177" t="n">
+        <v>5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4926117</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45063.97916666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['36', '57']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>8</v>
+      </c>
+      <c r="R178" t="n">
+        <v>3</v>
+      </c>
+      <c r="S178" t="n">
+        <v>11</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4926115</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45064.00833333333</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>5</v>
+      </c>
+      <c r="R179" t="n">
+        <v>3</v>
+      </c>
+      <c r="S179" t="n">
+        <v>8</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V179" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.29</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT10" t="n">
         <v>1.67</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT15" t="n">
         <v>0.71</v>
@@ -3745,7 +3745,7 @@
         <v>2.29</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU16" t="n">
         <v>2.25</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT18" t="n">
         <v>1.17</v>
@@ -4354,7 +4354,7 @@
         <v>2.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU22" t="n">
         <v>1.37</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>0.38</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU24" t="n">
         <v>1.31</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>1.17</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.86</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU27" t="n">
         <v>2.09</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU29" t="n">
         <v>1.85</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>1.33</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU32" t="n">
         <v>1.43</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>0.6</v>
@@ -7602,7 +7602,7 @@
         <v>1.43</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>2.13</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU38" t="n">
         <v>1.41</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT40" t="n">
         <v>1.67</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU42" t="n">
         <v>1.38</v>
@@ -9835,7 +9835,7 @@
         <v>2.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU46" t="n">
         <v>1.37</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU47" t="n">
         <v>1.15</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
         <v>1.2</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.33</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU54" t="n">
         <v>1.38</v>
@@ -11659,10 +11659,10 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -12065,10 +12065,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT58" t="n">
         <v>1.83</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>1.6</v>
       </c>
       <c r="AU58" t="n">
         <v>1.5</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU59" t="n">
         <v>1.59</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT60" t="n">
         <v>0.6</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT61" t="n">
         <v>0.57</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU62" t="n">
         <v>1.31</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT63" t="n">
         <v>1.13</v>
@@ -13692,7 +13692,7 @@
         <v>0.8</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU65" t="n">
         <v>2.67</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT69" t="n">
         <v>1.33</v>
@@ -14707,7 +14707,7 @@
         <v>2.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU70" t="n">
         <v>1.67</v>
@@ -15113,7 +15113,7 @@
         <v>1.14</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.24</v>
@@ -15519,7 +15519,7 @@
         <v>1.17</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
         <v>1.14</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.71</v>
@@ -16734,10 +16734,10 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.69</v>
@@ -16937,10 +16937,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT82" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>2.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU83" t="n">
         <v>1.68</v>
@@ -17546,10 +17546,10 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU84" t="n">
         <v>1.84</v>
@@ -17752,7 +17752,7 @@
         <v>2.6</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU85" t="n">
         <v>1.58</v>
@@ -17955,7 +17955,7 @@
         <v>2.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU86" t="n">
         <v>1.24</v>
@@ -18155,7 +18155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT87" t="n">
         <v>1.33</v>
@@ -18358,10 +18358,10 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU88" t="n">
         <v>1.29</v>
@@ -18561,10 +18561,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18967,7 +18967,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT91" t="n">
         <v>1.17</v>
@@ -19170,10 +19170,10 @@
         <v>3</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.11</v>
@@ -19376,7 +19376,7 @@
         <v>2.17</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU93" t="n">
         <v>1.29</v>
@@ -19782,7 +19782,7 @@
         <v>2.13</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU95" t="n">
         <v>1.36</v>
@@ -20388,7 +20388,7 @@
         <v>0.33</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT98" t="n">
         <v>0.71</v>
@@ -20594,7 +20594,7 @@
         <v>2.6</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU99" t="n">
         <v>1.49</v>
@@ -21000,7 +21000,7 @@
         <v>1.43</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU101" t="n">
         <v>1.25</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT102" t="n">
         <v>1.13</v>
@@ -21406,7 +21406,7 @@
         <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU103" t="n">
         <v>1.63</v>
@@ -21606,10 +21606,10 @@
         <v>0</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU104" t="n">
         <v>1.41</v>
@@ -21809,7 +21809,7 @@
         <v>0.67</v>
       </c>
       <c r="AS105" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT105" t="n">
         <v>0.5</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
         <v>1.17</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU107" t="n">
         <v>1.38</v>
@@ -22421,7 +22421,7 @@
         <v>1.2</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU108" t="n">
         <v>1.02</v>
@@ -22621,10 +22621,10 @@
         <v>2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU109" t="n">
         <v>1.13</v>
@@ -22827,7 +22827,7 @@
         <v>2.67</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU110" t="n">
         <v>1.56</v>
@@ -23027,7 +23027,7 @@
         <v>1.67</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>1.2</v>
@@ -23433,10 +23433,10 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU113" t="n">
         <v>1.37</v>
@@ -24045,7 +24045,7 @@
         <v>2.33</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU116" t="n">
         <v>1.46</v>
@@ -24651,10 +24651,10 @@
         <v>0.75</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU119" t="n">
         <v>1.66</v>
@@ -25263,7 +25263,7 @@
         <v>1.14</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU122" t="n">
         <v>2</v>
@@ -25463,7 +25463,7 @@
         <v>2.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT123" t="n">
         <v>1.67</v>
@@ -25872,7 +25872,7 @@
         <v>1.86</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU125" t="n">
         <v>1.74</v>
@@ -26278,7 +26278,7 @@
         <v>2.13</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU127" t="n">
         <v>1.32</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT129" t="n">
         <v>1.17</v>
@@ -27090,7 +27090,7 @@
         <v>1.14</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU131" t="n">
         <v>1.42</v>
@@ -27493,7 +27493,7 @@
         <v>0.2</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
         <v>0.71</v>
@@ -27699,7 +27699,7 @@
         <v>0.8</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU134" t="n">
         <v>1.68</v>
@@ -27899,7 +27899,7 @@
         <v>0.4</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT135" t="n">
         <v>0.57</v>
@@ -28102,10 +28102,10 @@
         <v>0.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU136" t="n">
         <v>1.44</v>
@@ -28308,7 +28308,7 @@
         <v>1.14</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU137" t="n">
         <v>1.87</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT138" t="n">
         <v>1.13</v>
@@ -28917,7 +28917,7 @@
         <v>1.43</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU140" t="n">
         <v>1.27</v>
@@ -29320,7 +29320,7 @@
         <v>0.4</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT142" t="n">
         <v>0.38</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU144" t="n">
         <v>1.49</v>
@@ -29932,7 +29932,7 @@
         <v>2.4</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU145" t="n">
         <v>1.17</v>
@@ -30132,7 +30132,7 @@
         <v>0.25</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT146" t="n">
         <v>1.17</v>
@@ -30338,7 +30338,7 @@
         <v>2.17</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU147" t="n">
         <v>1.24</v>
@@ -30944,10 +30944,10 @@
         <v>1.8</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU150" t="n">
         <v>2</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT151" t="n">
         <v>1.17</v>
@@ -31353,7 +31353,7 @@
         <v>1.86</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU152" t="n">
         <v>1.67</v>
@@ -31553,7 +31553,7 @@
         <v>2</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT153" t="n">
         <v>1.67</v>
@@ -31756,7 +31756,7 @@
         <v>0.33</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT154" t="n">
         <v>0.38</v>
@@ -32165,7 +32165,7 @@
         <v>2</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU156" t="n">
         <v>1.85</v>
@@ -32365,10 +32365,10 @@
         <v>1</v>
       </c>
       <c r="AS157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT157" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AT157" t="n">
-        <v>1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.54</v>
@@ -32568,10 +32568,10 @@
         <v>2</v>
       </c>
       <c r="AS158" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU158" t="n">
         <v>1.41</v>
@@ -32774,7 +32774,7 @@
         <v>2.4</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU159" t="n">
         <v>1.17</v>
@@ -32977,7 +32977,7 @@
         <v>0.8</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.68</v>
@@ -33177,7 +33177,7 @@
         <v>1</v>
       </c>
       <c r="AS161" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT161" t="n">
         <v>1.33</v>
@@ -33383,7 +33383,7 @@
         <v>2.17</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU162" t="n">
         <v>1.32</v>
@@ -33583,7 +33583,7 @@
         <v>0.8</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT163" t="n">
         <v>1.17</v>
@@ -33989,7 +33989,7 @@
         <v>0.75</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT165" t="n">
         <v>0.5</v>
@@ -34195,7 +34195,7 @@
         <v>1.17</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU166" t="n">
         <v>2</v>
@@ -35004,7 +35004,7 @@
         <v>0.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT170" t="n">
         <v>0.6</v>
@@ -35210,7 +35210,7 @@
         <v>3</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU171" t="n">
         <v>1.27</v>
@@ -35413,7 +35413,7 @@
         <v>2</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU172" t="n">
         <v>1.99</v>
@@ -35613,7 +35613,7 @@
         <v>1.17</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT173" t="n">
         <v>1.14</v>
@@ -36022,7 +36022,7 @@
         <v>1.2</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU175" t="n">
         <v>1.37</v>
@@ -36222,7 +36222,7 @@
         <v>0.6</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT176" t="n">
         <v>0.5</v>
@@ -36425,10 +36425,10 @@
         <v>0.71</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU177" t="n">
         <v>1.99</v>
@@ -36886,6 +36886,2848 @@
       </c>
       <c r="BK179" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4926122</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45066.85416666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>2</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>3</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['23', '38']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>5</v>
+      </c>
+      <c r="R180" t="n">
+        <v>3</v>
+      </c>
+      <c r="S180" t="n">
+        <v>8</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V180" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4926123</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45066.85416666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>3</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>3</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['56', '74', '88']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>7</v>
+      </c>
+      <c r="R181" t="n">
+        <v>6</v>
+      </c>
+      <c r="S181" t="n">
+        <v>13</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V181" t="n">
+        <v>4</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4926121</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45066.85416666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>3</v>
+      </c>
+      <c r="N182" t="n">
+        <v>4</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['19', '68', '86']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>3</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2</v>
+      </c>
+      <c r="S182" t="n">
+        <v>5</v>
+      </c>
+      <c r="T182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4926120</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45066.85416666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>3</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['71', '73', '80']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>2</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1</v>
+      </c>
+      <c r="S183" t="n">
+        <v>3</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4926119</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45066.85416666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>3</v>
+      </c>
+      <c r="L184" t="n">
+        <v>3</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>5</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['17', '23', '67']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['40', '52']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>2</v>
+      </c>
+      <c r="R184" t="n">
+        <v>4</v>
+      </c>
+      <c r="S184" t="n">
+        <v>6</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4926118</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45066.85416666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" t="n">
+        <v>3</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['39', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>2</v>
+      </c>
+      <c r="R185" t="n">
+        <v>8</v>
+      </c>
+      <c r="S185" t="n">
+        <v>10</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4926124</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45066.89583333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>11</v>
+      </c>
+      <c r="R186" t="n">
+        <v>2</v>
+      </c>
+      <c r="S186" t="n">
+        <v>13</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V186" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4926125</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45066.89583333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2</v>
+      </c>
+      <c r="L187" t="n">
+        <v>3</v>
+      </c>
+      <c r="M187" t="n">
+        <v>3</v>
+      </c>
+      <c r="N187" t="n">
+        <v>6</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['42', '49', '89']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['29', '55', '64']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2</v>
+      </c>
+      <c r="R187" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" t="n">
+        <v>7</v>
+      </c>
+      <c r="T187" t="n">
+        <v>3</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4926126</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45066.89583333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>2</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>6</v>
+      </c>
+      <c r="R188" t="n">
+        <v>8</v>
+      </c>
+      <c r="S188" t="n">
+        <v>14</v>
+      </c>
+      <c r="T188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V188" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4926127</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45066.9375</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3</v>
+      </c>
+      <c r="K189" t="n">
+        <v>4</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3</v>
+      </c>
+      <c r="N189" t="n">
+        <v>5</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['33', '74']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['12', '21', '44']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>4</v>
+      </c>
+      <c r="R189" t="n">
+        <v>4</v>
+      </c>
+      <c r="S189" t="n">
+        <v>8</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4926128</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45066.9375</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>2</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2</v>
+      </c>
+      <c r="L190" t="n">
+        <v>4</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['19', '25', '55', '74']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>4</v>
+      </c>
+      <c r="R190" t="n">
+        <v>11</v>
+      </c>
+      <c r="S190" t="n">
+        <v>15</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V190" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4926129</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45066.97916666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['3', '90+5']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>15</v>
+      </c>
+      <c r="R191" t="n">
+        <v>7</v>
+      </c>
+      <c r="S191" t="n">
+        <v>22</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V191" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4926130</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45066.97916666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>7</v>
+      </c>
+      <c r="R192" t="n">
+        <v>4</v>
+      </c>
+      <c r="S192" t="n">
+        <v>11</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V192" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4926131</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45066.97916666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['44', '58']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>6</v>
+      </c>
+      <c r="R193" t="n">
+        <v>9</v>
+      </c>
+      <c r="S193" t="n">
+        <v>15</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -38574,13 +38574,13 @@
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R188" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S188" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T188" t="n">
         <v>2.45</v>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT2" t="n">
         <v>0.38</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1.13</v>
@@ -3542,7 +3542,7 @@
         <v>2.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.71</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU18" t="n">
         <v>2.18</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT19" t="n">
         <v>0.33</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0.93</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT26" t="n">
         <v>0.67</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU27" t="n">
         <v>2.09</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1.38</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU29" t="n">
         <v>1.85</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU30" t="n">
         <v>2.28</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT36" t="n">
         <v>0.29</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT38" t="n">
         <v>0.38</v>
@@ -8414,7 +8414,7 @@
         <v>1.14</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT41" t="n">
         <v>1.13</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9429,7 +9429,7 @@
         <v>2.29</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU44" t="n">
         <v>2.1</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT46" t="n">
         <v>1.33</v>
@@ -10038,7 +10038,7 @@
         <v>1.71</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU47" t="n">
         <v>1.15</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.74</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU49" t="n">
         <v>0.89</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU50" t="n">
         <v>1.01</v>
@@ -10850,7 +10850,7 @@
         <v>1.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU51" t="n">
         <v>0.99</v>
@@ -11253,10 +11253,10 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT54" t="n">
         <v>0.29</v>
@@ -11659,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT55" t="n">
         <v>1.5</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>1.71</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU60" t="n">
         <v>1.52</v>
@@ -12880,7 +12880,7 @@
         <v>1.38</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.6</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU62" t="n">
         <v>1.31</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT64" t="n">
         <v>0.38</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT65" t="n">
         <v>1.43</v>
@@ -13892,10 +13892,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU66" t="n">
         <v>1.14</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.3</v>
@@ -14504,7 +14504,7 @@
         <v>2.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU69" t="n">
         <v>1.85</v>
@@ -14704,7 +14704,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT70" t="n">
         <v>0.43</v>
@@ -14907,10 +14907,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT71" t="n">
         <v>1.43</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>1.17</v>
       </c>
       <c r="AU71" t="n">
         <v>1.3</v>
@@ -15110,7 +15110,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT72" t="n">
         <v>1.33</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT73" t="n">
         <v>0.38</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT74" t="n">
         <v>1.43</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -15925,7 +15925,7 @@
         <v>3</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU76" t="n">
         <v>1.31</v>
@@ -16128,7 +16128,7 @@
         <v>2.29</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU77" t="n">
         <v>2.05</v>
@@ -16331,7 +16331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.12</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU79" t="n">
         <v>1.27</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT82" t="n">
         <v>1.5</v>
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT83" t="n">
         <v>0.33</v>
@@ -17749,10 +17749,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU85" t="n">
         <v>1.58</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT86" t="n">
         <v>0.38</v>
@@ -18158,7 +18158,7 @@
         <v>1.71</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU87" t="n">
         <v>1.49</v>
@@ -18564,7 +18564,7 @@
         <v>1.57</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU89" t="n">
         <v>1.59</v>
@@ -18767,7 +18767,7 @@
         <v>3</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU90" t="n">
         <v>1.26</v>
@@ -18970,7 +18970,7 @@
         <v>2.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.97</v>
@@ -19373,7 +19373,7 @@
         <v>0.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT93" t="n">
         <v>0.29</v>
@@ -19576,7 +19576,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT94" t="n">
         <v>1.13</v>
@@ -19779,7 +19779,7 @@
         <v>0.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT95" t="n">
         <v>0.43</v>
@@ -19985,7 +19985,7 @@
         <v>1.14</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU96" t="n">
         <v>1.86</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
         <v>1.67</v>
@@ -20391,7 +20391,7 @@
         <v>2</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU98" t="n">
         <v>2.05</v>
@@ -20591,7 +20591,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT99" t="n">
         <v>1.33</v>
@@ -20794,10 +20794,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.48</v>
@@ -20997,10 +20997,10 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU101" t="n">
         <v>1.25</v>
@@ -21812,7 +21812,7 @@
         <v>1.29</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU105" t="n">
         <v>1.29</v>
@@ -22015,7 +22015,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU106" t="n">
         <v>1.15</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU107" t="n">
         <v>1.38</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT108" t="n">
         <v>1.83</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT110" t="n">
         <v>0.67</v>
@@ -23027,10 +23027,10 @@
         <v>1.67</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT112" t="n">
         <v>1.5</v>
@@ -23436,7 +23436,7 @@
         <v>1.38</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU113" t="n">
         <v>1.37</v>
@@ -23639,7 +23639,7 @@
         <v>3</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU114" t="n">
         <v>1.17</v>
@@ -23839,10 +23839,10 @@
         <v>0.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU115" t="n">
         <v>1.21</v>
@@ -24042,7 +24042,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT116" t="n">
         <v>0.67</v>
@@ -24245,10 +24245,10 @@
         <v>1.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24448,10 +24448,10 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.38</v>
@@ -24854,10 +24854,10 @@
         <v>0</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU120" t="n">
         <v>1.28</v>
@@ -25057,7 +25057,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT121" t="n">
         <v>1.5</v>
@@ -25463,7 +25463,7 @@
         <v>2.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT123" t="n">
         <v>1.67</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.96</v>
@@ -25869,7 +25869,7 @@
         <v>2.25</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT125" t="n">
         <v>1.5</v>
@@ -26075,7 +26075,7 @@
         <v>2.29</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -26275,10 +26275,10 @@
         <v>1.25</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU127" t="n">
         <v>1.32</v>
@@ -26481,7 +26481,7 @@
         <v>2</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU128" t="n">
         <v>1.75</v>
@@ -26684,7 +26684,7 @@
         <v>1.57</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU129" t="n">
         <v>1.59</v>
@@ -26884,10 +26884,10 @@
         <v>1.25</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU130" t="n">
         <v>1.54</v>
@@ -27087,7 +27087,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT131" t="n">
         <v>0.29</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT132" t="n">
         <v>0.38</v>
@@ -27493,10 +27493,10 @@
         <v>0.2</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU133" t="n">
         <v>1.66</v>
@@ -27696,7 +27696,7 @@
         <v>0</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT134" t="n">
         <v>0.38</v>
@@ -27902,7 +27902,7 @@
         <v>1.5</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU135" t="n">
         <v>1.16</v>
@@ -28711,10 +28711,10 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU139" t="n">
         <v>1.22</v>
@@ -28914,7 +28914,7 @@
         <v>1.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT140" t="n">
         <v>1.43</v>
@@ -29117,7 +29117,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT141" t="n">
         <v>1.5</v>
@@ -29526,7 +29526,7 @@
         <v>3</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.25</v>
@@ -29729,7 +29729,7 @@
         <v>1.71</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU144" t="n">
         <v>1.49</v>
@@ -29929,7 +29929,7 @@
         <v>2.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT145" t="n">
         <v>1.83</v>
@@ -30135,7 +30135,7 @@
         <v>1.71</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU146" t="n">
         <v>1.58</v>
@@ -30335,10 +30335,10 @@
         <v>0.75</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU147" t="n">
         <v>1.24</v>
@@ -30538,10 +30538,10 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU148" t="n">
         <v>1.31</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
         <v>1.13</v>
@@ -31150,7 +31150,7 @@
         <v>1.57</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU151" t="n">
         <v>1.3</v>
@@ -31350,7 +31350,7 @@
         <v>0.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT152" t="n">
         <v>0.67</v>
@@ -31962,7 +31962,7 @@
         <v>2.29</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU155" t="n">
         <v>1.67</v>
@@ -32771,7 +32771,7 @@
         <v>0.6</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT159" t="n">
         <v>0.43</v>
@@ -32974,7 +32974,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT160" t="n">
         <v>1.5</v>
@@ -33180,7 +33180,7 @@
         <v>1.29</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU161" t="n">
         <v>1.45</v>
@@ -33380,7 +33380,7 @@
         <v>1.4</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT162" t="n">
         <v>1.43</v>
@@ -33583,10 +33583,10 @@
         <v>0.8</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU163" t="n">
         <v>1.61</v>
@@ -33992,7 +33992,7 @@
         <v>1.57</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU165" t="n">
         <v>1.3</v>
@@ -34192,7 +34192,7 @@
         <v>0.4</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT166" t="n">
         <v>0.29</v>
@@ -34395,7 +34395,7 @@
         <v>0.29</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT167" t="n">
         <v>0.38</v>
@@ -34598,10 +34598,10 @@
         <v>0.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU168" t="n">
         <v>1.41</v>
@@ -35007,7 +35007,7 @@
         <v>1.38</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU170" t="n">
         <v>1.31</v>
@@ -35616,7 +35616,7 @@
         <v>2</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU173" t="n">
         <v>1.67</v>
@@ -35816,10 +35816,10 @@
         <v>0.6</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU174" t="n">
         <v>1.55</v>
@@ -36019,7 +36019,7 @@
         <v>0.25</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT175" t="n">
         <v>0.33</v>
@@ -36225,7 +36225,7 @@
         <v>2</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU176" t="n">
         <v>1.23</v>
@@ -36628,10 +36628,10 @@
         <v>0.8</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>1.6</v>
@@ -36834,7 +36834,7 @@
         <v>1.14</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU179" t="n">
         <v>1.84</v>
@@ -37849,7 +37849,7 @@
         <v>3</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU184" t="n">
         <v>1.32</v>
@@ -38458,7 +38458,7 @@
         <v>1.5</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU187" t="n">
         <v>1.19</v>
@@ -38861,10 +38861,10 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU189" t="n">
         <v>1.61</v>
@@ -39064,7 +39064,7 @@
         <v>0.75</v>
       </c>
       <c r="AS190" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT190" t="n">
         <v>0.67</v>
@@ -39728,6 +39728,2848 @@
       </c>
       <c r="BK193" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4926136</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45073.85416666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['14', '72']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>3</v>
+      </c>
+      <c r="R194" t="n">
+        <v>6</v>
+      </c>
+      <c r="S194" t="n">
+        <v>9</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4926135</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45073.85416666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>8</v>
+      </c>
+      <c r="R195" t="n">
+        <v>6</v>
+      </c>
+      <c r="S195" t="n">
+        <v>14</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4926134</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45073.85416666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2</v>
+      </c>
+      <c r="K196" t="n">
+        <v>3</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>3</v>
+      </c>
+      <c r="N196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['45+1', '45+3', '53']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>5</v>
+      </c>
+      <c r="R196" t="n">
+        <v>7</v>
+      </c>
+      <c r="S196" t="n">
+        <v>12</v>
+      </c>
+      <c r="T196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4926133</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45073.85416666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>2</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2</v>
+      </c>
+      <c r="K197" t="n">
+        <v>4</v>
+      </c>
+      <c r="L197" t="n">
+        <v>3</v>
+      </c>
+      <c r="M197" t="n">
+        <v>3</v>
+      </c>
+      <c r="N197" t="n">
+        <v>6</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['38', '40', '83']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['10', '22', '78']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>9</v>
+      </c>
+      <c r="R197" t="n">
+        <v>4</v>
+      </c>
+      <c r="S197" t="n">
+        <v>13</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V197" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4926132</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45073.85416666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>2</v>
+      </c>
+      <c r="R198" t="n">
+        <v>4</v>
+      </c>
+      <c r="S198" t="n">
+        <v>6</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X198" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4926137</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45073.89583333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>3</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['37', '87']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>6</v>
+      </c>
+      <c r="R199" t="n">
+        <v>6</v>
+      </c>
+      <c r="S199" t="n">
+        <v>12</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4926138</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45073.89583333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>2</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>5</v>
+      </c>
+      <c r="R200" t="n">
+        <v>4</v>
+      </c>
+      <c r="S200" t="n">
+        <v>9</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X200" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4926139</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45073.89583333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>2</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>3</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>4</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['10', '45', '90+4']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>7</v>
+      </c>
+      <c r="R201" t="n">
+        <v>5</v>
+      </c>
+      <c r="S201" t="n">
+        <v>12</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4926140</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45073.9375</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>2</v>
+      </c>
+      <c r="R202" t="n">
+        <v>3</v>
+      </c>
+      <c r="S202" t="n">
+        <v>5</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4926141</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45073.97916666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>7</v>
+      </c>
+      <c r="S203" t="n">
+        <v>12</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4926142</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45073.97916666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>2</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>5</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
+      <c r="S204" t="n">
+        <v>5</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V204" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4926143</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45073.97916666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>7</v>
+      </c>
+      <c r="R205" t="n">
+        <v>4</v>
+      </c>
+      <c r="S205" t="n">
+        <v>11</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2</v>
+      </c>
+      <c r="V205" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4926144</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45074.66666666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>4</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>5</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['33', '66', '68', '90+3']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>8</v>
+      </c>
+      <c r="R206" t="n">
+        <v>1</v>
+      </c>
+      <c r="S206" t="n">
+        <v>9</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4926145</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45074.89583333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>4</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['56', '80', '90+7']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>6</v>
+      </c>
+      <c r="R207" t="n">
+        <v>5</v>
+      </c>
+      <c r="S207" t="n">
+        <v>11</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V207" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,42 @@
     <t>['56', '80', '90+7']</t>
   </si>
   <si>
+    <t>['56', '74', '87']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['44', '59']</t>
+  </si>
+  <si>
+    <t>['37', '62', '72']</t>
+  </si>
+  <si>
+    <t>['19', '82']</t>
+  </si>
+  <si>
+    <t>['51', '67']</t>
+  </si>
+  <si>
+    <t>['41', '60']</t>
+  </si>
+  <si>
+    <t>['1', '18', '46', '59', '88', '90+5']</t>
+  </si>
+  <si>
+    <t>['12', '36', '61']</t>
+  </si>
+  <si>
+    <t>['5', '21', '43', '59']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['9', '51', '83']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -770,9 +806,6 @@
   </si>
   <si>
     <t>['39']</t>
-  </si>
-  <si>
-    <t>['25']</t>
   </si>
   <si>
     <t>['5', '12', '45+2']</t>
@@ -983,6 +1016,39 @@
   </si>
   <si>
     <t>['2']</t>
+  </si>
+  <si>
+    <t>['1', '37', '90+3']</t>
+  </si>
+  <si>
+    <t>['38', '59', '70']</t>
+  </si>
+  <si>
+    <t>['80', '82']</t>
+  </si>
+  <si>
+    <t>['9', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+4', '72', '74']</t>
+  </si>
+  <si>
+    <t>['8', '16']</t>
+  </si>
+  <si>
+    <t>['18', '51', '72']</t>
+  </si>
+  <si>
+    <t>['76', '90']</t>
+  </si>
+  <si>
+    <t>['56', '58']</t>
+  </si>
+  <si>
+    <t>['15', '81']</t>
+  </si>
+  <si>
+    <t>['9', '77']</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1779,7 +1845,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1866,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT3">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2060,7 +2126,7 @@
         <v>1.38</v>
       </c>
       <c r="AT4">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2161,7 +2227,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2251,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="AT5">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2352,7 +2418,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2439,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2630,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AT7">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2824,7 +2890,7 @@
         <v>1.13</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2925,7 +2991,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3012,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT9">
         <v>0.57</v>
@@ -3116,7 +3182,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3203,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT10">
         <v>1.67</v>
@@ -3307,7 +3373,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3394,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3498,7 +3564,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3588,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3776,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AT13">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3970,7 +4036,7 @@
         <v>1.57</v>
       </c>
       <c r="AT14">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4071,7 +4137,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4161,7 +4227,7 @@
         <v>2.67</v>
       </c>
       <c r="AT15">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4349,10 +4415,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT16">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>2.25</v>
@@ -4540,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4731,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AT18">
         <v>1.43</v>
@@ -4925,7 +4991,7 @@
         <v>2.14</v>
       </c>
       <c r="AT19">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5113,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5307,7 +5373,7 @@
         <v>1.13</v>
       </c>
       <c r="AT21">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU21">
         <v>0.93</v>
@@ -5495,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AU22">
         <v>1.37</v>
@@ -5599,7 +5665,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5877,10 +5943,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT24">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU24">
         <v>1.31</v>
@@ -5981,7 +6047,7 @@
         <v>114</v>
       </c>
       <c r="P25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6068,10 +6134,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT25">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6259,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT26">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6450,10 +6516,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AT27">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU27">
         <v>2.09</v>
@@ -6745,7 +6811,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7026,7 +7092,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU30">
         <v>2.28</v>
@@ -7405,10 +7471,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>1.43</v>
@@ -7596,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AT33">
         <v>0.43</v>
@@ -7787,10 +7853,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT34">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU34">
         <v>1.59</v>
@@ -7978,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT35">
         <v>0.57</v>
@@ -8169,10 +8235,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT36">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8360,10 +8426,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8554,7 +8620,7 @@
         <v>2.22</v>
       </c>
       <c r="AT38">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AU38">
         <v>1.41</v>
@@ -8655,7 +8721,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8742,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8846,7 +8912,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9127,7 +9193,7 @@
         <v>2.43</v>
       </c>
       <c r="AT41">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -9318,7 +9384,7 @@
         <v>2.67</v>
       </c>
       <c r="AT42">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU42">
         <v>1.38</v>
@@ -9506,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AT43">
         <v>1.5</v>
@@ -9697,10 +9763,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT44">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU44">
         <v>2.1</v>
@@ -9801,7 +9867,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10082,7 +10148,7 @@
         <v>2.14</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -10183,7 +10249,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10270,7 +10336,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT47">
         <v>0.57</v>
@@ -10374,7 +10440,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10461,10 +10527,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU48">
         <v>1.74</v>
@@ -10565,7 +10631,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10655,7 +10721,7 @@
         <v>1.13</v>
       </c>
       <c r="AT49">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AU49">
         <v>0.89</v>
@@ -10843,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT50">
         <v>0.43</v>
@@ -10947,7 +11013,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11037,7 +11103,7 @@
         <v>1.5</v>
       </c>
       <c r="AT51">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU51">
         <v>0.99</v>
@@ -11138,7 +11204,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11225,10 +11291,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU52">
         <v>1.33</v>
@@ -11607,10 +11673,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT54">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AU54">
         <v>1.38</v>
@@ -11711,7 +11777,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11798,10 +11864,10 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT55">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -12183,7 +12249,7 @@
         <v>1.57</v>
       </c>
       <c r="AT57">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU57">
         <v>1.23</v>
@@ -12284,7 +12350,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12371,10 +12437,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT58">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU58">
         <v>1.5</v>
@@ -12475,7 +12541,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12562,10 +12628,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU59">
         <v>1.59</v>
@@ -12666,7 +12732,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12753,10 +12819,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU60">
         <v>1.52</v>
@@ -12857,7 +12923,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12947,7 +13013,7 @@
         <v>1.38</v>
       </c>
       <c r="AT61">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU61">
         <v>1.6</v>
@@ -13048,7 +13114,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13135,7 +13201,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT62">
         <v>0.88</v>
@@ -13239,7 +13305,7 @@
         <v>146</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13326,10 +13392,10 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.34</v>
@@ -13621,7 +13687,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13708,7 +13774,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT65">
         <v>1.43</v>
@@ -13899,7 +13965,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT66">
         <v>0.43</v>
@@ -14003,7 +14069,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14093,7 +14159,7 @@
         <v>2.22</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU67">
         <v>1.3</v>
@@ -14194,7 +14260,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14281,7 +14347,7 @@
         <v>3</v>
       </c>
       <c r="AS68">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT68">
         <v>1.67</v>
@@ -14385,7 +14451,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14475,7 +14541,7 @@
         <v>2.67</v>
       </c>
       <c r="AT69">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -14666,7 +14732,7 @@
         <v>2.43</v>
       </c>
       <c r="AT70">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU70">
         <v>1.67</v>
@@ -14767,7 +14833,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -14854,10 +14920,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AU71">
         <v>1.3</v>
@@ -14958,7 +15024,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15048,7 +15114,7 @@
         <v>1.13</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU72">
         <v>1.24</v>
@@ -15340,7 +15406,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15618,10 +15684,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT75">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU75">
         <v>1.48</v>
@@ -16000,10 +16066,10 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT77">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU77">
         <v>2.05</v>
@@ -16194,7 +16260,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU78">
         <v>1.12</v>
@@ -16382,10 +16448,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT79">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU79">
         <v>1.27</v>
@@ -16573,10 +16639,10 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.69</v>
@@ -16764,10 +16830,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT81">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -16955,7 +17021,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT82">
         <v>1.5</v>
@@ -17059,7 +17125,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17149,7 +17215,7 @@
         <v>2.43</v>
       </c>
       <c r="AT83">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17340,7 +17406,7 @@
         <v>2</v>
       </c>
       <c r="AT84">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AU84">
         <v>1.84</v>
@@ -17528,7 +17594,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AT85">
         <v>0.88</v>
@@ -17722,7 +17788,7 @@
         <v>2.14</v>
       </c>
       <c r="AT86">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AU86">
         <v>1.24</v>
@@ -17823,7 +17889,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17910,10 +17976,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -18101,10 +18167,10 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT88">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AU88">
         <v>1.29</v>
@@ -18205,7 +18271,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18292,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT89">
         <v>0.57</v>
@@ -18868,7 +18934,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU92">
         <v>1.11</v>
@@ -19059,7 +19125,7 @@
         <v>2.29</v>
       </c>
       <c r="AT93">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU93">
         <v>1.29</v>
@@ -19160,7 +19226,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19247,10 +19313,10 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT94">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -19441,7 +19507,7 @@
         <v>2.22</v>
       </c>
       <c r="AT95">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU95">
         <v>1.36</v>
@@ -19542,7 +19608,7 @@
         <v>164</v>
       </c>
       <c r="P96" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19629,10 +19695,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT96">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AU96">
         <v>1.86</v>
@@ -19820,7 +19886,7 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AT97">
         <v>1.67</v>
@@ -20014,7 +20080,7 @@
         <v>2</v>
       </c>
       <c r="AT98">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU98">
         <v>2.05</v>
@@ -20115,7 +20181,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20202,10 +20268,10 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AT99">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU99">
         <v>1.49</v>
@@ -20396,7 +20462,7 @@
         <v>2.5</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU100">
         <v>1.48</v>
@@ -20497,7 +20563,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20584,7 +20650,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT101">
         <v>0.88</v>
@@ -20688,7 +20754,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20778,7 +20844,7 @@
         <v>1.38</v>
       </c>
       <c r="AT102">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>1.34</v>
@@ -20966,10 +21032,10 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT103">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -21070,7 +21136,7 @@
         <v>170</v>
       </c>
       <c r="P104" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21157,10 +21223,10 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU104">
         <v>1.41</v>
@@ -21348,7 +21414,7 @@
         <v>0.67</v>
       </c>
       <c r="AS105">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
         <v>0.43</v>
@@ -21643,7 +21709,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21730,10 +21796,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT107">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU107">
         <v>1.38</v>
@@ -21834,7 +21900,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -21921,10 +21987,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT108">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU108">
         <v>1.02</v>
@@ -22306,7 +22372,7 @@
         <v>2.43</v>
       </c>
       <c r="AT110">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU110">
         <v>1.56</v>
@@ -22407,7 +22473,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22494,10 +22560,10 @@
         <v>1.67</v>
       </c>
       <c r="AS111">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU111">
         <v>1.69</v>
@@ -22598,7 +22664,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23070,7 +23136,7 @@
         <v>3</v>
       </c>
       <c r="AT114">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU114">
         <v>1.17</v>
@@ -23261,7 +23327,7 @@
         <v>2.5</v>
       </c>
       <c r="AT115">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU115">
         <v>1.21</v>
@@ -23362,7 +23428,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23452,7 +23518,7 @@
         <v>2.14</v>
       </c>
       <c r="AT116">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU116">
         <v>1.46</v>
@@ -23553,7 +23619,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23640,10 +23706,10 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AT117">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU117">
         <v>1.49</v>
@@ -23744,7 +23810,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23834,7 +23900,7 @@
         <v>1.13</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU118">
         <v>1.38</v>
@@ -23935,7 +24001,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24022,10 +24088,10 @@
         <v>0.75</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT119">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU119">
         <v>1.66</v>
@@ -24317,7 +24383,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24595,10 +24661,10 @@
         <v>0.33</v>
       </c>
       <c r="AS122">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT122">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -24786,7 +24852,7 @@
         <v>2.25</v>
       </c>
       <c r="AS123">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT123">
         <v>1.67</v>
@@ -25168,10 +25234,10 @@
         <v>2.25</v>
       </c>
       <c r="AS125">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AT125">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU125">
         <v>1.74</v>
@@ -25359,10 +25425,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT126">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -25654,7 +25720,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25741,7 +25807,7 @@
         <v>0</v>
       </c>
       <c r="AS128">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT128">
         <v>0.43</v>
@@ -25932,10 +25998,10 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT129">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AU129">
         <v>1.59</v>
@@ -26126,7 +26192,7 @@
         <v>2.14</v>
       </c>
       <c r="AT130">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26317,7 +26383,7 @@
         <v>1.13</v>
       </c>
       <c r="AT131">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU131">
         <v>1.42</v>
@@ -26505,7 +26571,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT132">
         <v>0.38</v>
@@ -26609,7 +26675,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26696,10 +26762,10 @@
         <v>0.2</v>
       </c>
       <c r="AS133">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT133">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU133">
         <v>1.66</v>
@@ -26800,7 +26866,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26887,10 +26953,10 @@
         <v>0</v>
       </c>
       <c r="AS134">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT134">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AU134">
         <v>1.68</v>
@@ -27081,7 +27147,7 @@
         <v>1.5</v>
       </c>
       <c r="AT135">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU135">
         <v>1.16</v>
@@ -27182,7 +27248,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27269,10 +27335,10 @@
         <v>0.25</v>
       </c>
       <c r="AS136">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT136">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AU136">
         <v>1.44</v>
@@ -27460,7 +27526,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT137">
         <v>1.43</v>
@@ -27654,7 +27720,7 @@
         <v>2</v>
       </c>
       <c r="AT138">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU138">
         <v>2.02</v>
@@ -27842,10 +27908,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT139">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU139">
         <v>1.22</v>
@@ -27946,7 +28012,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28033,10 +28099,10 @@
         <v>1.75</v>
       </c>
       <c r="AS140">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT140">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU140">
         <v>1.27</v>
@@ -28328,7 +28394,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28609,7 +28675,7 @@
         <v>3</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU143">
         <v>1.25</v>
@@ -28797,7 +28863,7 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AT144">
         <v>0.88</v>
@@ -28991,7 +29057,7 @@
         <v>2.5</v>
       </c>
       <c r="AT145">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU145">
         <v>1.17</v>
@@ -29179,7 +29245,7 @@
         <v>0.25</v>
       </c>
       <c r="AS146">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT146">
         <v>1.43</v>
@@ -29373,7 +29439,7 @@
         <v>2.29</v>
       </c>
       <c r="AT147">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU147">
         <v>1.24</v>
@@ -29564,7 +29630,7 @@
         <v>2.22</v>
       </c>
       <c r="AT148">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU148">
         <v>1.31</v>
@@ -29665,7 +29731,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29755,7 +29821,7 @@
         <v>1</v>
       </c>
       <c r="AT149">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU149">
         <v>1.91</v>
@@ -29856,7 +29922,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -29946,7 +30012,7 @@
         <v>2</v>
       </c>
       <c r="AT150">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU150">
         <v>2</v>
@@ -30047,7 +30113,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30238,7 +30304,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30325,10 +30391,10 @@
         <v>0.33</v>
       </c>
       <c r="AS152">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AT152">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU152">
         <v>1.67</v>
@@ -30707,7 +30773,7 @@
         <v>0.33</v>
       </c>
       <c r="AS154">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT154">
         <v>0.38</v>
@@ -30811,7 +30877,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30898,10 +30964,10 @@
         <v>0.8</v>
       </c>
       <c r="AS155">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT155">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AU155">
         <v>1.67</v>
@@ -31002,7 +31068,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31089,10 +31155,10 @@
         <v>1.75</v>
       </c>
       <c r="AS156">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT156">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU156">
         <v>1.85</v>
@@ -31193,7 +31259,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31280,10 +31346,10 @@
         <v>1</v>
       </c>
       <c r="AS157">
+        <v>1.5</v>
+      </c>
+      <c r="AT157">
         <v>1.57</v>
-      </c>
-      <c r="AT157">
-        <v>1.33</v>
       </c>
       <c r="AU157">
         <v>1.54</v>
@@ -31384,7 +31450,7 @@
         <v>150</v>
       </c>
       <c r="P158" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -31471,10 +31537,10 @@
         <v>2</v>
       </c>
       <c r="AS158">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AT158">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU158">
         <v>1.41</v>
@@ -31665,7 +31731,7 @@
         <v>2.5</v>
       </c>
       <c r="AT159">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU159">
         <v>1.17</v>
@@ -31853,10 +31919,10 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT160">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU160">
         <v>1.68</v>
@@ -32044,10 +32110,10 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT161">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU161">
         <v>1.45</v>
@@ -32148,7 +32214,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32339,7 +32405,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32426,7 +32492,7 @@
         <v>0.8</v>
       </c>
       <c r="AS163">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT163">
         <v>1.43</v>
@@ -32530,7 +32596,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32617,7 +32683,7 @@
         <v>1.2</v>
       </c>
       <c r="AS164">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT164">
         <v>1.5</v>
@@ -32912,7 +32978,7 @@
         <v>215</v>
       </c>
       <c r="P166" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -33002,7 +33068,7 @@
         <v>1</v>
       </c>
       <c r="AT166">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AU166">
         <v>2</v>
@@ -33381,10 +33447,10 @@
         <v>0.5</v>
       </c>
       <c r="AS168">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT168">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU168">
         <v>1.41</v>
@@ -33572,10 +33638,10 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT169">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -33676,7 +33742,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -33766,7 +33832,7 @@
         <v>1.38</v>
       </c>
       <c r="AT170">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU170">
         <v>1.31</v>
@@ -33957,7 +34023,7 @@
         <v>3</v>
       </c>
       <c r="AT171">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AU171">
         <v>1.27</v>
@@ -34145,10 +34211,10 @@
         <v>0.4</v>
       </c>
       <c r="AS172">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT172">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU172">
         <v>1.99</v>
@@ -34336,10 +34402,10 @@
         <v>1.17</v>
       </c>
       <c r="AS173">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT173">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU173">
         <v>1.67</v>
@@ -34440,7 +34506,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34718,10 +34784,10 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT175">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU175">
         <v>1.37</v>
@@ -34909,7 +34975,7 @@
         <v>0.6</v>
       </c>
       <c r="AS176">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT176">
         <v>0.43</v>
@@ -35013,7 +35079,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35103,7 +35169,7 @@
         <v>2.67</v>
       </c>
       <c r="AT177">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU177">
         <v>1.99</v>
@@ -35204,7 +35270,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35291,7 +35357,7 @@
         <v>0.8</v>
       </c>
       <c r="AS178">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AT178">
         <v>1</v>
@@ -35482,10 +35548,10 @@
         <v>0.67</v>
       </c>
       <c r="AS179">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT179">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU179">
         <v>1.84</v>
@@ -35586,7 +35652,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35673,10 +35739,10 @@
         <v>0.43</v>
       </c>
       <c r="AS180">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AU180">
         <v>1.57</v>
@@ -35864,10 +35930,10 @@
         <v>1.67</v>
       </c>
       <c r="AS181">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AT181">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU181">
         <v>1.67</v>
@@ -35968,7 +36034,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36055,10 +36121,10 @@
         <v>1.6</v>
       </c>
       <c r="AS182">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AT182">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU182">
         <v>1.37</v>
@@ -36246,10 +36312,10 @@
         <v>0.33</v>
       </c>
       <c r="AS183">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT183">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU183">
         <v>1.47</v>
@@ -36350,7 +36416,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36541,7 +36607,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36631,7 +36697,7 @@
         <v>1.38</v>
       </c>
       <c r="AT185">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU185">
         <v>1.29</v>
@@ -36819,10 +36885,10 @@
         <v>0.5</v>
       </c>
       <c r="AS186">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT186">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU186">
         <v>1.45</v>
@@ -36923,7 +36989,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37114,7 +37180,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37201,10 +37267,10 @@
         <v>0.2</v>
       </c>
       <c r="AS188">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT188">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU188">
         <v>1.27</v>
@@ -37305,7 +37371,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37392,10 +37458,10 @@
         <v>0.8</v>
       </c>
       <c r="AS189">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT189">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU189">
         <v>1.61</v>
@@ -37583,10 +37649,10 @@
         <v>0.75</v>
       </c>
       <c r="AS190">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT190">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU190">
         <v>1.53</v>
@@ -37777,7 +37843,7 @@
         <v>2.67</v>
       </c>
       <c r="AT191">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="AU191">
         <v>1.97</v>
@@ -37878,7 +37944,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -37968,7 +38034,7 @@
         <v>1.57</v>
       </c>
       <c r="AT192">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU192">
         <v>1.4</v>
@@ -38260,7 +38326,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38347,10 +38413,10 @@
         <v>1.14</v>
       </c>
       <c r="AS194">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT194">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU194">
         <v>1.42</v>
@@ -38642,7 +38708,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38729,7 +38795,7 @@
         <v>1.17</v>
       </c>
       <c r="AS196">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AT196">
         <v>1.43</v>
@@ -38833,7 +38899,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -38923,7 +38989,7 @@
         <v>2.14</v>
       </c>
       <c r="AT197">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU197">
         <v>1.56</v>
@@ -39215,7 +39281,7 @@
         <v>238</v>
       </c>
       <c r="P199" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39406,7 +39472,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39493,10 +39559,10 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT200">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU200">
         <v>1.44</v>
@@ -39684,7 +39750,7 @@
         <v>0.5</v>
       </c>
       <c r="AS201">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT201">
         <v>0.43</v>
@@ -39788,7 +39854,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -39875,10 +39941,10 @@
         <v>1.2</v>
       </c>
       <c r="AS202">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT202">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU202">
         <v>1.6</v>
@@ -39979,7 +40045,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40069,7 +40135,7 @@
         <v>1</v>
       </c>
       <c r="AT203">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AU203">
         <v>2</v>
@@ -40170,7 +40236,7 @@
         <v>151</v>
       </c>
       <c r="P204" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40260,7 +40326,7 @@
         <v>2.43</v>
       </c>
       <c r="AT204">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU204">
         <v>1.47</v>
@@ -40448,10 +40514,10 @@
         <v>0.57</v>
       </c>
       <c r="AS205">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AT205">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU205">
         <v>1.65</v>
@@ -40552,7 +40618,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -40639,10 +40705,10 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT206">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU206">
         <v>1.61</v>
@@ -40743,7 +40809,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -40885,6 +40951,4781 @@
       </c>
       <c r="BK207">
         <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>4926146</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45077.83333333334</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208" t="s">
+        <v>66</v>
+      </c>
+      <c r="H208" t="s">
+        <v>80</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>2</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>3</v>
+      </c>
+      <c r="N208">
+        <v>6</v>
+      </c>
+      <c r="O208" t="s">
+        <v>243</v>
+      </c>
+      <c r="P208" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>3</v>
+      </c>
+      <c r="S208">
+        <v>3</v>
+      </c>
+      <c r="T208">
+        <v>2.38</v>
+      </c>
+      <c r="U208">
+        <v>2.28</v>
+      </c>
+      <c r="V208">
+        <v>4.4</v>
+      </c>
+      <c r="W208">
+        <v>1.36</v>
+      </c>
+      <c r="X208">
+        <v>3</v>
+      </c>
+      <c r="Y208">
+        <v>2.5</v>
+      </c>
+      <c r="Z208">
+        <v>1.5</v>
+      </c>
+      <c r="AA208">
+        <v>6</v>
+      </c>
+      <c r="AB208">
+        <v>1.11</v>
+      </c>
+      <c r="AC208">
+        <v>1.85</v>
+      </c>
+      <c r="AD208">
+        <v>3.7</v>
+      </c>
+      <c r="AE208">
+        <v>4.2</v>
+      </c>
+      <c r="AF208">
+        <v>1.05</v>
+      </c>
+      <c r="AG208">
+        <v>9</v>
+      </c>
+      <c r="AH208">
+        <v>1.29</v>
+      </c>
+      <c r="AI208">
+        <v>3.5</v>
+      </c>
+      <c r="AJ208">
+        <v>1.82</v>
+      </c>
+      <c r="AK208">
+        <v>1.99</v>
+      </c>
+      <c r="AL208">
+        <v>1.73</v>
+      </c>
+      <c r="AM208">
+        <v>2</v>
+      </c>
+      <c r="AN208">
+        <v>1.22</v>
+      </c>
+      <c r="AO208">
+        <v>1.29</v>
+      </c>
+      <c r="AP208">
+        <v>1.91</v>
+      </c>
+      <c r="AQ208">
+        <v>2.29</v>
+      </c>
+      <c r="AR208">
+        <v>1.43</v>
+      </c>
+      <c r="AS208">
+        <v>2.13</v>
+      </c>
+      <c r="AT208">
+        <v>1.33</v>
+      </c>
+      <c r="AU208">
+        <v>1.79</v>
+      </c>
+      <c r="AV208">
+        <v>1.43</v>
+      </c>
+      <c r="AW208">
+        <v>3.22</v>
+      </c>
+      <c r="AX208">
+        <v>1.4</v>
+      </c>
+      <c r="AY208">
+        <v>10</v>
+      </c>
+      <c r="AZ208">
+        <v>3.64</v>
+      </c>
+      <c r="BA208">
+        <v>1.18</v>
+      </c>
+      <c r="BB208">
+        <v>1.33</v>
+      </c>
+      <c r="BC208">
+        <v>1.6</v>
+      </c>
+      <c r="BD208">
+        <v>2.05</v>
+      </c>
+      <c r="BE208">
+        <v>2.7</v>
+      </c>
+      <c r="BF208">
+        <v>8</v>
+      </c>
+      <c r="BG208">
+        <v>4</v>
+      </c>
+      <c r="BH208">
+        <v>9</v>
+      </c>
+      <c r="BI208">
+        <v>1</v>
+      </c>
+      <c r="BJ208">
+        <v>17</v>
+      </c>
+      <c r="BK208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>4926150</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45077.85416666666</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209" t="s">
+        <v>86</v>
+      </c>
+      <c r="H209" t="s">
+        <v>68</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>3</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>244</v>
+      </c>
+      <c r="P209" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q209">
+        <v>5</v>
+      </c>
+      <c r="R209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>5</v>
+      </c>
+      <c r="T209">
+        <v>2.88</v>
+      </c>
+      <c r="U209">
+        <v>2.2</v>
+      </c>
+      <c r="V209">
+        <v>3.1</v>
+      </c>
+      <c r="W209">
+        <v>1.36</v>
+      </c>
+      <c r="X209">
+        <v>3</v>
+      </c>
+      <c r="Y209">
+        <v>2.62</v>
+      </c>
+      <c r="Z209">
+        <v>1.44</v>
+      </c>
+      <c r="AA209">
+        <v>6.5</v>
+      </c>
+      <c r="AB209">
+        <v>1.1</v>
+      </c>
+      <c r="AC209">
+        <v>2.46</v>
+      </c>
+      <c r="AD209">
+        <v>3.55</v>
+      </c>
+      <c r="AE209">
+        <v>2.75</v>
+      </c>
+      <c r="AF209">
+        <v>1.06</v>
+      </c>
+      <c r="AG209">
+        <v>8</v>
+      </c>
+      <c r="AH209">
+        <v>1.33</v>
+      </c>
+      <c r="AI209">
+        <v>3.25</v>
+      </c>
+      <c r="AJ209">
+        <v>1.9</v>
+      </c>
+      <c r="AK209">
+        <v>1.8</v>
+      </c>
+      <c r="AL209">
+        <v>1.8</v>
+      </c>
+      <c r="AM209">
+        <v>1.91</v>
+      </c>
+      <c r="AN209">
+        <v>1.2</v>
+      </c>
+      <c r="AO209">
+        <v>1.3</v>
+      </c>
+      <c r="AP209">
+        <v>1.95</v>
+      </c>
+      <c r="AQ209">
+        <v>2.17</v>
+      </c>
+      <c r="AR209">
+        <v>1.5</v>
+      </c>
+      <c r="AS209">
+        <v>1.75</v>
+      </c>
+      <c r="AT209">
+        <v>1.71</v>
+      </c>
+      <c r="AU209">
+        <v>1.63</v>
+      </c>
+      <c r="AV209">
+        <v>1.58</v>
+      </c>
+      <c r="AW209">
+        <v>3.21</v>
+      </c>
+      <c r="AX209">
+        <v>1.75</v>
+      </c>
+      <c r="AY209">
+        <v>8</v>
+      </c>
+      <c r="AZ209">
+        <v>2.44</v>
+      </c>
+      <c r="BA209">
+        <v>1.24</v>
+      </c>
+      <c r="BB209">
+        <v>1.46</v>
+      </c>
+      <c r="BC209">
+        <v>1.9</v>
+      </c>
+      <c r="BD209">
+        <v>2.37</v>
+      </c>
+      <c r="BE209">
+        <v>3.3</v>
+      </c>
+      <c r="BF209">
+        <v>7</v>
+      </c>
+      <c r="BG209">
+        <v>6</v>
+      </c>
+      <c r="BH209">
+        <v>7</v>
+      </c>
+      <c r="BI209">
+        <v>5</v>
+      </c>
+      <c r="BJ209">
+        <v>14</v>
+      </c>
+      <c r="BK209">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>4926151</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45077.85416666666</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>72</v>
+      </c>
+      <c r="H210" t="s">
+        <v>67</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" t="s">
+        <v>151</v>
+      </c>
+      <c r="P210" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q210">
+        <v>5</v>
+      </c>
+      <c r="R210">
+        <v>6</v>
+      </c>
+      <c r="S210">
+        <v>11</v>
+      </c>
+      <c r="T210">
+        <v>2.2</v>
+      </c>
+      <c r="U210">
+        <v>2.4</v>
+      </c>
+      <c r="V210">
+        <v>5</v>
+      </c>
+      <c r="W210">
+        <v>1.3</v>
+      </c>
+      <c r="X210">
+        <v>3.4</v>
+      </c>
+      <c r="Y210">
+        <v>2.6</v>
+      </c>
+      <c r="Z210">
+        <v>1.52</v>
+      </c>
+      <c r="AA210">
+        <v>5.5</v>
+      </c>
+      <c r="AB210">
+        <v>1.12</v>
+      </c>
+      <c r="AC210">
+        <v>1.78</v>
+      </c>
+      <c r="AD210">
+        <v>4</v>
+      </c>
+      <c r="AE210">
+        <v>4.2</v>
+      </c>
+      <c r="AF210">
+        <v>1.03</v>
+      </c>
+      <c r="AG210">
+        <v>13</v>
+      </c>
+      <c r="AH210">
+        <v>1.2</v>
+      </c>
+      <c r="AI210">
+        <v>4</v>
+      </c>
+      <c r="AJ210">
+        <v>1.55</v>
+      </c>
+      <c r="AK210">
+        <v>2.4</v>
+      </c>
+      <c r="AL210">
+        <v>1.75</v>
+      </c>
+      <c r="AM210">
+        <v>2</v>
+      </c>
+      <c r="AN210">
+        <v>1.15</v>
+      </c>
+      <c r="AO210">
+        <v>1.22</v>
+      </c>
+      <c r="AP210">
+        <v>2.3</v>
+      </c>
+      <c r="AQ210">
+        <v>2</v>
+      </c>
+      <c r="AR210">
+        <v>1.43</v>
+      </c>
+      <c r="AS210">
+        <v>2.22</v>
+      </c>
+      <c r="AT210">
+        <v>1.11</v>
+      </c>
+      <c r="AU210">
+        <v>1.73</v>
+      </c>
+      <c r="AV210">
+        <v>1.21</v>
+      </c>
+      <c r="AW210">
+        <v>2.94</v>
+      </c>
+      <c r="AX210">
+        <v>1.69</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>2.54</v>
+      </c>
+      <c r="BA210">
+        <v>1.24</v>
+      </c>
+      <c r="BB210">
+        <v>1.46</v>
+      </c>
+      <c r="BC210">
+        <v>1.9</v>
+      </c>
+      <c r="BD210">
+        <v>2.4</v>
+      </c>
+      <c r="BE210">
+        <v>3.3</v>
+      </c>
+      <c r="BF210">
+        <v>5</v>
+      </c>
+      <c r="BG210">
+        <v>3</v>
+      </c>
+      <c r="BH210">
+        <v>8</v>
+      </c>
+      <c r="BI210">
+        <v>3</v>
+      </c>
+      <c r="BJ210">
+        <v>13</v>
+      </c>
+      <c r="BK210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>4926152</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45077.85416666666</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
+        <v>87</v>
+      </c>
+      <c r="H211" t="s">
+        <v>82</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211" t="s">
+        <v>96</v>
+      </c>
+      <c r="P211" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q211">
+        <v>7</v>
+      </c>
+      <c r="R211">
+        <v>4</v>
+      </c>
+      <c r="S211">
+        <v>11</v>
+      </c>
+      <c r="T211">
+        <v>2.65</v>
+      </c>
+      <c r="U211">
+        <v>2.15</v>
+      </c>
+      <c r="V211">
+        <v>3.8</v>
+      </c>
+      <c r="W211">
+        <v>1.33</v>
+      </c>
+      <c r="X211">
+        <v>3.25</v>
+      </c>
+      <c r="Y211">
+        <v>2.5</v>
+      </c>
+      <c r="Z211">
+        <v>1.5</v>
+      </c>
+      <c r="AA211">
+        <v>5.5</v>
+      </c>
+      <c r="AB211">
+        <v>1.12</v>
+      </c>
+      <c r="AC211">
+        <v>2.15</v>
+      </c>
+      <c r="AD211">
+        <v>3.4</v>
+      </c>
+      <c r="AE211">
+        <v>3.4</v>
+      </c>
+      <c r="AF211">
+        <v>1.04</v>
+      </c>
+      <c r="AG211">
+        <v>10</v>
+      </c>
+      <c r="AH211">
+        <v>1.25</v>
+      </c>
+      <c r="AI211">
+        <v>3.75</v>
+      </c>
+      <c r="AJ211">
+        <v>1.9</v>
+      </c>
+      <c r="AK211">
+        <v>1.9</v>
+      </c>
+      <c r="AL211">
+        <v>1.67</v>
+      </c>
+      <c r="AM211">
+        <v>2.1</v>
+      </c>
+      <c r="AN211">
+        <v>1.3</v>
+      </c>
+      <c r="AO211">
+        <v>1.29</v>
+      </c>
+      <c r="AP211">
+        <v>1.7</v>
+      </c>
+      <c r="AQ211">
+        <v>1.63</v>
+      </c>
+      <c r="AR211">
+        <v>0.67</v>
+      </c>
+      <c r="AS211">
+        <v>1.56</v>
+      </c>
+      <c r="AT211">
+        <v>0.63</v>
+      </c>
+      <c r="AU211">
+        <v>1.43</v>
+      </c>
+      <c r="AV211">
+        <v>1.15</v>
+      </c>
+      <c r="AW211">
+        <v>2.58</v>
+      </c>
+      <c r="AX211">
+        <v>1.75</v>
+      </c>
+      <c r="AY211">
+        <v>8</v>
+      </c>
+      <c r="AZ211">
+        <v>2.52</v>
+      </c>
+      <c r="BA211">
+        <v>1.24</v>
+      </c>
+      <c r="BB211">
+        <v>1.46</v>
+      </c>
+      <c r="BC211">
+        <v>1.93</v>
+      </c>
+      <c r="BD211">
+        <v>2.37</v>
+      </c>
+      <c r="BE211">
+        <v>3.3</v>
+      </c>
+      <c r="BF211">
+        <v>8</v>
+      </c>
+      <c r="BG211">
+        <v>2</v>
+      </c>
+      <c r="BH211">
+        <v>12</v>
+      </c>
+      <c r="BI211">
+        <v>4</v>
+      </c>
+      <c r="BJ211">
+        <v>20</v>
+      </c>
+      <c r="BK211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>4926148</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45077.85416666666</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212" t="s">
+        <v>69</v>
+      </c>
+      <c r="H212" t="s">
+        <v>91</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212" t="s">
+        <v>245</v>
+      </c>
+      <c r="P212" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q212">
+        <v>4</v>
+      </c>
+      <c r="R212">
+        <v>7</v>
+      </c>
+      <c r="S212">
+        <v>11</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>2.2</v>
+      </c>
+      <c r="V212">
+        <v>4.9</v>
+      </c>
+      <c r="W212">
+        <v>1.36</v>
+      </c>
+      <c r="X212">
+        <v>3</v>
+      </c>
+      <c r="Y212">
+        <v>2.62</v>
+      </c>
+      <c r="Z212">
+        <v>1.44</v>
+      </c>
+      <c r="AA212">
+        <v>6</v>
+      </c>
+      <c r="AB212">
+        <v>1.11</v>
+      </c>
+      <c r="AC212">
+        <v>1.73</v>
+      </c>
+      <c r="AD212">
+        <v>3.75</v>
+      </c>
+      <c r="AE212">
+        <v>4.9</v>
+      </c>
+      <c r="AF212">
+        <v>1.05</v>
+      </c>
+      <c r="AG212">
+        <v>9</v>
+      </c>
+      <c r="AH212">
+        <v>1.3</v>
+      </c>
+      <c r="AI212">
+        <v>3.4</v>
+      </c>
+      <c r="AJ212">
+        <v>1.91</v>
+      </c>
+      <c r="AK212">
+        <v>1.9</v>
+      </c>
+      <c r="AL212">
+        <v>1.85</v>
+      </c>
+      <c r="AM212">
+        <v>1.85</v>
+      </c>
+      <c r="AN212">
+        <v>1.18</v>
+      </c>
+      <c r="AO212">
+        <v>1.25</v>
+      </c>
+      <c r="AP212">
+        <v>2.1</v>
+      </c>
+      <c r="AQ212">
+        <v>1.57</v>
+      </c>
+      <c r="AR212">
+        <v>0.38</v>
+      </c>
+      <c r="AS212">
+        <v>1.5</v>
+      </c>
+      <c r="AT212">
+        <v>0.4</v>
+      </c>
+      <c r="AU212">
+        <v>1.51</v>
+      </c>
+      <c r="AV212">
+        <v>1.15</v>
+      </c>
+      <c r="AW212">
+        <v>2.66</v>
+      </c>
+      <c r="AX212">
+        <v>1.64</v>
+      </c>
+      <c r="AY212">
+        <v>8</v>
+      </c>
+      <c r="AZ212">
+        <v>2.67</v>
+      </c>
+      <c r="BA212">
+        <v>1.32</v>
+      </c>
+      <c r="BB212">
+        <v>1.6</v>
+      </c>
+      <c r="BC212">
+        <v>2.05</v>
+      </c>
+      <c r="BD212">
+        <v>2.8</v>
+      </c>
+      <c r="BE212">
+        <v>4</v>
+      </c>
+      <c r="BF212">
+        <v>5</v>
+      </c>
+      <c r="BG212">
+        <v>6</v>
+      </c>
+      <c r="BH212">
+        <v>9</v>
+      </c>
+      <c r="BI212">
+        <v>6</v>
+      </c>
+      <c r="BJ212">
+        <v>14</v>
+      </c>
+      <c r="BK212">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>4926147</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45077.85416666666</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213" t="s">
+        <v>79</v>
+      </c>
+      <c r="H213" t="s">
+        <v>84</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>3</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>5</v>
+      </c>
+      <c r="O213" t="s">
+        <v>246</v>
+      </c>
+      <c r="P213" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q213">
+        <v>7</v>
+      </c>
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>7</v>
+      </c>
+      <c r="T213">
+        <v>2.32</v>
+      </c>
+      <c r="U213">
+        <v>2.25</v>
+      </c>
+      <c r="V213">
+        <v>4.58</v>
+      </c>
+      <c r="W213">
+        <v>1.33</v>
+      </c>
+      <c r="X213">
+        <v>3.25</v>
+      </c>
+      <c r="Y213">
+        <v>2.38</v>
+      </c>
+      <c r="Z213">
+        <v>1.53</v>
+      </c>
+      <c r="AA213">
+        <v>5.5</v>
+      </c>
+      <c r="AB213">
+        <v>1.12</v>
+      </c>
+      <c r="AC213">
+        <v>1.82</v>
+      </c>
+      <c r="AD213">
+        <v>3.85</v>
+      </c>
+      <c r="AE213">
+        <v>4.1</v>
+      </c>
+      <c r="AF213">
+        <v>1.04</v>
+      </c>
+      <c r="AG213">
+        <v>10</v>
+      </c>
+      <c r="AH213">
+        <v>1.22</v>
+      </c>
+      <c r="AI213">
+        <v>4</v>
+      </c>
+      <c r="AJ213">
+        <v>1.7</v>
+      </c>
+      <c r="AK213">
+        <v>2.1</v>
+      </c>
+      <c r="AL213">
+        <v>1.67</v>
+      </c>
+      <c r="AM213">
+        <v>2.1</v>
+      </c>
+      <c r="AN213">
+        <v>1.2</v>
+      </c>
+      <c r="AO213">
+        <v>1.25</v>
+      </c>
+      <c r="AP213">
+        <v>2</v>
+      </c>
+      <c r="AQ213">
+        <v>2</v>
+      </c>
+      <c r="AR213">
+        <v>1.13</v>
+      </c>
+      <c r="AS213">
+        <v>2.22</v>
+      </c>
+      <c r="AT213">
+        <v>1</v>
+      </c>
+      <c r="AU213">
+        <v>1.9</v>
+      </c>
+      <c r="AV213">
+        <v>1.16</v>
+      </c>
+      <c r="AW213">
+        <v>3.06</v>
+      </c>
+      <c r="AX213">
+        <v>1.51</v>
+      </c>
+      <c r="AY213">
+        <v>8.5</v>
+      </c>
+      <c r="AZ213">
+        <v>3.16</v>
+      </c>
+      <c r="BA213">
+        <v>1.24</v>
+      </c>
+      <c r="BB213">
+        <v>1.46</v>
+      </c>
+      <c r="BC213">
+        <v>1.9</v>
+      </c>
+      <c r="BD213">
+        <v>2.4</v>
+      </c>
+      <c r="BE213">
+        <v>3.3</v>
+      </c>
+      <c r="BF213">
+        <v>7</v>
+      </c>
+      <c r="BG213">
+        <v>4</v>
+      </c>
+      <c r="BH213">
+        <v>12</v>
+      </c>
+      <c r="BI213">
+        <v>6</v>
+      </c>
+      <c r="BJ213">
+        <v>19</v>
+      </c>
+      <c r="BK213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>4926149</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45077.88541666666</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214" t="s">
+        <v>70</v>
+      </c>
+      <c r="H214" t="s">
+        <v>81</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>1</v>
+      </c>
+      <c r="O214" t="s">
+        <v>96</v>
+      </c>
+      <c r="P214" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q214">
+        <v>2</v>
+      </c>
+      <c r="R214">
+        <v>5</v>
+      </c>
+      <c r="S214">
+        <v>7</v>
+      </c>
+      <c r="T214">
+        <v>2.75</v>
+      </c>
+      <c r="U214">
+        <v>2.1</v>
+      </c>
+      <c r="V214">
+        <v>3.6</v>
+      </c>
+      <c r="W214">
+        <v>1.42</v>
+      </c>
+      <c r="X214">
+        <v>2.75</v>
+      </c>
+      <c r="Y214">
+        <v>2.99</v>
+      </c>
+      <c r="Z214">
+        <v>1.36</v>
+      </c>
+      <c r="AA214">
+        <v>7.7</v>
+      </c>
+      <c r="AB214">
+        <v>1.06</v>
+      </c>
+      <c r="AC214">
+        <v>2.34</v>
+      </c>
+      <c r="AD214">
+        <v>3.4</v>
+      </c>
+      <c r="AE214">
+        <v>3.05</v>
+      </c>
+      <c r="AF214">
+        <v>1.07</v>
+      </c>
+      <c r="AG214">
+        <v>7.5</v>
+      </c>
+      <c r="AH214">
+        <v>1.33</v>
+      </c>
+      <c r="AI214">
+        <v>3.25</v>
+      </c>
+      <c r="AJ214">
+        <v>1.9</v>
+      </c>
+      <c r="AK214">
+        <v>1.9</v>
+      </c>
+      <c r="AL214">
+        <v>1.8</v>
+      </c>
+      <c r="AM214">
+        <v>1.91</v>
+      </c>
+      <c r="AN214">
+        <v>1.5</v>
+      </c>
+      <c r="AO214">
+        <v>1.3</v>
+      </c>
+      <c r="AP214">
+        <v>1.4</v>
+      </c>
+      <c r="AQ214">
+        <v>1.71</v>
+      </c>
+      <c r="AR214">
+        <v>0.5</v>
+      </c>
+      <c r="AS214">
+        <v>1.33</v>
+      </c>
+      <c r="AT214">
+        <v>0.78</v>
+      </c>
+      <c r="AU214">
+        <v>1.34</v>
+      </c>
+      <c r="AV214">
+        <v>1.47</v>
+      </c>
+      <c r="AW214">
+        <v>2.81</v>
+      </c>
+      <c r="AX214">
+        <v>2.33</v>
+      </c>
+      <c r="AY214">
+        <v>7.5</v>
+      </c>
+      <c r="AZ214">
+        <v>1.85</v>
+      </c>
+      <c r="BA214">
+        <v>1.3</v>
+      </c>
+      <c r="BB214">
+        <v>1.55</v>
+      </c>
+      <c r="BC214">
+        <v>1.98</v>
+      </c>
+      <c r="BD214">
+        <v>2.7</v>
+      </c>
+      <c r="BE214">
+        <v>3.8</v>
+      </c>
+      <c r="BF214">
+        <v>4</v>
+      </c>
+      <c r="BG214">
+        <v>10</v>
+      </c>
+      <c r="BH214">
+        <v>5</v>
+      </c>
+      <c r="BI214">
+        <v>9</v>
+      </c>
+      <c r="BJ214">
+        <v>9</v>
+      </c>
+      <c r="BK214">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>4926153</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45077.89583333334</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215" t="s">
+        <v>73</v>
+      </c>
+      <c r="H215" t="s">
+        <v>89</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>2</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>247</v>
+      </c>
+      <c r="P215" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q215">
+        <v>4</v>
+      </c>
+      <c r="R215">
+        <v>7</v>
+      </c>
+      <c r="S215">
+        <v>11</v>
+      </c>
+      <c r="T215">
+        <v>3.1</v>
+      </c>
+      <c r="U215">
+        <v>2.2</v>
+      </c>
+      <c r="V215">
+        <v>3.3</v>
+      </c>
+      <c r="W215">
+        <v>1.36</v>
+      </c>
+      <c r="X215">
+        <v>3.1</v>
+      </c>
+      <c r="Y215">
+        <v>2.65</v>
+      </c>
+      <c r="Z215">
+        <v>1.44</v>
+      </c>
+      <c r="AA215">
+        <v>6.5</v>
+      </c>
+      <c r="AB215">
+        <v>1.1</v>
+      </c>
+      <c r="AC215">
+        <v>2.41</v>
+      </c>
+      <c r="AD215">
+        <v>3.5</v>
+      </c>
+      <c r="AE215">
+        <v>2.85</v>
+      </c>
+      <c r="AF215">
+        <v>1.03</v>
+      </c>
+      <c r="AG215">
+        <v>13</v>
+      </c>
+      <c r="AH215">
+        <v>1.25</v>
+      </c>
+      <c r="AI215">
+        <v>3.75</v>
+      </c>
+      <c r="AJ215">
+        <v>1.81</v>
+      </c>
+      <c r="AK215">
+        <v>2.01</v>
+      </c>
+      <c r="AL215">
+        <v>1.65</v>
+      </c>
+      <c r="AM215">
+        <v>2.2</v>
+      </c>
+      <c r="AN215">
+        <v>1.47</v>
+      </c>
+      <c r="AO215">
+        <v>1.25</v>
+      </c>
+      <c r="AP215">
+        <v>1.57</v>
+      </c>
+      <c r="AQ215">
+        <v>1.29</v>
+      </c>
+      <c r="AR215">
+        <v>1.5</v>
+      </c>
+      <c r="AS215">
+        <v>1.33</v>
+      </c>
+      <c r="AT215">
+        <v>1.33</v>
+      </c>
+      <c r="AU215">
+        <v>1.48</v>
+      </c>
+      <c r="AV215">
+        <v>1.21</v>
+      </c>
+      <c r="AW215">
+        <v>2.69</v>
+      </c>
+      <c r="AX215">
+        <v>1.64</v>
+      </c>
+      <c r="AY215">
+        <v>8.5</v>
+      </c>
+      <c r="AZ215">
+        <v>2.66</v>
+      </c>
+      <c r="BA215">
+        <v>1.15</v>
+      </c>
+      <c r="BB215">
+        <v>1.33</v>
+      </c>
+      <c r="BC215">
+        <v>1.6</v>
+      </c>
+      <c r="BD215">
+        <v>2.05</v>
+      </c>
+      <c r="BE215">
+        <v>2.7</v>
+      </c>
+      <c r="BF215">
+        <v>7</v>
+      </c>
+      <c r="BG215">
+        <v>8</v>
+      </c>
+      <c r="BH215">
+        <v>6</v>
+      </c>
+      <c r="BI215">
+        <v>14</v>
+      </c>
+      <c r="BJ215">
+        <v>13</v>
+      </c>
+      <c r="BK215">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>4926155</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45077.9375</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>90</v>
+      </c>
+      <c r="H216" t="s">
+        <v>93</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>3</v>
+      </c>
+      <c r="N216">
+        <v>5</v>
+      </c>
+      <c r="O216" t="s">
+        <v>248</v>
+      </c>
+      <c r="P216" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q216">
+        <v>8</v>
+      </c>
+      <c r="R216">
+        <v>4</v>
+      </c>
+      <c r="S216">
+        <v>12</v>
+      </c>
+      <c r="T216">
+        <v>2.5</v>
+      </c>
+      <c r="U216">
+        <v>2.3</v>
+      </c>
+      <c r="V216">
+        <v>3.75</v>
+      </c>
+      <c r="W216">
+        <v>1.33</v>
+      </c>
+      <c r="X216">
+        <v>3</v>
+      </c>
+      <c r="Y216">
+        <v>2.4</v>
+      </c>
+      <c r="Z216">
+        <v>1.5</v>
+      </c>
+      <c r="AA216">
+        <v>5.5</v>
+      </c>
+      <c r="AB216">
+        <v>1.11</v>
+      </c>
+      <c r="AC216">
+        <v>1.96</v>
+      </c>
+      <c r="AD216">
+        <v>3.65</v>
+      </c>
+      <c r="AE216">
+        <v>3.75</v>
+      </c>
+      <c r="AF216">
+        <v>1.03</v>
+      </c>
+      <c r="AG216">
+        <v>13</v>
+      </c>
+      <c r="AH216">
+        <v>1.22</v>
+      </c>
+      <c r="AI216">
+        <v>3.8</v>
+      </c>
+      <c r="AJ216">
+        <v>1.8</v>
+      </c>
+      <c r="AK216">
+        <v>2</v>
+      </c>
+      <c r="AL216">
+        <v>1.57</v>
+      </c>
+      <c r="AM216">
+        <v>2.25</v>
+      </c>
+      <c r="AN216">
+        <v>1.33</v>
+      </c>
+      <c r="AO216">
+        <v>1.3</v>
+      </c>
+      <c r="AP216">
+        <v>1.73</v>
+      </c>
+      <c r="AQ216">
+        <v>1.14</v>
+      </c>
+      <c r="AR216">
+        <v>0.29</v>
+      </c>
+      <c r="AS216">
+        <v>1</v>
+      </c>
+      <c r="AT216">
+        <v>0.63</v>
+      </c>
+      <c r="AU216">
+        <v>1.87</v>
+      </c>
+      <c r="AV216">
+        <v>1.24</v>
+      </c>
+      <c r="AW216">
+        <v>3.11</v>
+      </c>
+      <c r="AX216">
+        <v>1.85</v>
+      </c>
+      <c r="AY216">
+        <v>8</v>
+      </c>
+      <c r="AZ216">
+        <v>2.28</v>
+      </c>
+      <c r="BA216">
+        <v>1.24</v>
+      </c>
+      <c r="BB216">
+        <v>1.46</v>
+      </c>
+      <c r="BC216">
+        <v>1.93</v>
+      </c>
+      <c r="BD216">
+        <v>2.37</v>
+      </c>
+      <c r="BE216">
+        <v>3.3</v>
+      </c>
+      <c r="BF216">
+        <v>9</v>
+      </c>
+      <c r="BG216">
+        <v>5</v>
+      </c>
+      <c r="BH216">
+        <v>13</v>
+      </c>
+      <c r="BI216">
+        <v>7</v>
+      </c>
+      <c r="BJ216">
+        <v>22</v>
+      </c>
+      <c r="BK216">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>4926154</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45077.94097222222</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>88</v>
+      </c>
+      <c r="H217" t="s">
+        <v>74</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217" t="s">
+        <v>249</v>
+      </c>
+      <c r="P217" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q217">
+        <v>5</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>7</v>
+      </c>
+      <c r="T217">
+        <v>2.75</v>
+      </c>
+      <c r="U217">
+        <v>2.2</v>
+      </c>
+      <c r="V217">
+        <v>3.75</v>
+      </c>
+      <c r="W217">
+        <v>1.38</v>
+      </c>
+      <c r="X217">
+        <v>3</v>
+      </c>
+      <c r="Y217">
+        <v>2.75</v>
+      </c>
+      <c r="Z217">
+        <v>1.42</v>
+      </c>
+      <c r="AA217">
+        <v>6.5</v>
+      </c>
+      <c r="AB217">
+        <v>1.09</v>
+      </c>
+      <c r="AC217">
+        <v>2.13</v>
+      </c>
+      <c r="AD217">
+        <v>3.6</v>
+      </c>
+      <c r="AE217">
+        <v>3.35</v>
+      </c>
+      <c r="AF217">
+        <v>1.04</v>
+      </c>
+      <c r="AG217">
+        <v>12</v>
+      </c>
+      <c r="AH217">
+        <v>1.28</v>
+      </c>
+      <c r="AI217">
+        <v>3.6</v>
+      </c>
+      <c r="AJ217">
+        <v>1.92</v>
+      </c>
+      <c r="AK217">
+        <v>1.78</v>
+      </c>
+      <c r="AL217">
+        <v>1.7</v>
+      </c>
+      <c r="AM217">
+        <v>2.1</v>
+      </c>
+      <c r="AN217">
+        <v>1.3</v>
+      </c>
+      <c r="AO217">
+        <v>1.25</v>
+      </c>
+      <c r="AP217">
+        <v>1.75</v>
+      </c>
+      <c r="AQ217">
+        <v>1.17</v>
+      </c>
+      <c r="AR217">
+        <v>1.29</v>
+      </c>
+      <c r="AS217">
+        <v>1.43</v>
+      </c>
+      <c r="AT217">
+        <v>1.13</v>
+      </c>
+      <c r="AU217">
+        <v>1.69</v>
+      </c>
+      <c r="AV217">
+        <v>1.39</v>
+      </c>
+      <c r="AW217">
+        <v>3.08</v>
+      </c>
+      <c r="AX217">
+        <v>1.45</v>
+      </c>
+      <c r="AY217">
+        <v>8.5</v>
+      </c>
+      <c r="AZ217">
+        <v>3.28</v>
+      </c>
+      <c r="BA217">
+        <v>1.3</v>
+      </c>
+      <c r="BB217">
+        <v>1.55</v>
+      </c>
+      <c r="BC217">
+        <v>1.98</v>
+      </c>
+      <c r="BD217">
+        <v>2.7</v>
+      </c>
+      <c r="BE217">
+        <v>3.8</v>
+      </c>
+      <c r="BF217">
+        <v>6</v>
+      </c>
+      <c r="BG217">
+        <v>5</v>
+      </c>
+      <c r="BH217">
+        <v>11</v>
+      </c>
+      <c r="BI217">
+        <v>5</v>
+      </c>
+      <c r="BJ217">
+        <v>17</v>
+      </c>
+      <c r="BK217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>4926157</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45077.97916666666</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>76</v>
+      </c>
+      <c r="H218" t="s">
+        <v>85</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>96</v>
+      </c>
+      <c r="P218" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q218">
+        <v>10</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>12</v>
+      </c>
+      <c r="T218">
+        <v>2.2</v>
+      </c>
+      <c r="U218">
+        <v>2.45</v>
+      </c>
+      <c r="V218">
+        <v>4.75</v>
+      </c>
+      <c r="W218">
+        <v>1.3</v>
+      </c>
+      <c r="X218">
+        <v>3.5</v>
+      </c>
+      <c r="Y218">
+        <v>2.55</v>
+      </c>
+      <c r="Z218">
+        <v>1.5</v>
+      </c>
+      <c r="AA218">
+        <v>6</v>
+      </c>
+      <c r="AB218">
+        <v>1.11</v>
+      </c>
+      <c r="AC218">
+        <v>1.71</v>
+      </c>
+      <c r="AD218">
+        <v>4</v>
+      </c>
+      <c r="AE218">
+        <v>4.6</v>
+      </c>
+      <c r="AF218">
+        <v>1.02</v>
+      </c>
+      <c r="AG218">
+        <v>17</v>
+      </c>
+      <c r="AH218">
+        <v>1.22</v>
+      </c>
+      <c r="AI218">
+        <v>4.2</v>
+      </c>
+      <c r="AJ218">
+        <v>1.72</v>
+      </c>
+      <c r="AK218">
+        <v>2.1</v>
+      </c>
+      <c r="AL218">
+        <v>1.72</v>
+      </c>
+      <c r="AM218">
+        <v>2.1</v>
+      </c>
+      <c r="AN218">
+        <v>1.2</v>
+      </c>
+      <c r="AO218">
+        <v>1.18</v>
+      </c>
+      <c r="AP218">
+        <v>2.25</v>
+      </c>
+      <c r="AQ218">
+        <v>2</v>
+      </c>
+      <c r="AR218">
+        <v>0.29</v>
+      </c>
+      <c r="AS218">
+        <v>1.7</v>
+      </c>
+      <c r="AT218">
+        <v>0.67</v>
+      </c>
+      <c r="AU218">
+        <v>1.57</v>
+      </c>
+      <c r="AV218">
+        <v>1.24</v>
+      </c>
+      <c r="AW218">
+        <v>2.81</v>
+      </c>
+      <c r="AX218">
+        <v>1.51</v>
+      </c>
+      <c r="AY218">
+        <v>8.5</v>
+      </c>
+      <c r="AZ218">
+        <v>3.07</v>
+      </c>
+      <c r="BA218">
+        <v>1.18</v>
+      </c>
+      <c r="BB218">
+        <v>1.35</v>
+      </c>
+      <c r="BC218">
+        <v>1.63</v>
+      </c>
+      <c r="BD218">
+        <v>2.1</v>
+      </c>
+      <c r="BE218">
+        <v>2.8</v>
+      </c>
+      <c r="BF218">
+        <v>9</v>
+      </c>
+      <c r="BG218">
+        <v>4</v>
+      </c>
+      <c r="BH218">
+        <v>23</v>
+      </c>
+      <c r="BI218">
+        <v>6</v>
+      </c>
+      <c r="BJ218">
+        <v>32</v>
+      </c>
+      <c r="BK218">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>4926158</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45077.97916666666</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219" t="s">
+        <v>75</v>
+      </c>
+      <c r="H219" t="s">
+        <v>92</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219">
+        <v>2</v>
+      </c>
+      <c r="K219">
+        <v>4</v>
+      </c>
+      <c r="L219">
+        <v>6</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>8</v>
+      </c>
+      <c r="O219" t="s">
+        <v>250</v>
+      </c>
+      <c r="P219" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q219">
+        <v>3</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>5</v>
+      </c>
+      <c r="T219">
+        <v>2.3</v>
+      </c>
+      <c r="U219">
+        <v>2.2</v>
+      </c>
+      <c r="V219">
+        <v>4.33</v>
+      </c>
+      <c r="W219">
+        <v>1.33</v>
+      </c>
+      <c r="X219">
+        <v>3</v>
+      </c>
+      <c r="Y219">
+        <v>2.4</v>
+      </c>
+      <c r="Z219">
+        <v>1.5</v>
+      </c>
+      <c r="AA219">
+        <v>5.5</v>
+      </c>
+      <c r="AB219">
+        <v>1.11</v>
+      </c>
+      <c r="AC219">
+        <v>1.81</v>
+      </c>
+      <c r="AD219">
+        <v>4</v>
+      </c>
+      <c r="AE219">
+        <v>4.4</v>
+      </c>
+      <c r="AF219">
+        <v>1.02</v>
+      </c>
+      <c r="AG219">
+        <v>13</v>
+      </c>
+      <c r="AH219">
+        <v>1.22</v>
+      </c>
+      <c r="AI219">
+        <v>3.8</v>
+      </c>
+      <c r="AJ219">
+        <v>1.82</v>
+      </c>
+      <c r="AK219">
+        <v>2.06</v>
+      </c>
+      <c r="AL219">
+        <v>1.73</v>
+      </c>
+      <c r="AM219">
+        <v>2</v>
+      </c>
+      <c r="AN219">
+        <v>1.22</v>
+      </c>
+      <c r="AO219">
+        <v>1.29</v>
+      </c>
+      <c r="AP219">
+        <v>2</v>
+      </c>
+      <c r="AQ219">
+        <v>2</v>
+      </c>
+      <c r="AR219">
+        <v>0.33</v>
+      </c>
+      <c r="AS219">
+        <v>2</v>
+      </c>
+      <c r="AT219">
+        <v>0.25</v>
+      </c>
+      <c r="AU219">
+        <v>2</v>
+      </c>
+      <c r="AV219">
+        <v>1.28</v>
+      </c>
+      <c r="AW219">
+        <v>3.28</v>
+      </c>
+      <c r="AX219">
+        <v>1.34</v>
+      </c>
+      <c r="AY219">
+        <v>9.5</v>
+      </c>
+      <c r="AZ219">
+        <v>3.86</v>
+      </c>
+      <c r="BA219">
+        <v>1.21</v>
+      </c>
+      <c r="BB219">
+        <v>1.4</v>
+      </c>
+      <c r="BC219">
+        <v>1.71</v>
+      </c>
+      <c r="BD219">
+        <v>2.2</v>
+      </c>
+      <c r="BE219">
+        <v>3</v>
+      </c>
+      <c r="BF219">
+        <v>8</v>
+      </c>
+      <c r="BG219">
+        <v>8</v>
+      </c>
+      <c r="BH219">
+        <v>9</v>
+      </c>
+      <c r="BI219">
+        <v>9</v>
+      </c>
+      <c r="BJ219">
+        <v>17</v>
+      </c>
+      <c r="BK219">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>4926159</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45080.6875</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>86</v>
+      </c>
+      <c r="H220" t="s">
+        <v>80</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220" t="s">
+        <v>96</v>
+      </c>
+      <c r="P220" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q220">
+        <v>7</v>
+      </c>
+      <c r="R220">
+        <v>4</v>
+      </c>
+      <c r="S220">
+        <v>11</v>
+      </c>
+      <c r="T220">
+        <v>2.4</v>
+      </c>
+      <c r="U220">
+        <v>2.2</v>
+      </c>
+      <c r="V220">
+        <v>3.9</v>
+      </c>
+      <c r="W220">
+        <v>1.36</v>
+      </c>
+      <c r="X220">
+        <v>3.2</v>
+      </c>
+      <c r="Y220">
+        <v>2.65</v>
+      </c>
+      <c r="Z220">
+        <v>1.45</v>
+      </c>
+      <c r="AA220">
+        <v>6.5</v>
+      </c>
+      <c r="AB220">
+        <v>1.1</v>
+      </c>
+      <c r="AC220">
+        <v>1.85</v>
+      </c>
+      <c r="AD220">
+        <v>3.3</v>
+      </c>
+      <c r="AE220">
+        <v>3.6</v>
+      </c>
+      <c r="AF220">
+        <v>1.03</v>
+      </c>
+      <c r="AG220">
+        <v>13</v>
+      </c>
+      <c r="AH220">
+        <v>1.25</v>
+      </c>
+      <c r="AI220">
+        <v>3.75</v>
+      </c>
+      <c r="AJ220">
+        <v>1.75</v>
+      </c>
+      <c r="AK220">
+        <v>1.95</v>
+      </c>
+      <c r="AL220">
+        <v>1.7</v>
+      </c>
+      <c r="AM220">
+        <v>2.15</v>
+      </c>
+      <c r="AN220">
+        <v>1.25</v>
+      </c>
+      <c r="AO220">
+        <v>1.29</v>
+      </c>
+      <c r="AP220">
+        <v>1.83</v>
+      </c>
+      <c r="AQ220">
+        <v>1.86</v>
+      </c>
+      <c r="AR220">
+        <v>1.38</v>
+      </c>
+      <c r="AS220">
+        <v>1.75</v>
+      </c>
+      <c r="AT220">
+        <v>1.33</v>
+      </c>
+      <c r="AU220">
+        <v>1.63</v>
+      </c>
+      <c r="AV220">
+        <v>1.34</v>
+      </c>
+      <c r="AW220">
+        <v>2.97</v>
+      </c>
+      <c r="AX220">
+        <v>1.55</v>
+      </c>
+      <c r="AY220">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ220">
+        <v>2.9</v>
+      </c>
+      <c r="BA220">
+        <v>1.19</v>
+      </c>
+      <c r="BB220">
+        <v>1.39</v>
+      </c>
+      <c r="BC220">
+        <v>1.74</v>
+      </c>
+      <c r="BD220">
+        <v>2.13</v>
+      </c>
+      <c r="BE220">
+        <v>2.78</v>
+      </c>
+      <c r="BF220">
+        <v>6</v>
+      </c>
+      <c r="BG220">
+        <v>3</v>
+      </c>
+      <c r="BH220">
+        <v>6</v>
+      </c>
+      <c r="BI220">
+        <v>6</v>
+      </c>
+      <c r="BJ220">
+        <v>12</v>
+      </c>
+      <c r="BK220">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>4926160</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45080.72916666666</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221" t="s">
+        <v>76</v>
+      </c>
+      <c r="H221" t="s">
+        <v>77</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221" t="s">
+        <v>96</v>
+      </c>
+      <c r="P221" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q221">
+        <v>5</v>
+      </c>
+      <c r="R221">
+        <v>5</v>
+      </c>
+      <c r="S221">
+        <v>10</v>
+      </c>
+      <c r="T221">
+        <v>2.1</v>
+      </c>
+      <c r="U221">
+        <v>2.4</v>
+      </c>
+      <c r="V221">
+        <v>5.5</v>
+      </c>
+      <c r="W221">
+        <v>1.33</v>
+      </c>
+      <c r="X221">
+        <v>3.3</v>
+      </c>
+      <c r="Y221">
+        <v>2.55</v>
+      </c>
+      <c r="Z221">
+        <v>1.47</v>
+      </c>
+      <c r="AA221">
+        <v>6</v>
+      </c>
+      <c r="AB221">
+        <v>1.11</v>
+      </c>
+      <c r="AC221">
+        <v>1.5</v>
+      </c>
+      <c r="AD221">
+        <v>3.8</v>
+      </c>
+      <c r="AE221">
+        <v>5.5</v>
+      </c>
+      <c r="AF221">
+        <v>1.02</v>
+      </c>
+      <c r="AG221">
+        <v>15</v>
+      </c>
+      <c r="AH221">
+        <v>1.22</v>
+      </c>
+      <c r="AI221">
+        <v>4.2</v>
+      </c>
+      <c r="AJ221">
+        <v>1.67</v>
+      </c>
+      <c r="AK221">
+        <v>2.1</v>
+      </c>
+      <c r="AL221">
+        <v>1.8</v>
+      </c>
+      <c r="AM221">
+        <v>1.95</v>
+      </c>
+      <c r="AN221">
+        <v>1.11</v>
+      </c>
+      <c r="AO221">
+        <v>1.22</v>
+      </c>
+      <c r="AP221">
+        <v>2.45</v>
+      </c>
+      <c r="AQ221">
+        <v>1.78</v>
+      </c>
+      <c r="AR221">
+        <v>0.63</v>
+      </c>
+      <c r="AS221">
+        <v>1.7</v>
+      </c>
+      <c r="AT221">
+        <v>0.67</v>
+      </c>
+      <c r="AU221">
+        <v>1.75</v>
+      </c>
+      <c r="AV221">
+        <v>1.15</v>
+      </c>
+      <c r="AW221">
+        <v>2.9</v>
+      </c>
+      <c r="AX221">
+        <v>1.31</v>
+      </c>
+      <c r="AY221">
+        <v>11</v>
+      </c>
+      <c r="AZ221">
+        <v>4.2</v>
+      </c>
+      <c r="BA221">
+        <v>1.14</v>
+      </c>
+      <c r="BB221">
+        <v>1.29</v>
+      </c>
+      <c r="BC221">
+        <v>1.59</v>
+      </c>
+      <c r="BD221">
+        <v>1.93</v>
+      </c>
+      <c r="BE221">
+        <v>2.38</v>
+      </c>
+      <c r="BF221">
+        <v>2</v>
+      </c>
+      <c r="BG221">
+        <v>3</v>
+      </c>
+      <c r="BH221">
+        <v>3</v>
+      </c>
+      <c r="BI221">
+        <v>7</v>
+      </c>
+      <c r="BJ221">
+        <v>5</v>
+      </c>
+      <c r="BK221">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>4926165</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45080.85416666666</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>72</v>
+      </c>
+      <c r="H222" t="s">
+        <v>91</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>251</v>
+      </c>
+      <c r="P222" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q222">
+        <v>7</v>
+      </c>
+      <c r="R222">
+        <v>4</v>
+      </c>
+      <c r="S222">
+        <v>11</v>
+      </c>
+      <c r="T222">
+        <v>1.95</v>
+      </c>
+      <c r="U222">
+        <v>2.38</v>
+      </c>
+      <c r="V222">
+        <v>5.5</v>
+      </c>
+      <c r="W222">
+        <v>1.33</v>
+      </c>
+      <c r="X222">
+        <v>3.25</v>
+      </c>
+      <c r="Y222">
+        <v>2.5</v>
+      </c>
+      <c r="Z222">
+        <v>1.5</v>
+      </c>
+      <c r="AA222">
+        <v>5.5</v>
+      </c>
+      <c r="AB222">
+        <v>1.12</v>
+      </c>
+      <c r="AC222">
+        <v>1.5</v>
+      </c>
+      <c r="AD222">
+        <v>3.75</v>
+      </c>
+      <c r="AE222">
+        <v>5.5</v>
+      </c>
+      <c r="AF222">
+        <v>1.05</v>
+      </c>
+      <c r="AG222">
+        <v>9</v>
+      </c>
+      <c r="AH222">
+        <v>1.25</v>
+      </c>
+      <c r="AI222">
+        <v>3.75</v>
+      </c>
+      <c r="AJ222">
+        <v>1.75</v>
+      </c>
+      <c r="AK222">
+        <v>1.95</v>
+      </c>
+      <c r="AL222">
+        <v>1.85</v>
+      </c>
+      <c r="AM222">
+        <v>1.85</v>
+      </c>
+      <c r="AN222">
+        <v>1.11</v>
+      </c>
+      <c r="AO222">
+        <v>1.22</v>
+      </c>
+      <c r="AP222">
+        <v>2.45</v>
+      </c>
+      <c r="AQ222">
+        <v>2.13</v>
+      </c>
+      <c r="AR222">
+        <v>0.44</v>
+      </c>
+      <c r="AS222">
+        <v>2.22</v>
+      </c>
+      <c r="AT222">
+        <v>0.4</v>
+      </c>
+      <c r="AU222">
+        <v>1.7</v>
+      </c>
+      <c r="AV222">
+        <v>1.18</v>
+      </c>
+      <c r="AW222">
+        <v>2.88</v>
+      </c>
+      <c r="AX222">
+        <v>1.55</v>
+      </c>
+      <c r="AY222">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ222">
+        <v>2.94</v>
+      </c>
+      <c r="BA222">
+        <v>1.26</v>
+      </c>
+      <c r="BB222">
+        <v>1.56</v>
+      </c>
+      <c r="BC222">
+        <v>1.92</v>
+      </c>
+      <c r="BD222">
+        <v>2.36</v>
+      </c>
+      <c r="BE222">
+        <v>3.28</v>
+      </c>
+      <c r="BF222">
+        <v>9</v>
+      </c>
+      <c r="BG222">
+        <v>3</v>
+      </c>
+      <c r="BH222">
+        <v>9</v>
+      </c>
+      <c r="BI222">
+        <v>3</v>
+      </c>
+      <c r="BJ222">
+        <v>18</v>
+      </c>
+      <c r="BK222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>4926164</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45080.85416666666</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223" t="s">
+        <v>81</v>
+      </c>
+      <c r="H223" t="s">
+        <v>71</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>3</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>96</v>
+      </c>
+      <c r="P223" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q223">
+        <v>8</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>10</v>
+      </c>
+      <c r="T223">
+        <v>2.62</v>
+      </c>
+      <c r="U223">
+        <v>2.05</v>
+      </c>
+      <c r="V223">
+        <v>3.8</v>
+      </c>
+      <c r="W223">
+        <v>1.4</v>
+      </c>
+      <c r="X223">
+        <v>2.75</v>
+      </c>
+      <c r="Y223">
+        <v>2.75</v>
+      </c>
+      <c r="Z223">
+        <v>1.4</v>
+      </c>
+      <c r="AA223">
+        <v>7</v>
+      </c>
+      <c r="AB223">
+        <v>1.08</v>
+      </c>
+      <c r="AC223">
+        <v>2.05</v>
+      </c>
+      <c r="AD223">
+        <v>3.1</v>
+      </c>
+      <c r="AE223">
+        <v>3.3</v>
+      </c>
+      <c r="AF223">
+        <v>1.07</v>
+      </c>
+      <c r="AG223">
+        <v>7.5</v>
+      </c>
+      <c r="AH223">
+        <v>1.33</v>
+      </c>
+      <c r="AI223">
+        <v>3.25</v>
+      </c>
+      <c r="AJ223">
+        <v>2.05</v>
+      </c>
+      <c r="AK223">
+        <v>1.7</v>
+      </c>
+      <c r="AL223">
+        <v>1.8</v>
+      </c>
+      <c r="AM223">
+        <v>1.91</v>
+      </c>
+      <c r="AN223">
+        <v>1.25</v>
+      </c>
+      <c r="AO223">
+        <v>1.33</v>
+      </c>
+      <c r="AP223">
+        <v>1.7</v>
+      </c>
+      <c r="AQ223">
+        <v>1.71</v>
+      </c>
+      <c r="AR223">
+        <v>1.83</v>
+      </c>
+      <c r="AS223">
+        <v>1.5</v>
+      </c>
+      <c r="AT223">
+        <v>2</v>
+      </c>
+      <c r="AU223">
+        <v>1.62</v>
+      </c>
+      <c r="AV223">
+        <v>1.23</v>
+      </c>
+      <c r="AW223">
+        <v>2.85</v>
+      </c>
+      <c r="AX223">
+        <v>1.44</v>
+      </c>
+      <c r="AY223">
+        <v>9.4</v>
+      </c>
+      <c r="AZ223">
+        <v>3.42</v>
+      </c>
+      <c r="BA223">
+        <v>1.33</v>
+      </c>
+      <c r="BB223">
+        <v>1.68</v>
+      </c>
+      <c r="BC223">
+        <v>2.07</v>
+      </c>
+      <c r="BD223">
+        <v>2.76</v>
+      </c>
+      <c r="BE223">
+        <v>3.74</v>
+      </c>
+      <c r="BF223">
+        <v>3</v>
+      </c>
+      <c r="BG223">
+        <v>6</v>
+      </c>
+      <c r="BH223">
+        <v>5</v>
+      </c>
+      <c r="BI223">
+        <v>2</v>
+      </c>
+      <c r="BJ223">
+        <v>8</v>
+      </c>
+      <c r="BK223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>4926163</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45080.85416666666</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224" t="s">
+        <v>70</v>
+      </c>
+      <c r="H224" t="s">
+        <v>69</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>3</v>
+      </c>
+      <c r="O224" t="s">
+        <v>187</v>
+      </c>
+      <c r="P224" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q224">
+        <v>5</v>
+      </c>
+      <c r="R224">
+        <v>6</v>
+      </c>
+      <c r="S224">
+        <v>11</v>
+      </c>
+      <c r="T224">
+        <v>2.62</v>
+      </c>
+      <c r="U224">
+        <v>2.25</v>
+      </c>
+      <c r="V224">
+        <v>3.3</v>
+      </c>
+      <c r="W224">
+        <v>1.32</v>
+      </c>
+      <c r="X224">
+        <v>3.22</v>
+      </c>
+      <c r="Y224">
+        <v>2.49</v>
+      </c>
+      <c r="Z224">
+        <v>1.5</v>
+      </c>
+      <c r="AA224">
+        <v>5.95</v>
+      </c>
+      <c r="AB224">
+        <v>1.11</v>
+      </c>
+      <c r="AC224">
+        <v>2.1</v>
+      </c>
+      <c r="AD224">
+        <v>3.3</v>
+      </c>
+      <c r="AE224">
+        <v>2.9</v>
+      </c>
+      <c r="AF224">
+        <v>1.04</v>
+      </c>
+      <c r="AG224">
+        <v>10</v>
+      </c>
+      <c r="AH224">
+        <v>1.22</v>
+      </c>
+      <c r="AI224">
+        <v>4</v>
+      </c>
+      <c r="AJ224">
+        <v>1.67</v>
+      </c>
+      <c r="AK224">
+        <v>2.1</v>
+      </c>
+      <c r="AL224">
+        <v>1.62</v>
+      </c>
+      <c r="AM224">
+        <v>2.2</v>
+      </c>
+      <c r="AN224">
+        <v>1.36</v>
+      </c>
+      <c r="AO224">
+        <v>1.25</v>
+      </c>
+      <c r="AP224">
+        <v>1.65</v>
+      </c>
+      <c r="AQ224">
+        <v>1.5</v>
+      </c>
+      <c r="AR224">
+        <v>1</v>
+      </c>
+      <c r="AS224">
+        <v>1.33</v>
+      </c>
+      <c r="AT224">
+        <v>1.22</v>
+      </c>
+      <c r="AU224">
+        <v>1.34</v>
+      </c>
+      <c r="AV224">
+        <v>1.45</v>
+      </c>
+      <c r="AW224">
+        <v>2.79</v>
+      </c>
+      <c r="AX224">
+        <v>1.74</v>
+      </c>
+      <c r="AY224">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ224">
+        <v>2.48</v>
+      </c>
+      <c r="BA224">
+        <v>1.33</v>
+      </c>
+      <c r="BB224">
+        <v>1.69</v>
+      </c>
+      <c r="BC224">
+        <v>2.12</v>
+      </c>
+      <c r="BD224">
+        <v>2.45</v>
+      </c>
+      <c r="BE224">
+        <v>3.74</v>
+      </c>
+      <c r="BF224">
+        <v>2</v>
+      </c>
+      <c r="BG224">
+        <v>7</v>
+      </c>
+      <c r="BH224">
+        <v>2</v>
+      </c>
+      <c r="BI224">
+        <v>13</v>
+      </c>
+      <c r="BJ224">
+        <v>4</v>
+      </c>
+      <c r="BK224">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>4926161</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45080.85416666666</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225" t="s">
+        <v>68</v>
+      </c>
+      <c r="H225" t="s">
+        <v>82</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="O225" t="s">
+        <v>210</v>
+      </c>
+      <c r="P225" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q225">
+        <v>7</v>
+      </c>
+      <c r="R225">
+        <v>5</v>
+      </c>
+      <c r="S225">
+        <v>12</v>
+      </c>
+      <c r="T225">
+        <v>2.1</v>
+      </c>
+      <c r="U225">
+        <v>2.38</v>
+      </c>
+      <c r="V225">
+        <v>4.5</v>
+      </c>
+      <c r="W225">
+        <v>1.34</v>
+      </c>
+      <c r="X225">
+        <v>3.1</v>
+      </c>
+      <c r="Y225">
+        <v>2.58</v>
+      </c>
+      <c r="Z225">
+        <v>1.47</v>
+      </c>
+      <c r="AA225">
+        <v>6.4</v>
+      </c>
+      <c r="AB225">
+        <v>1.1</v>
+      </c>
+      <c r="AC225">
+        <v>1.5</v>
+      </c>
+      <c r="AD225">
+        <v>3.8</v>
+      </c>
+      <c r="AE225">
+        <v>5.5</v>
+      </c>
+      <c r="AF225">
+        <v>1.04</v>
+      </c>
+      <c r="AG225">
+        <v>10</v>
+      </c>
+      <c r="AH225">
+        <v>1.22</v>
+      </c>
+      <c r="AI225">
+        <v>4</v>
+      </c>
+      <c r="AJ225">
+        <v>1.67</v>
+      </c>
+      <c r="AK225">
+        <v>2.1</v>
+      </c>
+      <c r="AL225">
+        <v>1.73</v>
+      </c>
+      <c r="AM225">
+        <v>2</v>
+      </c>
+      <c r="AN225">
+        <v>1.17</v>
+      </c>
+      <c r="AO225">
+        <v>1.22</v>
+      </c>
+      <c r="AP225">
+        <v>2.2</v>
+      </c>
+      <c r="AQ225">
+        <v>3</v>
+      </c>
+      <c r="AR225">
+        <v>0.71</v>
+      </c>
+      <c r="AS225">
+        <v>3</v>
+      </c>
+      <c r="AT225">
+        <v>0.63</v>
+      </c>
+      <c r="AU225">
+        <v>1.33</v>
+      </c>
+      <c r="AV225">
+        <v>1.1</v>
+      </c>
+      <c r="AW225">
+        <v>2.43</v>
+      </c>
+      <c r="AX225">
+        <v>1.55</v>
+      </c>
+      <c r="AY225">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ225">
+        <v>2.94</v>
+      </c>
+      <c r="BA225">
+        <v>1.26</v>
+      </c>
+      <c r="BB225">
+        <v>1.56</v>
+      </c>
+      <c r="BC225">
+        <v>1.92</v>
+      </c>
+      <c r="BD225">
+        <v>2.36</v>
+      </c>
+      <c r="BE225">
+        <v>3.28</v>
+      </c>
+      <c r="BF225">
+        <v>2</v>
+      </c>
+      <c r="BG225">
+        <v>0</v>
+      </c>
+      <c r="BH225">
+        <v>8</v>
+      </c>
+      <c r="BI225">
+        <v>3</v>
+      </c>
+      <c r="BJ225">
+        <v>10</v>
+      </c>
+      <c r="BK225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>4926162</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45080.88125</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
+        <v>79</v>
+      </c>
+      <c r="H226" t="s">
+        <v>67</v>
+      </c>
+      <c r="I226">
+        <v>3</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+      <c r="L226">
+        <v>4</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>6</v>
+      </c>
+      <c r="O226" t="s">
+        <v>252</v>
+      </c>
+      <c r="P226" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q226">
+        <v>4</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>6</v>
+      </c>
+      <c r="T226">
+        <v>2.15</v>
+      </c>
+      <c r="U226">
+        <v>2.38</v>
+      </c>
+      <c r="V226">
+        <v>4.2</v>
+      </c>
+      <c r="W226">
+        <v>1.3</v>
+      </c>
+      <c r="X226">
+        <v>3.5</v>
+      </c>
+      <c r="Y226">
+        <v>2.4</v>
+      </c>
+      <c r="Z226">
+        <v>1.53</v>
+      </c>
+      <c r="AA226">
+        <v>5.5</v>
+      </c>
+      <c r="AB226">
+        <v>1.12</v>
+      </c>
+      <c r="AC226">
+        <v>1.67</v>
+      </c>
+      <c r="AD226">
+        <v>3.6</v>
+      </c>
+      <c r="AE226">
+        <v>4.2</v>
+      </c>
+      <c r="AF226">
+        <v>1.02</v>
+      </c>
+      <c r="AG226">
+        <v>15</v>
+      </c>
+      <c r="AH226">
+        <v>1.2</v>
+      </c>
+      <c r="AI226">
+        <v>4.33</v>
+      </c>
+      <c r="AJ226">
+        <v>1.6</v>
+      </c>
+      <c r="AK226">
+        <v>2.2</v>
+      </c>
+      <c r="AL226">
+        <v>1.65</v>
+      </c>
+      <c r="AM226">
+        <v>2.2</v>
+      </c>
+      <c r="AN226">
+        <v>1.18</v>
+      </c>
+      <c r="AO226">
+        <v>1.22</v>
+      </c>
+      <c r="AP226">
+        <v>2.1</v>
+      </c>
+      <c r="AQ226">
+        <v>2.13</v>
+      </c>
+      <c r="AR226">
+        <v>1.25</v>
+      </c>
+      <c r="AS226">
+        <v>2.22</v>
+      </c>
+      <c r="AT226">
+        <v>1.11</v>
+      </c>
+      <c r="AU226">
+        <v>1.93</v>
+      </c>
+      <c r="AV226">
+        <v>1.17</v>
+      </c>
+      <c r="AW226">
+        <v>3.1</v>
+      </c>
+      <c r="AX226">
+        <v>1.46</v>
+      </c>
+      <c r="AY226">
+        <v>9.5</v>
+      </c>
+      <c r="AZ226">
+        <v>3.3</v>
+      </c>
+      <c r="BA226">
+        <v>1.25</v>
+      </c>
+      <c r="BB226">
+        <v>1.55</v>
+      </c>
+      <c r="BC226">
+        <v>1.89</v>
+      </c>
+      <c r="BD226">
+        <v>2.33</v>
+      </c>
+      <c r="BE226">
+        <v>3.2</v>
+      </c>
+      <c r="BF226">
+        <v>9</v>
+      </c>
+      <c r="BG226">
+        <v>5</v>
+      </c>
+      <c r="BH226">
+        <v>8</v>
+      </c>
+      <c r="BI226">
+        <v>3</v>
+      </c>
+      <c r="BJ226">
+        <v>17</v>
+      </c>
+      <c r="BK226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>4926166</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45080.89583333334</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>73</v>
+      </c>
+      <c r="H227" t="s">
+        <v>90</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>3</v>
+      </c>
+      <c r="O227" t="s">
+        <v>187</v>
+      </c>
+      <c r="P227" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q227">
+        <v>12</v>
+      </c>
+      <c r="R227">
+        <v>1</v>
+      </c>
+      <c r="S227">
+        <v>13</v>
+      </c>
+      <c r="T227">
+        <v>2.6</v>
+      </c>
+      <c r="U227">
+        <v>2.2</v>
+      </c>
+      <c r="V227">
+        <v>3.6</v>
+      </c>
+      <c r="W227">
+        <v>1.33</v>
+      </c>
+      <c r="X227">
+        <v>3.25</v>
+      </c>
+      <c r="Y227">
+        <v>2.5</v>
+      </c>
+      <c r="Z227">
+        <v>1.5</v>
+      </c>
+      <c r="AA227">
+        <v>6</v>
+      </c>
+      <c r="AB227">
+        <v>1.11</v>
+      </c>
+      <c r="AC227">
+        <v>2</v>
+      </c>
+      <c r="AD227">
+        <v>3.25</v>
+      </c>
+      <c r="AE227">
+        <v>3.2</v>
+      </c>
+      <c r="AF227">
+        <v>1.05</v>
+      </c>
+      <c r="AG227">
+        <v>9</v>
+      </c>
+      <c r="AH227">
+        <v>1.25</v>
+      </c>
+      <c r="AI227">
+        <v>3.75</v>
+      </c>
+      <c r="AJ227">
+        <v>1.75</v>
+      </c>
+      <c r="AK227">
+        <v>1.95</v>
+      </c>
+      <c r="AL227">
+        <v>1.7</v>
+      </c>
+      <c r="AM227">
+        <v>2.1</v>
+      </c>
+      <c r="AN227">
+        <v>1.33</v>
+      </c>
+      <c r="AO227">
+        <v>1.22</v>
+      </c>
+      <c r="AP227">
+        <v>1.78</v>
+      </c>
+      <c r="AQ227">
+        <v>1.5</v>
+      </c>
+      <c r="AR227">
+        <v>1.14</v>
+      </c>
+      <c r="AS227">
+        <v>1.33</v>
+      </c>
+      <c r="AT227">
+        <v>1.38</v>
+      </c>
+      <c r="AU227">
+        <v>1.5</v>
+      </c>
+      <c r="AV227">
+        <v>1.31</v>
+      </c>
+      <c r="AW227">
+        <v>2.81</v>
+      </c>
+      <c r="AX227">
+        <v>1.76</v>
+      </c>
+      <c r="AY227">
+        <v>9.4</v>
+      </c>
+      <c r="AZ227">
+        <v>2.39</v>
+      </c>
+      <c r="BA227">
+        <v>1.15</v>
+      </c>
+      <c r="BB227">
+        <v>1.3</v>
+      </c>
+      <c r="BC227">
+        <v>1.61</v>
+      </c>
+      <c r="BD227">
+        <v>1.97</v>
+      </c>
+      <c r="BE227">
+        <v>2.43</v>
+      </c>
+      <c r="BF227">
+        <v>6</v>
+      </c>
+      <c r="BG227">
+        <v>7</v>
+      </c>
+      <c r="BH227">
+        <v>6</v>
+      </c>
+      <c r="BI227">
+        <v>6</v>
+      </c>
+      <c r="BJ227">
+        <v>12</v>
+      </c>
+      <c r="BK227">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>4926167</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45080.89583333334</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228" t="s">
+        <v>74</v>
+      </c>
+      <c r="H228" t="s">
+        <v>65</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>2</v>
+      </c>
+      <c r="N228">
+        <v>3</v>
+      </c>
+      <c r="O228" t="s">
+        <v>253</v>
+      </c>
+      <c r="P228" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q228">
+        <v>2</v>
+      </c>
+      <c r="R228">
+        <v>5</v>
+      </c>
+      <c r="S228">
+        <v>7</v>
+      </c>
+      <c r="T228">
+        <v>2.55</v>
+      </c>
+      <c r="U228">
+        <v>2.2</v>
+      </c>
+      <c r="V228">
+        <v>4.33</v>
+      </c>
+      <c r="W228">
+        <v>1.4</v>
+      </c>
+      <c r="X228">
+        <v>3</v>
+      </c>
+      <c r="Y228">
+        <v>2.85</v>
+      </c>
+      <c r="Z228">
+        <v>1.4</v>
+      </c>
+      <c r="AA228">
+        <v>7</v>
+      </c>
+      <c r="AB228">
+        <v>1.08</v>
+      </c>
+      <c r="AC228">
+        <v>1.87</v>
+      </c>
+      <c r="AD228">
+        <v>3.25</v>
+      </c>
+      <c r="AE228">
+        <v>3.7</v>
+      </c>
+      <c r="AF228">
+        <v>1.04</v>
+      </c>
+      <c r="AG228">
+        <v>12</v>
+      </c>
+      <c r="AH228">
+        <v>1.3</v>
+      </c>
+      <c r="AI228">
+        <v>3.5</v>
+      </c>
+      <c r="AJ228">
+        <v>1.85</v>
+      </c>
+      <c r="AK228">
+        <v>1.85</v>
+      </c>
+      <c r="AL228">
+        <v>1.78</v>
+      </c>
+      <c r="AM228">
+        <v>2</v>
+      </c>
+      <c r="AN228">
+        <v>1.28</v>
+      </c>
+      <c r="AO228">
+        <v>1.25</v>
+      </c>
+      <c r="AP228">
+        <v>1.87</v>
+      </c>
+      <c r="AQ228">
+        <v>2</v>
+      </c>
+      <c r="AR228">
+        <v>1.33</v>
+      </c>
+      <c r="AS228">
+        <v>1.75</v>
+      </c>
+      <c r="AT228">
+        <v>1.57</v>
+      </c>
+      <c r="AU228">
+        <v>1.31</v>
+      </c>
+      <c r="AV228">
+        <v>1.12</v>
+      </c>
+      <c r="AW228">
+        <v>2.43</v>
+      </c>
+      <c r="AX228">
+        <v>1.71</v>
+      </c>
+      <c r="AY228">
+        <v>5.75</v>
+      </c>
+      <c r="AZ228">
+        <v>2.6</v>
+      </c>
+      <c r="BA228">
+        <v>1.23</v>
+      </c>
+      <c r="BB228">
+        <v>1.55</v>
+      </c>
+      <c r="BC228">
+        <v>1.88</v>
+      </c>
+      <c r="BD228">
+        <v>2.33</v>
+      </c>
+      <c r="BE228">
+        <v>3.25</v>
+      </c>
+      <c r="BF228">
+        <v>4</v>
+      </c>
+      <c r="BG228">
+        <v>4</v>
+      </c>
+      <c r="BH228">
+        <v>11</v>
+      </c>
+      <c r="BI228">
+        <v>4</v>
+      </c>
+      <c r="BJ228">
+        <v>15</v>
+      </c>
+      <c r="BK228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>4926168</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45080.89583333334</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>89</v>
+      </c>
+      <c r="H229" t="s">
+        <v>87</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>170</v>
+      </c>
+      <c r="P229" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q229">
+        <v>5</v>
+      </c>
+      <c r="R229">
+        <v>1</v>
+      </c>
+      <c r="S229">
+        <v>6</v>
+      </c>
+      <c r="T229">
+        <v>2.65</v>
+      </c>
+      <c r="U229">
+        <v>2.15</v>
+      </c>
+      <c r="V229">
+        <v>4.33</v>
+      </c>
+      <c r="W229">
+        <v>1.44</v>
+      </c>
+      <c r="X229">
+        <v>2.85</v>
+      </c>
+      <c r="Y229">
+        <v>3</v>
+      </c>
+      <c r="Z229">
+        <v>1.36</v>
+      </c>
+      <c r="AA229">
+        <v>8</v>
+      </c>
+      <c r="AB229">
+        <v>1.07</v>
+      </c>
+      <c r="AC229">
+        <v>1.87</v>
+      </c>
+      <c r="AD229">
+        <v>3.2</v>
+      </c>
+      <c r="AE229">
+        <v>3.8</v>
+      </c>
+      <c r="AF229">
+        <v>1.06</v>
+      </c>
+      <c r="AG229">
+        <v>10</v>
+      </c>
+      <c r="AH229">
+        <v>1.36</v>
+      </c>
+      <c r="AI229">
+        <v>3.2</v>
+      </c>
+      <c r="AJ229">
+        <v>2.05</v>
+      </c>
+      <c r="AK229">
+        <v>1.7</v>
+      </c>
+      <c r="AL229">
+        <v>1.87</v>
+      </c>
+      <c r="AM229">
+        <v>1.89</v>
+      </c>
+      <c r="AN229">
+        <v>1.25</v>
+      </c>
+      <c r="AO229">
+        <v>1.29</v>
+      </c>
+      <c r="AP229">
+        <v>1.86</v>
+      </c>
+      <c r="AQ229">
+        <v>1.17</v>
+      </c>
+      <c r="AR229">
+        <v>0.43</v>
+      </c>
+      <c r="AS229">
+        <v>1.14</v>
+      </c>
+      <c r="AT229">
+        <v>0.5</v>
+      </c>
+      <c r="AU229">
+        <v>1.51</v>
+      </c>
+      <c r="AV229">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW229">
+        <v>2.45</v>
+      </c>
+      <c r="AX229">
+        <v>1.58</v>
+      </c>
+      <c r="AY229">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ229">
+        <v>2.8</v>
+      </c>
+      <c r="BA229">
+        <v>1.17</v>
+      </c>
+      <c r="BB229">
+        <v>1.35</v>
+      </c>
+      <c r="BC229">
+        <v>1.68</v>
+      </c>
+      <c r="BD229">
+        <v>2.05</v>
+      </c>
+      <c r="BE229">
+        <v>2.69</v>
+      </c>
+      <c r="BF229">
+        <v>5</v>
+      </c>
+      <c r="BG229">
+        <v>6</v>
+      </c>
+      <c r="BH229">
+        <v>10</v>
+      </c>
+      <c r="BI229">
+        <v>1</v>
+      </c>
+      <c r="BJ229">
+        <v>15</v>
+      </c>
+      <c r="BK229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>4926169</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45080.89583333334</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>83</v>
+      </c>
+      <c r="H230" t="s">
+        <v>92</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>3</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>3</v>
+      </c>
+      <c r="O230" t="s">
+        <v>254</v>
+      </c>
+      <c r="P230" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q230">
+        <v>7</v>
+      </c>
+      <c r="R230">
+        <v>6</v>
+      </c>
+      <c r="S230">
+        <v>13</v>
+      </c>
+      <c r="T230">
+        <v>2.37</v>
+      </c>
+      <c r="U230">
+        <v>2.1</v>
+      </c>
+      <c r="V230">
+        <v>4.33</v>
+      </c>
+      <c r="W230">
+        <v>1.38</v>
+      </c>
+      <c r="X230">
+        <v>2.8</v>
+      </c>
+      <c r="Y230">
+        <v>2.65</v>
+      </c>
+      <c r="Z230">
+        <v>1.41</v>
+      </c>
+      <c r="AA230">
+        <v>6.75</v>
+      </c>
+      <c r="AB230">
+        <v>1.09</v>
+      </c>
+      <c r="AC230">
+        <v>1.75</v>
+      </c>
+      <c r="AD230">
+        <v>3.3</v>
+      </c>
+      <c r="AE230">
+        <v>4</v>
+      </c>
+      <c r="AF230">
+        <v>1.05</v>
+      </c>
+      <c r="AG230">
+        <v>9.25</v>
+      </c>
+      <c r="AH230">
+        <v>1.28</v>
+      </c>
+      <c r="AI230">
+        <v>3.3</v>
+      </c>
+      <c r="AJ230">
+        <v>1.85</v>
+      </c>
+      <c r="AK230">
+        <v>1.87</v>
+      </c>
+      <c r="AL230">
+        <v>1.78</v>
+      </c>
+      <c r="AM230">
+        <v>1.9</v>
+      </c>
+      <c r="AN230">
+        <v>1.22</v>
+      </c>
+      <c r="AO230">
+        <v>1.28</v>
+      </c>
+      <c r="AP230">
+        <v>1.93</v>
+      </c>
+      <c r="AQ230">
+        <v>2.14</v>
+      </c>
+      <c r="AR230">
+        <v>0.29</v>
+      </c>
+      <c r="AS230">
+        <v>2.25</v>
+      </c>
+      <c r="AT230">
+        <v>0.25</v>
+      </c>
+      <c r="AU230">
+        <v>1.61</v>
+      </c>
+      <c r="AV230">
+        <v>1.36</v>
+      </c>
+      <c r="AW230">
+        <v>2.97</v>
+      </c>
+      <c r="AX230">
+        <v>1.59</v>
+      </c>
+      <c r="AY230">
+        <v>8.5</v>
+      </c>
+      <c r="AZ230">
+        <v>2.89</v>
+      </c>
+      <c r="BA230">
+        <v>1.23</v>
+      </c>
+      <c r="BB230">
+        <v>1.44</v>
+      </c>
+      <c r="BC230">
+        <v>1.78</v>
+      </c>
+      <c r="BD230">
+        <v>2.35</v>
+      </c>
+      <c r="BE230">
+        <v>3.25</v>
+      </c>
+      <c r="BF230">
+        <v>6</v>
+      </c>
+      <c r="BG230">
+        <v>5</v>
+      </c>
+      <c r="BH230">
+        <v>4</v>
+      </c>
+      <c r="BI230">
+        <v>6</v>
+      </c>
+      <c r="BJ230">
+        <v>10</v>
+      </c>
+      <c r="BK230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>4926170</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45080.9375</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
+        <v>84</v>
+      </c>
+      <c r="H231" t="s">
+        <v>85</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231" t="s">
+        <v>96</v>
+      </c>
+      <c r="P231" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q231">
+        <v>8</v>
+      </c>
+      <c r="R231">
+        <v>7</v>
+      </c>
+      <c r="S231">
+        <v>15</v>
+      </c>
+      <c r="T231">
+        <v>2.6</v>
+      </c>
+      <c r="U231">
+        <v>2.2</v>
+      </c>
+      <c r="V231">
+        <v>3.6</v>
+      </c>
+      <c r="W231">
+        <v>1.33</v>
+      </c>
+      <c r="X231">
+        <v>3.25</v>
+      </c>
+      <c r="Y231">
+        <v>2.5</v>
+      </c>
+      <c r="Z231">
+        <v>1.5</v>
+      </c>
+      <c r="AA231">
+        <v>6</v>
+      </c>
+      <c r="AB231">
+        <v>1.11</v>
+      </c>
+      <c r="AC231">
+        <v>2</v>
+      </c>
+      <c r="AD231">
+        <v>3.25</v>
+      </c>
+      <c r="AE231">
+        <v>3.2</v>
+      </c>
+      <c r="AF231">
+        <v>1.05</v>
+      </c>
+      <c r="AG231">
+        <v>9</v>
+      </c>
+      <c r="AH231">
+        <v>1.25</v>
+      </c>
+      <c r="AI231">
+        <v>3.75</v>
+      </c>
+      <c r="AJ231">
+        <v>1.75</v>
+      </c>
+      <c r="AK231">
+        <v>1.95</v>
+      </c>
+      <c r="AL231">
+        <v>1.6</v>
+      </c>
+      <c r="AM231">
+        <v>2.27</v>
+      </c>
+      <c r="AN231">
+        <v>1.25</v>
+      </c>
+      <c r="AO231">
+        <v>1.25</v>
+      </c>
+      <c r="AP231">
+        <v>1.67</v>
+      </c>
+      <c r="AQ231">
+        <v>0.43</v>
+      </c>
+      <c r="AR231">
+        <v>0.63</v>
+      </c>
+      <c r="AS231">
+        <v>0.5</v>
+      </c>
+      <c r="AT231">
+        <v>0.67</v>
+      </c>
+      <c r="AU231">
+        <v>1.58</v>
+      </c>
+      <c r="AV231">
+        <v>1.23</v>
+      </c>
+      <c r="AW231">
+        <v>2.81</v>
+      </c>
+      <c r="AX231">
+        <v>1.52</v>
+      </c>
+      <c r="AY231">
+        <v>6.5</v>
+      </c>
+      <c r="AZ231">
+        <v>3</v>
+      </c>
+      <c r="BA231">
+        <v>1.2</v>
+      </c>
+      <c r="BB231">
+        <v>1.39</v>
+      </c>
+      <c r="BC231">
+        <v>1.69</v>
+      </c>
+      <c r="BD231">
+        <v>2.06</v>
+      </c>
+      <c r="BE231">
+        <v>3</v>
+      </c>
+      <c r="BF231">
+        <v>6</v>
+      </c>
+      <c r="BG231">
+        <v>0</v>
+      </c>
+      <c r="BH231">
+        <v>3</v>
+      </c>
+      <c r="BI231">
+        <v>9</v>
+      </c>
+      <c r="BJ231">
+        <v>9</v>
+      </c>
+      <c r="BK231">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>4926172</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45080.97916666666</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
+        <v>75</v>
+      </c>
+      <c r="H232" t="s">
+        <v>88</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>111</v>
+      </c>
+      <c r="P232" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q232">
+        <v>4</v>
+      </c>
+      <c r="R232">
+        <v>5</v>
+      </c>
+      <c r="S232">
+        <v>9</v>
+      </c>
+      <c r="T232">
+        <v>2.55</v>
+      </c>
+      <c r="U232">
+        <v>2.3</v>
+      </c>
+      <c r="V232">
+        <v>4</v>
+      </c>
+      <c r="W232">
+        <v>1.33</v>
+      </c>
+      <c r="X232">
+        <v>3.3</v>
+      </c>
+      <c r="Y232">
+        <v>2.55</v>
+      </c>
+      <c r="Z232">
+        <v>1.47</v>
+      </c>
+      <c r="AA232">
+        <v>5.5</v>
+      </c>
+      <c r="AB232">
+        <v>1.11</v>
+      </c>
+      <c r="AC232">
+        <v>1.85</v>
+      </c>
+      <c r="AD232">
+        <v>3.4</v>
+      </c>
+      <c r="AE232">
+        <v>3.5</v>
+      </c>
+      <c r="AF232">
+        <v>1.04</v>
+      </c>
+      <c r="AG232">
+        <v>13</v>
+      </c>
+      <c r="AH232">
+        <v>1.22</v>
+      </c>
+      <c r="AI232">
+        <v>4.2</v>
+      </c>
+      <c r="AJ232">
+        <v>1.67</v>
+      </c>
+      <c r="AK232">
+        <v>2.1</v>
+      </c>
+      <c r="AL232">
+        <v>1.65</v>
+      </c>
+      <c r="AM232">
+        <v>2.2</v>
+      </c>
+      <c r="AN232">
+        <v>1.28</v>
+      </c>
+      <c r="AO232">
+        <v>1.22</v>
+      </c>
+      <c r="AP232">
+        <v>1.87</v>
+      </c>
+      <c r="AQ232">
+        <v>2.13</v>
+      </c>
+      <c r="AR232">
+        <v>0.67</v>
+      </c>
+      <c r="AS232">
+        <v>2</v>
+      </c>
+      <c r="AT232">
+        <v>0.7</v>
+      </c>
+      <c r="AU232">
+        <v>2</v>
+      </c>
+      <c r="AV232">
+        <v>1.46</v>
+      </c>
+      <c r="AW232">
+        <v>3.46</v>
+      </c>
+      <c r="AX232">
+        <v>1.8</v>
+      </c>
+      <c r="AY232">
+        <v>6</v>
+      </c>
+      <c r="AZ232">
+        <v>2.33</v>
+      </c>
+      <c r="BA232">
+        <v>1.2</v>
+      </c>
+      <c r="BB232">
+        <v>1.47</v>
+      </c>
+      <c r="BC232">
+        <v>1.74</v>
+      </c>
+      <c r="BD232">
+        <v>2.12</v>
+      </c>
+      <c r="BE232">
+        <v>3.4</v>
+      </c>
+      <c r="BF232">
+        <v>4</v>
+      </c>
+      <c r="BG232">
+        <v>3</v>
+      </c>
+      <c r="BH232">
+        <v>3</v>
+      </c>
+      <c r="BI232">
+        <v>5</v>
+      </c>
+      <c r="BJ232">
+        <v>7</v>
+      </c>
+      <c r="BK232">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -781,6 +781,9 @@
     <t>['9', '51', '83']</t>
   </si>
   <si>
+    <t>['80', '89']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -1410,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK232"/>
+  <dimension ref="A1:BK234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1845,7 +1848,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2227,7 +2230,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2418,7 +2421,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2991,7 +2994,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3182,7 +3185,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3272,7 +3275,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3373,7 +3376,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3460,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT11">
         <v>1.33</v>
@@ -3564,7 +3567,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -4137,7 +4140,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4224,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT15">
         <v>0.67</v>
@@ -5665,7 +5668,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5943,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT24">
         <v>0.63</v>
@@ -6811,7 +6814,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6901,7 +6904,7 @@
         <v>1.38</v>
       </c>
       <c r="AT29">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU29">
         <v>1.85</v>
@@ -8721,7 +8724,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8912,7 +8915,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9002,7 +9005,7 @@
         <v>1.57</v>
       </c>
       <c r="AT40">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU40">
         <v>1.06</v>
@@ -9381,7 +9384,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT42">
         <v>1.33</v>
@@ -9867,7 +9870,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10249,7 +10252,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10440,7 +10443,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10631,7 +10634,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11013,7 +11016,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11204,7 +11207,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11291,7 +11294,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT52">
         <v>0.7</v>
@@ -11777,7 +11780,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12350,7 +12353,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12541,7 +12544,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12732,7 +12735,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12923,7 +12926,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13114,7 +13117,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13204,7 +13207,7 @@
         <v>2.22</v>
       </c>
       <c r="AT62">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU62">
         <v>1.31</v>
@@ -13305,7 +13308,7 @@
         <v>146</v>
       </c>
       <c r="P63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13687,7 +13690,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14069,7 +14072,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14260,7 +14263,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14350,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="AT68">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU68">
         <v>1.9</v>
@@ -14451,7 +14454,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14538,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT69">
         <v>1.13</v>
@@ -14833,7 +14836,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15024,7 +15027,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15406,7 +15409,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -16448,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT79">
         <v>0.67</v>
@@ -17125,7 +17128,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17597,7 +17600,7 @@
         <v>1.75</v>
       </c>
       <c r="AT85">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU85">
         <v>1.58</v>
@@ -17889,7 +17892,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18271,7 +18274,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18740,7 +18743,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -19226,7 +19229,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19608,7 +19611,7 @@
         <v>164</v>
       </c>
       <c r="P96" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19889,7 +19892,7 @@
         <v>1.7</v>
       </c>
       <c r="AT97">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU97">
         <v>1.83</v>
@@ -20181,7 +20184,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20563,7 +20566,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20653,7 +20656,7 @@
         <v>1.56</v>
       </c>
       <c r="AT101">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU101">
         <v>1.25</v>
@@ -20754,7 +20757,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21136,7 +21139,7 @@
         <v>170</v>
       </c>
       <c r="P104" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21709,7 +21712,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21796,7 +21799,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT107">
         <v>1.38</v>
@@ -21900,7 +21903,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22473,7 +22476,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22664,7 +22667,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23428,7 +23431,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23619,7 +23622,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23810,7 +23813,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24001,7 +24004,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24383,7 +24386,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24855,7 +24858,7 @@
         <v>0.5</v>
       </c>
       <c r="AT123">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25619,7 +25622,7 @@
         <v>2.22</v>
       </c>
       <c r="AT127">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU127">
         <v>1.32</v>
@@ -25720,7 +25723,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26675,7 +26678,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26866,7 +26869,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27248,7 +27251,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -28012,7 +28015,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28394,7 +28397,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28866,7 +28869,7 @@
         <v>1.33</v>
       </c>
       <c r="AT144">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -29731,7 +29734,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29922,7 +29925,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30113,7 +30116,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30304,7 +30307,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30585,7 +30588,7 @@
         <v>1.5</v>
       </c>
       <c r="AT153">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU153">
         <v>1.16</v>
@@ -30877,7 +30880,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31068,7 +31071,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31259,7 +31262,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31450,7 +31453,7 @@
         <v>150</v>
       </c>
       <c r="P158" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -32214,7 +32217,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32405,7 +32408,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32596,7 +32599,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32978,7 +32981,7 @@
         <v>215</v>
       </c>
       <c r="P166" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -33742,7 +33745,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34506,7 +34509,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34975,7 +34978,7 @@
         <v>0.6</v>
       </c>
       <c r="AS176">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT176">
         <v>0.43</v>
@@ -35079,7 +35082,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35166,7 +35169,7 @@
         <v>0.71</v>
       </c>
       <c r="AS177">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT177">
         <v>0.7</v>
@@ -35270,7 +35273,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35652,7 +35655,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36034,7 +36037,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36416,7 +36419,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36607,7 +36610,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36989,7 +36992,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37079,7 +37082,7 @@
         <v>1.5</v>
       </c>
       <c r="AT187">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU187">
         <v>1.19</v>
@@ -37180,7 +37183,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37267,7 +37270,7 @@
         <v>0.2</v>
       </c>
       <c r="AS188">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT188">
         <v>0.25</v>
@@ -37371,7 +37374,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37840,7 +37843,7 @@
         <v>0.33</v>
       </c>
       <c r="AS191">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT191">
         <v>0.67</v>
@@ -37944,7 +37947,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38326,7 +38329,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38607,7 +38610,7 @@
         <v>1.13</v>
       </c>
       <c r="AT195">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU195">
         <v>1.42</v>
@@ -38708,7 +38711,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38899,7 +38902,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39281,7 +39284,7 @@
         <v>238</v>
       </c>
       <c r="P199" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39472,7 +39475,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39854,7 +39857,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40045,7 +40048,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40236,7 +40239,7 @@
         <v>151</v>
       </c>
       <c r="P204" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40618,7 +40621,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -40809,7 +40812,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41000,7 +41003,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41191,7 +41194,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41764,7 +41767,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -41955,7 +41958,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42337,7 +42340,7 @@
         <v>247</v>
       </c>
       <c r="P215" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42528,7 +42531,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42910,7 +42913,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43101,7 +43104,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43865,7 +43868,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44056,7 +44059,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44438,7 +44441,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44629,7 +44632,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -44820,7 +44823,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -44907,7 +44910,7 @@
         <v>1.33</v>
       </c>
       <c r="AS228">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT228">
         <v>1.57</v>
@@ -45584,7 +45587,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45726,6 +45729,388 @@
       </c>
       <c r="BK232">
         <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>4926084</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45084.89583333334</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233" t="s">
+        <v>74</v>
+      </c>
+      <c r="H233" t="s">
+        <v>83</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>255</v>
+      </c>
+      <c r="P233" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q233">
+        <v>1</v>
+      </c>
+      <c r="R233">
+        <v>3</v>
+      </c>
+      <c r="S233">
+        <v>4</v>
+      </c>
+      <c r="T233">
+        <v>2.33</v>
+      </c>
+      <c r="U233">
+        <v>2.26</v>
+      </c>
+      <c r="V233">
+        <v>4.55</v>
+      </c>
+      <c r="W233">
+        <v>1.34</v>
+      </c>
+      <c r="X233">
+        <v>3.1</v>
+      </c>
+      <c r="Y233">
+        <v>2.58</v>
+      </c>
+      <c r="Z233">
+        <v>1.47</v>
+      </c>
+      <c r="AA233">
+        <v>6.25</v>
+      </c>
+      <c r="AB233">
+        <v>1.1</v>
+      </c>
+      <c r="AC233">
+        <v>1.86</v>
+      </c>
+      <c r="AD233">
+        <v>3.8</v>
+      </c>
+      <c r="AE233">
+        <v>4</v>
+      </c>
+      <c r="AF233">
+        <v>1</v>
+      </c>
+      <c r="AG233">
+        <v>10.25</v>
+      </c>
+      <c r="AH233">
+        <v>1.22</v>
+      </c>
+      <c r="AI233">
+        <v>3.72</v>
+      </c>
+      <c r="AJ233">
+        <v>1.76</v>
+      </c>
+      <c r="AK233">
+        <v>2.13</v>
+      </c>
+      <c r="AL233">
+        <v>1.7</v>
+      </c>
+      <c r="AM233">
+        <v>2.08</v>
+      </c>
+      <c r="AN233">
+        <v>1.23</v>
+      </c>
+      <c r="AO233">
+        <v>1.26</v>
+      </c>
+      <c r="AP233">
+        <v>1.99</v>
+      </c>
+      <c r="AQ233">
+        <v>1.75</v>
+      </c>
+      <c r="AR233">
+        <v>1.67</v>
+      </c>
+      <c r="AS233">
+        <v>1.89</v>
+      </c>
+      <c r="AT233">
+        <v>1.43</v>
+      </c>
+      <c r="AU233">
+        <v>1.33</v>
+      </c>
+      <c r="AV233">
+        <v>1.44</v>
+      </c>
+      <c r="AW233">
+        <v>2.77</v>
+      </c>
+      <c r="AX233">
+        <v>1.42</v>
+      </c>
+      <c r="AY233">
+        <v>8</v>
+      </c>
+      <c r="AZ233">
+        <v>3.5</v>
+      </c>
+      <c r="BA233">
+        <v>1.2</v>
+      </c>
+      <c r="BB233">
+        <v>1.39</v>
+      </c>
+      <c r="BC233">
+        <v>1.7</v>
+      </c>
+      <c r="BD233">
+        <v>2.2</v>
+      </c>
+      <c r="BE233">
+        <v>2.95</v>
+      </c>
+      <c r="BF233">
+        <v>4</v>
+      </c>
+      <c r="BG233">
+        <v>2</v>
+      </c>
+      <c r="BH233">
+        <v>2</v>
+      </c>
+      <c r="BI233">
+        <v>5</v>
+      </c>
+      <c r="BJ233">
+        <v>6</v>
+      </c>
+      <c r="BK233">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>4926171</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45084.97916666666</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234" t="s">
+        <v>78</v>
+      </c>
+      <c r="H234" t="s">
+        <v>66</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234" t="s">
+        <v>96</v>
+      </c>
+      <c r="P234" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q234">
+        <v>8</v>
+      </c>
+      <c r="R234">
+        <v>3</v>
+      </c>
+      <c r="S234">
+        <v>11</v>
+      </c>
+      <c r="T234">
+        <v>2.2</v>
+      </c>
+      <c r="U234">
+        <v>2.4</v>
+      </c>
+      <c r="V234">
+        <v>4.75</v>
+      </c>
+      <c r="W234">
+        <v>1.25</v>
+      </c>
+      <c r="X234">
+        <v>3.3</v>
+      </c>
+      <c r="Y234">
+        <v>2.2</v>
+      </c>
+      <c r="Z234">
+        <v>1.6</v>
+      </c>
+      <c r="AA234">
+        <v>4.75</v>
+      </c>
+      <c r="AB234">
+        <v>1.15</v>
+      </c>
+      <c r="AC234">
+        <v>1.63</v>
+      </c>
+      <c r="AD234">
+        <v>4.1</v>
+      </c>
+      <c r="AE234">
+        <v>4.6</v>
+      </c>
+      <c r="AF234">
+        <v>1.02</v>
+      </c>
+      <c r="AG234">
+        <v>17</v>
+      </c>
+      <c r="AH234">
+        <v>1.2</v>
+      </c>
+      <c r="AI234">
+        <v>4.5</v>
+      </c>
+      <c r="AJ234">
+        <v>1.55</v>
+      </c>
+      <c r="AK234">
+        <v>2.36</v>
+      </c>
+      <c r="AL234">
+        <v>1.65</v>
+      </c>
+      <c r="AM234">
+        <v>2.2</v>
+      </c>
+      <c r="AN234">
+        <v>1.2</v>
+      </c>
+      <c r="AO234">
+        <v>1.25</v>
+      </c>
+      <c r="AP234">
+        <v>2.2</v>
+      </c>
+      <c r="AQ234">
+        <v>2.67</v>
+      </c>
+      <c r="AR234">
+        <v>0.88</v>
+      </c>
+      <c r="AS234">
+        <v>2.43</v>
+      </c>
+      <c r="AT234">
+        <v>0.89</v>
+      </c>
+      <c r="AU234">
+        <v>1.99</v>
+      </c>
+      <c r="AV234">
+        <v>1.32</v>
+      </c>
+      <c r="AW234">
+        <v>3.31</v>
+      </c>
+      <c r="AX234">
+        <v>1.39</v>
+      </c>
+      <c r="AY234">
+        <v>8</v>
+      </c>
+      <c r="AZ234">
+        <v>4.06</v>
+      </c>
+      <c r="BA234">
+        <v>1.15</v>
+      </c>
+      <c r="BB234">
+        <v>1.29</v>
+      </c>
+      <c r="BC234">
+        <v>1.45</v>
+      </c>
+      <c r="BD234">
+        <v>1.8</v>
+      </c>
+      <c r="BE234">
+        <v>2.27</v>
+      </c>
+      <c r="BF234">
+        <v>9</v>
+      </c>
+      <c r="BG234">
+        <v>0</v>
+      </c>
+      <c r="BH234">
+        <v>12</v>
+      </c>
+      <c r="BI234">
+        <v>4</v>
+      </c>
+      <c r="BJ234">
+        <v>21</v>
+      </c>
+      <c r="BK234">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -784,6 +784,30 @@
     <t>['80', '89']</t>
   </si>
   <si>
+    <t>['17', '53', '89']</t>
+  </si>
+  <si>
+    <t>['13', '49', '73']</t>
+  </si>
+  <si>
+    <t>['27', '34', '51']</t>
+  </si>
+  <si>
+    <t>['7', '13', '57', '76']</t>
+  </si>
+  <si>
+    <t>['56', '83']</t>
+  </si>
+  <si>
+    <t>['11', '50', '69', '89']</t>
+  </si>
+  <si>
+    <t>['19', '47', '57', '89']</t>
+  </si>
+  <si>
+    <t>['8', '57']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -1052,6 +1076,18 @@
   </si>
   <si>
     <t>['9', '77']</t>
+  </si>
+  <si>
+    <t>['11', '35', '70']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['59', '90+3']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,7 +1783,7 @@
         <v>2.22</v>
       </c>
       <c r="AT2">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1848,7 +1884,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1935,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT3">
         <v>0.67</v>
@@ -2126,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT4">
         <v>1.33</v>
@@ -2230,7 +2266,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2421,7 +2457,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2890,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
         <v>0.78</v>
@@ -2994,7 +3030,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3084,7 +3120,7 @@
         <v>2.22</v>
       </c>
       <c r="AT9">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3185,7 +3221,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3376,7 +3412,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3466,7 +3502,7 @@
         <v>1.89</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3567,7 +3603,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3654,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT12">
         <v>1.38</v>
@@ -3848,7 +3884,7 @@
         <v>1.7</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4140,7 +4176,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4418,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT16">
         <v>0.5</v>
@@ -4612,7 +4648,7 @@
         <v>2.22</v>
       </c>
       <c r="AT17">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4803,7 +4839,7 @@
         <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU18">
         <v>2.18</v>
@@ -4991,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT19">
         <v>0.25</v>
@@ -5185,7 +5221,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5373,10 +5409,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU21">
         <v>0.93</v>
@@ -5668,7 +5704,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5755,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6710,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT28">
         <v>0.43</v>
@@ -6814,7 +6850,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6901,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT29">
         <v>0.89</v>
@@ -7092,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT30">
         <v>1.13</v>
@@ -7286,7 +7322,7 @@
         <v>3</v>
       </c>
       <c r="AT31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -7668,7 +7704,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -8047,10 +8083,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8238,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT36">
         <v>0.63</v>
@@ -8724,7 +8760,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8814,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8915,7 +8951,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9193,10 +9229,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -9578,7 +9614,7 @@
         <v>1.7</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU43">
         <v>2</v>
@@ -9766,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT44">
         <v>0.67</v>
@@ -9870,7 +9906,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9957,10 +9993,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT45">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10148,10 +10184,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT46">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -10252,7 +10288,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10342,7 +10378,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU47">
         <v>1.15</v>
@@ -10443,7 +10479,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10533,7 +10569,7 @@
         <v>1.75</v>
       </c>
       <c r="AT48">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU48">
         <v>1.74</v>
@@ -10634,7 +10670,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10721,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
         <v>1.11</v>
@@ -10912,10 +10948,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -11016,7 +11052,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11103,10 +11139,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU51">
         <v>0.99</v>
@@ -11207,7 +11243,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11485,10 +11521,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11780,7 +11816,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11870,7 +11906,7 @@
         <v>0.5</v>
       </c>
       <c r="AT55">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -12353,7 +12389,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12544,7 +12580,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12735,7 +12771,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12926,7 +12962,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13013,7 +13049,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
         <v>0.78</v>
@@ -13117,7 +13153,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13308,7 +13344,7 @@
         <v>146</v>
       </c>
       <c r="P63" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13398,7 +13434,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU63">
         <v>1.34</v>
@@ -13586,10 +13622,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT64">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU64">
         <v>1.56</v>
@@ -13690,7 +13726,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13777,10 +13813,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT65">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU65">
         <v>2.67</v>
@@ -14072,7 +14108,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14162,7 +14198,7 @@
         <v>2.22</v>
       </c>
       <c r="AT67">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU67">
         <v>1.3</v>
@@ -14263,7 +14299,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14454,7 +14490,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14732,7 +14768,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT70">
         <v>0.5</v>
@@ -14836,7 +14872,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -14923,7 +14959,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
         <v>1.11</v>
@@ -15027,7 +15063,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15114,10 +15150,10 @@
         <v>0.5</v>
       </c>
       <c r="AS72">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU72">
         <v>1.24</v>
@@ -15305,10 +15341,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT73">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU73">
         <v>1.3</v>
@@ -15409,7 +15445,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15499,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="AT74">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15881,7 +15917,7 @@
         <v>3</v>
       </c>
       <c r="AT76">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU76">
         <v>1.31</v>
@@ -16069,7 +16105,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT77">
         <v>0.78</v>
@@ -16260,10 +16296,10 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU78">
         <v>1.12</v>
@@ -16645,7 +16681,7 @@
         <v>2.25</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU80">
         <v>1.69</v>
@@ -17027,7 +17063,7 @@
         <v>0.5</v>
       </c>
       <c r="AT82">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU82">
         <v>1.36</v>
@@ -17128,7 +17164,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17215,7 +17251,7 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT83">
         <v>0.25</v>
@@ -17406,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT84">
         <v>0.4</v>
@@ -17788,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT86">
         <v>0.4</v>
@@ -17892,7 +17928,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18274,7 +18310,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18364,7 +18400,7 @@
         <v>1.5</v>
       </c>
       <c r="AT89">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU89">
         <v>1.59</v>
@@ -18555,7 +18591,7 @@
         <v>3</v>
       </c>
       <c r="AT90">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU90">
         <v>1.26</v>
@@ -18746,7 +18782,7 @@
         <v>2.43</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU91">
         <v>1.97</v>
@@ -18934,10 +18970,10 @@
         <v>3</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU92">
         <v>1.11</v>
@@ -19125,7 +19161,7 @@
         <v>0.67</v>
       </c>
       <c r="AS93">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT93">
         <v>0.63</v>
@@ -19229,7 +19265,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19316,10 +19352,10 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT94">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -19611,7 +19647,7 @@
         <v>164</v>
       </c>
       <c r="P96" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -20080,7 +20116,7 @@
         <v>0.33</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT98">
         <v>0.67</v>
@@ -20184,7 +20220,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20274,7 +20310,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU99">
         <v>1.49</v>
@@ -20462,10 +20498,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT100">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU100">
         <v>1.48</v>
@@ -20566,7 +20602,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20653,7 +20689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT101">
         <v>0.89</v>
@@ -20757,7 +20793,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20844,10 +20880,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU102">
         <v>1.34</v>
@@ -21139,7 +21175,7 @@
         <v>170</v>
       </c>
       <c r="P104" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21608,10 +21644,10 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT106">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU106">
         <v>1.15</v>
@@ -21712,7 +21748,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21903,7 +21939,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22184,7 +22220,7 @@
         <v>1.57</v>
       </c>
       <c r="AT109">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU109">
         <v>1.13</v>
@@ -22372,7 +22408,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT110">
         <v>0.7</v>
@@ -22476,7 +22512,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22566,7 +22602,7 @@
         <v>2.25</v>
       </c>
       <c r="AT111">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU111">
         <v>1.69</v>
@@ -22667,7 +22703,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22757,7 +22793,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU112">
         <v>2.2</v>
@@ -22945,10 +22981,10 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT113">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU113">
         <v>1.37</v>
@@ -23327,7 +23363,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT115">
         <v>0.78</v>
@@ -23431,7 +23467,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23518,7 +23554,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT116">
         <v>0.7</v>
@@ -23622,7 +23658,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23813,7 +23849,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23900,10 +23936,10 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT118">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU118">
         <v>1.38</v>
@@ -24004,7 +24040,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24282,10 +24318,10 @@
         <v>0</v>
       </c>
       <c r="AS120">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT120">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU120">
         <v>1.28</v>
@@ -24386,7 +24422,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24476,7 +24512,7 @@
         <v>2.22</v>
       </c>
       <c r="AT121">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU121">
         <v>1.3</v>
@@ -25049,7 +25085,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -25240,7 +25276,7 @@
         <v>1.7</v>
       </c>
       <c r="AT125">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU125">
         <v>1.74</v>
@@ -25428,7 +25464,7 @@
         <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT126">
         <v>0.63</v>
@@ -25723,7 +25759,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25813,7 +25849,7 @@
         <v>2.22</v>
       </c>
       <c r="AT128">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU128">
         <v>1.75</v>
@@ -26192,10 +26228,10 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT130">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26383,7 +26419,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT131">
         <v>0.63</v>
@@ -26574,10 +26610,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT132">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU132">
         <v>1.23</v>
@@ -26678,7 +26714,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26869,7 +26905,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26956,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="AS134">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT134">
         <v>0.4</v>
@@ -27147,7 +27183,7 @@
         <v>0.4</v>
       </c>
       <c r="AS135">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT135">
         <v>0.78</v>
@@ -27251,7 +27287,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27532,7 +27568,7 @@
         <v>1</v>
       </c>
       <c r="AT137">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -27720,10 +27756,10 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT138">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU138">
         <v>2.02</v>
@@ -28015,7 +28051,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28102,7 +28138,7 @@
         <v>1.75</v>
       </c>
       <c r="AS140">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT140">
         <v>1.33</v>
@@ -28293,10 +28329,10 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT141">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU141">
         <v>1.54</v>
@@ -28397,7 +28433,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28484,10 +28520,10 @@
         <v>0.4</v>
       </c>
       <c r="AS142">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT142">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU142">
         <v>1.33</v>
@@ -28678,7 +28714,7 @@
         <v>3</v>
       </c>
       <c r="AT143">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU143">
         <v>1.25</v>
@@ -29057,7 +29093,7 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT145">
         <v>2</v>
@@ -29251,7 +29287,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU146">
         <v>1.58</v>
@@ -29439,7 +29475,7 @@
         <v>0.75</v>
       </c>
       <c r="AS147">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT147">
         <v>1.38</v>
@@ -29734,7 +29770,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29824,7 +29860,7 @@
         <v>1</v>
       </c>
       <c r="AT149">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU149">
         <v>1.91</v>
@@ -29925,7 +29961,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30012,10 +30048,10 @@
         <v>1.8</v>
       </c>
       <c r="AS150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT150">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU150">
         <v>2</v>
@@ -30116,7 +30152,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30206,7 +30242,7 @@
         <v>1.57</v>
       </c>
       <c r="AT151">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU151">
         <v>1.3</v>
@@ -30307,7 +30343,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30585,7 +30621,7 @@
         <v>2</v>
       </c>
       <c r="AS153">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT153">
         <v>1.43</v>
@@ -30779,7 +30815,7 @@
         <v>1.5</v>
       </c>
       <c r="AT154">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -30880,7 +30916,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30967,7 +31003,7 @@
         <v>0.8</v>
       </c>
       <c r="AS155">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT155">
         <v>1.11</v>
@@ -31071,7 +31107,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31262,7 +31298,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31352,7 +31388,7 @@
         <v>1.5</v>
       </c>
       <c r="AT157">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU157">
         <v>1.54</v>
@@ -31453,7 +31489,7 @@
         <v>150</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -31731,7 +31767,7 @@
         <v>0.6</v>
       </c>
       <c r="AS159">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT159">
         <v>0.5</v>
@@ -31922,10 +31958,10 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT160">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU160">
         <v>1.68</v>
@@ -32217,7 +32253,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32304,10 +32340,10 @@
         <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT162">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU162">
         <v>1.32</v>
@@ -32408,7 +32444,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32498,7 +32534,7 @@
         <v>0.5</v>
       </c>
       <c r="AT163">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32599,7 +32635,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32689,7 +32725,7 @@
         <v>1</v>
       </c>
       <c r="AT164">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU164">
         <v>1.78</v>
@@ -32981,7 +33017,7 @@
         <v>215</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -33259,10 +33295,10 @@
         <v>0.29</v>
       </c>
       <c r="AS167">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT167">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU167">
         <v>1.42</v>
@@ -33450,7 +33486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS168">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT168">
         <v>0.78</v>
@@ -33641,10 +33677,10 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT169">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -33745,7 +33781,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -33832,7 +33868,7 @@
         <v>0.75</v>
       </c>
       <c r="AS170">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
         <v>0.63</v>
@@ -34408,7 +34444,7 @@
         <v>2.22</v>
       </c>
       <c r="AT173">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU173">
         <v>1.67</v>
@@ -34509,7 +34545,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34599,7 +34635,7 @@
         <v>2.22</v>
       </c>
       <c r="AT174">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU174">
         <v>1.55</v>
@@ -35082,7 +35118,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35273,7 +35309,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35363,7 +35399,7 @@
         <v>1.7</v>
       </c>
       <c r="AT178">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU178">
         <v>1.6</v>
@@ -35655,7 +35691,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36037,7 +36073,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36419,7 +36455,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36509,7 +36545,7 @@
         <v>3</v>
       </c>
       <c r="AT184">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU184">
         <v>1.32</v>
@@ -36610,7 +36646,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36697,10 +36733,10 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT185">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU185">
         <v>1.29</v>
@@ -36992,7 +37028,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37079,7 +37115,7 @@
         <v>0.83</v>
       </c>
       <c r="AS187">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT187">
         <v>0.89</v>
@@ -37183,7 +37219,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37374,7 +37410,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37947,7 +37983,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38037,7 +38073,7 @@
         <v>1.57</v>
       </c>
       <c r="AT192">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU192">
         <v>1.4</v>
@@ -38225,10 +38261,10 @@
         <v>1.67</v>
       </c>
       <c r="AS193">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT193">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU193">
         <v>2.02</v>
@@ -38329,7 +38365,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38416,10 +38452,10 @@
         <v>1.14</v>
       </c>
       <c r="AS194">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT194">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU194">
         <v>1.42</v>
@@ -38607,7 +38643,7 @@
         <v>0.86</v>
       </c>
       <c r="AS195">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT195">
         <v>0.89</v>
@@ -38711,7 +38747,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38801,7 +38837,7 @@
         <v>1.75</v>
       </c>
       <c r="AT196">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU196">
         <v>1.54</v>
@@ -38902,7 +38938,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -38989,7 +39025,7 @@
         <v>0.6</v>
       </c>
       <c r="AS197">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT197">
         <v>0.63</v>
@@ -39180,10 +39216,10 @@
         <v>0.5</v>
       </c>
       <c r="AS198">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT198">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU198">
         <v>1.31</v>
@@ -39284,7 +39320,7 @@
         <v>238</v>
       </c>
       <c r="P199" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39371,10 +39407,10 @@
         <v>1.17</v>
       </c>
       <c r="AS199">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT199">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU199">
         <v>1.21</v>
@@ -39475,7 +39511,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39857,7 +39893,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -39947,7 +39983,7 @@
         <v>0.5</v>
       </c>
       <c r="AT202">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU202">
         <v>1.6</v>
@@ -40048,7 +40084,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40239,7 +40275,7 @@
         <v>151</v>
       </c>
       <c r="P204" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40326,7 +40362,7 @@
         <v>1.33</v>
       </c>
       <c r="AS204">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT204">
         <v>1.13</v>
@@ -40621,7 +40657,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -40708,7 +40744,7 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT206">
         <v>0.67</v>
@@ -40812,7 +40848,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -40902,7 +40938,7 @@
         <v>2.22</v>
       </c>
       <c r="AT207">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU207">
         <v>1.6</v>
@@ -41003,7 +41039,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41090,7 +41126,7 @@
         <v>1.43</v>
       </c>
       <c r="AS208">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT208">
         <v>1.33</v>
@@ -41194,7 +41230,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41284,7 +41320,7 @@
         <v>1.75</v>
       </c>
       <c r="AT209">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU209">
         <v>1.63</v>
@@ -41663,7 +41699,7 @@
         <v>0.67</v>
       </c>
       <c r="AS211">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT211">
         <v>0.63</v>
@@ -41767,7 +41803,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -41958,7 +41994,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42048,7 +42084,7 @@
         <v>2.22</v>
       </c>
       <c r="AT213">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU213">
         <v>1.9</v>
@@ -42340,7 +42376,7 @@
         <v>247</v>
       </c>
       <c r="P215" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42430,7 +42466,7 @@
         <v>1.33</v>
       </c>
       <c r="AT215">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU215">
         <v>1.48</v>
@@ -42531,7 +42567,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42809,7 +42845,7 @@
         <v>1.29</v>
       </c>
       <c r="AS217">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT217">
         <v>1.13</v>
@@ -42913,7 +42949,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43104,7 +43140,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43191,7 +43227,7 @@
         <v>0.33</v>
       </c>
       <c r="AS219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT219">
         <v>0.25</v>
@@ -43868,7 +43904,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44059,7 +44095,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44149,7 +44185,7 @@
         <v>1.33</v>
       </c>
       <c r="AT224">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU224">
         <v>1.34</v>
@@ -44441,7 +44477,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44632,7 +44668,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -44823,7 +44859,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -44913,7 +44949,7 @@
         <v>1.89</v>
       </c>
       <c r="AT228">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU228">
         <v>1.31</v>
@@ -45587,7 +45623,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45674,7 +45710,7 @@
         <v>0.67</v>
       </c>
       <c r="AS232">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT232">
         <v>0.7</v>
@@ -46111,6 +46147,2298 @@
       </c>
       <c r="BK234">
         <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>4926174</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45087.85416666666</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235" t="s">
+        <v>67</v>
+      </c>
+      <c r="H235" t="s">
+        <v>76</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>2</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>6</v>
+      </c>
+      <c r="O235" t="s">
+        <v>256</v>
+      </c>
+      <c r="P235" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q235">
+        <v>2</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>2</v>
+      </c>
+      <c r="T235">
+        <v>3.1</v>
+      </c>
+      <c r="U235">
+        <v>2.1</v>
+      </c>
+      <c r="V235">
+        <v>3.1</v>
+      </c>
+      <c r="W235">
+        <v>1.44</v>
+      </c>
+      <c r="X235">
+        <v>2.9</v>
+      </c>
+      <c r="Y235">
+        <v>2.99</v>
+      </c>
+      <c r="Z235">
+        <v>1.42</v>
+      </c>
+      <c r="AA235">
+        <v>7.5</v>
+      </c>
+      <c r="AB235">
+        <v>1.08</v>
+      </c>
+      <c r="AC235">
+        <v>2.6</v>
+      </c>
+      <c r="AD235">
+        <v>3.2</v>
+      </c>
+      <c r="AE235">
+        <v>2.7</v>
+      </c>
+      <c r="AF235">
+        <v>1.05</v>
+      </c>
+      <c r="AG235">
+        <v>11</v>
+      </c>
+      <c r="AH235">
+        <v>1.33</v>
+      </c>
+      <c r="AI235">
+        <v>3.3</v>
+      </c>
+      <c r="AJ235">
+        <v>2.03</v>
+      </c>
+      <c r="AK235">
+        <v>1.83</v>
+      </c>
+      <c r="AL235">
+        <v>1.75</v>
+      </c>
+      <c r="AM235">
+        <v>2</v>
+      </c>
+      <c r="AN235">
+        <v>1.44</v>
+      </c>
+      <c r="AO235">
+        <v>1.28</v>
+      </c>
+      <c r="AP235">
+        <v>1.55</v>
+      </c>
+      <c r="AQ235">
+        <v>1.38</v>
+      </c>
+      <c r="AR235">
+        <v>1.43</v>
+      </c>
+      <c r="AS235">
+        <v>1.33</v>
+      </c>
+      <c r="AT235">
+        <v>1.38</v>
+      </c>
+      <c r="AU235">
+        <v>1.32</v>
+      </c>
+      <c r="AV235">
+        <v>1.28</v>
+      </c>
+      <c r="AW235">
+        <v>2.6</v>
+      </c>
+      <c r="AX235">
+        <v>1.83</v>
+      </c>
+      <c r="AY235">
+        <v>5.75</v>
+      </c>
+      <c r="AZ235">
+        <v>2.35</v>
+      </c>
+      <c r="BA235">
+        <v>1.25</v>
+      </c>
+      <c r="BB235">
+        <v>1.47</v>
+      </c>
+      <c r="BC235">
+        <v>1.85</v>
+      </c>
+      <c r="BD235">
+        <v>2.4</v>
+      </c>
+      <c r="BE235">
+        <v>3.4</v>
+      </c>
+      <c r="BF235">
+        <v>4</v>
+      </c>
+      <c r="BG235">
+        <v>7</v>
+      </c>
+      <c r="BH235">
+        <v>4</v>
+      </c>
+      <c r="BI235">
+        <v>0</v>
+      </c>
+      <c r="BJ235">
+        <v>8</v>
+      </c>
+      <c r="BK235">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>4926178</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45087.85416666666</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236" t="s">
+        <v>87</v>
+      </c>
+      <c r="H236" t="s">
+        <v>65</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236">
+        <v>2</v>
+      </c>
+      <c r="O236" t="s">
+        <v>213</v>
+      </c>
+      <c r="P236" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q236">
+        <v>2</v>
+      </c>
+      <c r="R236">
+        <v>5</v>
+      </c>
+      <c r="S236">
+        <v>7</v>
+      </c>
+      <c r="T236">
+        <v>3</v>
+      </c>
+      <c r="U236">
+        <v>2.05</v>
+      </c>
+      <c r="V236">
+        <v>3.25</v>
+      </c>
+      <c r="W236">
+        <v>1.48</v>
+      </c>
+      <c r="X236">
+        <v>2.75</v>
+      </c>
+      <c r="Y236">
+        <v>3.05</v>
+      </c>
+      <c r="Z236">
+        <v>1.41</v>
+      </c>
+      <c r="AA236">
+        <v>6</v>
+      </c>
+      <c r="AB236">
+        <v>1.09</v>
+      </c>
+      <c r="AC236">
+        <v>2.5</v>
+      </c>
+      <c r="AD236">
+        <v>3.2</v>
+      </c>
+      <c r="AE236">
+        <v>2.8</v>
+      </c>
+      <c r="AF236">
+        <v>1.05</v>
+      </c>
+      <c r="AG236">
+        <v>10</v>
+      </c>
+      <c r="AH236">
+        <v>1.33</v>
+      </c>
+      <c r="AI236">
+        <v>3.3</v>
+      </c>
+      <c r="AJ236">
+        <v>2.01</v>
+      </c>
+      <c r="AK236">
+        <v>1.85</v>
+      </c>
+      <c r="AL236">
+        <v>1.75</v>
+      </c>
+      <c r="AM236">
+        <v>2.05</v>
+      </c>
+      <c r="AN236">
+        <v>1.44</v>
+      </c>
+      <c r="AO236">
+        <v>1.35</v>
+      </c>
+      <c r="AP236">
+        <v>1.5</v>
+      </c>
+      <c r="AQ236">
+        <v>1.56</v>
+      </c>
+      <c r="AR236">
+        <v>1.57</v>
+      </c>
+      <c r="AS236">
+        <v>1.5</v>
+      </c>
+      <c r="AT236">
+        <v>1.5</v>
+      </c>
+      <c r="AU236">
+        <v>1.52</v>
+      </c>
+      <c r="AV236">
+        <v>1.11</v>
+      </c>
+      <c r="AW236">
+        <v>2.63</v>
+      </c>
+      <c r="AX236">
+        <v>1.86</v>
+      </c>
+      <c r="AY236">
+        <v>6</v>
+      </c>
+      <c r="AZ236">
+        <v>2.3</v>
+      </c>
+      <c r="BA236">
+        <v>1.25</v>
+      </c>
+      <c r="BB236">
+        <v>1.47</v>
+      </c>
+      <c r="BC236">
+        <v>1.9</v>
+      </c>
+      <c r="BD236">
+        <v>2.4</v>
+      </c>
+      <c r="BE236">
+        <v>3.4</v>
+      </c>
+      <c r="BF236">
+        <v>3</v>
+      </c>
+      <c r="BG236">
+        <v>4</v>
+      </c>
+      <c r="BH236">
+        <v>5</v>
+      </c>
+      <c r="BI236">
+        <v>4</v>
+      </c>
+      <c r="BJ236">
+        <v>8</v>
+      </c>
+      <c r="BK236">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>4926173</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45087.85416666666</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237" t="s">
+        <v>66</v>
+      </c>
+      <c r="H237" t="s">
+        <v>69</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>4</v>
+      </c>
+      <c r="O237" t="s">
+        <v>257</v>
+      </c>
+      <c r="P237" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q237">
+        <v>7</v>
+      </c>
+      <c r="R237">
+        <v>4</v>
+      </c>
+      <c r="S237">
+        <v>11</v>
+      </c>
+      <c r="T237">
+        <v>2.15</v>
+      </c>
+      <c r="U237">
+        <v>2.38</v>
+      </c>
+      <c r="V237">
+        <v>4.2</v>
+      </c>
+      <c r="W237">
+        <v>1.29</v>
+      </c>
+      <c r="X237">
+        <v>3.5</v>
+      </c>
+      <c r="Y237">
+        <v>2.3</v>
+      </c>
+      <c r="Z237">
+        <v>1.57</v>
+      </c>
+      <c r="AA237">
+        <v>4.75</v>
+      </c>
+      <c r="AB237">
+        <v>1.15</v>
+      </c>
+      <c r="AC237">
+        <v>1.6</v>
+      </c>
+      <c r="AD237">
+        <v>4.2</v>
+      </c>
+      <c r="AE237">
+        <v>4.75</v>
+      </c>
+      <c r="AF237">
+        <v>1.03</v>
+      </c>
+      <c r="AG237">
+        <v>11</v>
+      </c>
+      <c r="AH237">
+        <v>1.2</v>
+      </c>
+      <c r="AI237">
+        <v>4.33</v>
+      </c>
+      <c r="AJ237">
+        <v>1.53</v>
+      </c>
+      <c r="AK237">
+        <v>2.35</v>
+      </c>
+      <c r="AL237">
+        <v>1.62</v>
+      </c>
+      <c r="AM237">
+        <v>2.2</v>
+      </c>
+      <c r="AN237">
+        <v>1.18</v>
+      </c>
+      <c r="AO237">
+        <v>1.22</v>
+      </c>
+      <c r="AP237">
+        <v>2.15</v>
+      </c>
+      <c r="AQ237">
+        <v>2.13</v>
+      </c>
+      <c r="AR237">
+        <v>1.22</v>
+      </c>
+      <c r="AS237">
+        <v>2.22</v>
+      </c>
+      <c r="AT237">
+        <v>1.1</v>
+      </c>
+      <c r="AU237">
+        <v>1.85</v>
+      </c>
+      <c r="AV237">
+        <v>1.54</v>
+      </c>
+      <c r="AW237">
+        <v>3.39</v>
+      </c>
+      <c r="AX237">
+        <v>1.45</v>
+      </c>
+      <c r="AY237">
+        <v>6.75</v>
+      </c>
+      <c r="AZ237">
+        <v>3.25</v>
+      </c>
+      <c r="BA237">
+        <v>1.25</v>
+      </c>
+      <c r="BB237">
+        <v>1.47</v>
+      </c>
+      <c r="BC237">
+        <v>1.85</v>
+      </c>
+      <c r="BD237">
+        <v>2.4</v>
+      </c>
+      <c r="BE237">
+        <v>3.4</v>
+      </c>
+      <c r="BF237">
+        <v>5</v>
+      </c>
+      <c r="BG237">
+        <v>7</v>
+      </c>
+      <c r="BH237">
+        <v>3</v>
+      </c>
+      <c r="BI237">
+        <v>4</v>
+      </c>
+      <c r="BJ237">
+        <v>8</v>
+      </c>
+      <c r="BK237">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>4926176</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45087.85416666666</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
+        <v>80</v>
+      </c>
+      <c r="H238" t="s">
+        <v>70</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>2</v>
+      </c>
+      <c r="L238">
+        <v>3</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238">
+        <v>4</v>
+      </c>
+      <c r="O238" t="s">
+        <v>258</v>
+      </c>
+      <c r="P238" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q238">
+        <v>4</v>
+      </c>
+      <c r="R238">
+        <v>3</v>
+      </c>
+      <c r="S238">
+        <v>7</v>
+      </c>
+      <c r="T238">
+        <v>2.05</v>
+      </c>
+      <c r="U238">
+        <v>2.38</v>
+      </c>
+      <c r="V238">
+        <v>4.6</v>
+      </c>
+      <c r="W238">
+        <v>1.38</v>
+      </c>
+      <c r="X238">
+        <v>3.17</v>
+      </c>
+      <c r="Y238">
+        <v>2.48</v>
+      </c>
+      <c r="Z238">
+        <v>1.57</v>
+      </c>
+      <c r="AA238">
+        <v>5.7</v>
+      </c>
+      <c r="AB238">
+        <v>1.12</v>
+      </c>
+      <c r="AC238">
+        <v>1.65</v>
+      </c>
+      <c r="AD238">
+        <v>3.8</v>
+      </c>
+      <c r="AE238">
+        <v>5</v>
+      </c>
+      <c r="AF238">
+        <v>1.02</v>
+      </c>
+      <c r="AG238">
+        <v>15</v>
+      </c>
+      <c r="AH238">
+        <v>1.22</v>
+      </c>
+      <c r="AI238">
+        <v>3.8</v>
+      </c>
+      <c r="AJ238">
+        <v>1.67</v>
+      </c>
+      <c r="AK238">
+        <v>2.1</v>
+      </c>
+      <c r="AL238">
+        <v>1.73</v>
+      </c>
+      <c r="AM238">
+        <v>2</v>
+      </c>
+      <c r="AN238">
+        <v>1.18</v>
+      </c>
+      <c r="AO238">
+        <v>1.25</v>
+      </c>
+      <c r="AP238">
+        <v>2.2</v>
+      </c>
+      <c r="AQ238">
+        <v>2.14</v>
+      </c>
+      <c r="AR238">
+        <v>0.43</v>
+      </c>
+      <c r="AS238">
+        <v>2.25</v>
+      </c>
+      <c r="AT238">
+        <v>0.38</v>
+      </c>
+      <c r="AU238">
+        <v>1.57</v>
+      </c>
+      <c r="AV238">
+        <v>1.3</v>
+      </c>
+      <c r="AW238">
+        <v>2.87</v>
+      </c>
+      <c r="AX238">
+        <v>1.27</v>
+      </c>
+      <c r="AY238">
+        <v>7.5</v>
+      </c>
+      <c r="AZ238">
+        <v>4.65</v>
+      </c>
+      <c r="BA238">
+        <v>1.25</v>
+      </c>
+      <c r="BB238">
+        <v>1.47</v>
+      </c>
+      <c r="BC238">
+        <v>1.88</v>
+      </c>
+      <c r="BD238">
+        <v>2.45</v>
+      </c>
+      <c r="BE238">
+        <v>3.4</v>
+      </c>
+      <c r="BF238">
+        <v>6</v>
+      </c>
+      <c r="BG238">
+        <v>6</v>
+      </c>
+      <c r="BH238">
+        <v>2</v>
+      </c>
+      <c r="BI238">
+        <v>7</v>
+      </c>
+      <c r="BJ238">
+        <v>8</v>
+      </c>
+      <c r="BK238">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>4926175</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45087.85416666666</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>91</v>
+      </c>
+      <c r="H239" t="s">
+        <v>89</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>4</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
+      <c r="O239" t="s">
+        <v>259</v>
+      </c>
+      <c r="P239" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q239">
+        <v>7</v>
+      </c>
+      <c r="R239">
+        <v>9</v>
+      </c>
+      <c r="S239">
+        <v>16</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>2.2</v>
+      </c>
+      <c r="V239">
+        <v>3.7</v>
+      </c>
+      <c r="W239">
+        <v>1.38</v>
+      </c>
+      <c r="X239">
+        <v>2.8</v>
+      </c>
+      <c r="Y239">
+        <v>2.8</v>
+      </c>
+      <c r="Z239">
+        <v>1.38</v>
+      </c>
+      <c r="AA239">
+        <v>6</v>
+      </c>
+      <c r="AB239">
+        <v>1.09</v>
+      </c>
+      <c r="AC239">
+        <v>2.05</v>
+      </c>
+      <c r="AD239">
+        <v>3.5</v>
+      </c>
+      <c r="AE239">
+        <v>3.4</v>
+      </c>
+      <c r="AF239">
+        <v>1.04</v>
+      </c>
+      <c r="AG239">
+        <v>12</v>
+      </c>
+      <c r="AH239">
+        <v>1.29</v>
+      </c>
+      <c r="AI239">
+        <v>3.3</v>
+      </c>
+      <c r="AJ239">
+        <v>1.84</v>
+      </c>
+      <c r="AK239">
+        <v>2.02</v>
+      </c>
+      <c r="AL239">
+        <v>1.73</v>
+      </c>
+      <c r="AM239">
+        <v>2</v>
+      </c>
+      <c r="AN239">
+        <v>1.33</v>
+      </c>
+      <c r="AO239">
+        <v>1.3</v>
+      </c>
+      <c r="AP239">
+        <v>1.73</v>
+      </c>
+      <c r="AQ239">
+        <v>2.5</v>
+      </c>
+      <c r="AR239">
+        <v>1.33</v>
+      </c>
+      <c r="AS239">
+        <v>2.57</v>
+      </c>
+      <c r="AT239">
+        <v>1.2</v>
+      </c>
+      <c r="AU239">
+        <v>1.34</v>
+      </c>
+      <c r="AV239">
+        <v>1.34</v>
+      </c>
+      <c r="AW239">
+        <v>2.68</v>
+      </c>
+      <c r="AX239">
+        <v>1.54</v>
+      </c>
+      <c r="AY239">
+        <v>6</v>
+      </c>
+      <c r="AZ239">
+        <v>3</v>
+      </c>
+      <c r="BA239">
+        <v>1.25</v>
+      </c>
+      <c r="BB239">
+        <v>1.47</v>
+      </c>
+      <c r="BC239">
+        <v>1.9</v>
+      </c>
+      <c r="BD239">
+        <v>2.4</v>
+      </c>
+      <c r="BE239">
+        <v>3.4</v>
+      </c>
+      <c r="BF239">
+        <v>9</v>
+      </c>
+      <c r="BG239">
+        <v>5</v>
+      </c>
+      <c r="BH239">
+        <v>2</v>
+      </c>
+      <c r="BI239">
+        <v>7</v>
+      </c>
+      <c r="BJ239">
+        <v>11</v>
+      </c>
+      <c r="BK239">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>4926177</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45087.88888888889</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>71</v>
+      </c>
+      <c r="H240" t="s">
+        <v>84</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>2</v>
+      </c>
+      <c r="O240" t="s">
+        <v>260</v>
+      </c>
+      <c r="P240" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q240">
+        <v>5</v>
+      </c>
+      <c r="R240">
+        <v>3</v>
+      </c>
+      <c r="S240">
+        <v>8</v>
+      </c>
+      <c r="T240">
+        <v>2.58</v>
+      </c>
+      <c r="U240">
+        <v>2.3</v>
+      </c>
+      <c r="V240">
+        <v>4.63</v>
+      </c>
+      <c r="W240">
+        <v>1.39</v>
+      </c>
+      <c r="X240">
+        <v>3.13</v>
+      </c>
+      <c r="Y240">
+        <v>2.86</v>
+      </c>
+      <c r="Z240">
+        <v>1.45</v>
+      </c>
+      <c r="AA240">
+        <v>6.6</v>
+      </c>
+      <c r="AB240">
+        <v>1.09</v>
+      </c>
+      <c r="AC240">
+        <v>2</v>
+      </c>
+      <c r="AD240">
+        <v>3.5</v>
+      </c>
+      <c r="AE240">
+        <v>3.5</v>
+      </c>
+      <c r="AF240">
+        <v>1.05</v>
+      </c>
+      <c r="AG240">
+        <v>9</v>
+      </c>
+      <c r="AH240">
+        <v>1.29</v>
+      </c>
+      <c r="AI240">
+        <v>3.4</v>
+      </c>
+      <c r="AJ240">
+        <v>1.86</v>
+      </c>
+      <c r="AK240">
+        <v>2</v>
+      </c>
+      <c r="AL240">
+        <v>1.74</v>
+      </c>
+      <c r="AM240">
+        <v>2.04</v>
+      </c>
+      <c r="AN240">
+        <v>1.24</v>
+      </c>
+      <c r="AO240">
+        <v>1.27</v>
+      </c>
+      <c r="AP240">
+        <v>1.95</v>
+      </c>
+      <c r="AQ240">
+        <v>1.13</v>
+      </c>
+      <c r="AR240">
+        <v>1</v>
+      </c>
+      <c r="AS240">
+        <v>1.33</v>
+      </c>
+      <c r="AT240">
+        <v>0.9</v>
+      </c>
+      <c r="AU240">
+        <v>1.49</v>
+      </c>
+      <c r="AV240">
+        <v>1.16</v>
+      </c>
+      <c r="AW240">
+        <v>2.65</v>
+      </c>
+      <c r="AX240">
+        <v>1.4</v>
+      </c>
+      <c r="AY240">
+        <v>6.75</v>
+      </c>
+      <c r="AZ240">
+        <v>3.55</v>
+      </c>
+      <c r="BA240">
+        <v>1.25</v>
+      </c>
+      <c r="BB240">
+        <v>1.47</v>
+      </c>
+      <c r="BC240">
+        <v>1.95</v>
+      </c>
+      <c r="BD240">
+        <v>2.4</v>
+      </c>
+      <c r="BE240">
+        <v>3.4</v>
+      </c>
+      <c r="BF240">
+        <v>5</v>
+      </c>
+      <c r="BG240">
+        <v>2</v>
+      </c>
+      <c r="BH240">
+        <v>4</v>
+      </c>
+      <c r="BI240">
+        <v>3</v>
+      </c>
+      <c r="BJ240">
+        <v>9</v>
+      </c>
+      <c r="BK240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>4926180</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45087.89583333334</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>92</v>
+      </c>
+      <c r="H241" t="s">
+        <v>78</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>4</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>4</v>
+      </c>
+      <c r="O241" t="s">
+        <v>261</v>
+      </c>
+      <c r="P241" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q241">
+        <v>5</v>
+      </c>
+      <c r="R241">
+        <v>12</v>
+      </c>
+      <c r="S241">
+        <v>17</v>
+      </c>
+      <c r="T241">
+        <v>3.25</v>
+      </c>
+      <c r="U241">
+        <v>2.25</v>
+      </c>
+      <c r="V241">
+        <v>3</v>
+      </c>
+      <c r="W241">
+        <v>1.33</v>
+      </c>
+      <c r="X241">
+        <v>3.25</v>
+      </c>
+      <c r="Y241">
+        <v>2.63</v>
+      </c>
+      <c r="Z241">
+        <v>1.44</v>
+      </c>
+      <c r="AA241">
+        <v>6.5</v>
+      </c>
+      <c r="AB241">
+        <v>1.11</v>
+      </c>
+      <c r="AC241">
+        <v>2.38</v>
+      </c>
+      <c r="AD241">
+        <v>3.6</v>
+      </c>
+      <c r="AE241">
+        <v>2.7</v>
+      </c>
+      <c r="AF241">
+        <v>1.01</v>
+      </c>
+      <c r="AG241">
+        <v>11</v>
+      </c>
+      <c r="AH241">
+        <v>1.2</v>
+      </c>
+      <c r="AI241">
+        <v>4</v>
+      </c>
+      <c r="AJ241">
+        <v>1.67</v>
+      </c>
+      <c r="AK241">
+        <v>2.1</v>
+      </c>
+      <c r="AL241">
+        <v>1.62</v>
+      </c>
+      <c r="AM241">
+        <v>2.2</v>
+      </c>
+      <c r="AN241">
+        <v>1.62</v>
+      </c>
+      <c r="AO241">
+        <v>1.25</v>
+      </c>
+      <c r="AP241">
+        <v>1.42</v>
+      </c>
+      <c r="AQ241">
+        <v>2.29</v>
+      </c>
+      <c r="AR241">
+        <v>1.5</v>
+      </c>
+      <c r="AS241">
+        <v>2.38</v>
+      </c>
+      <c r="AT241">
+        <v>1.29</v>
+      </c>
+      <c r="AU241">
+        <v>1.31</v>
+      </c>
+      <c r="AV241">
+        <v>1.6</v>
+      </c>
+      <c r="AW241">
+        <v>2.91</v>
+      </c>
+      <c r="AX241">
+        <v>2.35</v>
+      </c>
+      <c r="AY241">
+        <v>6</v>
+      </c>
+      <c r="AZ241">
+        <v>1.8</v>
+      </c>
+      <c r="BA241">
+        <v>1.14</v>
+      </c>
+      <c r="BB241">
+        <v>1.33</v>
+      </c>
+      <c r="BC241">
+        <v>1.6</v>
+      </c>
+      <c r="BD241">
+        <v>2</v>
+      </c>
+      <c r="BE241">
+        <v>2.7</v>
+      </c>
+      <c r="BF241">
+        <v>6</v>
+      </c>
+      <c r="BG241">
+        <v>4</v>
+      </c>
+      <c r="BH241">
+        <v>6</v>
+      </c>
+      <c r="BI241">
+        <v>5</v>
+      </c>
+      <c r="BJ241">
+        <v>12</v>
+      </c>
+      <c r="BK241">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>4926179</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45087.89583333334</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>82</v>
+      </c>
+      <c r="H242" t="s">
+        <v>79</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>111</v>
+      </c>
+      <c r="P242" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q242">
+        <v>1</v>
+      </c>
+      <c r="R242">
+        <v>1</v>
+      </c>
+      <c r="S242">
+        <v>2</v>
+      </c>
+      <c r="T242">
+        <v>3</v>
+      </c>
+      <c r="U242">
+        <v>2.25</v>
+      </c>
+      <c r="V242">
+        <v>3.25</v>
+      </c>
+      <c r="W242">
+        <v>1.33</v>
+      </c>
+      <c r="X242">
+        <v>3.25</v>
+      </c>
+      <c r="Y242">
+        <v>2.63</v>
+      </c>
+      <c r="Z242">
+        <v>1.44</v>
+      </c>
+      <c r="AA242">
+        <v>6.5</v>
+      </c>
+      <c r="AB242">
+        <v>1.11</v>
+      </c>
+      <c r="AC242">
+        <v>2.3</v>
+      </c>
+      <c r="AD242">
+        <v>3.5</v>
+      </c>
+      <c r="AE242">
+        <v>2.88</v>
+      </c>
+      <c r="AF242">
+        <v>1.03</v>
+      </c>
+      <c r="AG242">
+        <v>12</v>
+      </c>
+      <c r="AH242">
+        <v>1.19</v>
+      </c>
+      <c r="AI242">
+        <v>4.3</v>
+      </c>
+      <c r="AJ242">
+        <v>1.67</v>
+      </c>
+      <c r="AK242">
+        <v>2.1</v>
+      </c>
+      <c r="AL242">
+        <v>1.57</v>
+      </c>
+      <c r="AM242">
+        <v>2.25</v>
+      </c>
+      <c r="AN242">
+        <v>1.45</v>
+      </c>
+      <c r="AO242">
+        <v>1.25</v>
+      </c>
+      <c r="AP242">
+        <v>1.47</v>
+      </c>
+      <c r="AQ242">
+        <v>1.5</v>
+      </c>
+      <c r="AR242">
+        <v>0.57</v>
+      </c>
+      <c r="AS242">
+        <v>1.33</v>
+      </c>
+      <c r="AT242">
+        <v>0.88</v>
+      </c>
+      <c r="AU242">
+        <v>1.19</v>
+      </c>
+      <c r="AV242">
+        <v>1.42</v>
+      </c>
+      <c r="AW242">
+        <v>2.61</v>
+      </c>
+      <c r="AX242">
+        <v>1.86</v>
+      </c>
+      <c r="AY242">
+        <v>5.75</v>
+      </c>
+      <c r="AZ242">
+        <v>2.3</v>
+      </c>
+      <c r="BA242">
+        <v>1.26</v>
+      </c>
+      <c r="BB242">
+        <v>1.5</v>
+      </c>
+      <c r="BC242">
+        <v>1.88</v>
+      </c>
+      <c r="BD242">
+        <v>2.5</v>
+      </c>
+      <c r="BE242">
+        <v>3.5</v>
+      </c>
+      <c r="BF242">
+        <v>3</v>
+      </c>
+      <c r="BG242">
+        <v>5</v>
+      </c>
+      <c r="BH242">
+        <v>5</v>
+      </c>
+      <c r="BI242">
+        <v>5</v>
+      </c>
+      <c r="BJ242">
+        <v>8</v>
+      </c>
+      <c r="BK242">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>4926181</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45087.89583333334</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>88</v>
+      </c>
+      <c r="H243" t="s">
+        <v>73</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>4</v>
+      </c>
+      <c r="M243">
+        <v>1</v>
+      </c>
+      <c r="N243">
+        <v>5</v>
+      </c>
+      <c r="O243" t="s">
+        <v>262</v>
+      </c>
+      <c r="P243" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q243">
+        <v>2</v>
+      </c>
+      <c r="R243">
+        <v>5</v>
+      </c>
+      <c r="S243">
+        <v>7</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>2.3</v>
+      </c>
+      <c r="V243">
+        <v>4</v>
+      </c>
+      <c r="W243">
+        <v>1.33</v>
+      </c>
+      <c r="X243">
+        <v>3.25</v>
+      </c>
+      <c r="Y243">
+        <v>2.63</v>
+      </c>
+      <c r="Z243">
+        <v>1.44</v>
+      </c>
+      <c r="AA243">
+        <v>6.5</v>
+      </c>
+      <c r="AB243">
+        <v>1.11</v>
+      </c>
+      <c r="AC243">
+        <v>1.95</v>
+      </c>
+      <c r="AD243">
+        <v>3.6</v>
+      </c>
+      <c r="AE243">
+        <v>3.6</v>
+      </c>
+      <c r="AF243">
+        <v>1.01</v>
+      </c>
+      <c r="AG243">
+        <v>11</v>
+      </c>
+      <c r="AH243">
+        <v>1.2</v>
+      </c>
+      <c r="AI243">
+        <v>3.9</v>
+      </c>
+      <c r="AJ243">
+        <v>1.6</v>
+      </c>
+      <c r="AK243">
+        <v>2.2</v>
+      </c>
+      <c r="AL243">
+        <v>1.62</v>
+      </c>
+      <c r="AM243">
+        <v>2.2</v>
+      </c>
+      <c r="AN243">
+        <v>1.27</v>
+      </c>
+      <c r="AO243">
+        <v>1.25</v>
+      </c>
+      <c r="AP243">
+        <v>1.72</v>
+      </c>
+      <c r="AQ243">
+        <v>1.43</v>
+      </c>
+      <c r="AR243">
+        <v>1</v>
+      </c>
+      <c r="AS243">
+        <v>1.63</v>
+      </c>
+      <c r="AT243">
+        <v>0.88</v>
+      </c>
+      <c r="AU243">
+        <v>1.72</v>
+      </c>
+      <c r="AV243">
+        <v>1.21</v>
+      </c>
+      <c r="AW243">
+        <v>2.93</v>
+      </c>
+      <c r="AX243">
+        <v>1.37</v>
+      </c>
+      <c r="AY243">
+        <v>6.75</v>
+      </c>
+      <c r="AZ243">
+        <v>3.8</v>
+      </c>
+      <c r="BA243">
+        <v>1.25</v>
+      </c>
+      <c r="BB243">
+        <v>1.47</v>
+      </c>
+      <c r="BC243">
+        <v>1.83</v>
+      </c>
+      <c r="BD243">
+        <v>2.4</v>
+      </c>
+      <c r="BE243">
+        <v>3.4</v>
+      </c>
+      <c r="BF243">
+        <v>7</v>
+      </c>
+      <c r="BG243">
+        <v>3</v>
+      </c>
+      <c r="BH243">
+        <v>5</v>
+      </c>
+      <c r="BI243">
+        <v>5</v>
+      </c>
+      <c r="BJ243">
+        <v>12</v>
+      </c>
+      <c r="BK243">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>4926182</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45087.9375</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>90</v>
+      </c>
+      <c r="H244" t="s">
+        <v>86</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244" t="s">
+        <v>96</v>
+      </c>
+      <c r="P244" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q244">
+        <v>9</v>
+      </c>
+      <c r="R244">
+        <v>2</v>
+      </c>
+      <c r="S244">
+        <v>11</v>
+      </c>
+      <c r="T244">
+        <v>2.75</v>
+      </c>
+      <c r="U244">
+        <v>2.2</v>
+      </c>
+      <c r="V244">
+        <v>3.75</v>
+      </c>
+      <c r="W244">
+        <v>1.36</v>
+      </c>
+      <c r="X244">
+        <v>3</v>
+      </c>
+      <c r="Y244">
+        <v>2.75</v>
+      </c>
+      <c r="Z244">
+        <v>1.4</v>
+      </c>
+      <c r="AA244">
+        <v>7</v>
+      </c>
+      <c r="AB244">
+        <v>1.1</v>
+      </c>
+      <c r="AC244">
+        <v>2.2</v>
+      </c>
+      <c r="AD244">
+        <v>3.5</v>
+      </c>
+      <c r="AE244">
+        <v>3</v>
+      </c>
+      <c r="AF244">
+        <v>1.05</v>
+      </c>
+      <c r="AG244">
+        <v>12.75</v>
+      </c>
+      <c r="AH244">
+        <v>1.27</v>
+      </c>
+      <c r="AI244">
+        <v>3.85</v>
+      </c>
+      <c r="AJ244">
+        <v>1.88</v>
+      </c>
+      <c r="AK244">
+        <v>1.98</v>
+      </c>
+      <c r="AL244">
+        <v>1.7</v>
+      </c>
+      <c r="AM244">
+        <v>2.05</v>
+      </c>
+      <c r="AN244">
+        <v>1.4</v>
+      </c>
+      <c r="AO244">
+        <v>1.28</v>
+      </c>
+      <c r="AP244">
+        <v>1.7</v>
+      </c>
+      <c r="AQ244">
+        <v>1</v>
+      </c>
+      <c r="AR244">
+        <v>0.38</v>
+      </c>
+      <c r="AS244">
+        <v>1</v>
+      </c>
+      <c r="AT244">
+        <v>0.44</v>
+      </c>
+      <c r="AU244">
+        <v>1.94</v>
+      </c>
+      <c r="AV244">
+        <v>1.14</v>
+      </c>
+      <c r="AW244">
+        <v>3.08</v>
+      </c>
+      <c r="AX244">
+        <v>1.66</v>
+      </c>
+      <c r="AY244">
+        <v>6</v>
+      </c>
+      <c r="AZ244">
+        <v>2.65</v>
+      </c>
+      <c r="BA244">
+        <v>1.25</v>
+      </c>
+      <c r="BB244">
+        <v>1.47</v>
+      </c>
+      <c r="BC244">
+        <v>1.83</v>
+      </c>
+      <c r="BD244">
+        <v>2.4</v>
+      </c>
+      <c r="BE244">
+        <v>3.4</v>
+      </c>
+      <c r="BF244">
+        <v>6</v>
+      </c>
+      <c r="BG244">
+        <v>2</v>
+      </c>
+      <c r="BH244">
+        <v>11</v>
+      </c>
+      <c r="BI244">
+        <v>2</v>
+      </c>
+      <c r="BJ244">
+        <v>17</v>
+      </c>
+      <c r="BK244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>4926184</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45087.97916666666</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>75</v>
+      </c>
+      <c r="H245" t="s">
+        <v>68</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245" t="s">
+        <v>170</v>
+      </c>
+      <c r="P245" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q245">
+        <v>5</v>
+      </c>
+      <c r="R245">
+        <v>2</v>
+      </c>
+      <c r="S245">
+        <v>7</v>
+      </c>
+      <c r="T245">
+        <v>2.5</v>
+      </c>
+      <c r="U245">
+        <v>2.38</v>
+      </c>
+      <c r="V245">
+        <v>3.75</v>
+      </c>
+      <c r="W245">
+        <v>1.3</v>
+      </c>
+      <c r="X245">
+        <v>3.4</v>
+      </c>
+      <c r="Y245">
+        <v>2.38</v>
+      </c>
+      <c r="Z245">
+        <v>1.53</v>
+      </c>
+      <c r="AA245">
+        <v>6</v>
+      </c>
+      <c r="AB245">
+        <v>1.13</v>
+      </c>
+      <c r="AC245">
+        <v>2</v>
+      </c>
+      <c r="AD245">
+        <v>3.75</v>
+      </c>
+      <c r="AE245">
+        <v>3.25</v>
+      </c>
+      <c r="AF245">
+        <v>1.03</v>
+      </c>
+      <c r="AG245">
+        <v>12</v>
+      </c>
+      <c r="AH245">
+        <v>1.17</v>
+      </c>
+      <c r="AI245">
+        <v>4.3</v>
+      </c>
+      <c r="AJ245">
+        <v>1.57</v>
+      </c>
+      <c r="AK245">
+        <v>2.25</v>
+      </c>
+      <c r="AL245">
+        <v>1.57</v>
+      </c>
+      <c r="AM245">
+        <v>2.25</v>
+      </c>
+      <c r="AN245">
+        <v>1.33</v>
+      </c>
+      <c r="AO245">
+        <v>1.22</v>
+      </c>
+      <c r="AP245">
+        <v>1.83</v>
+      </c>
+      <c r="AQ245">
+        <v>2</v>
+      </c>
+      <c r="AR245">
+        <v>1.71</v>
+      </c>
+      <c r="AS245">
+        <v>1.9</v>
+      </c>
+      <c r="AT245">
+        <v>1.63</v>
+      </c>
+      <c r="AU245">
+        <v>1.89</v>
+      </c>
+      <c r="AV245">
+        <v>1.53</v>
+      </c>
+      <c r="AW245">
+        <v>3.42</v>
+      </c>
+      <c r="AX245">
+        <v>1.48</v>
+      </c>
+      <c r="AY245">
+        <v>6.5</v>
+      </c>
+      <c r="AZ245">
+        <v>3.15</v>
+      </c>
+      <c r="BA245">
+        <v>1.22</v>
+      </c>
+      <c r="BB245">
+        <v>1.42</v>
+      </c>
+      <c r="BC245">
+        <v>1.75</v>
+      </c>
+      <c r="BD245">
+        <v>2.25</v>
+      </c>
+      <c r="BE245">
+        <v>3.1</v>
+      </c>
+      <c r="BF245">
+        <v>4</v>
+      </c>
+      <c r="BG245">
+        <v>4</v>
+      </c>
+      <c r="BH245">
+        <v>5</v>
+      </c>
+      <c r="BI245">
+        <v>3</v>
+      </c>
+      <c r="BJ245">
+        <v>9</v>
+      </c>
+      <c r="BK245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>4926183</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45087.97916666666</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>85</v>
+      </c>
+      <c r="H246" t="s">
+        <v>72</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <v>3</v>
+      </c>
+      <c r="O246" t="s">
+        <v>263</v>
+      </c>
+      <c r="P246" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q246">
+        <v>1</v>
+      </c>
+      <c r="R246">
+        <v>6</v>
+      </c>
+      <c r="S246">
+        <v>7</v>
+      </c>
+      <c r="T246">
+        <v>3</v>
+      </c>
+      <c r="U246">
+        <v>2.2</v>
+      </c>
+      <c r="V246">
+        <v>3.4</v>
+      </c>
+      <c r="W246">
+        <v>1.36</v>
+      </c>
+      <c r="X246">
+        <v>3</v>
+      </c>
+      <c r="Y246">
+        <v>2.63</v>
+      </c>
+      <c r="Z246">
+        <v>1.44</v>
+      </c>
+      <c r="AA246">
+        <v>7</v>
+      </c>
+      <c r="AB246">
+        <v>1.1</v>
+      </c>
+      <c r="AC246">
+        <v>2.15</v>
+      </c>
+      <c r="AD246">
+        <v>3.4</v>
+      </c>
+      <c r="AE246">
+        <v>3.2</v>
+      </c>
+      <c r="AF246">
+        <v>1.04</v>
+      </c>
+      <c r="AG246">
+        <v>13.5</v>
+      </c>
+      <c r="AH246">
+        <v>1.25</v>
+      </c>
+      <c r="AI246">
+        <v>4</v>
+      </c>
+      <c r="AJ246">
+        <v>1.67</v>
+      </c>
+      <c r="AK246">
+        <v>2.1</v>
+      </c>
+      <c r="AL246">
+        <v>1.67</v>
+      </c>
+      <c r="AM246">
+        <v>2.1</v>
+      </c>
+      <c r="AN246">
+        <v>1.4</v>
+      </c>
+      <c r="AO246">
+        <v>1.33</v>
+      </c>
+      <c r="AP246">
+        <v>1.57</v>
+      </c>
+      <c r="AQ246">
+        <v>2.43</v>
+      </c>
+      <c r="AR246">
+        <v>1.43</v>
+      </c>
+      <c r="AS246">
+        <v>2.5</v>
+      </c>
+      <c r="AT246">
+        <v>1.25</v>
+      </c>
+      <c r="AU246">
+        <v>1.41</v>
+      </c>
+      <c r="AV246">
+        <v>1.36</v>
+      </c>
+      <c r="AW246">
+        <v>2.77</v>
+      </c>
+      <c r="AX246">
+        <v>1.8</v>
+      </c>
+      <c r="AY246">
+        <v>6</v>
+      </c>
+      <c r="AZ246">
+        <v>2.35</v>
+      </c>
+      <c r="BA246">
+        <v>1.2</v>
+      </c>
+      <c r="BB246">
+        <v>1.4</v>
+      </c>
+      <c r="BC246">
+        <v>1.71</v>
+      </c>
+      <c r="BD246">
+        <v>2.2</v>
+      </c>
+      <c r="BE246">
+        <v>3</v>
+      </c>
+      <c r="BF246">
+        <v>3</v>
+      </c>
+      <c r="BG246">
+        <v>8</v>
+      </c>
+      <c r="BH246">
+        <v>6</v>
+      </c>
+      <c r="BI246">
+        <v>7</v>
+      </c>
+      <c r="BJ246">
+        <v>9</v>
+      </c>
+      <c r="BK246">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,9 @@
     <t>['8', '57']</t>
   </si>
   <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -908,9 +911,6 @@
   </si>
   <si>
     <t>['39', '47']</t>
-  </si>
-  <si>
-    <t>['68']</t>
   </si>
   <si>
     <t>['81']</t>
@@ -1449,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK246"/>
+  <dimension ref="A1:BK248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1884,7 +1884,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2266,7 +2266,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -3030,7 +3030,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3221,7 +3221,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3412,7 +3412,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3603,7 +3603,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT14">
         <v>0.7</v>
@@ -4176,7 +4176,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -5704,7 +5704,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5985,7 +5985,7 @@
         <v>1.89</v>
       </c>
       <c r="AT24">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU24">
         <v>1.31</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT25">
         <v>1.11</v>
@@ -6850,7 +6850,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7131,7 +7131,7 @@
         <v>1.9</v>
       </c>
       <c r="AT30">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>2.28</v>
@@ -8277,7 +8277,7 @@
         <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8760,7 +8760,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8951,7 +8951,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9038,7 +9038,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT40">
         <v>1.43</v>
@@ -9906,7 +9906,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10288,7 +10288,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10479,7 +10479,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10670,7 +10670,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11052,7 +11052,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11243,7 +11243,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT54">
         <v>0.67</v>
@@ -11816,7 +11816,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12285,10 +12285,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT57">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU57">
         <v>1.23</v>
@@ -12389,7 +12389,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12580,7 +12580,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12771,7 +12771,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12962,7 +12962,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13153,7 +13153,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13344,7 +13344,7 @@
         <v>146</v>
       </c>
       <c r="P63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13726,7 +13726,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14108,7 +14108,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14299,7 +14299,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14490,7 +14490,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14580,7 +14580,7 @@
         <v>2.43</v>
       </c>
       <c r="AT69">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -14872,7 +14872,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15063,7 +15063,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15445,7 +15445,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -16678,7 +16678,7 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT80">
         <v>1.2</v>
@@ -17164,7 +17164,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17928,7 +17928,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18018,7 +18018,7 @@
         <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -18310,7 +18310,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19164,7 +19164,7 @@
         <v>2.38</v>
       </c>
       <c r="AT93">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU93">
         <v>1.29</v>
@@ -19265,7 +19265,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19647,7 +19647,7 @@
         <v>164</v>
       </c>
       <c r="P96" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21748,7 +21748,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -22217,7 +22217,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT109">
         <v>1.38</v>
@@ -22599,7 +22599,7 @@
         <v>1.67</v>
       </c>
       <c r="AS111">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT111">
         <v>1.63</v>
@@ -23748,7 +23748,7 @@
         <v>1.75</v>
       </c>
       <c r="AT117">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU117">
         <v>1.49</v>
@@ -26422,7 +26422,7 @@
         <v>1.33</v>
       </c>
       <c r="AT131">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU131">
         <v>1.42</v>
@@ -26801,7 +26801,7 @@
         <v>0.2</v>
       </c>
       <c r="AS133">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT133">
         <v>0.67</v>
@@ -27950,7 +27950,7 @@
         <v>1.14</v>
       </c>
       <c r="AT139">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>1.22</v>
@@ -30239,7 +30239,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT151">
         <v>0.88</v>
@@ -31298,7 +31298,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -32152,7 +32152,7 @@
         <v>1.33</v>
       </c>
       <c r="AT161">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU161">
         <v>1.45</v>
@@ -32913,7 +32913,7 @@
         <v>0.75</v>
       </c>
       <c r="AS165">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT165">
         <v>0.43</v>
@@ -34253,7 +34253,7 @@
         <v>2.22</v>
       </c>
       <c r="AT172">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU172">
         <v>1.99</v>
@@ -36354,7 +36354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT183">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU183">
         <v>1.47</v>
@@ -37219,7 +37219,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37688,7 +37688,7 @@
         <v>0.75</v>
       </c>
       <c r="AS190">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT190">
         <v>0.7</v>
@@ -38070,7 +38070,7 @@
         <v>1.29</v>
       </c>
       <c r="AS192">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT192">
         <v>1.2</v>
@@ -39511,7 +39511,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39789,7 +39789,7 @@
         <v>0.5</v>
       </c>
       <c r="AS201">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT201">
         <v>0.43</v>
@@ -39893,7 +39893,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40084,7 +40084,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40365,7 +40365,7 @@
         <v>2.5</v>
       </c>
       <c r="AT204">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU204">
         <v>1.47</v>
@@ -42657,7 +42657,7 @@
         <v>1</v>
       </c>
       <c r="AT216">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU216">
         <v>1.87</v>
@@ -42848,7 +42848,7 @@
         <v>1.63</v>
       </c>
       <c r="AT217">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU217">
         <v>1.69</v>
@@ -42949,7 +42949,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -45328,7 +45328,7 @@
         <v>0.29</v>
       </c>
       <c r="AS230">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT230">
         <v>0.25</v>
@@ -46578,7 +46578,7 @@
         <v>257</v>
       </c>
       <c r="P237" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q237">
         <v>7</v>
@@ -47277,22 +47277,22 @@
         <v>3.4</v>
       </c>
       <c r="BF240">
+        <v>7</v>
+      </c>
+      <c r="BG240">
+        <v>3</v>
+      </c>
+      <c r="BH240">
         <v>5</v>
       </c>
-      <c r="BG240">
-        <v>2</v>
-      </c>
-      <c r="BH240">
-        <v>4</v>
-      </c>
       <c r="BI240">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ240">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK240">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:63">
@@ -48439,6 +48439,388 @@
       </c>
       <c r="BK246">
         <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>4926185</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45088.58333333334</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>83</v>
+      </c>
+      <c r="H247" t="s">
+        <v>93</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>264</v>
+      </c>
+      <c r="P247" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q247">
+        <v>7</v>
+      </c>
+      <c r="R247">
+        <v>4</v>
+      </c>
+      <c r="S247">
+        <v>11</v>
+      </c>
+      <c r="T247">
+        <v>2.5</v>
+      </c>
+      <c r="U247">
+        <v>2.3</v>
+      </c>
+      <c r="V247">
+        <v>3.75</v>
+      </c>
+      <c r="W247">
+        <v>1.3</v>
+      </c>
+      <c r="X247">
+        <v>3.5</v>
+      </c>
+      <c r="Y247">
+        <v>2.4</v>
+      </c>
+      <c r="Z247">
+        <v>1.53</v>
+      </c>
+      <c r="AA247">
+        <v>5.5</v>
+      </c>
+      <c r="AB247">
+        <v>1.12</v>
+      </c>
+      <c r="AC247">
+        <v>1.9</v>
+      </c>
+      <c r="AD247">
+        <v>3.8</v>
+      </c>
+      <c r="AE247">
+        <v>3.5</v>
+      </c>
+      <c r="AF247">
+        <v>1.01</v>
+      </c>
+      <c r="AG247">
+        <v>10.25</v>
+      </c>
+      <c r="AH247">
+        <v>1.17</v>
+      </c>
+      <c r="AI247">
+        <v>4.25</v>
+      </c>
+      <c r="AJ247">
+        <v>1.6</v>
+      </c>
+      <c r="AK247">
+        <v>2.25</v>
+      </c>
+      <c r="AL247">
+        <v>1.57</v>
+      </c>
+      <c r="AM247">
+        <v>2.35</v>
+      </c>
+      <c r="AN247">
+        <v>1.35</v>
+      </c>
+      <c r="AO247">
+        <v>1.22</v>
+      </c>
+      <c r="AP247">
+        <v>1.62</v>
+      </c>
+      <c r="AQ247">
+        <v>2.25</v>
+      </c>
+      <c r="AR247">
+        <v>0.63</v>
+      </c>
+      <c r="AS247">
+        <v>2.11</v>
+      </c>
+      <c r="AT247">
+        <v>0.67</v>
+      </c>
+      <c r="AU247">
+        <v>1.58</v>
+      </c>
+      <c r="AV247">
+        <v>1.26</v>
+      </c>
+      <c r="AW247">
+        <v>2.84</v>
+      </c>
+      <c r="AX247">
+        <v>1.85</v>
+      </c>
+      <c r="AY247">
+        <v>8</v>
+      </c>
+      <c r="AZ247">
+        <v>2.28</v>
+      </c>
+      <c r="BA247">
+        <v>1.27</v>
+      </c>
+      <c r="BB247">
+        <v>1.5</v>
+      </c>
+      <c r="BC247">
+        <v>1.9</v>
+      </c>
+      <c r="BD247">
+        <v>1.95</v>
+      </c>
+      <c r="BE247">
+        <v>3.3</v>
+      </c>
+      <c r="BF247">
+        <v>6</v>
+      </c>
+      <c r="BG247">
+        <v>5</v>
+      </c>
+      <c r="BH247">
+        <v>9</v>
+      </c>
+      <c r="BI247">
+        <v>5</v>
+      </c>
+      <c r="BJ247">
+        <v>15</v>
+      </c>
+      <c r="BK247">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>4926186</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45088.95833333334</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>77</v>
+      </c>
+      <c r="H248" t="s">
+        <v>74</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="O248" t="s">
+        <v>185</v>
+      </c>
+      <c r="P248" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q248">
+        <v>2</v>
+      </c>
+      <c r="R248">
+        <v>2</v>
+      </c>
+      <c r="S248">
+        <v>4</v>
+      </c>
+      <c r="T248">
+        <v>2.75</v>
+      </c>
+      <c r="U248">
+        <v>2.2</v>
+      </c>
+      <c r="V248">
+        <v>4</v>
+      </c>
+      <c r="W248">
+        <v>1.36</v>
+      </c>
+      <c r="X248">
+        <v>3</v>
+      </c>
+      <c r="Y248">
+        <v>2.75</v>
+      </c>
+      <c r="Z248">
+        <v>1.4</v>
+      </c>
+      <c r="AA248">
+        <v>8</v>
+      </c>
+      <c r="AB248">
+        <v>1.08</v>
+      </c>
+      <c r="AC248">
+        <v>2.05</v>
+      </c>
+      <c r="AD248">
+        <v>3.35</v>
+      </c>
+      <c r="AE248">
+        <v>3.35</v>
+      </c>
+      <c r="AF248">
+        <v>1.05</v>
+      </c>
+      <c r="AG248">
+        <v>12</v>
+      </c>
+      <c r="AH248">
+        <v>1.27</v>
+      </c>
+      <c r="AI248">
+        <v>3.85</v>
+      </c>
+      <c r="AJ248">
+        <v>1.84</v>
+      </c>
+      <c r="AK248">
+        <v>1.88</v>
+      </c>
+      <c r="AL248">
+        <v>1.7</v>
+      </c>
+      <c r="AM248">
+        <v>2.05</v>
+      </c>
+      <c r="AN248">
+        <v>1.32</v>
+      </c>
+      <c r="AO248">
+        <v>1.32</v>
+      </c>
+      <c r="AP248">
+        <v>1.77</v>
+      </c>
+      <c r="AQ248">
+        <v>1.57</v>
+      </c>
+      <c r="AR248">
+        <v>1.13</v>
+      </c>
+      <c r="AS248">
+        <v>1.75</v>
+      </c>
+      <c r="AT248">
+        <v>1</v>
+      </c>
+      <c r="AU248">
+        <v>1.53</v>
+      </c>
+      <c r="AV248">
+        <v>1.37</v>
+      </c>
+      <c r="AW248">
+        <v>2.9</v>
+      </c>
+      <c r="AX248">
+        <v>1.6</v>
+      </c>
+      <c r="AY248">
+        <v>5.75</v>
+      </c>
+      <c r="AZ248">
+        <v>2.7</v>
+      </c>
+      <c r="BA248">
+        <v>1.28</v>
+      </c>
+      <c r="BB248">
+        <v>1.54</v>
+      </c>
+      <c r="BC248">
+        <v>1.88</v>
+      </c>
+      <c r="BD248">
+        <v>2.49</v>
+      </c>
+      <c r="BE248">
+        <v>3.34</v>
+      </c>
+      <c r="BF248">
+        <v>10</v>
+      </c>
+      <c r="BG248">
+        <v>3</v>
+      </c>
+      <c r="BH248">
+        <v>8</v>
+      </c>
+      <c r="BI248">
+        <v>2</v>
+      </c>
+      <c r="BJ248">
+        <v>18</v>
+      </c>
+      <c r="BK248">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -48614,22 +48614,22 @@
         <v>3.3</v>
       </c>
       <c r="BF247">
+        <v>7</v>
+      </c>
+      <c r="BG247">
         <v>6</v>
       </c>
-      <c r="BG247">
-        <v>5</v>
-      </c>
       <c r="BH247">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BI247">
         <v>5</v>
       </c>
       <c r="BJ247">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BK247">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -811,6 +811,15 @@
     <t>['68']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['51', '69', '85']</t>
+  </si>
+  <si>
+    <t>['11', '70', '75']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -997,9 +1006,6 @@
     <t>['8', '34', '87']</t>
   </si>
   <si>
-    <t>['90+4']</t>
-  </si>
-  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -1088,6 +1094,15 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['41', '51']</t>
+  </si>
+  <si>
+    <t>['48', '90']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK248"/>
+  <dimension ref="A1:BK255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1780,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT2">
         <v>0.44</v>
@@ -1884,7 +1899,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2266,7 +2281,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2356,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="AT5">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2457,7 +2472,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2544,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
         <v>0.5</v>
@@ -3030,7 +3045,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3120,7 +3135,7 @@
         <v>2.22</v>
       </c>
       <c r="AT9">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3221,7 +3236,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3311,7 +3326,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3412,7 +3427,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3603,7 +3618,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3693,7 +3708,7 @@
         <v>1.9</v>
       </c>
       <c r="AT12">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4176,7 +4191,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4263,10 +4278,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -5027,10 +5042,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT19">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5704,7 +5719,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6558,7 +6573,7 @@
         <v>1.7</v>
       </c>
       <c r="AT27">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU27">
         <v>2.09</v>
@@ -6746,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT28">
         <v>0.43</v>
@@ -6850,7 +6865,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7510,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU32">
         <v>1.43</v>
@@ -7701,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT33">
         <v>0.38</v>
@@ -8086,7 +8101,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8274,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT36">
         <v>0.67</v>
@@ -8656,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT38">
         <v>0.4</v>
@@ -8760,7 +8775,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8951,7 +8966,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9041,7 +9056,7 @@
         <v>1.75</v>
       </c>
       <c r="AT40">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU40">
         <v>1.06</v>
@@ -9229,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT41">
         <v>0.9</v>
@@ -9420,7 +9435,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT42">
         <v>1.33</v>
@@ -9614,7 +9629,7 @@
         <v>1.7</v>
       </c>
       <c r="AT43">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU43">
         <v>2</v>
@@ -9805,7 +9820,7 @@
         <v>2.22</v>
       </c>
       <c r="AT44">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU44">
         <v>2.1</v>
@@ -9906,7 +9921,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10184,7 +10199,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT46">
         <v>1.5</v>
@@ -10288,7 +10303,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10378,7 +10393,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU47">
         <v>1.15</v>
@@ -10479,7 +10494,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10566,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT48">
         <v>1.1</v>
@@ -10670,7 +10685,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11052,7 +11067,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11243,7 +11258,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11816,7 +11831,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12389,7 +12404,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12479,7 +12494,7 @@
         <v>2.22</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU58">
         <v>1.5</v>
@@ -12580,7 +12595,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12667,7 +12682,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT59">
         <v>1.33</v>
@@ -12771,7 +12786,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12962,7 +12977,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13153,7 +13168,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13344,7 +13359,7 @@
         <v>146</v>
       </c>
       <c r="P63" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13726,7 +13741,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13813,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
         <v>1.38</v>
@@ -14108,7 +14123,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14195,7 +14210,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT67">
         <v>1.63</v>
@@ -14299,7 +14314,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14389,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="AT68">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU68">
         <v>1.9</v>
@@ -14490,7 +14505,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14577,7 +14592,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT69">
         <v>1</v>
@@ -14768,7 +14783,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT70">
         <v>0.5</v>
@@ -14872,7 +14887,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15063,7 +15078,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15341,7 +15356,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT73">
         <v>0.44</v>
@@ -15445,7 +15460,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15726,7 +15741,7 @@
         <v>2.22</v>
       </c>
       <c r="AT75">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU75">
         <v>1.48</v>
@@ -16490,7 +16505,7 @@
         <v>1.89</v>
       </c>
       <c r="AT79">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU79">
         <v>1.27</v>
@@ -17063,7 +17078,7 @@
         <v>0.5</v>
       </c>
       <c r="AT82">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU82">
         <v>1.36</v>
@@ -17164,7 +17179,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17251,10 +17266,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT83">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17633,7 +17648,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT85">
         <v>0.89</v>
@@ -17824,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT86">
         <v>0.4</v>
@@ -17928,7 +17943,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18310,7 +18325,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18397,10 +18412,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT89">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU89">
         <v>1.59</v>
@@ -18779,7 +18794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT91">
         <v>0.88</v>
@@ -19352,7 +19367,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT94">
         <v>0.9</v>
@@ -19543,7 +19558,7 @@
         <v>0.67</v>
       </c>
       <c r="AS95">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT95">
         <v>0.5</v>
@@ -19647,7 +19662,7 @@
         <v>164</v>
       </c>
       <c r="P96" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19928,7 +19943,7 @@
         <v>1.7</v>
       </c>
       <c r="AT97">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU97">
         <v>1.83</v>
@@ -20119,7 +20134,7 @@
         <v>1.9</v>
       </c>
       <c r="AT98">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU98">
         <v>2.05</v>
@@ -20220,7 +20235,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20307,7 +20322,7 @@
         <v>1.33</v>
       </c>
       <c r="AS99">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT99">
         <v>1.5</v>
@@ -20602,7 +20617,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20793,7 +20808,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21175,7 +21190,7 @@
         <v>170</v>
       </c>
       <c r="P104" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21265,7 +21280,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU104">
         <v>1.41</v>
@@ -21838,7 +21853,7 @@
         <v>1.89</v>
       </c>
       <c r="AT107">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU107">
         <v>1.38</v>
@@ -21939,7 +21954,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22029,7 +22044,7 @@
         <v>1.14</v>
       </c>
       <c r="AT108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU108">
         <v>1.02</v>
@@ -22408,7 +22423,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT110">
         <v>0.7</v>
@@ -22512,7 +22527,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22703,7 +22718,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22793,7 +22808,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU112">
         <v>2.2</v>
@@ -22984,7 +22999,7 @@
         <v>1.33</v>
       </c>
       <c r="AT113">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU113">
         <v>1.37</v>
@@ -23175,7 +23190,7 @@
         <v>3</v>
       </c>
       <c r="AT114">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU114">
         <v>1.17</v>
@@ -23467,7 +23482,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23554,7 +23569,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT116">
         <v>0.7</v>
@@ -23658,7 +23673,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23745,7 +23760,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -23849,7 +23864,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24040,7 +24055,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24422,7 +24437,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24509,10 +24524,10 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT121">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU121">
         <v>1.3</v>
@@ -24894,7 +24909,7 @@
         <v>0.5</v>
       </c>
       <c r="AT123">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25655,7 +25670,7 @@
         <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT127">
         <v>0.89</v>
@@ -25759,7 +25774,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26037,7 +26052,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT129">
         <v>1.11</v>
@@ -26228,7 +26243,7 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT130">
         <v>1.63</v>
@@ -26714,7 +26729,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26804,7 +26819,7 @@
         <v>2.11</v>
       </c>
       <c r="AT133">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU133">
         <v>1.66</v>
@@ -26905,7 +26920,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26992,7 +27007,7 @@
         <v>0</v>
       </c>
       <c r="AS134">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT134">
         <v>0.4</v>
@@ -27287,7 +27302,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -28051,7 +28066,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28329,10 +28344,10 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT141">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU141">
         <v>1.54</v>
@@ -28433,7 +28448,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -29096,7 +29111,7 @@
         <v>2.57</v>
       </c>
       <c r="AT145">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU145">
         <v>1.17</v>
@@ -29478,7 +29493,7 @@
         <v>2.38</v>
       </c>
       <c r="AT147">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU147">
         <v>1.24</v>
@@ -29666,7 +29681,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT148">
         <v>0.63</v>
@@ -29770,7 +29785,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29961,7 +29976,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30152,7 +30167,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30343,7 +30358,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30624,7 +30639,7 @@
         <v>1.33</v>
       </c>
       <c r="AT153">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU153">
         <v>1.16</v>
@@ -30916,7 +30931,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31107,7 +31122,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31197,7 +31212,7 @@
         <v>2.22</v>
       </c>
       <c r="AT156">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU156">
         <v>1.85</v>
@@ -31298,7 +31313,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31385,7 +31400,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT157">
         <v>1.5</v>
@@ -31489,7 +31504,7 @@
         <v>150</v>
       </c>
       <c r="P158" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -31958,7 +31973,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT160">
         <v>1.2</v>
@@ -32253,7 +32268,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32444,7 +32459,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32635,7 +32650,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32725,7 +32740,7 @@
         <v>1</v>
       </c>
       <c r="AT164">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU164">
         <v>1.78</v>
@@ -33017,7 +33032,7 @@
         <v>215</v>
       </c>
       <c r="P166" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -33781,7 +33796,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34545,7 +34560,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34632,7 +34647,7 @@
         <v>0.6</v>
       </c>
       <c r="AS174">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT174">
         <v>0.38</v>
@@ -34826,7 +34841,7 @@
         <v>1.14</v>
       </c>
       <c r="AT175">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU175">
         <v>1.37</v>
@@ -35118,7 +35133,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35205,7 +35220,7 @@
         <v>0.71</v>
       </c>
       <c r="AS177">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT177">
         <v>0.7</v>
@@ -35309,7 +35324,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35590,7 +35605,7 @@
         <v>1</v>
       </c>
       <c r="AT179">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU179">
         <v>1.84</v>
@@ -35691,7 +35706,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36073,7 +36088,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36163,7 +36178,7 @@
         <v>1.33</v>
       </c>
       <c r="AT182">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU182">
         <v>1.37</v>
@@ -36351,7 +36366,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT183">
         <v>0.67</v>
@@ -36455,7 +36470,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36545,7 +36560,7 @@
         <v>3</v>
       </c>
       <c r="AT184">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU184">
         <v>1.32</v>
@@ -36646,7 +36661,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37028,7 +37043,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37219,7 +37234,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37309,7 +37324,7 @@
         <v>1.89</v>
       </c>
       <c r="AT188">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU188">
         <v>1.27</v>
@@ -37410,7 +37425,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37500,7 +37515,7 @@
         <v>0.5</v>
       </c>
       <c r="AT189">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU189">
         <v>1.61</v>
@@ -37879,7 +37894,7 @@
         <v>0.33</v>
       </c>
       <c r="AS191">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT191">
         <v>0.67</v>
@@ -37983,7 +37998,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38365,7 +38380,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38747,7 +38762,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38834,7 +38849,7 @@
         <v>1.17</v>
       </c>
       <c r="AS196">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT196">
         <v>1.25</v>
@@ -38938,7 +38953,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39025,7 +39040,7 @@
         <v>0.6</v>
       </c>
       <c r="AS197">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT197">
         <v>0.63</v>
@@ -39320,7 +39335,7 @@
         <v>238</v>
       </c>
       <c r="P199" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39511,7 +39526,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39601,7 +39616,7 @@
         <v>1.14</v>
       </c>
       <c r="AT200">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU200">
         <v>1.44</v>
@@ -39893,7 +39908,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40084,7 +40099,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40275,7 +40290,7 @@
         <v>151</v>
       </c>
       <c r="P204" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40362,7 +40377,7 @@
         <v>1.33</v>
       </c>
       <c r="AS204">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT204">
         <v>1</v>
@@ -40657,7 +40672,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -40744,10 +40759,10 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT206">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU206">
         <v>1.61</v>
@@ -40848,7 +40863,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -40935,10 +40950,10 @@
         <v>0.67</v>
       </c>
       <c r="AS207">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT207">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU207">
         <v>1.6</v>
@@ -41039,7 +41054,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41230,7 +41245,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41317,7 +41332,7 @@
         <v>1.5</v>
       </c>
       <c r="AS209">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT209">
         <v>1.63</v>
@@ -41803,7 +41818,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -41890,7 +41905,7 @@
         <v>0.38</v>
       </c>
       <c r="AS212">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT212">
         <v>0.4</v>
@@ -41994,7 +42009,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42376,7 +42391,7 @@
         <v>247</v>
       </c>
       <c r="P215" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42567,7 +42582,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42845,7 +42860,7 @@
         <v>1.29</v>
       </c>
       <c r="AS217">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT217">
         <v>1</v>
@@ -42949,7 +42964,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43140,7 +43155,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43230,7 +43245,7 @@
         <v>1.9</v>
       </c>
       <c r="AT219">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU219">
         <v>2</v>
@@ -43418,7 +43433,7 @@
         <v>1.38</v>
       </c>
       <c r="AS220">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT220">
         <v>1.33</v>
@@ -43612,7 +43627,7 @@
         <v>1.7</v>
       </c>
       <c r="AT221">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU221">
         <v>1.75</v>
@@ -43904,7 +43919,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -43994,7 +44009,7 @@
         <v>1.5</v>
       </c>
       <c r="AT223">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU223">
         <v>1.62</v>
@@ -44095,7 +44110,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44477,7 +44492,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44668,7 +44683,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -44758,7 +44773,7 @@
         <v>1.33</v>
       </c>
       <c r="AT227">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU227">
         <v>1.5</v>
@@ -44859,7 +44874,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45331,7 +45346,7 @@
         <v>2.11</v>
       </c>
       <c r="AT230">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU230">
         <v>1.61</v>
@@ -45623,7 +45638,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45904,7 +45919,7 @@
         <v>1.89</v>
       </c>
       <c r="AT233">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU233">
         <v>1.33</v>
@@ -46092,7 +46107,7 @@
         <v>0.88</v>
       </c>
       <c r="AS234">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT234">
         <v>0.89</v>
@@ -46196,7 +46211,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -46578,7 +46593,7 @@
         <v>257</v>
       </c>
       <c r="P237" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q237">
         <v>7</v>
@@ -46769,7 +46784,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -46856,7 +46871,7 @@
         <v>0.43</v>
       </c>
       <c r="AS238">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT238">
         <v>0.38</v>
@@ -47432,7 +47447,7 @@
         <v>2.38</v>
       </c>
       <c r="AT241">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU241">
         <v>1.31</v>
@@ -47533,7 +47548,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -47623,7 +47638,7 @@
         <v>1.33</v>
       </c>
       <c r="AT242">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU242">
         <v>1.19</v>
@@ -47724,7 +47739,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -47811,7 +47826,7 @@
         <v>1</v>
       </c>
       <c r="AS243">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT243">
         <v>0.88</v>
@@ -48384,7 +48399,7 @@
         <v>1.43</v>
       </c>
       <c r="AS246">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT246">
         <v>1.25</v>
@@ -48488,7 +48503,7 @@
         <v>264</v>
       </c>
       <c r="P247" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q247">
         <v>7</v>
@@ -48821,6 +48836,1343 @@
       </c>
       <c r="BK248">
         <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>4926074</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45091.97916666666</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>78</v>
+      </c>
+      <c r="H249" t="s">
+        <v>92</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" t="s">
+        <v>96</v>
+      </c>
+      <c r="P249" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q249">
+        <v>4</v>
+      </c>
+      <c r="R249">
+        <v>5</v>
+      </c>
+      <c r="S249">
+        <v>9</v>
+      </c>
+      <c r="T249">
+        <v>1.91</v>
+      </c>
+      <c r="U249">
+        <v>2.5</v>
+      </c>
+      <c r="V249">
+        <v>6.5</v>
+      </c>
+      <c r="W249">
+        <v>1.29</v>
+      </c>
+      <c r="X249">
+        <v>3.5</v>
+      </c>
+      <c r="Y249">
+        <v>2.38</v>
+      </c>
+      <c r="Z249">
+        <v>1.53</v>
+      </c>
+      <c r="AA249">
+        <v>5.5</v>
+      </c>
+      <c r="AB249">
+        <v>1.14</v>
+      </c>
+      <c r="AC249">
+        <v>1.4</v>
+      </c>
+      <c r="AD249">
+        <v>4.9</v>
+      </c>
+      <c r="AE249">
+        <v>6.75</v>
+      </c>
+      <c r="AF249">
+        <v>1.03</v>
+      </c>
+      <c r="AG249">
+        <v>13</v>
+      </c>
+      <c r="AH249">
+        <v>1.22</v>
+      </c>
+      <c r="AI249">
+        <v>4.2</v>
+      </c>
+      <c r="AJ249">
+        <v>1.58</v>
+      </c>
+      <c r="AK249">
+        <v>2.28</v>
+      </c>
+      <c r="AL249">
+        <v>1.8</v>
+      </c>
+      <c r="AM249">
+        <v>1.95</v>
+      </c>
+      <c r="AN249">
+        <v>1.07</v>
+      </c>
+      <c r="AO249">
+        <v>1.15</v>
+      </c>
+      <c r="AP249">
+        <v>3</v>
+      </c>
+      <c r="AQ249">
+        <v>2.43</v>
+      </c>
+      <c r="AR249">
+        <v>0.25</v>
+      </c>
+      <c r="AS249">
+        <v>2.13</v>
+      </c>
+      <c r="AT249">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU249">
+        <v>2.06</v>
+      </c>
+      <c r="AV249">
+        <v>1.36</v>
+      </c>
+      <c r="AW249">
+        <v>3.42</v>
+      </c>
+      <c r="AX249">
+        <v>1.23</v>
+      </c>
+      <c r="AY249">
+        <v>11</v>
+      </c>
+      <c r="AZ249">
+        <v>5.1</v>
+      </c>
+      <c r="BA249">
+        <v>1.13</v>
+      </c>
+      <c r="BB249">
+        <v>1.33</v>
+      </c>
+      <c r="BC249">
+        <v>1.68</v>
+      </c>
+      <c r="BD249">
+        <v>2</v>
+      </c>
+      <c r="BE249">
+        <v>2.7</v>
+      </c>
+      <c r="BF249">
+        <v>2</v>
+      </c>
+      <c r="BG249">
+        <v>4</v>
+      </c>
+      <c r="BH249">
+        <v>7</v>
+      </c>
+      <c r="BI249">
+        <v>6</v>
+      </c>
+      <c r="BJ249">
+        <v>9</v>
+      </c>
+      <c r="BK249">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>4926187</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45094.6875</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250" t="s">
+        <v>86</v>
+      </c>
+      <c r="H250" t="s">
+        <v>79</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>2</v>
+      </c>
+      <c r="O250" t="s">
+        <v>265</v>
+      </c>
+      <c r="P250" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q250">
+        <v>2</v>
+      </c>
+      <c r="R250">
+        <v>6</v>
+      </c>
+      <c r="S250">
+        <v>8</v>
+      </c>
+      <c r="T250">
+        <v>2.72</v>
+      </c>
+      <c r="U250">
+        <v>2.2</v>
+      </c>
+      <c r="V250">
+        <v>3.7</v>
+      </c>
+      <c r="W250">
+        <v>1.35</v>
+      </c>
+      <c r="X250">
+        <v>3.05</v>
+      </c>
+      <c r="Y250">
+        <v>2.64</v>
+      </c>
+      <c r="Z250">
+        <v>1.45</v>
+      </c>
+      <c r="AA250">
+        <v>6.45</v>
+      </c>
+      <c r="AB250">
+        <v>1.1</v>
+      </c>
+      <c r="AC250">
+        <v>2.05</v>
+      </c>
+      <c r="AD250">
+        <v>3.7</v>
+      </c>
+      <c r="AE250">
+        <v>3.2</v>
+      </c>
+      <c r="AF250">
+        <v>1.04</v>
+      </c>
+      <c r="AG250">
+        <v>10.5</v>
+      </c>
+      <c r="AH250">
+        <v>1.25</v>
+      </c>
+      <c r="AI250">
+        <v>3.6</v>
+      </c>
+      <c r="AJ250">
+        <v>1.75</v>
+      </c>
+      <c r="AK250">
+        <v>1.95</v>
+      </c>
+      <c r="AL250">
+        <v>1.66</v>
+      </c>
+      <c r="AM250">
+        <v>2.14</v>
+      </c>
+      <c r="AN250">
+        <v>1.36</v>
+      </c>
+      <c r="AO250">
+        <v>1.29</v>
+      </c>
+      <c r="AP250">
+        <v>1.68</v>
+      </c>
+      <c r="AQ250">
+        <v>1.75</v>
+      </c>
+      <c r="AR250">
+        <v>0.88</v>
+      </c>
+      <c r="AS250">
+        <v>1.67</v>
+      </c>
+      <c r="AT250">
+        <v>0.89</v>
+      </c>
+      <c r="AU250">
+        <v>1.62</v>
+      </c>
+      <c r="AV250">
+        <v>1.41</v>
+      </c>
+      <c r="AW250">
+        <v>3.03</v>
+      </c>
+      <c r="AX250">
+        <v>2.1</v>
+      </c>
+      <c r="AY250">
+        <v>8</v>
+      </c>
+      <c r="AZ250">
+        <v>1.95</v>
+      </c>
+      <c r="BA250">
+        <v>1.26</v>
+      </c>
+      <c r="BB250">
+        <v>1.5</v>
+      </c>
+      <c r="BC250">
+        <v>2</v>
+      </c>
+      <c r="BD250">
+        <v>2.5</v>
+      </c>
+      <c r="BE250">
+        <v>3.5</v>
+      </c>
+      <c r="BF250">
+        <v>6</v>
+      </c>
+      <c r="BG250">
+        <v>3</v>
+      </c>
+      <c r="BH250">
+        <v>6</v>
+      </c>
+      <c r="BI250">
+        <v>4</v>
+      </c>
+      <c r="BJ250">
+        <v>12</v>
+      </c>
+      <c r="BK250">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>4926188</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45094.85416666666</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>69</v>
+      </c>
+      <c r="H251" t="s">
+        <v>90</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>3</v>
+      </c>
+      <c r="O251" t="s">
+        <v>230</v>
+      </c>
+      <c r="P251" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q251">
+        <v>4</v>
+      </c>
+      <c r="R251">
+        <v>5</v>
+      </c>
+      <c r="S251">
+        <v>9</v>
+      </c>
+      <c r="T251">
+        <v>2.25</v>
+      </c>
+      <c r="U251">
+        <v>2.3</v>
+      </c>
+      <c r="V251">
+        <v>4.5</v>
+      </c>
+      <c r="W251">
+        <v>1.33</v>
+      </c>
+      <c r="X251">
+        <v>3</v>
+      </c>
+      <c r="Y251">
+        <v>2.4</v>
+      </c>
+      <c r="Z251">
+        <v>1.5</v>
+      </c>
+      <c r="AA251">
+        <v>5.5</v>
+      </c>
+      <c r="AB251">
+        <v>1.11</v>
+      </c>
+      <c r="AC251">
+        <v>1.93</v>
+      </c>
+      <c r="AD251">
+        <v>3.6</v>
+      </c>
+      <c r="AE251">
+        <v>3.5</v>
+      </c>
+      <c r="AF251">
+        <v>1.04</v>
+      </c>
+      <c r="AG251">
+        <v>11</v>
+      </c>
+      <c r="AH251">
+        <v>1.22</v>
+      </c>
+      <c r="AI251">
+        <v>3.9</v>
+      </c>
+      <c r="AJ251">
+        <v>1.66</v>
+      </c>
+      <c r="AK251">
+        <v>2.08</v>
+      </c>
+      <c r="AL251">
+        <v>1.7</v>
+      </c>
+      <c r="AM251">
+        <v>2.05</v>
+      </c>
+      <c r="AN251">
+        <v>1.22</v>
+      </c>
+      <c r="AO251">
+        <v>1.22</v>
+      </c>
+      <c r="AP251">
+        <v>2.15</v>
+      </c>
+      <c r="AQ251">
+        <v>1.5</v>
+      </c>
+      <c r="AR251">
+        <v>1.38</v>
+      </c>
+      <c r="AS251">
+        <v>1.33</v>
+      </c>
+      <c r="AT251">
+        <v>1.56</v>
+      </c>
+      <c r="AU251">
+        <v>1.53</v>
+      </c>
+      <c r="AV251">
+        <v>1.34</v>
+      </c>
+      <c r="AW251">
+        <v>2.87</v>
+      </c>
+      <c r="AX251">
+        <v>1.64</v>
+      </c>
+      <c r="AY251">
+        <v>8</v>
+      </c>
+      <c r="AZ251">
+        <v>2.77</v>
+      </c>
+      <c r="BA251">
+        <v>1.3</v>
+      </c>
+      <c r="BB251">
+        <v>1.57</v>
+      </c>
+      <c r="BC251">
+        <v>1.98</v>
+      </c>
+      <c r="BD251">
+        <v>2.7</v>
+      </c>
+      <c r="BE251">
+        <v>3.8</v>
+      </c>
+      <c r="BF251">
+        <v>6</v>
+      </c>
+      <c r="BG251">
+        <v>8</v>
+      </c>
+      <c r="BH251">
+        <v>5</v>
+      </c>
+      <c r="BI251">
+        <v>5</v>
+      </c>
+      <c r="BJ251">
+        <v>11</v>
+      </c>
+      <c r="BK251">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>4926189</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45094.85416666666</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252" t="s">
+        <v>80</v>
+      </c>
+      <c r="H252" t="s">
+        <v>71</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>3</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>4</v>
+      </c>
+      <c r="O252" t="s">
+        <v>266</v>
+      </c>
+      <c r="P252" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q252">
+        <v>2</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>4</v>
+      </c>
+      <c r="T252">
+        <v>2.57</v>
+      </c>
+      <c r="U252">
+        <v>2.15</v>
+      </c>
+      <c r="V252">
+        <v>5.36</v>
+      </c>
+      <c r="W252">
+        <v>1.41</v>
+      </c>
+      <c r="X252">
+        <v>3.03</v>
+      </c>
+      <c r="Y252">
+        <v>2.73</v>
+      </c>
+      <c r="Z252">
+        <v>1.49</v>
+      </c>
+      <c r="AA252">
+        <v>6</v>
+      </c>
+      <c r="AB252">
+        <v>1.09</v>
+      </c>
+      <c r="AC252">
+        <v>1.82</v>
+      </c>
+      <c r="AD252">
+        <v>3.8</v>
+      </c>
+      <c r="AE252">
+        <v>3.9</v>
+      </c>
+      <c r="AF252">
+        <v>1.04</v>
+      </c>
+      <c r="AG252">
+        <v>10.5</v>
+      </c>
+      <c r="AH252">
+        <v>1.24</v>
+      </c>
+      <c r="AI252">
+        <v>3.7</v>
+      </c>
+      <c r="AJ252">
+        <v>1.61</v>
+      </c>
+      <c r="AK252">
+        <v>2.17</v>
+      </c>
+      <c r="AL252">
+        <v>1.68</v>
+      </c>
+      <c r="AM252">
+        <v>2</v>
+      </c>
+      <c r="AN252">
+        <v>1.24</v>
+      </c>
+      <c r="AO252">
+        <v>1.26</v>
+      </c>
+      <c r="AP252">
+        <v>1.93</v>
+      </c>
+      <c r="AQ252">
+        <v>2.25</v>
+      </c>
+      <c r="AR252">
+        <v>2</v>
+      </c>
+      <c r="AS252">
+        <v>2.33</v>
+      </c>
+      <c r="AT252">
+        <v>1.75</v>
+      </c>
+      <c r="AU252">
+        <v>1.53</v>
+      </c>
+      <c r="AV252">
+        <v>1.22</v>
+      </c>
+      <c r="AW252">
+        <v>2.75</v>
+      </c>
+      <c r="AX252">
+        <v>1.82</v>
+      </c>
+      <c r="AY252">
+        <v>8</v>
+      </c>
+      <c r="AZ252">
+        <v>2.33</v>
+      </c>
+      <c r="BA252">
+        <v>1.23</v>
+      </c>
+      <c r="BB252">
+        <v>1.44</v>
+      </c>
+      <c r="BC252">
+        <v>1.95</v>
+      </c>
+      <c r="BD252">
+        <v>2.35</v>
+      </c>
+      <c r="BE252">
+        <v>3.25</v>
+      </c>
+      <c r="BF252">
+        <v>2</v>
+      </c>
+      <c r="BG252">
+        <v>4</v>
+      </c>
+      <c r="BH252">
+        <v>9</v>
+      </c>
+      <c r="BI252">
+        <v>9</v>
+      </c>
+      <c r="BJ252">
+        <v>11</v>
+      </c>
+      <c r="BK252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:63">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>4926190</v>
+      </c>
+      <c r="C253" t="s">
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45094.89583333334</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>88</v>
+      </c>
+      <c r="H253" t="s">
+        <v>78</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>2</v>
+      </c>
+      <c r="N253">
+        <v>3</v>
+      </c>
+      <c r="O253" t="s">
+        <v>141</v>
+      </c>
+      <c r="P253" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q253">
+        <v>8</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
+        <v>10</v>
+      </c>
+      <c r="T253">
+        <v>2.7</v>
+      </c>
+      <c r="U253">
+        <v>2.2</v>
+      </c>
+      <c r="V253">
+        <v>3.4</v>
+      </c>
+      <c r="W253">
+        <v>1.31</v>
+      </c>
+      <c r="X253">
+        <v>3.1</v>
+      </c>
+      <c r="Y253">
+        <v>2.35</v>
+      </c>
+      <c r="Z253">
+        <v>1.52</v>
+      </c>
+      <c r="AA253">
+        <v>5.5</v>
+      </c>
+      <c r="AB253">
+        <v>1.12</v>
+      </c>
+      <c r="AC253">
+        <v>2.2</v>
+      </c>
+      <c r="AD253">
+        <v>3.5</v>
+      </c>
+      <c r="AE253">
+        <v>3</v>
+      </c>
+      <c r="AF253">
+        <v>1.03</v>
+      </c>
+      <c r="AG253">
+        <v>11.5</v>
+      </c>
+      <c r="AH253">
+        <v>1.2</v>
+      </c>
+      <c r="AI253">
+        <v>4.2</v>
+      </c>
+      <c r="AJ253">
+        <v>1.57</v>
+      </c>
+      <c r="AK253">
+        <v>2.25</v>
+      </c>
+      <c r="AL253">
+        <v>1.53</v>
+      </c>
+      <c r="AM253">
+        <v>2.3</v>
+      </c>
+      <c r="AN253">
+        <v>1.37</v>
+      </c>
+      <c r="AO253">
+        <v>1.28</v>
+      </c>
+      <c r="AP253">
+        <v>1.63</v>
+      </c>
+      <c r="AQ253">
+        <v>1.63</v>
+      </c>
+      <c r="AR253">
+        <v>1.29</v>
+      </c>
+      <c r="AS253">
+        <v>1.44</v>
+      </c>
+      <c r="AT253">
+        <v>1.5</v>
+      </c>
+      <c r="AU253">
+        <v>1.69</v>
+      </c>
+      <c r="AV253">
+        <v>1.55</v>
+      </c>
+      <c r="AW253">
+        <v>3.24</v>
+      </c>
+      <c r="AX253">
+        <v>1.8</v>
+      </c>
+      <c r="AY253">
+        <v>5.75</v>
+      </c>
+      <c r="AZ253">
+        <v>2.4</v>
+      </c>
+      <c r="BA253">
+        <v>1.19</v>
+      </c>
+      <c r="BB253">
+        <v>1.36</v>
+      </c>
+      <c r="BC253">
+        <v>1.71</v>
+      </c>
+      <c r="BD253">
+        <v>2.1</v>
+      </c>
+      <c r="BE253">
+        <v>2.75</v>
+      </c>
+      <c r="BF253">
+        <v>9</v>
+      </c>
+      <c r="BG253">
+        <v>5</v>
+      </c>
+      <c r="BH253">
+        <v>6</v>
+      </c>
+      <c r="BI253">
+        <v>1</v>
+      </c>
+      <c r="BJ253">
+        <v>15</v>
+      </c>
+      <c r="BK253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:63">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>4926191</v>
+      </c>
+      <c r="C254" t="s">
+        <v>63</v>
+      </c>
+      <c r="D254" t="s">
+        <v>64</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45094.89583333334</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>65</v>
+      </c>
+      <c r="H254" t="s">
+        <v>83</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>2</v>
+      </c>
+      <c r="L254">
+        <v>3</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254">
+        <v>4</v>
+      </c>
+      <c r="O254" t="s">
+        <v>267</v>
+      </c>
+      <c r="P254" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q254">
+        <v>3</v>
+      </c>
+      <c r="R254">
+        <v>3</v>
+      </c>
+      <c r="S254">
+        <v>6</v>
+      </c>
+      <c r="T254">
+        <v>2.26</v>
+      </c>
+      <c r="U254">
+        <v>2.26</v>
+      </c>
+      <c r="V254">
+        <v>4.65</v>
+      </c>
+      <c r="W254">
+        <v>1.33</v>
+      </c>
+      <c r="X254">
+        <v>3.16</v>
+      </c>
+      <c r="Y254">
+        <v>2.52</v>
+      </c>
+      <c r="Z254">
+        <v>1.49</v>
+      </c>
+      <c r="AA254">
+        <v>6.05</v>
+      </c>
+      <c r="AB254">
+        <v>1.11</v>
+      </c>
+      <c r="AC254">
+        <v>1.58</v>
+      </c>
+      <c r="AD254">
+        <v>4.1</v>
+      </c>
+      <c r="AE254">
+        <v>5.25</v>
+      </c>
+      <c r="AF254">
+        <v>1.04</v>
+      </c>
+      <c r="AG254">
+        <v>11</v>
+      </c>
+      <c r="AH254">
+        <v>1.23</v>
+      </c>
+      <c r="AI254">
+        <v>3.8</v>
+      </c>
+      <c r="AJ254">
+        <v>1.7</v>
+      </c>
+      <c r="AK254">
+        <v>2.02</v>
+      </c>
+      <c r="AL254">
+        <v>1.8</v>
+      </c>
+      <c r="AM254">
+        <v>1.98</v>
+      </c>
+      <c r="AN254">
+        <v>1.18</v>
+      </c>
+      <c r="AO254">
+        <v>1.18</v>
+      </c>
+      <c r="AP254">
+        <v>2.25</v>
+      </c>
+      <c r="AQ254">
+        <v>2.22</v>
+      </c>
+      <c r="AR254">
+        <v>1.43</v>
+      </c>
+      <c r="AS254">
+        <v>2.3</v>
+      </c>
+      <c r="AT254">
+        <v>1.25</v>
+      </c>
+      <c r="AU254">
+        <v>1.66</v>
+      </c>
+      <c r="AV254">
+        <v>1.44</v>
+      </c>
+      <c r="AW254">
+        <v>3.1</v>
+      </c>
+      <c r="AX254">
+        <v>1.51</v>
+      </c>
+      <c r="AY254">
+        <v>8.5</v>
+      </c>
+      <c r="AZ254">
+        <v>3.16</v>
+      </c>
+      <c r="BA254">
+        <v>1.23</v>
+      </c>
+      <c r="BB254">
+        <v>1.44</v>
+      </c>
+      <c r="BC254">
+        <v>1.8</v>
+      </c>
+      <c r="BD254">
+        <v>2.35</v>
+      </c>
+      <c r="BE254">
+        <v>3.25</v>
+      </c>
+      <c r="BF254">
+        <v>6</v>
+      </c>
+      <c r="BG254">
+        <v>4</v>
+      </c>
+      <c r="BH254">
+        <v>4</v>
+      </c>
+      <c r="BI254">
+        <v>3</v>
+      </c>
+      <c r="BJ254">
+        <v>10</v>
+      </c>
+      <c r="BK254">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:63">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>4926192</v>
+      </c>
+      <c r="C255" t="s">
+        <v>63</v>
+      </c>
+      <c r="D255" t="s">
+        <v>64</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45094.97916666666</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255" t="s">
+        <v>85</v>
+      </c>
+      <c r="H255" t="s">
+        <v>77</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255" t="s">
+        <v>96</v>
+      </c>
+      <c r="P255" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q255">
+        <v>7</v>
+      </c>
+      <c r="R255">
+        <v>4</v>
+      </c>
+      <c r="S255">
+        <v>11</v>
+      </c>
+      <c r="T255">
+        <v>2.63</v>
+      </c>
+      <c r="U255">
+        <v>2.2</v>
+      </c>
+      <c r="V255">
+        <v>4</v>
+      </c>
+      <c r="W255">
+        <v>1.36</v>
+      </c>
+      <c r="X255">
+        <v>3</v>
+      </c>
+      <c r="Y255">
+        <v>2.75</v>
+      </c>
+      <c r="Z255">
+        <v>1.4</v>
+      </c>
+      <c r="AA255">
+        <v>7</v>
+      </c>
+      <c r="AB255">
+        <v>1.1</v>
+      </c>
+      <c r="AC255">
+        <v>1.85</v>
+      </c>
+      <c r="AD255">
+        <v>3.6</v>
+      </c>
+      <c r="AE255">
+        <v>3.9</v>
+      </c>
+      <c r="AF255">
+        <v>1.04</v>
+      </c>
+      <c r="AG255">
+        <v>10.5</v>
+      </c>
+      <c r="AH255">
+        <v>1.24</v>
+      </c>
+      <c r="AI255">
+        <v>3.7</v>
+      </c>
+      <c r="AJ255">
+        <v>1.83</v>
+      </c>
+      <c r="AK255">
+        <v>1.87</v>
+      </c>
+      <c r="AL255">
+        <v>1.7</v>
+      </c>
+      <c r="AM255">
+        <v>2.05</v>
+      </c>
+      <c r="AN255">
+        <v>1.29</v>
+      </c>
+      <c r="AO255">
+        <v>1.25</v>
+      </c>
+      <c r="AP255">
+        <v>1.75</v>
+      </c>
+      <c r="AQ255">
+        <v>2.5</v>
+      </c>
+      <c r="AR255">
+        <v>0.67</v>
+      </c>
+      <c r="AS255">
+        <v>2.33</v>
+      </c>
+      <c r="AT255">
+        <v>0.7</v>
+      </c>
+      <c r="AU255">
+        <v>1.38</v>
+      </c>
+      <c r="AV255">
+        <v>1.14</v>
+      </c>
+      <c r="AW255">
+        <v>2.52</v>
+      </c>
+      <c r="AX255">
+        <v>1.37</v>
+      </c>
+      <c r="AY255">
+        <v>9</v>
+      </c>
+      <c r="AZ255">
+        <v>3.71</v>
+      </c>
+      <c r="BA255">
+        <v>1.2</v>
+      </c>
+      <c r="BB255">
+        <v>1.4</v>
+      </c>
+      <c r="BC255">
+        <v>1.71</v>
+      </c>
+      <c r="BD255">
+        <v>2.2</v>
+      </c>
+      <c r="BE255">
+        <v>3</v>
+      </c>
+      <c r="BF255">
+        <v>3</v>
+      </c>
+      <c r="BG255">
+        <v>5</v>
+      </c>
+      <c r="BH255">
+        <v>9</v>
+      </c>
+      <c r="BI255">
+        <v>9</v>
+      </c>
+      <c r="BJ255">
+        <v>12</v>
+      </c>
+      <c r="BK255">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,39 @@
     <t>['11', '70', '75']</t>
   </si>
   <si>
+    <t>['13', '54']</t>
+  </si>
+  <si>
+    <t>['53', '58']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['35', '54', '63']</t>
+  </si>
+  <si>
+    <t>['11', '90+5']</t>
+  </si>
+  <si>
+    <t>['3', '5', '77', '89']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['24', '64']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['17', '42', '58']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -916,9 +949,6 @@
     <t>['42']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
     <t>['39', '47']</t>
   </si>
   <si>
@@ -994,9 +1024,6 @@
     <t>['49', '90+2']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['87']</t>
   </si>
   <si>
@@ -1040,9 +1067,6 @@
   </si>
   <si>
     <t>['10', '22', '78']</t>
-  </si>
-  <si>
-    <t>['21']</t>
   </si>
   <si>
     <t>['8']</t>
@@ -1103,6 +1127,21 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['60', '90']</t>
+  </si>
+  <si>
+    <t>['13', '19']</t>
+  </si>
+  <si>
+    <t>['1', '56']</t>
+  </si>
+  <si>
+    <t>['15', '48', '66']</t>
+  </si>
+  <si>
+    <t>['12', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK255"/>
+  <dimension ref="A1:BK266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1798,7 +1837,7 @@
         <v>2.3</v>
       </c>
       <c r="AT2">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1899,7 +1938,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1986,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT3">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2281,7 +2320,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2472,7 +2511,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2562,7 +2601,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2941,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT8">
         <v>0.78</v>
@@ -3045,7 +3084,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3236,7 +3275,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3323,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
         <v>1.25</v>
@@ -3427,7 +3466,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3618,7 +3657,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3708,7 +3747,7 @@
         <v>1.9</v>
       </c>
       <c r="AT12">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4087,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT14">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4191,7 +4230,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4278,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT15">
         <v>0.7</v>
@@ -4469,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU16">
         <v>2.25</v>
@@ -4854,7 +4893,7 @@
         <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU18">
         <v>2.18</v>
@@ -5233,10 +5272,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5424,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT21">
         <v>1.63</v>
@@ -5615,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT22">
         <v>0.4</v>
@@ -5719,7 +5758,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5809,7 +5848,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6188,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT25">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6382,7 +6421,7 @@
         <v>0.5</v>
       </c>
       <c r="AT26">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6573,7 +6612,7 @@
         <v>1.7</v>
       </c>
       <c r="AT27">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU27">
         <v>2.09</v>
@@ -6865,7 +6904,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7146,7 +7185,7 @@
         <v>1.9</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU30">
         <v>2.28</v>
@@ -7337,7 +7376,7 @@
         <v>3</v>
       </c>
       <c r="AT31">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -7910,7 +7949,7 @@
         <v>2.22</v>
       </c>
       <c r="AT34">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU34">
         <v>1.59</v>
@@ -8775,7 +8814,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8966,7 +9005,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9053,7 +9092,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT40">
         <v>1.25</v>
@@ -9435,7 +9474,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT42">
         <v>1.33</v>
@@ -9817,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT44">
         <v>0.7</v>
@@ -9921,7 +9960,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10008,10 +10047,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT45">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10202,7 +10241,7 @@
         <v>2.33</v>
       </c>
       <c r="AT46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -10303,7 +10342,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10390,7 +10429,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT47">
         <v>0.89</v>
@@ -10494,7 +10533,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10685,7 +10724,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10772,10 +10811,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT49">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU49">
         <v>0.89</v>
@@ -11067,7 +11106,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11258,7 +11297,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11348,7 +11387,7 @@
         <v>1.89</v>
       </c>
       <c r="AT52">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU52">
         <v>1.33</v>
@@ -11536,7 +11575,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT53">
         <v>0.88</v>
@@ -11727,10 +11766,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT54">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU54">
         <v>1.38</v>
@@ -11831,7 +11870,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12300,7 +12339,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT57">
         <v>0.67</v>
@@ -12404,7 +12443,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12595,7 +12634,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12786,7 +12825,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12876,7 +12915,7 @@
         <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU60">
         <v>1.52</v>
@@ -12977,7 +13016,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13168,7 +13207,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13359,7 +13398,7 @@
         <v>146</v>
       </c>
       <c r="P63" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13446,7 +13485,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
         <v>0.9</v>
@@ -13637,10 +13676,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT64">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU64">
         <v>1.56</v>
@@ -13741,7 +13780,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13831,7 +13870,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU65">
         <v>2.67</v>
@@ -14123,7 +14162,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14314,7 +14353,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14505,7 +14544,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14592,10 +14631,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -14786,7 +14825,7 @@
         <v>2.33</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU70">
         <v>1.67</v>
@@ -14887,7 +14926,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -14977,7 +15016,7 @@
         <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU71">
         <v>1.3</v>
@@ -15078,7 +15117,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15165,10 +15204,10 @@
         <v>0.5</v>
       </c>
       <c r="AS72">
+        <v>1.3</v>
+      </c>
+      <c r="AT72">
         <v>1.33</v>
-      </c>
-      <c r="AT72">
-        <v>1.5</v>
       </c>
       <c r="AU72">
         <v>1.24</v>
@@ -15359,7 +15398,7 @@
         <v>2.33</v>
       </c>
       <c r="AT73">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU73">
         <v>1.3</v>
@@ -15460,7 +15499,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15550,7 +15589,7 @@
         <v>1</v>
       </c>
       <c r="AT74">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15741,7 +15780,7 @@
         <v>2.22</v>
       </c>
       <c r="AT75">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU75">
         <v>1.48</v>
@@ -16120,7 +16159,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT77">
         <v>0.78</v>
@@ -16693,7 +16732,7 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT80">
         <v>1.2</v>
@@ -16887,7 +16926,7 @@
         <v>2.22</v>
       </c>
       <c r="AT81">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -17179,7 +17218,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17943,7 +17982,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18033,7 +18072,7 @@
         <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -18221,10 +18260,10 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT88">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU88">
         <v>1.29</v>
@@ -18325,7 +18364,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18606,7 +18645,7 @@
         <v>3</v>
       </c>
       <c r="AT90">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU90">
         <v>1.26</v>
@@ -18794,7 +18833,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT91">
         <v>0.88</v>
@@ -19176,7 +19215,7 @@
         <v>0.67</v>
       </c>
       <c r="AS93">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT93">
         <v>0.67</v>
@@ -19561,7 +19600,7 @@
         <v>2.3</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU95">
         <v>1.36</v>
@@ -19662,7 +19701,7 @@
         <v>164</v>
       </c>
       <c r="P96" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19752,7 +19791,7 @@
         <v>1</v>
       </c>
       <c r="AT96">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU96">
         <v>1.86</v>
@@ -20235,7 +20274,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20325,7 +20364,7 @@
         <v>1.67</v>
       </c>
       <c r="AT99">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU99">
         <v>1.49</v>
@@ -20513,7 +20552,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT100">
         <v>1.1</v>
@@ -20617,7 +20656,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20808,7 +20847,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21190,7 +21229,7 @@
         <v>170</v>
       </c>
       <c r="P104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21277,7 +21316,7 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT104">
         <v>0.5600000000000001</v>
@@ -21468,7 +21507,7 @@
         <v>0.67</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT105">
         <v>0.43</v>
@@ -21662,7 +21701,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU106">
         <v>1.15</v>
@@ -21853,7 +21892,7 @@
         <v>1.89</v>
       </c>
       <c r="AT107">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU107">
         <v>1.38</v>
@@ -21954,7 +21993,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22232,10 +22271,10 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT109">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU109">
         <v>1.13</v>
@@ -22426,7 +22465,7 @@
         <v>2.33</v>
       </c>
       <c r="AT110">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU110">
         <v>1.56</v>
@@ -22527,7 +22566,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22614,7 +22653,7 @@
         <v>1.67</v>
       </c>
       <c r="AS111">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT111">
         <v>1.63</v>
@@ -22718,7 +22757,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23378,7 +23417,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT115">
         <v>0.78</v>
@@ -23482,7 +23521,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23572,7 +23611,7 @@
         <v>2.33</v>
       </c>
       <c r="AT116">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU116">
         <v>1.46</v>
@@ -23673,7 +23712,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23763,7 +23802,7 @@
         <v>1.67</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU117">
         <v>1.49</v>
@@ -23864,7 +23903,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23951,7 +23990,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT118">
         <v>1.1</v>
@@ -24055,7 +24094,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24145,7 +24184,7 @@
         <v>2.22</v>
       </c>
       <c r="AT119">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU119">
         <v>1.66</v>
@@ -24333,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="AS120">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT120">
         <v>0.38</v>
@@ -24437,7 +24476,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24718,7 +24757,7 @@
         <v>1</v>
       </c>
       <c r="AT122">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -25479,10 +25518,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT126">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -25774,7 +25813,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -26055,7 +26094,7 @@
         <v>1.33</v>
       </c>
       <c r="AT129">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU129">
         <v>1.59</v>
@@ -26434,7 +26473,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT131">
         <v>0.67</v>
@@ -26628,7 +26667,7 @@
         <v>1.5</v>
       </c>
       <c r="AT132">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU132">
         <v>1.23</v>
@@ -26729,7 +26768,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26816,7 +26855,7 @@
         <v>0.2</v>
       </c>
       <c r="AS133">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT133">
         <v>0.7</v>
@@ -26920,7 +26959,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27302,7 +27341,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27389,10 +27428,10 @@
         <v>0.25</v>
       </c>
       <c r="AS136">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT136">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU136">
         <v>1.44</v>
@@ -27583,7 +27622,7 @@
         <v>1</v>
       </c>
       <c r="AT137">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -27965,7 +28004,7 @@
         <v>1.14</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU139">
         <v>1.22</v>
@@ -28066,7 +28105,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28448,7 +28487,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28538,7 +28577,7 @@
         <v>1.33</v>
       </c>
       <c r="AT142">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU142">
         <v>1.33</v>
@@ -29108,7 +29147,7 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT145">
         <v>1.75</v>
@@ -29299,10 +29338,10 @@
         <v>0.25</v>
       </c>
       <c r="AS146">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT146">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU146">
         <v>1.58</v>
@@ -29490,10 +29529,10 @@
         <v>0.75</v>
       </c>
       <c r="AS147">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT147">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU147">
         <v>1.24</v>
@@ -29684,7 +29723,7 @@
         <v>2.3</v>
       </c>
       <c r="AT148">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU148">
         <v>1.31</v>
@@ -29785,7 +29824,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29976,7 +30015,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30167,7 +30206,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30254,7 +30293,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT151">
         <v>0.88</v>
@@ -30358,7 +30397,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30448,7 +30487,7 @@
         <v>1.7</v>
       </c>
       <c r="AT152">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU152">
         <v>1.67</v>
@@ -30827,10 +30866,10 @@
         <v>0.33</v>
       </c>
       <c r="AS154">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT154">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -30931,7 +30970,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31018,10 +31057,10 @@
         <v>0.8</v>
       </c>
       <c r="AS155">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT155">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU155">
         <v>1.67</v>
@@ -31122,7 +31161,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31313,7 +31352,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31403,7 +31442,7 @@
         <v>1.33</v>
       </c>
       <c r="AT157">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU157">
         <v>1.54</v>
@@ -31504,7 +31543,7 @@
         <v>150</v>
       </c>
       <c r="P158" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -31782,10 +31821,10 @@
         <v>0.6</v>
       </c>
       <c r="AS159">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT159">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU159">
         <v>1.17</v>
@@ -32164,10 +32203,10 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT161">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU161">
         <v>1.45</v>
@@ -32268,7 +32307,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32355,10 +32394,10 @@
         <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT162">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU162">
         <v>1.32</v>
@@ -32459,7 +32498,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32549,7 +32588,7 @@
         <v>0.5</v>
       </c>
       <c r="AT163">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32650,7 +32689,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32928,7 +32967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS165">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT165">
         <v>0.43</v>
@@ -33122,7 +33161,7 @@
         <v>1</v>
       </c>
       <c r="AT166">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU166">
         <v>2</v>
@@ -33310,10 +33349,10 @@
         <v>0.29</v>
       </c>
       <c r="AS167">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT167">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU167">
         <v>1.42</v>
@@ -33692,7 +33731,7 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT169">
         <v>0.9</v>
@@ -33796,7 +33835,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -33886,7 +33925,7 @@
         <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU170">
         <v>1.31</v>
@@ -34560,7 +34599,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -35133,7 +35172,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35220,10 +35259,10 @@
         <v>0.71</v>
       </c>
       <c r="AS177">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT177">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU177">
         <v>1.99</v>
@@ -35324,7 +35363,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35706,7 +35745,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35793,7 +35832,7 @@
         <v>0.43</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT180">
         <v>0.4</v>
@@ -36088,7 +36127,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36470,7 +36509,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36661,7 +36700,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36751,7 +36790,7 @@
         <v>1.33</v>
       </c>
       <c r="AT185">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU185">
         <v>1.29</v>
@@ -36939,10 +36978,10 @@
         <v>0.5</v>
       </c>
       <c r="AS186">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT186">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU186">
         <v>1.45</v>
@@ -37043,7 +37082,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37234,7 +37273,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37425,7 +37464,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37515,7 +37554,7 @@
         <v>0.5</v>
       </c>
       <c r="AT189">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU189">
         <v>1.61</v>
@@ -37703,10 +37742,10 @@
         <v>0.75</v>
       </c>
       <c r="AS190">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT190">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU190">
         <v>1.53</v>
@@ -37894,10 +37933,10 @@
         <v>0.33</v>
       </c>
       <c r="AS191">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT191">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU191">
         <v>1.97</v>
@@ -37998,7 +38037,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38085,7 +38124,7 @@
         <v>1.29</v>
       </c>
       <c r="AS192">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT192">
         <v>1.2</v>
@@ -38279,7 +38318,7 @@
         <v>1.9</v>
       </c>
       <c r="AT193">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU193">
         <v>2.02</v>
@@ -38380,7 +38419,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38658,7 +38697,7 @@
         <v>0.86</v>
       </c>
       <c r="AS195">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT195">
         <v>0.89</v>
@@ -38762,7 +38801,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38852,7 +38891,7 @@
         <v>1.67</v>
       </c>
       <c r="AT196">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU196">
         <v>1.54</v>
@@ -38953,7 +38992,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39043,7 +39082,7 @@
         <v>2.33</v>
       </c>
       <c r="AT197">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU197">
         <v>1.56</v>
@@ -39231,7 +39270,7 @@
         <v>0.5</v>
       </c>
       <c r="AS198">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT198">
         <v>0.38</v>
@@ -39335,7 +39374,7 @@
         <v>238</v>
       </c>
       <c r="P199" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39422,7 +39461,7 @@
         <v>1.17</v>
       </c>
       <c r="AS199">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT199">
         <v>0.88</v>
@@ -39526,7 +39565,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39616,7 +39655,7 @@
         <v>1.14</v>
       </c>
       <c r="AT200">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU200">
         <v>1.44</v>
@@ -39804,7 +39843,7 @@
         <v>0.5</v>
       </c>
       <c r="AS201">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT201">
         <v>0.43</v>
@@ -39908,7 +39947,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40099,7 +40138,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40189,7 +40228,7 @@
         <v>1</v>
       </c>
       <c r="AT203">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU203">
         <v>2</v>
@@ -40380,7 +40419,7 @@
         <v>2.33</v>
       </c>
       <c r="AT204">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU204">
         <v>1.47</v>
@@ -40672,7 +40711,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -40863,7 +40902,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41054,7 +41093,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41141,7 +41180,7 @@
         <v>1.43</v>
       </c>
       <c r="AS208">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT208">
         <v>1.33</v>
@@ -41245,7 +41284,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41526,7 +41565,7 @@
         <v>2.22</v>
       </c>
       <c r="AT210">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU210">
         <v>1.73</v>
@@ -41717,7 +41756,7 @@
         <v>1.5</v>
       </c>
       <c r="AT211">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU211">
         <v>1.43</v>
@@ -41818,7 +41857,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42009,7 +42048,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42391,7 +42430,7 @@
         <v>247</v>
       </c>
       <c r="P215" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42478,7 +42517,7 @@
         <v>1.5</v>
       </c>
       <c r="AS215">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT215">
         <v>1.2</v>
@@ -42582,7 +42621,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42863,7 +42902,7 @@
         <v>1.44</v>
       </c>
       <c r="AT217">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU217">
         <v>1.69</v>
@@ -42964,7 +43003,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43054,7 +43093,7 @@
         <v>1.7</v>
       </c>
       <c r="AT218">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU218">
         <v>1.57</v>
@@ -43155,7 +43194,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43919,7 +43958,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44006,7 +44045,7 @@
         <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT223">
         <v>1.75</v>
@@ -44110,7 +44149,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44391,7 +44430,7 @@
         <v>3</v>
       </c>
       <c r="AT225">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU225">
         <v>1.33</v>
@@ -44492,7 +44531,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44582,7 +44621,7 @@
         <v>2.22</v>
       </c>
       <c r="AT226">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU226">
         <v>1.93</v>
@@ -44683,7 +44722,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -44770,10 +44809,10 @@
         <v>1.14</v>
       </c>
       <c r="AS227">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT227">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU227">
         <v>1.5</v>
@@ -44874,7 +44913,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -44964,7 +45003,7 @@
         <v>1.89</v>
       </c>
       <c r="AT228">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU228">
         <v>1.31</v>
@@ -45155,7 +45194,7 @@
         <v>1.14</v>
       </c>
       <c r="AT229">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU229">
         <v>1.51</v>
@@ -45343,7 +45382,7 @@
         <v>0.29</v>
       </c>
       <c r="AS230">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT230">
         <v>0.5600000000000001</v>
@@ -45537,7 +45576,7 @@
         <v>0.5</v>
       </c>
       <c r="AT231">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU231">
         <v>1.58</v>
@@ -45638,7 +45677,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45728,7 +45767,7 @@
         <v>1.9</v>
       </c>
       <c r="AT232">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU232">
         <v>2</v>
@@ -46107,7 +46146,7 @@
         <v>0.88</v>
       </c>
       <c r="AS234">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT234">
         <v>0.89</v>
@@ -46211,7 +46250,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -46301,7 +46340,7 @@
         <v>1.33</v>
       </c>
       <c r="AT235">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU235">
         <v>1.32</v>
@@ -46492,7 +46531,7 @@
         <v>1.5</v>
       </c>
       <c r="AT236">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU236">
         <v>1.52</v>
@@ -46593,7 +46632,7 @@
         <v>257</v>
       </c>
       <c r="P237" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q237">
         <v>7</v>
@@ -46680,7 +46719,7 @@
         <v>1.22</v>
       </c>
       <c r="AS237">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT237">
         <v>1.1</v>
@@ -46784,7 +46823,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47062,7 +47101,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT239">
         <v>1.2</v>
@@ -47253,7 +47292,7 @@
         <v>1</v>
       </c>
       <c r="AS240">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT240">
         <v>0.9</v>
@@ -47444,7 +47483,7 @@
         <v>1.5</v>
       </c>
       <c r="AS241">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT241">
         <v>1.5</v>
@@ -47548,7 +47587,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -47739,7 +47778,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -48020,7 +48059,7 @@
         <v>1</v>
       </c>
       <c r="AT244">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU244">
         <v>1.94</v>
@@ -48402,7 +48441,7 @@
         <v>2.33</v>
       </c>
       <c r="AT246">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU246">
         <v>1.41</v>
@@ -48503,7 +48542,7 @@
         <v>264</v>
       </c>
       <c r="P247" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q247">
         <v>7</v>
@@ -48590,7 +48629,7 @@
         <v>0.63</v>
       </c>
       <c r="AS247">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT247">
         <v>0.67</v>
@@ -48781,10 +48820,10 @@
         <v>1.13</v>
       </c>
       <c r="AS248">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT248">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU248">
         <v>1.53</v>
@@ -48972,7 +49011,7 @@
         <v>0.25</v>
       </c>
       <c r="AS249">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT249">
         <v>0.5600000000000001</v>
@@ -49076,7 +49115,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49267,7 +49306,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49357,7 +49396,7 @@
         <v>1.33</v>
       </c>
       <c r="AT251">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU251">
         <v>1.53</v>
@@ -49393,22 +49432,22 @@
         <v>3.8</v>
       </c>
       <c r="BF251">
+        <v>3</v>
+      </c>
+      <c r="BG251">
+        <v>9</v>
+      </c>
+      <c r="BH251">
         <v>6</v>
-      </c>
-      <c r="BG251">
-        <v>8</v>
-      </c>
-      <c r="BH251">
-        <v>5</v>
       </c>
       <c r="BI251">
         <v>5</v>
       </c>
       <c r="BJ251">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BK251">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:63">
@@ -49584,22 +49623,22 @@
         <v>3.25</v>
       </c>
       <c r="BF252">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG252">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH252">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI252">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BJ252">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK252">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253" spans="1:63">
@@ -49649,7 +49688,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -49840,7 +49879,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50173,6 +50212,2107 @@
       </c>
       <c r="BK255">
         <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:63">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>4926197</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45098.85416666666</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256" t="s">
+        <v>71</v>
+      </c>
+      <c r="H256" t="s">
+        <v>72</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="M256">
+        <v>2</v>
+      </c>
+      <c r="N256">
+        <v>4</v>
+      </c>
+      <c r="O256" t="s">
+        <v>268</v>
+      </c>
+      <c r="P256" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q256">
+        <v>4</v>
+      </c>
+      <c r="R256">
+        <v>7</v>
+      </c>
+      <c r="S256">
+        <v>11</v>
+      </c>
+      <c r="T256">
+        <v>2.62</v>
+      </c>
+      <c r="U256">
+        <v>2.25</v>
+      </c>
+      <c r="V256">
+        <v>3.3</v>
+      </c>
+      <c r="W256">
+        <v>1.33</v>
+      </c>
+      <c r="X256">
+        <v>3.25</v>
+      </c>
+      <c r="Y256">
+        <v>2.5</v>
+      </c>
+      <c r="Z256">
+        <v>1.5</v>
+      </c>
+      <c r="AA256">
+        <v>5.5</v>
+      </c>
+      <c r="AB256">
+        <v>1.12</v>
+      </c>
+      <c r="AC256">
+        <v>2.25</v>
+      </c>
+      <c r="AD256">
+        <v>3.6</v>
+      </c>
+      <c r="AE256">
+        <v>2.9</v>
+      </c>
+      <c r="AF256">
+        <v>1.04</v>
+      </c>
+      <c r="AG256">
+        <v>10</v>
+      </c>
+      <c r="AH256">
+        <v>1.22</v>
+      </c>
+      <c r="AI256">
+        <v>4</v>
+      </c>
+      <c r="AJ256">
+        <v>1.89</v>
+      </c>
+      <c r="AK256">
+        <v>1.81</v>
+      </c>
+      <c r="AL256">
+        <v>1.62</v>
+      </c>
+      <c r="AM256">
+        <v>2.2</v>
+      </c>
+      <c r="AN256">
+        <v>1.41</v>
+      </c>
+      <c r="AO256">
+        <v>1.29</v>
+      </c>
+      <c r="AP256">
+        <v>1.61</v>
+      </c>
+      <c r="AQ256">
+        <v>1.33</v>
+      </c>
+      <c r="AR256">
+        <v>1.25</v>
+      </c>
+      <c r="AS256">
+        <v>1.3</v>
+      </c>
+      <c r="AT256">
+        <v>1.22</v>
+      </c>
+      <c r="AU256">
+        <v>1.52</v>
+      </c>
+      <c r="AV256">
+        <v>1.44</v>
+      </c>
+      <c r="AW256">
+        <v>2.96</v>
+      </c>
+      <c r="AX256">
+        <v>1.72</v>
+      </c>
+      <c r="AY256">
+        <v>7</v>
+      </c>
+      <c r="AZ256">
+        <v>2.55</v>
+      </c>
+      <c r="BA256">
+        <v>1.29</v>
+      </c>
+      <c r="BB256">
+        <v>1.53</v>
+      </c>
+      <c r="BC256">
+        <v>1.95</v>
+      </c>
+      <c r="BD256">
+        <v>2.55</v>
+      </c>
+      <c r="BE256">
+        <v>3.5</v>
+      </c>
+      <c r="BF256">
+        <v>6</v>
+      </c>
+      <c r="BG256">
+        <v>6</v>
+      </c>
+      <c r="BH256">
+        <v>2</v>
+      </c>
+      <c r="BI256">
+        <v>4</v>
+      </c>
+      <c r="BJ256">
+        <v>8</v>
+      </c>
+      <c r="BK256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:63">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>4926196</v>
+      </c>
+      <c r="C257" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257" t="s">
+        <v>64</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45098.85416666666</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257" t="s">
+        <v>81</v>
+      </c>
+      <c r="H257" t="s">
+        <v>67</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>2</v>
+      </c>
+      <c r="K257">
+        <v>2</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>4</v>
+      </c>
+      <c r="O257" t="s">
+        <v>269</v>
+      </c>
+      <c r="P257" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q257">
+        <v>6</v>
+      </c>
+      <c r="R257">
+        <v>3</v>
+      </c>
+      <c r="S257">
+        <v>9</v>
+      </c>
+      <c r="T257">
+        <v>2.45</v>
+      </c>
+      <c r="U257">
+        <v>2.1</v>
+      </c>
+      <c r="V257">
+        <v>4.1</v>
+      </c>
+      <c r="W257">
+        <v>1.4</v>
+      </c>
+      <c r="X257">
+        <v>2.75</v>
+      </c>
+      <c r="Y257">
+        <v>2.75</v>
+      </c>
+      <c r="Z257">
+        <v>1.4</v>
+      </c>
+      <c r="AA257">
+        <v>7</v>
+      </c>
+      <c r="AB257">
+        <v>1.08</v>
+      </c>
+      <c r="AC257">
+        <v>1.8</v>
+      </c>
+      <c r="AD257">
+        <v>3.4</v>
+      </c>
+      <c r="AE257">
+        <v>4.5</v>
+      </c>
+      <c r="AF257">
+        <v>1.07</v>
+      </c>
+      <c r="AG257">
+        <v>7.5</v>
+      </c>
+      <c r="AH257">
+        <v>1.36</v>
+      </c>
+      <c r="AI257">
+        <v>3</v>
+      </c>
+      <c r="AJ257">
+        <v>2.05</v>
+      </c>
+      <c r="AK257">
+        <v>1.68</v>
+      </c>
+      <c r="AL257">
+        <v>1.91</v>
+      </c>
+      <c r="AM257">
+        <v>1.8</v>
+      </c>
+      <c r="AN257">
+        <v>1.2</v>
+      </c>
+      <c r="AO257">
+        <v>1.22</v>
+      </c>
+      <c r="AP257">
+        <v>2.05</v>
+      </c>
+      <c r="AQ257">
+        <v>1.5</v>
+      </c>
+      <c r="AR257">
+        <v>1.11</v>
+      </c>
+      <c r="AS257">
+        <v>1.44</v>
+      </c>
+      <c r="AT257">
+        <v>1.1</v>
+      </c>
+      <c r="AU257">
+        <v>1.57</v>
+      </c>
+      <c r="AV257">
+        <v>1.16</v>
+      </c>
+      <c r="AW257">
+        <v>2.73</v>
+      </c>
+      <c r="AX257">
+        <v>1.38</v>
+      </c>
+      <c r="AY257">
+        <v>8</v>
+      </c>
+      <c r="AZ257">
+        <v>3.7</v>
+      </c>
+      <c r="BA257">
+        <v>1.3</v>
+      </c>
+      <c r="BB257">
+        <v>1.56</v>
+      </c>
+      <c r="BC257">
+        <v>2</v>
+      </c>
+      <c r="BD257">
+        <v>2.63</v>
+      </c>
+      <c r="BE257">
+        <v>3.65</v>
+      </c>
+      <c r="BF257">
+        <v>7</v>
+      </c>
+      <c r="BG257">
+        <v>4</v>
+      </c>
+      <c r="BH257">
+        <v>5</v>
+      </c>
+      <c r="BI257">
+        <v>2</v>
+      </c>
+      <c r="BJ257">
+        <v>12</v>
+      </c>
+      <c r="BK257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:63">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>4926195</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>64</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45098.85416666666</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258" t="s">
+        <v>91</v>
+      </c>
+      <c r="H258" t="s">
+        <v>65</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>1</v>
+      </c>
+      <c r="O258" t="s">
+        <v>270</v>
+      </c>
+      <c r="P258" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q258">
+        <v>2</v>
+      </c>
+      <c r="R258">
+        <v>4</v>
+      </c>
+      <c r="S258">
+        <v>6</v>
+      </c>
+      <c r="T258">
+        <v>2.8</v>
+      </c>
+      <c r="U258">
+        <v>2.3</v>
+      </c>
+      <c r="V258">
+        <v>3</v>
+      </c>
+      <c r="W258">
+        <v>1.3</v>
+      </c>
+      <c r="X258">
+        <v>3.4</v>
+      </c>
+      <c r="Y258">
+        <v>2.38</v>
+      </c>
+      <c r="Z258">
+        <v>1.53</v>
+      </c>
+      <c r="AA258">
+        <v>5</v>
+      </c>
+      <c r="AB258">
+        <v>1.14</v>
+      </c>
+      <c r="AC258">
+        <v>2.38</v>
+      </c>
+      <c r="AD258">
+        <v>3.7</v>
+      </c>
+      <c r="AE258">
+        <v>2.62</v>
+      </c>
+      <c r="AF258">
+        <v>1.03</v>
+      </c>
+      <c r="AG258">
+        <v>11</v>
+      </c>
+      <c r="AH258">
+        <v>1.2</v>
+      </c>
+      <c r="AI258">
+        <v>4.33</v>
+      </c>
+      <c r="AJ258">
+        <v>1.86</v>
+      </c>
+      <c r="AK258">
+        <v>1.84</v>
+      </c>
+      <c r="AL258">
+        <v>1.53</v>
+      </c>
+      <c r="AM258">
+        <v>2.38</v>
+      </c>
+      <c r="AN258">
+        <v>1.44</v>
+      </c>
+      <c r="AO258">
+        <v>1.25</v>
+      </c>
+      <c r="AP258">
+        <v>1.53</v>
+      </c>
+      <c r="AQ258">
+        <v>2.57</v>
+      </c>
+      <c r="AR258">
+        <v>1.5</v>
+      </c>
+      <c r="AS258">
+        <v>2.63</v>
+      </c>
+      <c r="AT258">
+        <v>1.33</v>
+      </c>
+      <c r="AU258">
+        <v>1.37</v>
+      </c>
+      <c r="AV258">
+        <v>1.1</v>
+      </c>
+      <c r="AW258">
+        <v>2.47</v>
+      </c>
+      <c r="AX258">
+        <v>1.8</v>
+      </c>
+      <c r="AY258">
+        <v>7</v>
+      </c>
+      <c r="AZ258">
+        <v>2.4</v>
+      </c>
+      <c r="BA258">
+        <v>1.3</v>
+      </c>
+      <c r="BB258">
+        <v>1.55</v>
+      </c>
+      <c r="BC258">
+        <v>1.98</v>
+      </c>
+      <c r="BD258">
+        <v>2.6</v>
+      </c>
+      <c r="BE258">
+        <v>3.6</v>
+      </c>
+      <c r="BF258">
+        <v>7</v>
+      </c>
+      <c r="BG258">
+        <v>3</v>
+      </c>
+      <c r="BH258">
+        <v>6</v>
+      </c>
+      <c r="BI258">
+        <v>6</v>
+      </c>
+      <c r="BJ258">
+        <v>13</v>
+      </c>
+      <c r="BK258">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:63">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>4926194</v>
+      </c>
+      <c r="C259" t="s">
+        <v>63</v>
+      </c>
+      <c r="D259" t="s">
+        <v>64</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45098.85416666666</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259" t="s">
+        <v>68</v>
+      </c>
+      <c r="H259" t="s">
+        <v>87</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>3</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>3</v>
+      </c>
+      <c r="O259" t="s">
+        <v>271</v>
+      </c>
+      <c r="P259" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q259">
+        <v>6</v>
+      </c>
+      <c r="R259">
+        <v>1</v>
+      </c>
+      <c r="S259">
+        <v>7</v>
+      </c>
+      <c r="T259">
+        <v>2.35</v>
+      </c>
+      <c r="U259">
+        <v>2.27</v>
+      </c>
+      <c r="V259">
+        <v>5.77</v>
+      </c>
+      <c r="W259">
+        <v>1.38</v>
+      </c>
+      <c r="X259">
+        <v>3.2</v>
+      </c>
+      <c r="Y259">
+        <v>2.64</v>
+      </c>
+      <c r="Z259">
+        <v>1.52</v>
+      </c>
+      <c r="AA259">
+        <v>6</v>
+      </c>
+      <c r="AB259">
+        <v>1.11</v>
+      </c>
+      <c r="AC259">
+        <v>1.65</v>
+      </c>
+      <c r="AD259">
+        <v>3.8</v>
+      </c>
+      <c r="AE259">
+        <v>5</v>
+      </c>
+      <c r="AF259">
+        <v>1.03</v>
+      </c>
+      <c r="AG259">
+        <v>13</v>
+      </c>
+      <c r="AH259">
+        <v>1.22</v>
+      </c>
+      <c r="AI259">
+        <v>4</v>
+      </c>
+      <c r="AJ259">
+        <v>1.68</v>
+      </c>
+      <c r="AK259">
+        <v>2.05</v>
+      </c>
+      <c r="AL259">
+        <v>1.75</v>
+      </c>
+      <c r="AM259">
+        <v>2.05</v>
+      </c>
+      <c r="AN259">
+        <v>1.18</v>
+      </c>
+      <c r="AO259">
+        <v>1.2</v>
+      </c>
+      <c r="AP259">
+        <v>2.15</v>
+      </c>
+      <c r="AQ259">
+        <v>3</v>
+      </c>
+      <c r="AR259">
+        <v>0.5</v>
+      </c>
+      <c r="AS259">
+        <v>3</v>
+      </c>
+      <c r="AT259">
+        <v>0.44</v>
+      </c>
+      <c r="AU259">
+        <v>1.3</v>
+      </c>
+      <c r="AV259">
+        <v>0.96</v>
+      </c>
+      <c r="AW259">
+        <v>2.26</v>
+      </c>
+      <c r="AX259">
+        <v>1.58</v>
+      </c>
+      <c r="AY259">
+        <v>7.5</v>
+      </c>
+      <c r="AZ259">
+        <v>2.88</v>
+      </c>
+      <c r="BA259">
+        <v>1.29</v>
+      </c>
+      <c r="BB259">
+        <v>1.53</v>
+      </c>
+      <c r="BC259">
+        <v>1.95</v>
+      </c>
+      <c r="BD259">
+        <v>2.55</v>
+      </c>
+      <c r="BE259">
+        <v>3.5</v>
+      </c>
+      <c r="BF259">
+        <v>8</v>
+      </c>
+      <c r="BG259">
+        <v>5</v>
+      </c>
+      <c r="BH259">
+        <v>4</v>
+      </c>
+      <c r="BI259">
+        <v>4</v>
+      </c>
+      <c r="BJ259">
+        <v>12</v>
+      </c>
+      <c r="BK259">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>4926193</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45098.85416666666</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260" t="s">
+        <v>66</v>
+      </c>
+      <c r="H260" t="s">
+        <v>86</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260">
+        <v>2</v>
+      </c>
+      <c r="L260">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>2</v>
+      </c>
+      <c r="N260">
+        <v>4</v>
+      </c>
+      <c r="O260" t="s">
+        <v>272</v>
+      </c>
+      <c r="P260" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q260">
+        <v>5</v>
+      </c>
+      <c r="R260">
+        <v>1</v>
+      </c>
+      <c r="S260">
+        <v>6</v>
+      </c>
+      <c r="T260">
+        <v>2.15</v>
+      </c>
+      <c r="U260">
+        <v>2.38</v>
+      </c>
+      <c r="V260">
+        <v>4.33</v>
+      </c>
+      <c r="W260">
+        <v>1.3</v>
+      </c>
+      <c r="X260">
+        <v>3.4</v>
+      </c>
+      <c r="Y260">
+        <v>2.38</v>
+      </c>
+      <c r="Z260">
+        <v>1.53</v>
+      </c>
+      <c r="AA260">
+        <v>5</v>
+      </c>
+      <c r="AB260">
+        <v>1.14</v>
+      </c>
+      <c r="AC260">
+        <v>1.73</v>
+      </c>
+      <c r="AD260">
+        <v>3.9</v>
+      </c>
+      <c r="AE260">
+        <v>4.2</v>
+      </c>
+      <c r="AF260">
+        <v>1.04</v>
+      </c>
+      <c r="AG260">
+        <v>10</v>
+      </c>
+      <c r="AH260">
+        <v>1.22</v>
+      </c>
+      <c r="AI260">
+        <v>4</v>
+      </c>
+      <c r="AJ260">
+        <v>1.7</v>
+      </c>
+      <c r="AK260">
+        <v>2.02</v>
+      </c>
+      <c r="AL260">
+        <v>1.7</v>
+      </c>
+      <c r="AM260">
+        <v>2.05</v>
+      </c>
+      <c r="AN260">
+        <v>1.18</v>
+      </c>
+      <c r="AO260">
+        <v>1.25</v>
+      </c>
+      <c r="AP260">
+        <v>2.1</v>
+      </c>
+      <c r="AQ260">
+        <v>2.22</v>
+      </c>
+      <c r="AR260">
+        <v>0.44</v>
+      </c>
+      <c r="AS260">
+        <v>2.1</v>
+      </c>
+      <c r="AT260">
+        <v>0.5</v>
+      </c>
+      <c r="AU260">
+        <v>1.76</v>
+      </c>
+      <c r="AV260">
+        <v>1.08</v>
+      </c>
+      <c r="AW260">
+        <v>2.84</v>
+      </c>
+      <c r="AX260">
+        <v>1.38</v>
+      </c>
+      <c r="AY260">
+        <v>8</v>
+      </c>
+      <c r="AZ260">
+        <v>3.75</v>
+      </c>
+      <c r="BA260">
+        <v>1.24</v>
+      </c>
+      <c r="BB260">
+        <v>1.44</v>
+      </c>
+      <c r="BC260">
+        <v>1.8</v>
+      </c>
+      <c r="BD260">
+        <v>2.3</v>
+      </c>
+      <c r="BE260">
+        <v>3.1</v>
+      </c>
+      <c r="BF260">
+        <v>6</v>
+      </c>
+      <c r="BG260">
+        <v>4</v>
+      </c>
+      <c r="BH260">
+        <v>2</v>
+      </c>
+      <c r="BI260">
+        <v>0</v>
+      </c>
+      <c r="BJ260">
+        <v>8</v>
+      </c>
+      <c r="BK260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>4926199</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45098.89583333334</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261" t="s">
+        <v>92</v>
+      </c>
+      <c r="H261" t="s">
+        <v>85</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>3</v>
+      </c>
+      <c r="L261">
+        <v>4</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>5</v>
+      </c>
+      <c r="O261" t="s">
+        <v>273</v>
+      </c>
+      <c r="P261" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q261">
+        <v>1</v>
+      </c>
+      <c r="R261">
+        <v>6</v>
+      </c>
+      <c r="S261">
+        <v>7</v>
+      </c>
+      <c r="T261">
+        <v>2.45</v>
+      </c>
+      <c r="U261">
+        <v>2.2</v>
+      </c>
+      <c r="V261">
+        <v>3.9</v>
+      </c>
+      <c r="W261">
+        <v>1.33</v>
+      </c>
+      <c r="X261">
+        <v>3</v>
+      </c>
+      <c r="Y261">
+        <v>2.45</v>
+      </c>
+      <c r="Z261">
+        <v>1.47</v>
+      </c>
+      <c r="AA261">
+        <v>5.75</v>
+      </c>
+      <c r="AB261">
+        <v>1.11</v>
+      </c>
+      <c r="AC261">
+        <v>1.91</v>
+      </c>
+      <c r="AD261">
+        <v>3.7</v>
+      </c>
+      <c r="AE261">
+        <v>3.7</v>
+      </c>
+      <c r="AF261">
+        <v>1.02</v>
+      </c>
+      <c r="AG261">
+        <v>15</v>
+      </c>
+      <c r="AH261">
+        <v>1.22</v>
+      </c>
+      <c r="AI261">
+        <v>4.2</v>
+      </c>
+      <c r="AJ261">
+        <v>1.63</v>
+      </c>
+      <c r="AK261">
+        <v>2.13</v>
+      </c>
+      <c r="AL261">
+        <v>1.62</v>
+      </c>
+      <c r="AM261">
+        <v>2.15</v>
+      </c>
+      <c r="AN261">
+        <v>1.27</v>
+      </c>
+      <c r="AO261">
+        <v>1.27</v>
+      </c>
+      <c r="AP261">
+        <v>1.83</v>
+      </c>
+      <c r="AQ261">
+        <v>2.38</v>
+      </c>
+      <c r="AR261">
+        <v>0.67</v>
+      </c>
+      <c r="AS261">
+        <v>2.44</v>
+      </c>
+      <c r="AT261">
+        <v>0.6</v>
+      </c>
+      <c r="AU261">
+        <v>1.33</v>
+      </c>
+      <c r="AV261">
+        <v>1.18</v>
+      </c>
+      <c r="AW261">
+        <v>2.51</v>
+      </c>
+      <c r="AX261">
+        <v>1.78</v>
+      </c>
+      <c r="AY261">
+        <v>7.5</v>
+      </c>
+      <c r="AZ261">
+        <v>2.4</v>
+      </c>
+      <c r="BA261">
+        <v>1.2</v>
+      </c>
+      <c r="BB261">
+        <v>1.38</v>
+      </c>
+      <c r="BC261">
+        <v>1.67</v>
+      </c>
+      <c r="BD261">
+        <v>2.12</v>
+      </c>
+      <c r="BE261">
+        <v>2.85</v>
+      </c>
+      <c r="BF261">
+        <v>6</v>
+      </c>
+      <c r="BG261">
+        <v>2</v>
+      </c>
+      <c r="BH261">
+        <v>7</v>
+      </c>
+      <c r="BI261">
+        <v>5</v>
+      </c>
+      <c r="BJ261">
+        <v>13</v>
+      </c>
+      <c r="BK261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>4926201</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45098.89583333334</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262" t="s">
+        <v>83</v>
+      </c>
+      <c r="H262" t="s">
+        <v>90</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>2</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262">
+        <v>3</v>
+      </c>
+      <c r="N262">
+        <v>4</v>
+      </c>
+      <c r="O262" t="s">
+        <v>274</v>
+      </c>
+      <c r="P262" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q262">
+        <v>4</v>
+      </c>
+      <c r="R262">
+        <v>3</v>
+      </c>
+      <c r="S262">
+        <v>7</v>
+      </c>
+      <c r="T262">
+        <v>2.3</v>
+      </c>
+      <c r="U262">
+        <v>2.3</v>
+      </c>
+      <c r="V262">
+        <v>3.9</v>
+      </c>
+      <c r="W262">
+        <v>1.3</v>
+      </c>
+      <c r="X262">
+        <v>3.25</v>
+      </c>
+      <c r="Y262">
+        <v>2.37</v>
+      </c>
+      <c r="Z262">
+        <v>1.51</v>
+      </c>
+      <c r="AA262">
+        <v>5.5</v>
+      </c>
+      <c r="AB262">
+        <v>1.12</v>
+      </c>
+      <c r="AC262">
+        <v>1.8</v>
+      </c>
+      <c r="AD262">
+        <v>3.9</v>
+      </c>
+      <c r="AE262">
+        <v>3.9</v>
+      </c>
+      <c r="AF262">
+        <v>1.02</v>
+      </c>
+      <c r="AG262">
+        <v>17</v>
+      </c>
+      <c r="AH262">
+        <v>1.2</v>
+      </c>
+      <c r="AI262">
+        <v>4.5</v>
+      </c>
+      <c r="AJ262">
+        <v>1.58</v>
+      </c>
+      <c r="AK262">
+        <v>2.22</v>
+      </c>
+      <c r="AL262">
+        <v>1.6</v>
+      </c>
+      <c r="AM262">
+        <v>2.15</v>
+      </c>
+      <c r="AN262">
+        <v>1.25</v>
+      </c>
+      <c r="AO262">
+        <v>1.24</v>
+      </c>
+      <c r="AP262">
+        <v>1.93</v>
+      </c>
+      <c r="AQ262">
+        <v>2.11</v>
+      </c>
+      <c r="AR262">
+        <v>1.56</v>
+      </c>
+      <c r="AS262">
+        <v>1.9</v>
+      </c>
+      <c r="AT262">
+        <v>1.7</v>
+      </c>
+      <c r="AU262">
+        <v>1.65</v>
+      </c>
+      <c r="AV262">
+        <v>1.41</v>
+      </c>
+      <c r="AW262">
+        <v>3.06</v>
+      </c>
+      <c r="AX262">
+        <v>1.43</v>
+      </c>
+      <c r="AY262">
+        <v>8</v>
+      </c>
+      <c r="AZ262">
+        <v>3.5</v>
+      </c>
+      <c r="BA262">
+        <v>1.26</v>
+      </c>
+      <c r="BB262">
+        <v>1.48</v>
+      </c>
+      <c r="BC262">
+        <v>1.88</v>
+      </c>
+      <c r="BD262">
+        <v>2.43</v>
+      </c>
+      <c r="BE262">
+        <v>3.3</v>
+      </c>
+      <c r="BF262">
+        <v>4</v>
+      </c>
+      <c r="BG262">
+        <v>10</v>
+      </c>
+      <c r="BH262">
+        <v>6</v>
+      </c>
+      <c r="BI262">
+        <v>1</v>
+      </c>
+      <c r="BJ262">
+        <v>10</v>
+      </c>
+      <c r="BK262">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>4926203</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45098.97916666666</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263" t="s">
+        <v>93</v>
+      </c>
+      <c r="H263" t="s">
+        <v>88</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>2</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>2</v>
+      </c>
+      <c r="N263">
+        <v>4</v>
+      </c>
+      <c r="O263" t="s">
+        <v>275</v>
+      </c>
+      <c r="P263" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q263">
+        <v>6</v>
+      </c>
+      <c r="R263">
+        <v>8</v>
+      </c>
+      <c r="S263">
+        <v>14</v>
+      </c>
+      <c r="T263">
+        <v>2.6</v>
+      </c>
+      <c r="U263">
+        <v>2.1</v>
+      </c>
+      <c r="V263">
+        <v>3.7</v>
+      </c>
+      <c r="W263">
+        <v>1.35</v>
+      </c>
+      <c r="X263">
+        <v>2.9</v>
+      </c>
+      <c r="Y263">
+        <v>2.55</v>
+      </c>
+      <c r="Z263">
+        <v>1.44</v>
+      </c>
+      <c r="AA263">
+        <v>6.25</v>
+      </c>
+      <c r="AB263">
+        <v>1.1</v>
+      </c>
+      <c r="AC263">
+        <v>2.05</v>
+      </c>
+      <c r="AD263">
+        <v>3.6</v>
+      </c>
+      <c r="AE263">
+        <v>3.3</v>
+      </c>
+      <c r="AF263">
+        <v>1.03</v>
+      </c>
+      <c r="AG263">
+        <v>13</v>
+      </c>
+      <c r="AH263">
+        <v>1.22</v>
+      </c>
+      <c r="AI263">
+        <v>4</v>
+      </c>
+      <c r="AJ263">
+        <v>1.55</v>
+      </c>
+      <c r="AK263">
+        <v>2.29</v>
+      </c>
+      <c r="AL263">
+        <v>1.65</v>
+      </c>
+      <c r="AM263">
+        <v>2.1</v>
+      </c>
+      <c r="AN263">
+        <v>1.31</v>
+      </c>
+      <c r="AO263">
+        <v>1.29</v>
+      </c>
+      <c r="AP263">
+        <v>1.7</v>
+      </c>
+      <c r="AQ263">
+        <v>1</v>
+      </c>
+      <c r="AR263">
+        <v>0.7</v>
+      </c>
+      <c r="AS263">
+        <v>1</v>
+      </c>
+      <c r="AT263">
+        <v>0.73</v>
+      </c>
+      <c r="AU263">
+        <v>1.93</v>
+      </c>
+      <c r="AV263">
+        <v>1.42</v>
+      </c>
+      <c r="AW263">
+        <v>3.35</v>
+      </c>
+      <c r="AX263">
+        <v>1.79</v>
+      </c>
+      <c r="AY263">
+        <v>7</v>
+      </c>
+      <c r="AZ263">
+        <v>2.4</v>
+      </c>
+      <c r="BA263">
+        <v>1.22</v>
+      </c>
+      <c r="BB263">
+        <v>1.42</v>
+      </c>
+      <c r="BC263">
+        <v>1.74</v>
+      </c>
+      <c r="BD263">
+        <v>2.23</v>
+      </c>
+      <c r="BE263">
+        <v>3</v>
+      </c>
+      <c r="BF263">
+        <v>3</v>
+      </c>
+      <c r="BG263">
+        <v>6</v>
+      </c>
+      <c r="BH263">
+        <v>6</v>
+      </c>
+      <c r="BI263">
+        <v>10</v>
+      </c>
+      <c r="BJ263">
+        <v>9</v>
+      </c>
+      <c r="BK263">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>4926204</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45098.97916666666</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264" t="s">
+        <v>78</v>
+      </c>
+      <c r="H264" t="s">
+        <v>76</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>1</v>
+      </c>
+      <c r="O264" t="s">
+        <v>276</v>
+      </c>
+      <c r="P264" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q264">
+        <v>8</v>
+      </c>
+      <c r="R264">
+        <v>6</v>
+      </c>
+      <c r="S264">
+        <v>14</v>
+      </c>
+      <c r="T264">
+        <v>2.3</v>
+      </c>
+      <c r="U264">
+        <v>2.3</v>
+      </c>
+      <c r="V264">
+        <v>4.75</v>
+      </c>
+      <c r="W264">
+        <v>1.36</v>
+      </c>
+      <c r="X264">
+        <v>3.2</v>
+      </c>
+      <c r="Y264">
+        <v>2.65</v>
+      </c>
+      <c r="Z264">
+        <v>1.45</v>
+      </c>
+      <c r="AA264">
+        <v>6.5</v>
+      </c>
+      <c r="AB264">
+        <v>1.1</v>
+      </c>
+      <c r="AC264">
+        <v>1.91</v>
+      </c>
+      <c r="AD264">
+        <v>3.6</v>
+      </c>
+      <c r="AE264">
+        <v>3.7</v>
+      </c>
+      <c r="AF264">
+        <v>1.03</v>
+      </c>
+      <c r="AG264">
+        <v>13</v>
+      </c>
+      <c r="AH264">
+        <v>1.25</v>
+      </c>
+      <c r="AI264">
+        <v>3.75</v>
+      </c>
+      <c r="AJ264">
+        <v>1.76</v>
+      </c>
+      <c r="AK264">
+        <v>1.94</v>
+      </c>
+      <c r="AL264">
+        <v>1.75</v>
+      </c>
+      <c r="AM264">
+        <v>2.05</v>
+      </c>
+      <c r="AN264">
+        <v>1.2</v>
+      </c>
+      <c r="AO264">
+        <v>1.2</v>
+      </c>
+      <c r="AP264">
+        <v>2.1</v>
+      </c>
+      <c r="AQ264">
+        <v>2.13</v>
+      </c>
+      <c r="AR264">
+        <v>1.38</v>
+      </c>
+      <c r="AS264">
+        <v>2.22</v>
+      </c>
+      <c r="AT264">
+        <v>1.22</v>
+      </c>
+      <c r="AU264">
+        <v>1.98</v>
+      </c>
+      <c r="AV264">
+        <v>1.27</v>
+      </c>
+      <c r="AW264">
+        <v>3.25</v>
+      </c>
+      <c r="AX264">
+        <v>1.41</v>
+      </c>
+      <c r="AY264">
+        <v>8</v>
+      </c>
+      <c r="AZ264">
+        <v>3.5</v>
+      </c>
+      <c r="BA264">
+        <v>1.18</v>
+      </c>
+      <c r="BB264">
+        <v>1.34</v>
+      </c>
+      <c r="BC264">
+        <v>1.61</v>
+      </c>
+      <c r="BD264">
+        <v>2.02</v>
+      </c>
+      <c r="BE264">
+        <v>2.7</v>
+      </c>
+      <c r="BF264">
+        <v>4</v>
+      </c>
+      <c r="BG264">
+        <v>3</v>
+      </c>
+      <c r="BH264">
+        <v>9</v>
+      </c>
+      <c r="BI264">
+        <v>6</v>
+      </c>
+      <c r="BJ264">
+        <v>13</v>
+      </c>
+      <c r="BK264">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:63">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>4926205</v>
+      </c>
+      <c r="C265" t="s">
+        <v>63</v>
+      </c>
+      <c r="D265" t="s">
+        <v>64</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45098.97916666666</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265" t="s">
+        <v>77</v>
+      </c>
+      <c r="H265" t="s">
+        <v>82</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265">
+        <v>2</v>
+      </c>
+      <c r="N265">
+        <v>3</v>
+      </c>
+      <c r="O265" t="s">
+        <v>277</v>
+      </c>
+      <c r="P265" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q265">
+        <v>6</v>
+      </c>
+      <c r="R265">
+        <v>4</v>
+      </c>
+      <c r="S265">
+        <v>10</v>
+      </c>
+      <c r="T265">
+        <v>2.45</v>
+      </c>
+      <c r="U265">
+        <v>2.1</v>
+      </c>
+      <c r="V265">
+        <v>4.1</v>
+      </c>
+      <c r="W265">
+        <v>1.37</v>
+      </c>
+      <c r="X265">
+        <v>2.8</v>
+      </c>
+      <c r="Y265">
+        <v>2.65</v>
+      </c>
+      <c r="Z265">
+        <v>1.41</v>
+      </c>
+      <c r="AA265">
+        <v>6.75</v>
+      </c>
+      <c r="AB265">
+        <v>1.09</v>
+      </c>
+      <c r="AC265">
+        <v>1.85</v>
+      </c>
+      <c r="AD265">
+        <v>3.6</v>
+      </c>
+      <c r="AE265">
+        <v>3.9</v>
+      </c>
+      <c r="AF265">
+        <v>1.04</v>
+      </c>
+      <c r="AG265">
+        <v>12</v>
+      </c>
+      <c r="AH265">
+        <v>1.3</v>
+      </c>
+      <c r="AI265">
+        <v>3.5</v>
+      </c>
+      <c r="AJ265">
+        <v>1.81</v>
+      </c>
+      <c r="AK265">
+        <v>1.89</v>
+      </c>
+      <c r="AL265">
+        <v>1.75</v>
+      </c>
+      <c r="AM265">
+        <v>1.93</v>
+      </c>
+      <c r="AN265">
+        <v>1.25</v>
+      </c>
+      <c r="AO265">
+        <v>1.28</v>
+      </c>
+      <c r="AP265">
+        <v>1.85</v>
+      </c>
+      <c r="AQ265">
+        <v>1.75</v>
+      </c>
+      <c r="AR265">
+        <v>0.63</v>
+      </c>
+      <c r="AS265">
+        <v>1.56</v>
+      </c>
+      <c r="AT265">
+        <v>0.89</v>
+      </c>
+      <c r="AU265">
+        <v>1.61</v>
+      </c>
+      <c r="AV265">
+        <v>1.03</v>
+      </c>
+      <c r="AW265">
+        <v>2.64</v>
+      </c>
+      <c r="AX265">
+        <v>1.47</v>
+      </c>
+      <c r="AY265">
+        <v>7.5</v>
+      </c>
+      <c r="AZ265">
+        <v>3.25</v>
+      </c>
+      <c r="BA265">
+        <v>1.22</v>
+      </c>
+      <c r="BB265">
+        <v>1.42</v>
+      </c>
+      <c r="BC265">
+        <v>1.74</v>
+      </c>
+      <c r="BD265">
+        <v>2.23</v>
+      </c>
+      <c r="BE265">
+        <v>3</v>
+      </c>
+      <c r="BF265">
+        <v>6</v>
+      </c>
+      <c r="BG265">
+        <v>4</v>
+      </c>
+      <c r="BH265">
+        <v>6</v>
+      </c>
+      <c r="BI265">
+        <v>5</v>
+      </c>
+      <c r="BJ265">
+        <v>12</v>
+      </c>
+      <c r="BK265">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:63">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>4926198</v>
+      </c>
+      <c r="C266" t="s">
+        <v>63</v>
+      </c>
+      <c r="D266" t="s">
+        <v>64</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45099.00486111111</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266" t="s">
+        <v>73</v>
+      </c>
+      <c r="H266" t="s">
+        <v>74</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>2</v>
+      </c>
+      <c r="L266">
+        <v>3</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>3</v>
+      </c>
+      <c r="O266" t="s">
+        <v>278</v>
+      </c>
+      <c r="P266" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q266">
+        <v>7</v>
+      </c>
+      <c r="R266">
+        <v>6</v>
+      </c>
+      <c r="S266">
+        <v>13</v>
+      </c>
+      <c r="T266">
+        <v>2.6</v>
+      </c>
+      <c r="U266">
+        <v>2.2</v>
+      </c>
+      <c r="V266">
+        <v>4</v>
+      </c>
+      <c r="W266">
+        <v>1.3</v>
+      </c>
+      <c r="X266">
+        <v>3</v>
+      </c>
+      <c r="Y266">
+        <v>2.85</v>
+      </c>
+      <c r="Z266">
+        <v>1.38</v>
+      </c>
+      <c r="AA266">
+        <v>7.5</v>
+      </c>
+      <c r="AB266">
+        <v>1.08</v>
+      </c>
+      <c r="AC266">
+        <v>2</v>
+      </c>
+      <c r="AD266">
+        <v>3.4</v>
+      </c>
+      <c r="AE266">
+        <v>3.7</v>
+      </c>
+      <c r="AF266">
+        <v>1.04</v>
+      </c>
+      <c r="AG266">
+        <v>10.5</v>
+      </c>
+      <c r="AH266">
+        <v>1.25</v>
+      </c>
+      <c r="AI266">
+        <v>3.65</v>
+      </c>
+      <c r="AJ266">
+        <v>1.97</v>
+      </c>
+      <c r="AK266">
+        <v>1.74</v>
+      </c>
+      <c r="AL266">
+        <v>1.74</v>
+      </c>
+      <c r="AM266">
+        <v>2.05</v>
+      </c>
+      <c r="AN266">
+        <v>1.3</v>
+      </c>
+      <c r="AO266">
+        <v>1.3</v>
+      </c>
+      <c r="AP266">
+        <v>1.81</v>
+      </c>
+      <c r="AQ266">
+        <v>1.33</v>
+      </c>
+      <c r="AR266">
+        <v>1</v>
+      </c>
+      <c r="AS266">
+        <v>1.5</v>
+      </c>
+      <c r="AT266">
+        <v>0.9</v>
+      </c>
+      <c r="AU266">
+        <v>1.5</v>
+      </c>
+      <c r="AV266">
+        <v>1.31</v>
+      </c>
+      <c r="AW266">
+        <v>2.81</v>
+      </c>
+      <c r="AX266">
+        <v>1.53</v>
+      </c>
+      <c r="AY266">
+        <v>7.5</v>
+      </c>
+      <c r="AZ266">
+        <v>3.05</v>
+      </c>
+      <c r="BA266">
+        <v>1.24</v>
+      </c>
+      <c r="BB266">
+        <v>1.45</v>
+      </c>
+      <c r="BC266">
+        <v>1.83</v>
+      </c>
+      <c r="BD266">
+        <v>2.33</v>
+      </c>
+      <c r="BE266">
+        <v>3.2</v>
+      </c>
+      <c r="BF266">
+        <v>8</v>
+      </c>
+      <c r="BG266">
+        <v>4</v>
+      </c>
+      <c r="BH266">
+        <v>9</v>
+      </c>
+      <c r="BI266">
+        <v>8</v>
+      </c>
+      <c r="BJ266">
+        <v>17</v>
+      </c>
+      <c r="BK266">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="389">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -853,6 +853,33 @@
     <t>['17', '42', '58']</t>
   </si>
   <si>
+    <t>['33', '52']</t>
+  </si>
+  <si>
+    <t>['32', '45', '78', '90']</t>
+  </si>
+  <si>
+    <t>['10', '17', '43']</t>
+  </si>
+  <si>
+    <t>['20', '90+5']</t>
+  </si>
+  <si>
+    <t>['14', '39', '45+4', '68']</t>
+  </si>
+  <si>
+    <t>['22', '32', '50']</t>
+  </si>
+  <si>
+    <t>['79', '90+8']</t>
+  </si>
+  <si>
+    <t>['45', '68']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -1142,6 +1169,18 @@
   </si>
   <si>
     <t>['12', '90+1']</t>
+  </si>
+  <si>
+    <t>['27', '39']</t>
+  </si>
+  <si>
+    <t>['2', '23', '63']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['41', '58']</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK266"/>
+  <dimension ref="A1:BK280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1837,7 +1876,7 @@
         <v>2.3</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1938,7 +1977,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2216,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT4">
         <v>1.33</v>
@@ -2320,7 +2359,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2410,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="AT5">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2511,7 +2550,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2598,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2792,7 +2831,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3084,7 +3123,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3171,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT9">
         <v>0.89</v>
@@ -3275,7 +3314,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3362,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT10">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3466,7 +3505,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3556,7 +3595,7 @@
         <v>1.89</v>
       </c>
       <c r="AT11">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3657,7 +3696,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3935,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT13">
         <v>0.9</v>
@@ -4126,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>0.73</v>
@@ -4230,7 +4269,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4317,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>0.7</v>
@@ -4511,7 +4550,7 @@
         <v>2.1</v>
       </c>
       <c r="AT16">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU16">
         <v>2.25</v>
@@ -4699,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT17">
         <v>1.1</v>
@@ -5081,10 +5120,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT19">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5272,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT20">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5466,7 +5505,7 @@
         <v>1.3</v>
       </c>
       <c r="AT21">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU21">
         <v>0.93</v>
@@ -5654,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT22">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU22">
         <v>1.37</v>
@@ -5758,7 +5797,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5848,7 +5887,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6039,7 +6078,7 @@
         <v>1.89</v>
       </c>
       <c r="AT24">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU24">
         <v>1.31</v>
@@ -6418,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT26">
         <v>0.73</v>
@@ -6609,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT27">
         <v>1.7</v>
@@ -6800,10 +6839,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT28">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6904,7 +6943,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6991,10 +7030,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT29">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU29">
         <v>1.85</v>
@@ -7564,10 +7603,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU32">
         <v>1.43</v>
@@ -7758,7 +7797,7 @@
         <v>1.67</v>
       </c>
       <c r="AT33">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7946,10 +7985,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT34">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU34">
         <v>1.59</v>
@@ -8328,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT36">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8713,7 +8752,7 @@
         <v>2.3</v>
       </c>
       <c r="AT38">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU38">
         <v>1.41</v>
@@ -8814,7 +8853,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -9005,7 +9044,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9092,10 +9131,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT40">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU40">
         <v>1.06</v>
@@ -9283,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT41">
         <v>0.9</v>
@@ -9474,7 +9513,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>1.33</v>
@@ -9665,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT43">
         <v>1.5</v>
@@ -9960,7 +9999,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10238,10 +10277,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -10342,7 +10381,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10429,7 +10468,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT47">
         <v>0.89</v>
@@ -10533,7 +10572,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10724,7 +10763,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11005,7 +11044,7 @@
         <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -11106,7 +11145,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11196,7 +11235,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU51">
         <v>0.99</v>
@@ -11297,7 +11336,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11870,7 +11909,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11957,10 +11996,10 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT55">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -12151,7 +12190,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12339,10 +12378,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT57">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU57">
         <v>1.23</v>
@@ -12443,7 +12482,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12530,10 +12569,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT58">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU58">
         <v>1.5</v>
@@ -12634,7 +12673,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12721,7 +12760,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
         <v>1.33</v>
@@ -12825,7 +12864,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12915,7 +12954,7 @@
         <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU60">
         <v>1.52</v>
@@ -13016,7 +13055,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13103,7 +13142,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT61">
         <v>0.78</v>
@@ -13207,7 +13246,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13294,10 +13333,10 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT62">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU62">
         <v>1.31</v>
@@ -13398,7 +13437,7 @@
         <v>146</v>
       </c>
       <c r="P63" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13485,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT63">
         <v>0.9</v>
@@ -13679,7 +13718,7 @@
         <v>2.44</v>
       </c>
       <c r="AT64">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU64">
         <v>1.56</v>
@@ -13780,7 +13819,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13867,7 +13906,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT65">
         <v>1.22</v>
@@ -14061,7 +14100,7 @@
         <v>1.14</v>
       </c>
       <c r="AT66">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU66">
         <v>1.14</v>
@@ -14162,7 +14201,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14252,7 +14291,7 @@
         <v>2.3</v>
       </c>
       <c r="AT67">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU67">
         <v>1.3</v>
@@ -14353,7 +14392,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14443,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="AT68">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU68">
         <v>1.9</v>
@@ -14544,7 +14583,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14631,7 +14670,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT69">
         <v>0.9</v>
@@ -14822,10 +14861,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT70">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU70">
         <v>1.67</v>
@@ -14926,7 +14965,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15117,7 +15156,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15207,7 +15246,7 @@
         <v>1.3</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU72">
         <v>1.24</v>
@@ -15395,10 +15434,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT73">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU73">
         <v>1.3</v>
@@ -15499,7 +15538,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15777,7 +15816,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT75">
         <v>1.7</v>
@@ -15971,7 +16010,7 @@
         <v>3</v>
       </c>
       <c r="AT76">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU76">
         <v>1.31</v>
@@ -16735,7 +16774,7 @@
         <v>1.9</v>
       </c>
       <c r="AT80">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU80">
         <v>1.69</v>
@@ -16923,7 +16962,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT81">
         <v>0.73</v>
@@ -17114,7 +17153,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT82">
         <v>1.5</v>
@@ -17218,7 +17257,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17305,10 +17344,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT83">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -17499,7 +17538,7 @@
         <v>1.9</v>
       </c>
       <c r="AT84">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU84">
         <v>1.84</v>
@@ -17690,7 +17729,7 @@
         <v>1.67</v>
       </c>
       <c r="AT85">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU85">
         <v>1.58</v>
@@ -17878,10 +17917,10 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT86">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU86">
         <v>1.24</v>
@@ -18260,7 +18299,7 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT88">
         <v>0.6</v>
@@ -18364,7 +18403,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18451,7 +18490,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT89">
         <v>0.89</v>
@@ -18833,7 +18872,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT91">
         <v>0.88</v>
@@ -19027,7 +19066,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU92">
         <v>1.11</v>
@@ -19218,7 +19257,7 @@
         <v>2.44</v>
       </c>
       <c r="AT93">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU93">
         <v>1.29</v>
@@ -19406,7 +19445,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT94">
         <v>0.9</v>
@@ -19600,7 +19639,7 @@
         <v>2.3</v>
       </c>
       <c r="AT95">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU95">
         <v>1.36</v>
@@ -19979,10 +20018,10 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU97">
         <v>1.83</v>
@@ -20274,7 +20313,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20364,7 +20403,7 @@
         <v>1.67</v>
       </c>
       <c r="AT99">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU99">
         <v>1.49</v>
@@ -20656,7 +20695,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20746,7 +20785,7 @@
         <v>1.5</v>
       </c>
       <c r="AT101">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU101">
         <v>1.25</v>
@@ -20847,7 +20886,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20934,7 +20973,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT102">
         <v>0.9</v>
@@ -21125,7 +21164,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT103">
         <v>1.33</v>
@@ -21229,7 +21268,7 @@
         <v>170</v>
       </c>
       <c r="P104" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21316,10 +21355,10 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT104">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU104">
         <v>1.41</v>
@@ -21507,10 +21546,10 @@
         <v>0.67</v>
       </c>
       <c r="AS105">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT105">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU105">
         <v>1.29</v>
@@ -21993,7 +22032,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22083,7 +22122,7 @@
         <v>1.14</v>
       </c>
       <c r="AT108">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU108">
         <v>1.02</v>
@@ -22271,7 +22310,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT109">
         <v>1.22</v>
@@ -22462,7 +22501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT110">
         <v>0.73</v>
@@ -22566,7 +22605,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22656,7 +22695,7 @@
         <v>1.9</v>
       </c>
       <c r="AT111">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU111">
         <v>1.69</v>
@@ -22757,7 +22796,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23035,7 +23074,7 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT113">
         <v>0.89</v>
@@ -23521,7 +23560,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23608,7 +23647,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT116">
         <v>0.73</v>
@@ -23712,7 +23751,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23903,7 +23942,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24094,7 +24133,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24181,10 +24220,10 @@
         <v>0.75</v>
       </c>
       <c r="AS119">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT119">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU119">
         <v>1.66</v>
@@ -24375,7 +24414,7 @@
         <v>2.44</v>
       </c>
       <c r="AT120">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU120">
         <v>1.28</v>
@@ -24476,7 +24515,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24945,10 +24984,10 @@
         <v>2.25</v>
       </c>
       <c r="AS123">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT123">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25327,10 +25366,10 @@
         <v>2.25</v>
       </c>
       <c r="AS125">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT125">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU125">
         <v>1.74</v>
@@ -25521,7 +25560,7 @@
         <v>2.1</v>
       </c>
       <c r="AT126">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -25712,7 +25751,7 @@
         <v>2.3</v>
       </c>
       <c r="AT127">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU127">
         <v>1.32</v>
@@ -25813,7 +25852,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25900,10 +25939,10 @@
         <v>0</v>
       </c>
       <c r="AS128">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT128">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU128">
         <v>1.75</v>
@@ -26091,7 +26130,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT129">
         <v>1.1</v>
@@ -26282,10 +26321,10 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT130">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26476,7 +26515,7 @@
         <v>1.3</v>
       </c>
       <c r="AT131">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU131">
         <v>1.42</v>
@@ -26667,7 +26706,7 @@
         <v>1.5</v>
       </c>
       <c r="AT132">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU132">
         <v>1.23</v>
@@ -26768,7 +26807,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26959,7 +26998,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27046,10 +27085,10 @@
         <v>0</v>
       </c>
       <c r="AS134">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT134">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU134">
         <v>1.68</v>
@@ -27341,7 +27380,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27428,7 +27467,7 @@
         <v>0.25</v>
       </c>
       <c r="AS136">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT136">
         <v>0.6</v>
@@ -28105,7 +28144,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28383,7 +28422,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT141">
         <v>1.5</v>
@@ -28487,7 +28526,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28574,10 +28613,10 @@
         <v>0.4</v>
       </c>
       <c r="AS142">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT142">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU142">
         <v>1.33</v>
@@ -28959,7 +28998,7 @@
         <v>1.33</v>
       </c>
       <c r="AT144">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -29150,7 +29189,7 @@
         <v>2.63</v>
       </c>
       <c r="AT145">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU145">
         <v>1.17</v>
@@ -29338,7 +29377,7 @@
         <v>0.25</v>
       </c>
       <c r="AS146">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT146">
         <v>1.22</v>
@@ -29723,7 +29762,7 @@
         <v>2.3</v>
       </c>
       <c r="AT148">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU148">
         <v>1.31</v>
@@ -29824,7 +29863,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30015,7 +30054,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30105,7 +30144,7 @@
         <v>1.9</v>
       </c>
       <c r="AT150">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU150">
         <v>2</v>
@@ -30206,7 +30245,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30293,7 +30332,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT151">
         <v>0.88</v>
@@ -30397,7 +30436,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30484,7 +30523,7 @@
         <v>0.33</v>
       </c>
       <c r="AS152">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT152">
         <v>0.73</v>
@@ -30678,7 +30717,7 @@
         <v>1.33</v>
       </c>
       <c r="AT153">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU153">
         <v>1.16</v>
@@ -30866,10 +30905,10 @@
         <v>0.33</v>
       </c>
       <c r="AS154">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT154">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -30970,7 +31009,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31161,7 +31200,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31248,10 +31287,10 @@
         <v>1.75</v>
       </c>
       <c r="AS156">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT156">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU156">
         <v>1.85</v>
@@ -31352,7 +31391,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31439,10 +31478,10 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT157">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU157">
         <v>1.54</v>
@@ -31824,7 +31863,7 @@
         <v>2.63</v>
       </c>
       <c r="AT159">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU159">
         <v>1.17</v>
@@ -32012,10 +32051,10 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT160">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU160">
         <v>1.68</v>
@@ -32203,7 +32242,7 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT161">
         <v>0.9</v>
@@ -32307,7 +32346,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32498,7 +32537,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32585,7 +32624,7 @@
         <v>0.8</v>
       </c>
       <c r="AS163">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT163">
         <v>1.22</v>
@@ -32689,7 +32728,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32967,10 +33006,10 @@
         <v>0.75</v>
       </c>
       <c r="AS165">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU165">
         <v>1.3</v>
@@ -33352,7 +33391,7 @@
         <v>1.3</v>
       </c>
       <c r="AT167">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU167">
         <v>1.42</v>
@@ -33835,7 +33874,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -33922,10 +33961,10 @@
         <v>0.75</v>
       </c>
       <c r="AS170">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT170">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU170">
         <v>1.31</v>
@@ -34116,7 +34155,7 @@
         <v>3</v>
       </c>
       <c r="AT171">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU171">
         <v>1.27</v>
@@ -34304,10 +34343,10 @@
         <v>0.4</v>
       </c>
       <c r="AS172">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT172">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU172">
         <v>1.99</v>
@@ -34495,7 +34534,7 @@
         <v>1.17</v>
       </c>
       <c r="AS173">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT173">
         <v>1.1</v>
@@ -34599,7 +34638,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34689,7 +34728,7 @@
         <v>2.3</v>
       </c>
       <c r="AT174">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU174">
         <v>1.55</v>
@@ -34880,7 +34919,7 @@
         <v>1.14</v>
       </c>
       <c r="AT175">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU175">
         <v>1.37</v>
@@ -35071,7 +35110,7 @@
         <v>1.89</v>
       </c>
       <c r="AT176">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU176">
         <v>1.23</v>
@@ -35172,7 +35211,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35259,7 +35298,7 @@
         <v>0.71</v>
       </c>
       <c r="AS177">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT177">
         <v>0.73</v>
@@ -35363,7 +35402,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35450,7 +35489,7 @@
         <v>0.8</v>
       </c>
       <c r="AS178">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT178">
         <v>0.88</v>
@@ -35745,7 +35784,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35832,10 +35871,10 @@
         <v>0.43</v>
       </c>
       <c r="AS180">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT180">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU180">
         <v>1.57</v>
@@ -36023,7 +36062,7 @@
         <v>1.67</v>
       </c>
       <c r="AS181">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT181">
         <v>1.33</v>
@@ -36127,7 +36166,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36217,7 +36256,7 @@
         <v>1.33</v>
       </c>
       <c r="AT182">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU182">
         <v>1.37</v>
@@ -36405,10 +36444,10 @@
         <v>0.33</v>
       </c>
       <c r="AS183">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT183">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU183">
         <v>1.47</v>
@@ -36509,7 +36548,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36700,7 +36739,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36787,10 +36826,10 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT185">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU185">
         <v>1.29</v>
@@ -36978,10 +37017,10 @@
         <v>0.5</v>
       </c>
       <c r="AS186">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT186">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU186">
         <v>1.45</v>
@@ -37082,7 +37121,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37172,7 +37211,7 @@
         <v>1.33</v>
       </c>
       <c r="AT187">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU187">
         <v>1.19</v>
@@ -37273,7 +37312,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37363,7 +37402,7 @@
         <v>1.89</v>
       </c>
       <c r="AT188">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU188">
         <v>1.27</v>
@@ -37464,7 +37503,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37551,7 +37590,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT189">
         <v>1.7</v>
@@ -37933,7 +37972,7 @@
         <v>0.33</v>
       </c>
       <c r="AS191">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT191">
         <v>0.6</v>
@@ -38037,7 +38076,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38124,10 +38163,10 @@
         <v>1.29</v>
       </c>
       <c r="AS192">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT192">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU192">
         <v>1.4</v>
@@ -38419,7 +38458,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38700,7 +38739,7 @@
         <v>1.3</v>
       </c>
       <c r="AT195">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU195">
         <v>1.42</v>
@@ -38801,7 +38840,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38992,7 +39031,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39079,10 +39118,10 @@
         <v>0.6</v>
       </c>
       <c r="AS197">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT197">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU197">
         <v>1.56</v>
@@ -39273,7 +39312,7 @@
         <v>2.63</v>
       </c>
       <c r="AT198">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU198">
         <v>1.31</v>
@@ -39565,7 +39604,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39846,7 +39885,7 @@
         <v>1.9</v>
       </c>
       <c r="AT201">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU201">
         <v>1.55</v>
@@ -39947,7 +39986,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40034,10 +40073,10 @@
         <v>1.2</v>
       </c>
       <c r="AS202">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT202">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU202">
         <v>1.6</v>
@@ -40138,7 +40177,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40416,7 +40455,7 @@
         <v>1.33</v>
       </c>
       <c r="AS204">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT204">
         <v>0.9</v>
@@ -40607,7 +40646,7 @@
         <v>0.57</v>
       </c>
       <c r="AS205">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT205">
         <v>0.78</v>
@@ -40711,7 +40750,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -40798,7 +40837,7 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT206">
         <v>0.7</v>
@@ -40902,7 +40941,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41093,7 +41132,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41284,7 +41323,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41374,7 +41413,7 @@
         <v>1.67</v>
       </c>
       <c r="AT209">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU209">
         <v>1.63</v>
@@ -41562,7 +41601,7 @@
         <v>1.43</v>
       </c>
       <c r="AS210">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT210">
         <v>1.1</v>
@@ -41756,7 +41795,7 @@
         <v>1.5</v>
       </c>
       <c r="AT211">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU211">
         <v>1.43</v>
@@ -41857,7 +41896,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -41944,10 +41983,10 @@
         <v>0.38</v>
       </c>
       <c r="AS212">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT212">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU212">
         <v>1.51</v>
@@ -42048,7 +42087,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42135,7 +42174,7 @@
         <v>1.13</v>
       </c>
       <c r="AS213">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT213">
         <v>0.9</v>
@@ -42517,10 +42556,10 @@
         <v>1.5</v>
       </c>
       <c r="AS215">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT215">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU215">
         <v>1.48</v>
@@ -42621,7 +42660,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42711,7 +42750,7 @@
         <v>1</v>
       </c>
       <c r="AT216">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU216">
         <v>1.87</v>
@@ -42899,7 +42938,7 @@
         <v>1.29</v>
       </c>
       <c r="AS217">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT217">
         <v>0.9</v>
@@ -43003,7 +43042,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43090,7 +43129,7 @@
         <v>0.29</v>
       </c>
       <c r="AS218">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT218">
         <v>0.6</v>
@@ -43194,7 +43233,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43284,7 +43323,7 @@
         <v>1.9</v>
       </c>
       <c r="AT219">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU219">
         <v>2</v>
@@ -43663,7 +43702,7 @@
         <v>0.63</v>
       </c>
       <c r="AS221">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT221">
         <v>0.7</v>
@@ -43854,10 +43893,10 @@
         <v>0.44</v>
       </c>
       <c r="AS222">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT222">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU222">
         <v>1.7</v>
@@ -43958,7 +43997,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44045,10 +44084,10 @@
         <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT223">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU223">
         <v>1.62</v>
@@ -44149,7 +44188,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44430,7 +44469,7 @@
         <v>3</v>
       </c>
       <c r="AT225">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU225">
         <v>1.33</v>
@@ -44531,7 +44570,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44618,7 +44657,7 @@
         <v>1.25</v>
       </c>
       <c r="AS226">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT226">
         <v>1.1</v>
@@ -44722,7 +44761,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -44809,7 +44848,7 @@
         <v>1.14</v>
       </c>
       <c r="AS227">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT227">
         <v>1.7</v>
@@ -44913,7 +44952,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45003,7 +45042,7 @@
         <v>1.89</v>
       </c>
       <c r="AT228">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU228">
         <v>1.31</v>
@@ -45194,7 +45233,7 @@
         <v>1.14</v>
       </c>
       <c r="AT229">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU229">
         <v>1.51</v>
@@ -45385,7 +45424,7 @@
         <v>1.9</v>
       </c>
       <c r="AT230">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU230">
         <v>1.61</v>
@@ -45573,7 +45612,7 @@
         <v>0.63</v>
       </c>
       <c r="AS231">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT231">
         <v>0.6</v>
@@ -45677,7 +45716,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45958,7 +45997,7 @@
         <v>1.89</v>
       </c>
       <c r="AT233">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU233">
         <v>1.33</v>
@@ -46146,10 +46185,10 @@
         <v>0.88</v>
       </c>
       <c r="AS234">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT234">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU234">
         <v>1.99</v>
@@ -46250,7 +46289,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -46337,7 +46376,7 @@
         <v>1.43</v>
       </c>
       <c r="AS235">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT235">
         <v>1.22</v>
@@ -46531,7 +46570,7 @@
         <v>1.5</v>
       </c>
       <c r="AT236">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU236">
         <v>1.52</v>
@@ -46823,7 +46862,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -46910,10 +46949,10 @@
         <v>0.43</v>
       </c>
       <c r="AS238">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT238">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU238">
         <v>1.57</v>
@@ -47104,7 +47143,7 @@
         <v>2.63</v>
       </c>
       <c r="AT239">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU239">
         <v>1.34</v>
@@ -47587,7 +47626,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -47778,7 +47817,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -47865,7 +47904,7 @@
         <v>1</v>
       </c>
       <c r="AS243">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT243">
         <v>0.88</v>
@@ -48059,7 +48098,7 @@
         <v>1</v>
       </c>
       <c r="AT244">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU244">
         <v>1.94</v>
@@ -48250,7 +48289,7 @@
         <v>1.9</v>
       </c>
       <c r="AT245">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU245">
         <v>1.89</v>
@@ -48438,7 +48477,7 @@
         <v>1.43</v>
       </c>
       <c r="AS246">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT246">
         <v>1.22</v>
@@ -48542,7 +48581,7 @@
         <v>264</v>
       </c>
       <c r="P247" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q247">
         <v>7</v>
@@ -48632,7 +48671,7 @@
         <v>1.9</v>
       </c>
       <c r="AT247">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU247">
         <v>1.58</v>
@@ -48820,7 +48859,7 @@
         <v>1.13</v>
       </c>
       <c r="AS248">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT248">
         <v>0.9</v>
@@ -49011,10 +49050,10 @@
         <v>0.25</v>
       </c>
       <c r="AS249">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT249">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU249">
         <v>2.06</v>
@@ -49115,7 +49154,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49306,7 +49345,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49393,7 +49432,7 @@
         <v>1.38</v>
       </c>
       <c r="AS251">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT251">
         <v>1.7</v>
@@ -49584,10 +49623,10 @@
         <v>2</v>
       </c>
       <c r="AS252">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT252">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU252">
         <v>1.53</v>
@@ -49688,7 +49727,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -49775,7 +49814,7 @@
         <v>1.29</v>
       </c>
       <c r="AS253">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT253">
         <v>1.5</v>
@@ -49879,7 +49918,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -49969,7 +50008,7 @@
         <v>2.3</v>
       </c>
       <c r="AT254">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU254">
         <v>1.66</v>
@@ -50157,7 +50196,7 @@
         <v>0.67</v>
       </c>
       <c r="AS255">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT255">
         <v>0.7</v>
@@ -50261,7 +50300,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50452,7 +50491,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -50539,7 +50578,7 @@
         <v>1.11</v>
       </c>
       <c r="AS257">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT257">
         <v>1.1</v>
@@ -50733,7 +50772,7 @@
         <v>2.63</v>
       </c>
       <c r="AT258">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU258">
         <v>1.37</v>
@@ -50924,7 +50963,7 @@
         <v>3</v>
       </c>
       <c r="AT259">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU259">
         <v>1.3</v>
@@ -51025,7 +51064,7 @@
         <v>272</v>
       </c>
       <c r="P260" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Q260">
         <v>5</v>
@@ -51115,7 +51154,7 @@
         <v>2.1</v>
       </c>
       <c r="AT260">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU260">
         <v>1.76</v>
@@ -51216,7 +51255,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51407,7 +51446,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -51598,7 +51637,7 @@
         <v>275</v>
       </c>
       <c r="P263" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q263">
         <v>6</v>
@@ -51876,7 +51915,7 @@
         <v>1.38</v>
       </c>
       <c r="AS264">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT264">
         <v>1.22</v>
@@ -52067,10 +52106,10 @@
         <v>0.63</v>
       </c>
       <c r="AS265">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT265">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU265">
         <v>1.61</v>
@@ -52258,7 +52297,7 @@
         <v>1</v>
       </c>
       <c r="AS266">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT266">
         <v>0.9</v>
@@ -52312,6 +52351,2680 @@
         <v>17</v>
       </c>
       <c r="BK266">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:63">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>4926209</v>
+      </c>
+      <c r="C267" t="s">
+        <v>63</v>
+      </c>
+      <c r="D267" t="s">
+        <v>64</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45101.85416666666</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267" t="s">
+        <v>80</v>
+      </c>
+      <c r="H267" t="s">
+        <v>87</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>2</v>
+      </c>
+      <c r="L267">
+        <v>2</v>
+      </c>
+      <c r="M267">
+        <v>1</v>
+      </c>
+      <c r="N267">
+        <v>3</v>
+      </c>
+      <c r="O267" t="s">
+        <v>279</v>
+      </c>
+      <c r="P267" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q267">
+        <v>3</v>
+      </c>
+      <c r="R267">
+        <v>2</v>
+      </c>
+      <c r="S267">
+        <v>5</v>
+      </c>
+      <c r="T267">
+        <v>2.15</v>
+      </c>
+      <c r="U267">
+        <v>2.29</v>
+      </c>
+      <c r="V267">
+        <v>5.25</v>
+      </c>
+      <c r="W267">
+        <v>1.36</v>
+      </c>
+      <c r="X267">
+        <v>3.1</v>
+      </c>
+      <c r="Y267">
+        <v>2.65</v>
+      </c>
+      <c r="Z267">
+        <v>1.45</v>
+      </c>
+      <c r="AA267">
+        <v>6.5</v>
+      </c>
+      <c r="AB267">
+        <v>1.1</v>
+      </c>
+      <c r="AC267">
+        <v>1.67</v>
+      </c>
+      <c r="AD267">
+        <v>3.85</v>
+      </c>
+      <c r="AE267">
+        <v>4.5</v>
+      </c>
+      <c r="AF267">
+        <v>1.04</v>
+      </c>
+      <c r="AG267">
+        <v>13</v>
+      </c>
+      <c r="AH267">
+        <v>1.25</v>
+      </c>
+      <c r="AI267">
+        <v>3.75</v>
+      </c>
+      <c r="AJ267">
+        <v>1.57</v>
+      </c>
+      <c r="AK267">
+        <v>2.38</v>
+      </c>
+      <c r="AL267">
+        <v>1.82</v>
+      </c>
+      <c r="AM267">
+        <v>1.92</v>
+      </c>
+      <c r="AN267">
+        <v>1.15</v>
+      </c>
+      <c r="AO267">
+        <v>1.24</v>
+      </c>
+      <c r="AP267">
+        <v>2.3</v>
+      </c>
+      <c r="AQ267">
+        <v>2.33</v>
+      </c>
+      <c r="AR267">
+        <v>0.44</v>
+      </c>
+      <c r="AS267">
+        <v>2.4</v>
+      </c>
+      <c r="AT267">
+        <v>0.4</v>
+      </c>
+      <c r="AU267">
+        <v>1.53</v>
+      </c>
+      <c r="AV267">
+        <v>1</v>
+      </c>
+      <c r="AW267">
+        <v>2.53</v>
+      </c>
+      <c r="AX267">
+        <v>1.38</v>
+      </c>
+      <c r="AY267">
+        <v>7</v>
+      </c>
+      <c r="AZ267">
+        <v>3.7</v>
+      </c>
+      <c r="BA267">
+        <v>1.19</v>
+      </c>
+      <c r="BB267">
+        <v>1.4</v>
+      </c>
+      <c r="BC267">
+        <v>1.76</v>
+      </c>
+      <c r="BD267">
+        <v>2.16</v>
+      </c>
+      <c r="BE267">
+        <v>2.79</v>
+      </c>
+      <c r="BF267">
+        <v>3</v>
+      </c>
+      <c r="BG267">
+        <v>11</v>
+      </c>
+      <c r="BH267">
+        <v>7</v>
+      </c>
+      <c r="BI267">
+        <v>3</v>
+      </c>
+      <c r="BJ267">
+        <v>10</v>
+      </c>
+      <c r="BK267">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:63">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>4926210</v>
+      </c>
+      <c r="C268" t="s">
+        <v>63</v>
+      </c>
+      <c r="D268" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45101.85416666666</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268" t="s">
+        <v>81</v>
+      </c>
+      <c r="H268" t="s">
+        <v>66</v>
+      </c>
+      <c r="I268">
+        <v>2</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>2</v>
+      </c>
+      <c r="L268">
+        <v>4</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>4</v>
+      </c>
+      <c r="O268" t="s">
+        <v>280</v>
+      </c>
+      <c r="P268" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q268">
+        <v>5</v>
+      </c>
+      <c r="R268">
+        <v>3</v>
+      </c>
+      <c r="S268">
+        <v>8</v>
+      </c>
+      <c r="T268">
+        <v>2.45</v>
+      </c>
+      <c r="U268">
+        <v>2.18</v>
+      </c>
+      <c r="V268">
+        <v>4.45</v>
+      </c>
+      <c r="W268">
+        <v>1.4</v>
+      </c>
+      <c r="X268">
+        <v>3</v>
+      </c>
+      <c r="Y268">
+        <v>2.85</v>
+      </c>
+      <c r="Z268">
+        <v>1.4</v>
+      </c>
+      <c r="AA268">
+        <v>7</v>
+      </c>
+      <c r="AB268">
+        <v>1.08</v>
+      </c>
+      <c r="AC268">
+        <v>1.95</v>
+      </c>
+      <c r="AD268">
+        <v>3.5</v>
+      </c>
+      <c r="AE268">
+        <v>3.55</v>
+      </c>
+      <c r="AF268">
+        <v>1.05</v>
+      </c>
+      <c r="AG268">
+        <v>11</v>
+      </c>
+      <c r="AH268">
+        <v>1.3</v>
+      </c>
+      <c r="AI268">
+        <v>3.5</v>
+      </c>
+      <c r="AJ268">
+        <v>1.94</v>
+      </c>
+      <c r="AK268">
+        <v>1.94</v>
+      </c>
+      <c r="AL268">
+        <v>1.77</v>
+      </c>
+      <c r="AM268">
+        <v>1.98</v>
+      </c>
+      <c r="AN268">
+        <v>1.25</v>
+      </c>
+      <c r="AO268">
+        <v>1.28</v>
+      </c>
+      <c r="AP268">
+        <v>1.89</v>
+      </c>
+      <c r="AQ268">
+        <v>1.44</v>
+      </c>
+      <c r="AR268">
+        <v>0.89</v>
+      </c>
+      <c r="AS268">
+        <v>1.6</v>
+      </c>
+      <c r="AT268">
+        <v>0.8</v>
+      </c>
+      <c r="AU268">
+        <v>1.58</v>
+      </c>
+      <c r="AV268">
+        <v>1.23</v>
+      </c>
+      <c r="AW268">
+        <v>2.81</v>
+      </c>
+      <c r="AX268">
+        <v>1.48</v>
+      </c>
+      <c r="AY268">
+        <v>6</v>
+      </c>
+      <c r="AZ268">
+        <v>3.25</v>
+      </c>
+      <c r="BA268">
+        <v>1.31</v>
+      </c>
+      <c r="BB268">
+        <v>1.57</v>
+      </c>
+      <c r="BC268">
+        <v>1.93</v>
+      </c>
+      <c r="BD268">
+        <v>2.38</v>
+      </c>
+      <c r="BE268">
+        <v>3.65</v>
+      </c>
+      <c r="BF268">
+        <v>6</v>
+      </c>
+      <c r="BG268">
+        <v>4</v>
+      </c>
+      <c r="BH268">
+        <v>3</v>
+      </c>
+      <c r="BI268">
+        <v>2</v>
+      </c>
+      <c r="BJ268">
+        <v>9</v>
+      </c>
+      <c r="BK268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:63">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>4926208</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+      <c r="D269" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45101.85416666666</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269" t="s">
+        <v>69</v>
+      </c>
+      <c r="H269" t="s">
+        <v>68</v>
+      </c>
+      <c r="I269">
+        <v>3</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>3</v>
+      </c>
+      <c r="L269">
+        <v>3</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>3</v>
+      </c>
+      <c r="O269" t="s">
+        <v>281</v>
+      </c>
+      <c r="P269" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q269">
+        <v>2</v>
+      </c>
+      <c r="R269">
+        <v>8</v>
+      </c>
+      <c r="S269">
+        <v>10</v>
+      </c>
+      <c r="T269">
+        <v>2.93</v>
+      </c>
+      <c r="U269">
+        <v>2.25</v>
+      </c>
+      <c r="V269">
+        <v>3.25</v>
+      </c>
+      <c r="W269">
+        <v>1.33</v>
+      </c>
+      <c r="X269">
+        <v>3.3</v>
+      </c>
+      <c r="Y269">
+        <v>2.55</v>
+      </c>
+      <c r="Z269">
+        <v>1.47</v>
+      </c>
+      <c r="AA269">
+        <v>6</v>
+      </c>
+      <c r="AB269">
+        <v>1.11</v>
+      </c>
+      <c r="AC269">
+        <v>2.12</v>
+      </c>
+      <c r="AD269">
+        <v>3.6</v>
+      </c>
+      <c r="AE269">
+        <v>3.05</v>
+      </c>
+      <c r="AF269">
+        <v>1.03</v>
+      </c>
+      <c r="AG269">
+        <v>15</v>
+      </c>
+      <c r="AH269">
+        <v>1.22</v>
+      </c>
+      <c r="AI269">
+        <v>4.2</v>
+      </c>
+      <c r="AJ269">
+        <v>1.75</v>
+      </c>
+      <c r="AK269">
+        <v>2.05</v>
+      </c>
+      <c r="AL269">
+        <v>1.58</v>
+      </c>
+      <c r="AM269">
+        <v>2.29</v>
+      </c>
+      <c r="AN269">
+        <v>1.46</v>
+      </c>
+      <c r="AO269">
+        <v>1.29</v>
+      </c>
+      <c r="AP269">
+        <v>1.55</v>
+      </c>
+      <c r="AQ269">
+        <v>1.33</v>
+      </c>
+      <c r="AR269">
+        <v>1.63</v>
+      </c>
+      <c r="AS269">
+        <v>1.5</v>
+      </c>
+      <c r="AT269">
+        <v>1.44</v>
+      </c>
+      <c r="AU269">
+        <v>1.49</v>
+      </c>
+      <c r="AV269">
+        <v>1.46</v>
+      </c>
+      <c r="AW269">
+        <v>2.95</v>
+      </c>
+      <c r="AX269">
+        <v>1.46</v>
+      </c>
+      <c r="AY269">
+        <v>6</v>
+      </c>
+      <c r="AZ269">
+        <v>3.3</v>
+      </c>
+      <c r="BA269">
+        <v>1.37</v>
+      </c>
+      <c r="BB269">
+        <v>1.66</v>
+      </c>
+      <c r="BC269">
+        <v>2.04</v>
+      </c>
+      <c r="BD269">
+        <v>2.84</v>
+      </c>
+      <c r="BE269">
+        <v>4.05</v>
+      </c>
+      <c r="BF269">
+        <v>8</v>
+      </c>
+      <c r="BG269">
+        <v>3</v>
+      </c>
+      <c r="BH269">
+        <v>5</v>
+      </c>
+      <c r="BI269">
+        <v>11</v>
+      </c>
+      <c r="BJ269">
+        <v>13</v>
+      </c>
+      <c r="BK269">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:63">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>4926207</v>
+      </c>
+      <c r="C270" t="s">
+        <v>63</v>
+      </c>
+      <c r="D270" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45101.85416666666</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270" t="s">
+        <v>79</v>
+      </c>
+      <c r="H270" t="s">
+        <v>65</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>2</v>
+      </c>
+      <c r="O270" t="s">
+        <v>282</v>
+      </c>
+      <c r="P270" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q270">
+        <v>3</v>
+      </c>
+      <c r="R270">
+        <v>4</v>
+      </c>
+      <c r="S270">
+        <v>7</v>
+      </c>
+      <c r="T270">
+        <v>2.39</v>
+      </c>
+      <c r="U270">
+        <v>2.28</v>
+      </c>
+      <c r="V270">
+        <v>4.25</v>
+      </c>
+      <c r="W270">
+        <v>1.33</v>
+      </c>
+      <c r="X270">
+        <v>3.16</v>
+      </c>
+      <c r="Y270">
+        <v>2.52</v>
+      </c>
+      <c r="Z270">
+        <v>1.49</v>
+      </c>
+      <c r="AA270">
+        <v>6</v>
+      </c>
+      <c r="AB270">
+        <v>1.11</v>
+      </c>
+      <c r="AC270">
+        <v>1.95</v>
+      </c>
+      <c r="AD270">
+        <v>3.6</v>
+      </c>
+      <c r="AE270">
+        <v>3.45</v>
+      </c>
+      <c r="AF270">
+        <v>1.04</v>
+      </c>
+      <c r="AG270">
+        <v>10</v>
+      </c>
+      <c r="AH270">
+        <v>1.2</v>
+      </c>
+      <c r="AI270">
+        <v>3.95</v>
+      </c>
+      <c r="AJ270">
+        <v>1.78</v>
+      </c>
+      <c r="AK270">
+        <v>2</v>
+      </c>
+      <c r="AL270">
+        <v>1.64</v>
+      </c>
+      <c r="AM270">
+        <v>2.17</v>
+      </c>
+      <c r="AN270">
+        <v>1.26</v>
+      </c>
+      <c r="AO270">
+        <v>1.26</v>
+      </c>
+      <c r="AP270">
+        <v>1.92</v>
+      </c>
+      <c r="AQ270">
+        <v>2.22</v>
+      </c>
+      <c r="AR270">
+        <v>1.33</v>
+      </c>
+      <c r="AS270">
+        <v>2.3</v>
+      </c>
+      <c r="AT270">
+        <v>1.2</v>
+      </c>
+      <c r="AU270">
+        <v>1.94</v>
+      </c>
+      <c r="AV270">
+        <v>1.11</v>
+      </c>
+      <c r="AW270">
+        <v>3.05</v>
+      </c>
+      <c r="AX270">
+        <v>1.45</v>
+      </c>
+      <c r="AY270">
+        <v>6.5</v>
+      </c>
+      <c r="AZ270">
+        <v>3.35</v>
+      </c>
+      <c r="BA270">
+        <v>1.31</v>
+      </c>
+      <c r="BB270">
+        <v>1.58</v>
+      </c>
+      <c r="BC270">
+        <v>1.93</v>
+      </c>
+      <c r="BD270">
+        <v>2.4</v>
+      </c>
+      <c r="BE270">
+        <v>3.65</v>
+      </c>
+      <c r="BF270">
+        <v>6</v>
+      </c>
+      <c r="BG270">
+        <v>5</v>
+      </c>
+      <c r="BH270">
+        <v>4</v>
+      </c>
+      <c r="BI270">
+        <v>1</v>
+      </c>
+      <c r="BJ270">
+        <v>10</v>
+      </c>
+      <c r="BK270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:63">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>4926211</v>
+      </c>
+      <c r="C271" t="s">
+        <v>63</v>
+      </c>
+      <c r="D271" t="s">
+        <v>64</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45101.85416666666</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271" t="s">
+        <v>72</v>
+      </c>
+      <c r="H271" t="s">
+        <v>70</v>
+      </c>
+      <c r="I271">
+        <v>3</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>3</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>5</v>
+      </c>
+      <c r="O271" t="s">
+        <v>283</v>
+      </c>
+      <c r="P271" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q271">
+        <v>2</v>
+      </c>
+      <c r="R271">
+        <v>0</v>
+      </c>
+      <c r="S271">
+        <v>2</v>
+      </c>
+      <c r="T271">
+        <v>1.91</v>
+      </c>
+      <c r="U271">
+        <v>2.6</v>
+      </c>
+      <c r="V271">
+        <v>4.75</v>
+      </c>
+      <c r="W271">
+        <v>1.25</v>
+      </c>
+      <c r="X271">
+        <v>3.75</v>
+      </c>
+      <c r="Y271">
+        <v>2.25</v>
+      </c>
+      <c r="Z271">
+        <v>1.6</v>
+      </c>
+      <c r="AA271">
+        <v>5</v>
+      </c>
+      <c r="AB271">
+        <v>1.15</v>
+      </c>
+      <c r="AC271">
+        <v>1.42</v>
+      </c>
+      <c r="AD271">
+        <v>4.7</v>
+      </c>
+      <c r="AE271">
+        <v>6.1</v>
+      </c>
+      <c r="AF271">
+        <v>1.01</v>
+      </c>
+      <c r="AG271">
+        <v>19</v>
+      </c>
+      <c r="AH271">
+        <v>1.16</v>
+      </c>
+      <c r="AI271">
+        <v>5</v>
+      </c>
+      <c r="AJ271">
+        <v>1.6</v>
+      </c>
+      <c r="AK271">
+        <v>2.3</v>
+      </c>
+      <c r="AL271">
+        <v>1.57</v>
+      </c>
+      <c r="AM271">
+        <v>2.3</v>
+      </c>
+      <c r="AN271">
+        <v>1.16</v>
+      </c>
+      <c r="AO271">
+        <v>1.17</v>
+      </c>
+      <c r="AP271">
+        <v>2.4</v>
+      </c>
+      <c r="AQ271">
+        <v>2.22</v>
+      </c>
+      <c r="AR271">
+        <v>0.38</v>
+      </c>
+      <c r="AS271">
+        <v>2.3</v>
+      </c>
+      <c r="AT271">
+        <v>0.33</v>
+      </c>
+      <c r="AU271">
+        <v>1.74</v>
+      </c>
+      <c r="AV271">
+        <v>1.33</v>
+      </c>
+      <c r="AW271">
+        <v>3.07</v>
+      </c>
+      <c r="AX271">
+        <v>1.28</v>
+      </c>
+      <c r="AY271">
+        <v>7.5</v>
+      </c>
+      <c r="AZ271">
+        <v>4.55</v>
+      </c>
+      <c r="BA271">
+        <v>1.22</v>
+      </c>
+      <c r="BB271">
+        <v>1.5</v>
+      </c>
+      <c r="BC271">
+        <v>1.81</v>
+      </c>
+      <c r="BD271">
+        <v>2.21</v>
+      </c>
+      <c r="BE271">
+        <v>2.98</v>
+      </c>
+      <c r="BF271">
+        <v>4</v>
+      </c>
+      <c r="BG271">
+        <v>4</v>
+      </c>
+      <c r="BH271">
+        <v>5</v>
+      </c>
+      <c r="BI271">
+        <v>3</v>
+      </c>
+      <c r="BJ271">
+        <v>9</v>
+      </c>
+      <c r="BK271">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:63">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>4926206</v>
+      </c>
+      <c r="C272" t="s">
+        <v>63</v>
+      </c>
+      <c r="D272" t="s">
+        <v>64</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45101.85416666666</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272" t="s">
+        <v>67</v>
+      </c>
+      <c r="H272" t="s">
+        <v>91</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+      <c r="O272" t="s">
+        <v>96</v>
+      </c>
+      <c r="P272" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q272">
+        <v>7</v>
+      </c>
+      <c r="R272">
+        <v>4</v>
+      </c>
+      <c r="S272">
+        <v>11</v>
+      </c>
+      <c r="T272">
+        <v>2.4</v>
+      </c>
+      <c r="U272">
+        <v>2.2</v>
+      </c>
+      <c r="V272">
+        <v>3.9</v>
+      </c>
+      <c r="W272">
+        <v>1.33</v>
+      </c>
+      <c r="X272">
+        <v>3.25</v>
+      </c>
+      <c r="Y272">
+        <v>2.5</v>
+      </c>
+      <c r="Z272">
+        <v>1.5</v>
+      </c>
+      <c r="AA272">
+        <v>5.5</v>
+      </c>
+      <c r="AB272">
+        <v>1.12</v>
+      </c>
+      <c r="AC272">
+        <v>1.88</v>
+      </c>
+      <c r="AD272">
+        <v>3.65</v>
+      </c>
+      <c r="AE272">
+        <v>3.65</v>
+      </c>
+      <c r="AF272">
+        <v>1.05</v>
+      </c>
+      <c r="AG272">
+        <v>9</v>
+      </c>
+      <c r="AH272">
+        <v>1.25</v>
+      </c>
+      <c r="AI272">
+        <v>3.75</v>
+      </c>
+      <c r="AJ272">
+        <v>1.83</v>
+      </c>
+      <c r="AK272">
+        <v>2.05</v>
+      </c>
+      <c r="AL272">
+        <v>1.7</v>
+      </c>
+      <c r="AM272">
+        <v>2.05</v>
+      </c>
+      <c r="AN272">
+        <v>1.25</v>
+      </c>
+      <c r="AO272">
+        <v>1.29</v>
+      </c>
+      <c r="AP272">
+        <v>1.83</v>
+      </c>
+      <c r="AQ272">
+        <v>1.33</v>
+      </c>
+      <c r="AR272">
+        <v>0.4</v>
+      </c>
+      <c r="AS272">
+        <v>1.3</v>
+      </c>
+      <c r="AT272">
+        <v>0.45</v>
+      </c>
+      <c r="AU272">
+        <v>1.3</v>
+      </c>
+      <c r="AV272">
+        <v>1.15</v>
+      </c>
+      <c r="AW272">
+        <v>2.45</v>
+      </c>
+      <c r="AX272">
+        <v>1.51</v>
+      </c>
+      <c r="AY272">
+        <v>6.25</v>
+      </c>
+      <c r="AZ272">
+        <v>3.05</v>
+      </c>
+      <c r="BA272">
+        <v>1.27</v>
+      </c>
+      <c r="BB272">
+        <v>1.58</v>
+      </c>
+      <c r="BC272">
+        <v>1.93</v>
+      </c>
+      <c r="BD272">
+        <v>2.39</v>
+      </c>
+      <c r="BE272">
+        <v>3.34</v>
+      </c>
+      <c r="BF272">
+        <v>5</v>
+      </c>
+      <c r="BG272">
+        <v>4</v>
+      </c>
+      <c r="BH272">
+        <v>7</v>
+      </c>
+      <c r="BI272">
+        <v>5</v>
+      </c>
+      <c r="BJ272">
+        <v>12</v>
+      </c>
+      <c r="BK272">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:63">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>4926213</v>
+      </c>
+      <c r="C273" t="s">
+        <v>63</v>
+      </c>
+      <c r="D273" t="s">
+        <v>64</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45101.89583333334</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273" t="s">
+        <v>88</v>
+      </c>
+      <c r="H273" t="s">
+        <v>82</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
+        <v>96</v>
+      </c>
+      <c r="P273" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q273">
+        <v>7</v>
+      </c>
+      <c r="R273">
+        <v>1</v>
+      </c>
+      <c r="S273">
+        <v>8</v>
+      </c>
+      <c r="T273">
+        <v>2.15</v>
+      </c>
+      <c r="U273">
+        <v>2.38</v>
+      </c>
+      <c r="V273">
+        <v>4.33</v>
+      </c>
+      <c r="W273">
+        <v>1.3</v>
+      </c>
+      <c r="X273">
+        <v>3.4</v>
+      </c>
+      <c r="Y273">
+        <v>2.38</v>
+      </c>
+      <c r="Z273">
+        <v>1.53</v>
+      </c>
+      <c r="AA273">
+        <v>5</v>
+      </c>
+      <c r="AB273">
+        <v>1.14</v>
+      </c>
+      <c r="AC273">
+        <v>1.74</v>
+      </c>
+      <c r="AD273">
+        <v>3.85</v>
+      </c>
+      <c r="AE273">
+        <v>4.1</v>
+      </c>
+      <c r="AF273">
+        <v>1.04</v>
+      </c>
+      <c r="AG273">
+        <v>10</v>
+      </c>
+      <c r="AH273">
+        <v>1.22</v>
+      </c>
+      <c r="AI273">
+        <v>4</v>
+      </c>
+      <c r="AJ273">
+        <v>1.67</v>
+      </c>
+      <c r="AK273">
+        <v>2.15</v>
+      </c>
+      <c r="AL273">
+        <v>1.7</v>
+      </c>
+      <c r="AM273">
+        <v>2.05</v>
+      </c>
+      <c r="AN273">
+        <v>1.18</v>
+      </c>
+      <c r="AO273">
+        <v>1.25</v>
+      </c>
+      <c r="AP273">
+        <v>2.1</v>
+      </c>
+      <c r="AQ273">
+        <v>1.44</v>
+      </c>
+      <c r="AR273">
+        <v>0.89</v>
+      </c>
+      <c r="AS273">
+        <v>1.3</v>
+      </c>
+      <c r="AT273">
+        <v>1.1</v>
+      </c>
+      <c r="AU273">
+        <v>1.72</v>
+      </c>
+      <c r="AV273">
+        <v>1.05</v>
+      </c>
+      <c r="AW273">
+        <v>2.77</v>
+      </c>
+      <c r="AX273">
+        <v>1.35</v>
+      </c>
+      <c r="AY273">
+        <v>7</v>
+      </c>
+      <c r="AZ273">
+        <v>3.95</v>
+      </c>
+      <c r="BA273">
+        <v>1.26</v>
+      </c>
+      <c r="BB273">
+        <v>1.57</v>
+      </c>
+      <c r="BC273">
+        <v>1.93</v>
+      </c>
+      <c r="BD273">
+        <v>2.38</v>
+      </c>
+      <c r="BE273">
+        <v>3.28</v>
+      </c>
+      <c r="BF273">
+        <v>5</v>
+      </c>
+      <c r="BG273">
+        <v>6</v>
+      </c>
+      <c r="BH273">
+        <v>7</v>
+      </c>
+      <c r="BI273">
+        <v>4</v>
+      </c>
+      <c r="BJ273">
+        <v>12</v>
+      </c>
+      <c r="BK273">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:63">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>4926212</v>
+      </c>
+      <c r="C274" t="s">
+        <v>63</v>
+      </c>
+      <c r="D274" t="s">
+        <v>64</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45101.9375</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274" t="s">
+        <v>73</v>
+      </c>
+      <c r="H274" t="s">
+        <v>92</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>2</v>
+      </c>
+      <c r="L274">
+        <v>3</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>3</v>
+      </c>
+      <c r="O274" t="s">
+        <v>284</v>
+      </c>
+      <c r="P274" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q274">
+        <v>7</v>
+      </c>
+      <c r="R274">
+        <v>3</v>
+      </c>
+      <c r="S274">
+        <v>10</v>
+      </c>
+      <c r="T274">
+        <v>2.38</v>
+      </c>
+      <c r="U274">
+        <v>2.25</v>
+      </c>
+      <c r="V274">
+        <v>3.8</v>
+      </c>
+      <c r="W274">
+        <v>1.33</v>
+      </c>
+      <c r="X274">
+        <v>3.25</v>
+      </c>
+      <c r="Y274">
+        <v>2.38</v>
+      </c>
+      <c r="Z274">
+        <v>1.53</v>
+      </c>
+      <c r="AA274">
+        <v>5.5</v>
+      </c>
+      <c r="AB274">
+        <v>1.12</v>
+      </c>
+      <c r="AC274">
+        <v>1.99</v>
+      </c>
+      <c r="AD274">
+        <v>3.65</v>
+      </c>
+      <c r="AE274">
+        <v>3.3</v>
+      </c>
+      <c r="AF274">
+        <v>1.04</v>
+      </c>
+      <c r="AG274">
+        <v>10</v>
+      </c>
+      <c r="AH274">
+        <v>1.22</v>
+      </c>
+      <c r="AI274">
+        <v>4</v>
+      </c>
+      <c r="AJ274">
+        <v>1.65</v>
+      </c>
+      <c r="AK274">
+        <v>2.2</v>
+      </c>
+      <c r="AL274">
+        <v>1.67</v>
+      </c>
+      <c r="AM274">
+        <v>2.1</v>
+      </c>
+      <c r="AN274">
+        <v>1.22</v>
+      </c>
+      <c r="AO274">
+        <v>1.25</v>
+      </c>
+      <c r="AP274">
+        <v>1.91</v>
+      </c>
+      <c r="AQ274">
+        <v>1.5</v>
+      </c>
+      <c r="AR274">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS274">
+        <v>1.64</v>
+      </c>
+      <c r="AT274">
+        <v>0.5</v>
+      </c>
+      <c r="AU274">
+        <v>1.55</v>
+      </c>
+      <c r="AV274">
+        <v>1.35</v>
+      </c>
+      <c r="AW274">
+        <v>2.9</v>
+      </c>
+      <c r="AX274">
+        <v>1.5</v>
+      </c>
+      <c r="AY274">
+        <v>6.5</v>
+      </c>
+      <c r="AZ274">
+        <v>3.1</v>
+      </c>
+      <c r="BA274">
+        <v>1.18</v>
+      </c>
+      <c r="BB274">
+        <v>1.36</v>
+      </c>
+      <c r="BC274">
+        <v>1.7</v>
+      </c>
+      <c r="BD274">
+        <v>2.11</v>
+      </c>
+      <c r="BE274">
+        <v>2.36</v>
+      </c>
+      <c r="BF274">
+        <v>5</v>
+      </c>
+      <c r="BG274">
+        <v>4</v>
+      </c>
+      <c r="BH274">
+        <v>3</v>
+      </c>
+      <c r="BI274">
+        <v>5</v>
+      </c>
+      <c r="BJ274">
+        <v>8</v>
+      </c>
+      <c r="BK274">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:63">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>4926214</v>
+      </c>
+      <c r="C275" t="s">
+        <v>63</v>
+      </c>
+      <c r="D275" t="s">
+        <v>64</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45101.9375</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275" t="s">
+        <v>84</v>
+      </c>
+      <c r="H275" t="s">
+        <v>93</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+      <c r="O275" t="s">
+        <v>96</v>
+      </c>
+      <c r="P275" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q275">
+        <v>5</v>
+      </c>
+      <c r="R275">
+        <v>4</v>
+      </c>
+      <c r="S275">
+        <v>9</v>
+      </c>
+      <c r="T275">
+        <v>2.9</v>
+      </c>
+      <c r="U275">
+        <v>2.15</v>
+      </c>
+      <c r="V275">
+        <v>3.75</v>
+      </c>
+      <c r="W275">
+        <v>1.4</v>
+      </c>
+      <c r="X275">
+        <v>2.95</v>
+      </c>
+      <c r="Y275">
+        <v>2.85</v>
+      </c>
+      <c r="Z275">
+        <v>1.4</v>
+      </c>
+      <c r="AA275">
+        <v>7</v>
+      </c>
+      <c r="AB275">
+        <v>1.08</v>
+      </c>
+      <c r="AC275">
+        <v>2.13</v>
+      </c>
+      <c r="AD275">
+        <v>3.5</v>
+      </c>
+      <c r="AE275">
+        <v>3.05</v>
+      </c>
+      <c r="AF275">
+        <v>1.05</v>
+      </c>
+      <c r="AG275">
+        <v>11</v>
+      </c>
+      <c r="AH275">
+        <v>1.3</v>
+      </c>
+      <c r="AI275">
+        <v>3.5</v>
+      </c>
+      <c r="AJ275">
+        <v>1.94</v>
+      </c>
+      <c r="AK275">
+        <v>1.94</v>
+      </c>
+      <c r="AL275">
+        <v>1.72</v>
+      </c>
+      <c r="AM275">
+        <v>2.05</v>
+      </c>
+      <c r="AN275">
+        <v>1.36</v>
+      </c>
+      <c r="AO275">
+        <v>1.25</v>
+      </c>
+      <c r="AP275">
+        <v>1.66</v>
+      </c>
+      <c r="AQ275">
+        <v>0.5</v>
+      </c>
+      <c r="AR275">
+        <v>0.67</v>
+      </c>
+      <c r="AS275">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT275">
+        <v>0.7</v>
+      </c>
+      <c r="AU275">
+        <v>1.54</v>
+      </c>
+      <c r="AV275">
+        <v>1.27</v>
+      </c>
+      <c r="AW275">
+        <v>2.81</v>
+      </c>
+      <c r="AX275">
+        <v>1.8</v>
+      </c>
+      <c r="AY275">
+        <v>5.75</v>
+      </c>
+      <c r="AZ275">
+        <v>2.4</v>
+      </c>
+      <c r="BA275">
+        <v>1.23</v>
+      </c>
+      <c r="BB275">
+        <v>1.49</v>
+      </c>
+      <c r="BC275">
+        <v>1.82</v>
+      </c>
+      <c r="BD275">
+        <v>2.23</v>
+      </c>
+      <c r="BE275">
+        <v>3.04</v>
+      </c>
+      <c r="BF275">
+        <v>2</v>
+      </c>
+      <c r="BG275">
+        <v>4</v>
+      </c>
+      <c r="BH275">
+        <v>6</v>
+      </c>
+      <c r="BI275">
+        <v>5</v>
+      </c>
+      <c r="BJ275">
+        <v>8</v>
+      </c>
+      <c r="BK275">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:63">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>4926215</v>
+      </c>
+      <c r="C276" t="s">
+        <v>63</v>
+      </c>
+      <c r="D276" t="s">
+        <v>64</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45101.9375</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276" t="s">
+        <v>90</v>
+      </c>
+      <c r="H276" t="s">
+        <v>89</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>2</v>
+      </c>
+      <c r="K276">
+        <v>2</v>
+      </c>
+      <c r="L276">
+        <v>2</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>4</v>
+      </c>
+      <c r="O276" t="s">
+        <v>285</v>
+      </c>
+      <c r="P276" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q276">
+        <v>7</v>
+      </c>
+      <c r="R276">
+        <v>3</v>
+      </c>
+      <c r="S276">
+        <v>10</v>
+      </c>
+      <c r="T276">
+        <v>2.8</v>
+      </c>
+      <c r="U276">
+        <v>2.25</v>
+      </c>
+      <c r="V276">
+        <v>3.1</v>
+      </c>
+      <c r="W276">
+        <v>1.33</v>
+      </c>
+      <c r="X276">
+        <v>3.25</v>
+      </c>
+      <c r="Y276">
+        <v>2.5</v>
+      </c>
+      <c r="Z276">
+        <v>1.5</v>
+      </c>
+      <c r="AA276">
+        <v>5.5</v>
+      </c>
+      <c r="AB276">
+        <v>1.12</v>
+      </c>
+      <c r="AC276">
+        <v>2.17</v>
+      </c>
+      <c r="AD276">
+        <v>3.55</v>
+      </c>
+      <c r="AE276">
+        <v>2.96</v>
+      </c>
+      <c r="AF276">
+        <v>1.04</v>
+      </c>
+      <c r="AG276">
+        <v>10</v>
+      </c>
+      <c r="AH276">
+        <v>1.22</v>
+      </c>
+      <c r="AI276">
+        <v>4</v>
+      </c>
+      <c r="AJ276">
+        <v>1.7</v>
+      </c>
+      <c r="AK276">
+        <v>2.1</v>
+      </c>
+      <c r="AL276">
+        <v>1.6</v>
+      </c>
+      <c r="AM276">
+        <v>2.25</v>
+      </c>
+      <c r="AN276">
+        <v>1.44</v>
+      </c>
+      <c r="AO276">
+        <v>1.29</v>
+      </c>
+      <c r="AP276">
+        <v>1.53</v>
+      </c>
+      <c r="AQ276">
+        <v>1</v>
+      </c>
+      <c r="AR276">
+        <v>1.2</v>
+      </c>
+      <c r="AS276">
+        <v>1</v>
+      </c>
+      <c r="AT276">
+        <v>1.18</v>
+      </c>
+      <c r="AU276">
+        <v>1.93</v>
+      </c>
+      <c r="AV276">
+        <v>1.36</v>
+      </c>
+      <c r="AW276">
+        <v>3.29</v>
+      </c>
+      <c r="AX276">
+        <v>1.44</v>
+      </c>
+      <c r="AY276">
+        <v>6.5</v>
+      </c>
+      <c r="AZ276">
+        <v>3.4</v>
+      </c>
+      <c r="BA276">
+        <v>1.16</v>
+      </c>
+      <c r="BB276">
+        <v>1.33</v>
+      </c>
+      <c r="BC276">
+        <v>1.66</v>
+      </c>
+      <c r="BD276">
+        <v>2.02</v>
+      </c>
+      <c r="BE276">
+        <v>2.48</v>
+      </c>
+      <c r="BF276">
+        <v>7</v>
+      </c>
+      <c r="BG276">
+        <v>5</v>
+      </c>
+      <c r="BH276">
+        <v>10</v>
+      </c>
+      <c r="BI276">
+        <v>2</v>
+      </c>
+      <c r="BJ276">
+        <v>17</v>
+      </c>
+      <c r="BK276">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:63">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>4926216</v>
+      </c>
+      <c r="C277" t="s">
+        <v>63</v>
+      </c>
+      <c r="D277" t="s">
+        <v>64</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45101.97916666666</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277" t="s">
+        <v>78</v>
+      </c>
+      <c r="H277" t="s">
+        <v>75</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>2</v>
+      </c>
+      <c r="K277">
+        <v>3</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>3</v>
+      </c>
+      <c r="N277">
+        <v>5</v>
+      </c>
+      <c r="O277" t="s">
+        <v>286</v>
+      </c>
+      <c r="P277" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q277">
+        <v>3</v>
+      </c>
+      <c r="R277">
+        <v>5</v>
+      </c>
+      <c r="S277">
+        <v>8</v>
+      </c>
+      <c r="T277">
+        <v>1.95</v>
+      </c>
+      <c r="U277">
+        <v>2.38</v>
+      </c>
+      <c r="V277">
+        <v>5.5</v>
+      </c>
+      <c r="W277">
+        <v>1.33</v>
+      </c>
+      <c r="X277">
+        <v>3.25</v>
+      </c>
+      <c r="Y277">
+        <v>2.5</v>
+      </c>
+      <c r="Z277">
+        <v>1.5</v>
+      </c>
+      <c r="AA277">
+        <v>5.5</v>
+      </c>
+      <c r="AB277">
+        <v>1.12</v>
+      </c>
+      <c r="AC277">
+        <v>1.57</v>
+      </c>
+      <c r="AD277">
+        <v>4.1</v>
+      </c>
+      <c r="AE277">
+        <v>5</v>
+      </c>
+      <c r="AF277">
+        <v>1.05</v>
+      </c>
+      <c r="AG277">
+        <v>9</v>
+      </c>
+      <c r="AH277">
+        <v>1.25</v>
+      </c>
+      <c r="AI277">
+        <v>3.75</v>
+      </c>
+      <c r="AJ277">
+        <v>1.83</v>
+      </c>
+      <c r="AK277">
+        <v>2.05</v>
+      </c>
+      <c r="AL277">
+        <v>1.85</v>
+      </c>
+      <c r="AM277">
+        <v>1.85</v>
+      </c>
+      <c r="AN277">
+        <v>1.11</v>
+      </c>
+      <c r="AO277">
+        <v>1.22</v>
+      </c>
+      <c r="AP277">
+        <v>2.45</v>
+      </c>
+      <c r="AQ277">
+        <v>2.22</v>
+      </c>
+      <c r="AR277">
+        <v>0.43</v>
+      </c>
+      <c r="AS277">
+        <v>2</v>
+      </c>
+      <c r="AT277">
+        <v>0.75</v>
+      </c>
+      <c r="AU277">
+        <v>1.93</v>
+      </c>
+      <c r="AV277">
+        <v>1.41</v>
+      </c>
+      <c r="AW277">
+        <v>3.34</v>
+      </c>
+      <c r="AX277">
+        <v>1.34</v>
+      </c>
+      <c r="AY277">
+        <v>7</v>
+      </c>
+      <c r="AZ277">
+        <v>3.95</v>
+      </c>
+      <c r="BA277">
+        <v>1.12</v>
+      </c>
+      <c r="BB277">
+        <v>1.25</v>
+      </c>
+      <c r="BC277">
+        <v>1.53</v>
+      </c>
+      <c r="BD277">
+        <v>1.84</v>
+      </c>
+      <c r="BE277">
+        <v>2.24</v>
+      </c>
+      <c r="BF277">
+        <v>10</v>
+      </c>
+      <c r="BG277">
+        <v>10</v>
+      </c>
+      <c r="BH277">
+        <v>5</v>
+      </c>
+      <c r="BI277">
+        <v>4</v>
+      </c>
+      <c r="BJ277">
+        <v>15</v>
+      </c>
+      <c r="BK277">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:63">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>4926217</v>
+      </c>
+      <c r="C278" t="s">
+        <v>63</v>
+      </c>
+      <c r="D278" t="s">
+        <v>64</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45101.97916666666</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278" t="s">
+        <v>77</v>
+      </c>
+      <c r="H278" t="s">
+        <v>86</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278">
+        <v>2</v>
+      </c>
+      <c r="O278" t="s">
+        <v>213</v>
+      </c>
+      <c r="P278" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q278">
+        <v>3</v>
+      </c>
+      <c r="R278">
+        <v>1</v>
+      </c>
+      <c r="S278">
+        <v>4</v>
+      </c>
+      <c r="T278">
+        <v>2.6</v>
+      </c>
+      <c r="U278">
+        <v>2.15</v>
+      </c>
+      <c r="V278">
+        <v>4.33</v>
+      </c>
+      <c r="W278">
+        <v>1.4</v>
+      </c>
+      <c r="X278">
+        <v>3</v>
+      </c>
+      <c r="Y278">
+        <v>2.85</v>
+      </c>
+      <c r="Z278">
+        <v>1.4</v>
+      </c>
+      <c r="AA278">
+        <v>7</v>
+      </c>
+      <c r="AB278">
+        <v>1.08</v>
+      </c>
+      <c r="AC278">
+        <v>1.95</v>
+      </c>
+      <c r="AD278">
+        <v>3.5</v>
+      </c>
+      <c r="AE278">
+        <v>3.55</v>
+      </c>
+      <c r="AF278">
+        <v>1.05</v>
+      </c>
+      <c r="AG278">
+        <v>11</v>
+      </c>
+      <c r="AH278">
+        <v>1.3</v>
+      </c>
+      <c r="AI278">
+        <v>3.5</v>
+      </c>
+      <c r="AJ278">
+        <v>1.94</v>
+      </c>
+      <c r="AK278">
+        <v>1.94</v>
+      </c>
+      <c r="AL278">
+        <v>1.78</v>
+      </c>
+      <c r="AM278">
+        <v>2</v>
+      </c>
+      <c r="AN278">
+        <v>1.25</v>
+      </c>
+      <c r="AO278">
+        <v>1.25</v>
+      </c>
+      <c r="AP278">
+        <v>1.87</v>
+      </c>
+      <c r="AQ278">
+        <v>1.56</v>
+      </c>
+      <c r="AR278">
+        <v>0.5</v>
+      </c>
+      <c r="AS278">
+        <v>1.5</v>
+      </c>
+      <c r="AT278">
+        <v>0.55</v>
+      </c>
+      <c r="AU278">
+        <v>1.61</v>
+      </c>
+      <c r="AV278">
+        <v>1.04</v>
+      </c>
+      <c r="AW278">
+        <v>2.65</v>
+      </c>
+      <c r="AX278">
+        <v>1.57</v>
+      </c>
+      <c r="AY278">
+        <v>6</v>
+      </c>
+      <c r="AZ278">
+        <v>2.95</v>
+      </c>
+      <c r="BA278">
+        <v>1.24</v>
+      </c>
+      <c r="BB278">
+        <v>1.52</v>
+      </c>
+      <c r="BC278">
+        <v>1.84</v>
+      </c>
+      <c r="BD278">
+        <v>2.25</v>
+      </c>
+      <c r="BE278">
+        <v>3.08</v>
+      </c>
+      <c r="BF278">
+        <v>8</v>
+      </c>
+      <c r="BG278">
+        <v>4</v>
+      </c>
+      <c r="BH278">
+        <v>5</v>
+      </c>
+      <c r="BI278">
+        <v>2</v>
+      </c>
+      <c r="BJ278">
+        <v>13</v>
+      </c>
+      <c r="BK278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:63">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>4926218</v>
+      </c>
+      <c r="C279" t="s">
+        <v>63</v>
+      </c>
+      <c r="D279" t="s">
+        <v>64</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45101.97916666666</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279" t="s">
+        <v>85</v>
+      </c>
+      <c r="H279" t="s">
+        <v>83</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>3</v>
+      </c>
+      <c r="O279" t="s">
+        <v>287</v>
+      </c>
+      <c r="P279" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q279">
+        <v>6</v>
+      </c>
+      <c r="R279">
+        <v>3</v>
+      </c>
+      <c r="S279">
+        <v>9</v>
+      </c>
+      <c r="T279">
+        <v>2.62</v>
+      </c>
+      <c r="U279">
+        <v>2.25</v>
+      </c>
+      <c r="V279">
+        <v>3.3</v>
+      </c>
+      <c r="W279">
+        <v>1.33</v>
+      </c>
+      <c r="X279">
+        <v>3.25</v>
+      </c>
+      <c r="Y279">
+        <v>2.5</v>
+      </c>
+      <c r="Z279">
+        <v>1.5</v>
+      </c>
+      <c r="AA279">
+        <v>5.5</v>
+      </c>
+      <c r="AB279">
+        <v>1.12</v>
+      </c>
+      <c r="AC279">
+        <v>2.23</v>
+      </c>
+      <c r="AD279">
+        <v>3.8</v>
+      </c>
+      <c r="AE279">
+        <v>2.72</v>
+      </c>
+      <c r="AF279">
+        <v>1.04</v>
+      </c>
+      <c r="AG279">
+        <v>10</v>
+      </c>
+      <c r="AH279">
+        <v>1.22</v>
+      </c>
+      <c r="AI279">
+        <v>4</v>
+      </c>
+      <c r="AJ279">
+        <v>1.65</v>
+      </c>
+      <c r="AK279">
+        <v>2.2</v>
+      </c>
+      <c r="AL279">
+        <v>1.62</v>
+      </c>
+      <c r="AM279">
+        <v>2.2</v>
+      </c>
+      <c r="AN279">
+        <v>1.36</v>
+      </c>
+      <c r="AO279">
+        <v>1.29</v>
+      </c>
+      <c r="AP279">
+        <v>1.62</v>
+      </c>
+      <c r="AQ279">
+        <v>2.33</v>
+      </c>
+      <c r="AR279">
+        <v>1.25</v>
+      </c>
+      <c r="AS279">
+        <v>2.1</v>
+      </c>
+      <c r="AT279">
+        <v>1.44</v>
+      </c>
+      <c r="AU279">
+        <v>1.38</v>
+      </c>
+      <c r="AV279">
+        <v>1.39</v>
+      </c>
+      <c r="AW279">
+        <v>2.77</v>
+      </c>
+      <c r="AX279">
+        <v>1.69</v>
+      </c>
+      <c r="AY279">
+        <v>8</v>
+      </c>
+      <c r="AZ279">
+        <v>2.54</v>
+      </c>
+      <c r="BA279">
+        <v>1.21</v>
+      </c>
+      <c r="BB279">
+        <v>1.42</v>
+      </c>
+      <c r="BC279">
+        <v>1.75</v>
+      </c>
+      <c r="BD279">
+        <v>2.19</v>
+      </c>
+      <c r="BE279">
+        <v>2.91</v>
+      </c>
+      <c r="BF279">
+        <v>10</v>
+      </c>
+      <c r="BG279">
+        <v>6</v>
+      </c>
+      <c r="BH279">
+        <v>2</v>
+      </c>
+      <c r="BI279">
+        <v>2</v>
+      </c>
+      <c r="BJ279">
+        <v>12</v>
+      </c>
+      <c r="BK279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:63">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>4926219</v>
+      </c>
+      <c r="C280" t="s">
+        <v>63</v>
+      </c>
+      <c r="D280" t="s">
+        <v>64</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45101.97916666666</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280" t="s">
+        <v>76</v>
+      </c>
+      <c r="H280" t="s">
+        <v>71</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280" t="s">
+        <v>96</v>
+      </c>
+      <c r="P280" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q280">
+        <v>5</v>
+      </c>
+      <c r="R280">
+        <v>7</v>
+      </c>
+      <c r="S280">
+        <v>12</v>
+      </c>
+      <c r="T280">
+        <v>2.75</v>
+      </c>
+      <c r="U280">
+        <v>2.25</v>
+      </c>
+      <c r="V280">
+        <v>3.75</v>
+      </c>
+      <c r="W280">
+        <v>1.36</v>
+      </c>
+      <c r="X280">
+        <v>3.1</v>
+      </c>
+      <c r="Y280">
+        <v>2.65</v>
+      </c>
+      <c r="Z280">
+        <v>1.44</v>
+      </c>
+      <c r="AA280">
+        <v>6.5</v>
+      </c>
+      <c r="AB280">
+        <v>1.09</v>
+      </c>
+      <c r="AC280">
+        <v>2</v>
+      </c>
+      <c r="AD280">
+        <v>3.5</v>
+      </c>
+      <c r="AE280">
+        <v>3.4</v>
+      </c>
+      <c r="AF280">
+        <v>1.03</v>
+      </c>
+      <c r="AG280">
+        <v>13</v>
+      </c>
+      <c r="AH280">
+        <v>1.25</v>
+      </c>
+      <c r="AI280">
+        <v>3.75</v>
+      </c>
+      <c r="AJ280">
+        <v>1.83</v>
+      </c>
+      <c r="AK280">
+        <v>2.05</v>
+      </c>
+      <c r="AL280">
+        <v>1.68</v>
+      </c>
+      <c r="AM280">
+        <v>2.15</v>
+      </c>
+      <c r="AN280">
+        <v>1.33</v>
+      </c>
+      <c r="AO280">
+        <v>1.25</v>
+      </c>
+      <c r="AP280">
+        <v>1.78</v>
+      </c>
+      <c r="AQ280">
+        <v>1.7</v>
+      </c>
+      <c r="AR280">
+        <v>1.75</v>
+      </c>
+      <c r="AS280">
+        <v>1.64</v>
+      </c>
+      <c r="AT280">
+        <v>1.67</v>
+      </c>
+      <c r="AU280">
+        <v>1.66</v>
+      </c>
+      <c r="AV280">
+        <v>1.28</v>
+      </c>
+      <c r="AW280">
+        <v>2.94</v>
+      </c>
+      <c r="AX280">
+        <v>1.44</v>
+      </c>
+      <c r="AY280">
+        <v>6.75</v>
+      </c>
+      <c r="AZ280">
+        <v>3.35</v>
+      </c>
+      <c r="BA280">
+        <v>1.25</v>
+      </c>
+      <c r="BB280">
+        <v>1.54</v>
+      </c>
+      <c r="BC280">
+        <v>1.88</v>
+      </c>
+      <c r="BD280">
+        <v>2.31</v>
+      </c>
+      <c r="BE280">
+        <v>3.18</v>
+      </c>
+      <c r="BF280">
+        <v>3</v>
+      </c>
+      <c r="BG280">
+        <v>4</v>
+      </c>
+      <c r="BH280">
+        <v>10</v>
+      </c>
+      <c r="BI280">
+        <v>8</v>
+      </c>
+      <c r="BJ280">
+        <v>13</v>
+      </c>
+      <c r="BK280">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -829,10 +829,10 @@
     <t>['27']</t>
   </si>
   <si>
-    <t>['35', '54', '63']</t>
+    <t>['11', '90+5']</t>
   </si>
   <si>
-    <t>['11', '90+5']</t>
+    <t>['35', '54', '63']</t>
   </si>
   <si>
     <t>['3', '5', '77', '89']</t>
@@ -841,10 +841,10 @@
     <t>['21']</t>
   </si>
   <si>
-    <t>['24', '64']</t>
+    <t>['1']</t>
   </si>
   <si>
-    <t>['1']</t>
+    <t>['24', '64']</t>
   </si>
   <si>
     <t>['26']</t>
@@ -856,7 +856,7 @@
     <t>['33', '52']</t>
   </si>
   <si>
-    <t>['32', '45', '78', '90']</t>
+    <t>['14', '39', '45+4', '68']</t>
   </si>
   <si>
     <t>['10', '17', '43']</t>
@@ -865,7 +865,7 @@
     <t>['20', '90+5']</t>
   </si>
   <si>
-    <t>['14', '39', '45+4', '68']</t>
+    <t>['32', '45', '78', '90']</t>
   </si>
   <si>
     <t>['22', '32', '50']</t>
@@ -50831,7 +50831,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>4926194</v>
+        <v>4926193</v>
       </c>
       <c r="C259" t="s">
         <v>63</v>
@@ -50846,85 +50846,85 @@
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H259" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I259">
         <v>1</v>
       </c>
       <c r="J259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O259" t="s">
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="Q259">
+        <v>5</v>
+      </c>
+      <c r="R259">
+        <v>1</v>
+      </c>
+      <c r="S259">
         <v>6</v>
       </c>
-      <c r="R259">
-        <v>1</v>
-      </c>
-      <c r="S259">
-        <v>7</v>
-      </c>
       <c r="T259">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="U259">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="V259">
-        <v>5.77</v>
+        <v>4.33</v>
       </c>
       <c r="W259">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="X259">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Y259">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="Z259">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AA259">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB259">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AC259">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AD259">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AE259">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="AF259">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG259">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH259">
         <v>1.22</v>
@@ -50933,13 +50933,13 @@
         <v>4</v>
       </c>
       <c r="AJ259">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AK259">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AL259">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AM259">
         <v>2.05</v>
@@ -50948,73 +50948,73 @@
         <v>1.18</v>
       </c>
       <c r="AO259">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AP259">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ259">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="AR259">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AS259">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="AT259">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="AU259">
-        <v>1.3</v>
+        <v>1.76</v>
       </c>
       <c r="AV259">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AW259">
-        <v>2.26</v>
+        <v>2.84</v>
       </c>
       <c r="AX259">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="AY259">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ259">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="BA259">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BB259">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="BC259">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BD259">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="BE259">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BF259">
+        <v>6</v>
+      </c>
+      <c r="BG259">
+        <v>4</v>
+      </c>
+      <c r="BH259">
+        <v>2</v>
+      </c>
+      <c r="BI259">
+        <v>0</v>
+      </c>
+      <c r="BJ259">
         <v>8</v>
       </c>
-      <c r="BG259">
-        <v>5</v>
-      </c>
-      <c r="BH259">
+      <c r="BK259">
         <v>4</v>
-      </c>
-      <c r="BI259">
-        <v>4</v>
-      </c>
-      <c r="BJ259">
-        <v>12</v>
-      </c>
-      <c r="BK259">
-        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:63">
@@ -51022,7 +51022,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>4926193</v>
+        <v>4926194</v>
       </c>
       <c r="C260" t="s">
         <v>63</v>
@@ -51037,85 +51037,85 @@
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H260" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I260">
         <v>1</v>
       </c>
       <c r="J260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N260">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O260" t="s">
         <v>272</v>
       </c>
       <c r="P260" t="s">
-        <v>382</v>
+        <v>96</v>
       </c>
       <c r="Q260">
+        <v>6</v>
+      </c>
+      <c r="R260">
+        <v>1</v>
+      </c>
+      <c r="S260">
+        <v>7</v>
+      </c>
+      <c r="T260">
+        <v>2.35</v>
+      </c>
+      <c r="U260">
+        <v>2.27</v>
+      </c>
+      <c r="V260">
+        <v>5.77</v>
+      </c>
+      <c r="W260">
+        <v>1.38</v>
+      </c>
+      <c r="X260">
+        <v>3.2</v>
+      </c>
+      <c r="Y260">
+        <v>2.64</v>
+      </c>
+      <c r="Z260">
+        <v>1.52</v>
+      </c>
+      <c r="AA260">
+        <v>6</v>
+      </c>
+      <c r="AB260">
+        <v>1.11</v>
+      </c>
+      <c r="AC260">
+        <v>1.65</v>
+      </c>
+      <c r="AD260">
+        <v>3.8</v>
+      </c>
+      <c r="AE260">
         <v>5</v>
       </c>
-      <c r="R260">
-        <v>1</v>
-      </c>
-      <c r="S260">
-        <v>6</v>
-      </c>
-      <c r="T260">
-        <v>2.15</v>
-      </c>
-      <c r="U260">
-        <v>2.38</v>
-      </c>
-      <c r="V260">
-        <v>4.33</v>
-      </c>
-      <c r="W260">
-        <v>1.3</v>
-      </c>
-      <c r="X260">
-        <v>3.4</v>
-      </c>
-      <c r="Y260">
-        <v>2.38</v>
-      </c>
-      <c r="Z260">
-        <v>1.53</v>
-      </c>
-      <c r="AA260">
-        <v>5</v>
-      </c>
-      <c r="AB260">
-        <v>1.14</v>
-      </c>
-      <c r="AC260">
-        <v>1.73</v>
-      </c>
-      <c r="AD260">
-        <v>3.9</v>
-      </c>
-      <c r="AE260">
-        <v>4.2</v>
-      </c>
       <c r="AF260">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG260">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH260">
         <v>1.22</v>
@@ -51124,13 +51124,13 @@
         <v>4</v>
       </c>
       <c r="AJ260">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AK260">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AL260">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AM260">
         <v>2.05</v>
@@ -51139,73 +51139,73 @@
         <v>1.18</v>
       </c>
       <c r="AO260">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP260">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ260">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="AR260">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AS260">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AT260">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="AU260">
-        <v>1.76</v>
+        <v>1.3</v>
       </c>
       <c r="AV260">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AW260">
-        <v>2.84</v>
+        <v>2.26</v>
       </c>
       <c r="AX260">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AY260">
+        <v>7.5</v>
+      </c>
+      <c r="AZ260">
+        <v>2.88</v>
+      </c>
+      <c r="BA260">
+        <v>1.29</v>
+      </c>
+      <c r="BB260">
+        <v>1.53</v>
+      </c>
+      <c r="BC260">
+        <v>1.95</v>
+      </c>
+      <c r="BD260">
+        <v>2.55</v>
+      </c>
+      <c r="BE260">
+        <v>3.5</v>
+      </c>
+      <c r="BF260">
         <v>8</v>
       </c>
-      <c r="AZ260">
-        <v>3.75</v>
-      </c>
-      <c r="BA260">
-        <v>1.24</v>
-      </c>
-      <c r="BB260">
-        <v>1.44</v>
-      </c>
-      <c r="BC260">
-        <v>1.8</v>
-      </c>
-      <c r="BD260">
-        <v>2.3</v>
-      </c>
-      <c r="BE260">
-        <v>3.1</v>
-      </c>
-      <c r="BF260">
-        <v>6</v>
-      </c>
       <c r="BG260">
+        <v>5</v>
+      </c>
+      <c r="BH260">
         <v>4</v>
       </c>
-      <c r="BH260">
-        <v>2</v>
-      </c>
       <c r="BI260">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ260">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK260">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:63">
@@ -51595,7 +51595,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>4926203</v>
+        <v>4926204</v>
       </c>
       <c r="C263" t="s">
         <v>63</v>
@@ -51610,79 +51610,79 @@
         <v>0</v>
       </c>
       <c r="G263" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H263" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O263" t="s">
         <v>275</v>
       </c>
       <c r="P263" t="s">
-        <v>384</v>
+        <v>96</v>
       </c>
       <c r="Q263">
+        <v>8</v>
+      </c>
+      <c r="R263">
         <v>6</v>
-      </c>
-      <c r="R263">
-        <v>8</v>
       </c>
       <c r="S263">
         <v>14</v>
       </c>
       <c r="T263">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="U263">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="V263">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="W263">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X263">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Y263">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="Z263">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AA263">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AB263">
         <v>1.1</v>
       </c>
       <c r="AC263">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AD263">
         <v>3.6</v>
       </c>
       <c r="AE263">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AF263">
         <v>1.03</v>
@@ -51691,94 +51691,94 @@
         <v>13</v>
       </c>
       <c r="AH263">
+        <v>1.25</v>
+      </c>
+      <c r="AI263">
+        <v>3.75</v>
+      </c>
+      <c r="AJ263">
+        <v>1.76</v>
+      </c>
+      <c r="AK263">
+        <v>1.94</v>
+      </c>
+      <c r="AL263">
+        <v>1.75</v>
+      </c>
+      <c r="AM263">
+        <v>2.05</v>
+      </c>
+      <c r="AN263">
+        <v>1.2</v>
+      </c>
+      <c r="AO263">
+        <v>1.2</v>
+      </c>
+      <c r="AP263">
+        <v>2.1</v>
+      </c>
+      <c r="AQ263">
+        <v>2.13</v>
+      </c>
+      <c r="AR263">
+        <v>1.38</v>
+      </c>
+      <c r="AS263">
+        <v>2</v>
+      </c>
+      <c r="AT263">
         <v>1.22</v>
       </c>
-      <c r="AI263">
+      <c r="AU263">
+        <v>1.98</v>
+      </c>
+      <c r="AV263">
+        <v>1.27</v>
+      </c>
+      <c r="AW263">
+        <v>3.25</v>
+      </c>
+      <c r="AX263">
+        <v>1.41</v>
+      </c>
+      <c r="AY263">
+        <v>8</v>
+      </c>
+      <c r="AZ263">
+        <v>3.5</v>
+      </c>
+      <c r="BA263">
+        <v>1.18</v>
+      </c>
+      <c r="BB263">
+        <v>1.34</v>
+      </c>
+      <c r="BC263">
+        <v>1.61</v>
+      </c>
+      <c r="BD263">
+        <v>2.02</v>
+      </c>
+      <c r="BE263">
+        <v>2.7</v>
+      </c>
+      <c r="BF263">
         <v>4</v>
       </c>
-      <c r="AJ263">
-        <v>1.55</v>
-      </c>
-      <c r="AK263">
-        <v>2.29</v>
-      </c>
-      <c r="AL263">
-        <v>1.65</v>
-      </c>
-      <c r="AM263">
-        <v>2.1</v>
-      </c>
-      <c r="AN263">
-        <v>1.31</v>
-      </c>
-      <c r="AO263">
-        <v>1.29</v>
-      </c>
-      <c r="AP263">
-        <v>1.7</v>
-      </c>
-      <c r="AQ263">
-        <v>1</v>
-      </c>
-      <c r="AR263">
-        <v>0.7</v>
-      </c>
-      <c r="AS263">
-        <v>1</v>
-      </c>
-      <c r="AT263">
-        <v>0.73</v>
-      </c>
-      <c r="AU263">
-        <v>1.93</v>
-      </c>
-      <c r="AV263">
-        <v>1.42</v>
-      </c>
-      <c r="AW263">
-        <v>3.35</v>
-      </c>
-      <c r="AX263">
-        <v>1.79</v>
-      </c>
-      <c r="AY263">
-        <v>7</v>
-      </c>
-      <c r="AZ263">
-        <v>2.4</v>
-      </c>
-      <c r="BA263">
-        <v>1.22</v>
-      </c>
-      <c r="BB263">
-        <v>1.42</v>
-      </c>
-      <c r="BC263">
-        <v>1.74</v>
-      </c>
-      <c r="BD263">
-        <v>2.23</v>
-      </c>
-      <c r="BE263">
-        <v>3</v>
-      </c>
-      <c r="BF263">
-        <v>3</v>
-      </c>
       <c r="BG263">
+        <v>3</v>
+      </c>
+      <c r="BH263">
+        <v>9</v>
+      </c>
+      <c r="BI263">
         <v>6</v>
       </c>
-      <c r="BH263">
-        <v>6</v>
-      </c>
-      <c r="BI263">
-        <v>10</v>
-      </c>
       <c r="BJ263">
+        <v>13</v>
+      </c>
+      <c r="BK263">
         <v>9</v>
-      </c>
-      <c r="BK263">
-        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:63">
@@ -51786,7 +51786,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>4926204</v>
+        <v>4926203</v>
       </c>
       <c r="C264" t="s">
         <v>63</v>
@@ -51801,79 +51801,79 @@
         <v>0</v>
       </c>
       <c r="G264" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H264" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I264">
         <v>1</v>
       </c>
       <c r="J264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O264" t="s">
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="Q264">
+        <v>6</v>
+      </c>
+      <c r="R264">
         <v>8</v>
-      </c>
-      <c r="R264">
-        <v>6</v>
       </c>
       <c r="S264">
         <v>14</v>
       </c>
       <c r="T264">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="U264">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="V264">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="W264">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X264">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Y264">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="Z264">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AA264">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="AB264">
         <v>1.1</v>
       </c>
       <c r="AC264">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AD264">
         <v>3.6</v>
       </c>
       <c r="AE264">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AF264">
         <v>1.03</v>
@@ -51882,94 +51882,94 @@
         <v>13</v>
       </c>
       <c r="AH264">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI264">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AJ264">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="AK264">
-        <v>1.94</v>
+        <v>2.29</v>
       </c>
       <c r="AL264">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AM264">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AN264">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AO264">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AP264">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AQ264">
-        <v>2.13</v>
+        <v>1</v>
       </c>
       <c r="AR264">
-        <v>1.38</v>
+        <v>0.7</v>
       </c>
       <c r="AS264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT264">
+        <v>0.73</v>
+      </c>
+      <c r="AU264">
+        <v>1.93</v>
+      </c>
+      <c r="AV264">
+        <v>1.42</v>
+      </c>
+      <c r="AW264">
+        <v>3.35</v>
+      </c>
+      <c r="AX264">
+        <v>1.79</v>
+      </c>
+      <c r="AY264">
+        <v>7</v>
+      </c>
+      <c r="AZ264">
+        <v>2.4</v>
+      </c>
+      <c r="BA264">
         <v>1.22</v>
       </c>
-      <c r="AU264">
-        <v>1.98</v>
-      </c>
-      <c r="AV264">
-        <v>1.27</v>
-      </c>
-      <c r="AW264">
-        <v>3.25</v>
-      </c>
-      <c r="AX264">
-        <v>1.41</v>
-      </c>
-      <c r="AY264">
-        <v>8</v>
-      </c>
-      <c r="AZ264">
-        <v>3.5</v>
-      </c>
-      <c r="BA264">
-        <v>1.18</v>
-      </c>
       <c r="BB264">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="BC264">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="BD264">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="BE264">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BF264">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG264">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH264">
+        <v>6</v>
+      </c>
+      <c r="BI264">
+        <v>10</v>
+      </c>
+      <c r="BJ264">
         <v>9</v>
       </c>
-      <c r="BI264">
-        <v>6</v>
-      </c>
-      <c r="BJ264">
-        <v>13</v>
-      </c>
       <c r="BK264">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:63">
@@ -52550,7 +52550,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>4926210</v>
+        <v>4926211</v>
       </c>
       <c r="C268" t="s">
         <v>63</v>
@@ -52565,175 +52565,175 @@
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H268" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J268">
         <v>0</v>
       </c>
       <c r="K268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L268">
         <v>4</v>
       </c>
       <c r="M268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N268">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O268" t="s">
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="Q268">
+        <v>2</v>
+      </c>
+      <c r="R268">
+        <v>0</v>
+      </c>
+      <c r="S268">
+        <v>2</v>
+      </c>
+      <c r="T268">
+        <v>1.91</v>
+      </c>
+      <c r="U268">
+        <v>2.6</v>
+      </c>
+      <c r="V268">
+        <v>4.75</v>
+      </c>
+      <c r="W268">
+        <v>1.25</v>
+      </c>
+      <c r="X268">
+        <v>3.75</v>
+      </c>
+      <c r="Y268">
+        <v>2.25</v>
+      </c>
+      <c r="Z268">
+        <v>1.6</v>
+      </c>
+      <c r="AA268">
         <v>5</v>
       </c>
-      <c r="R268">
-        <v>3</v>
-      </c>
-      <c r="S268">
-        <v>8</v>
-      </c>
-      <c r="T268">
-        <v>2.45</v>
-      </c>
-      <c r="U268">
-        <v>2.18</v>
-      </c>
-      <c r="V268">
-        <v>4.45</v>
-      </c>
-      <c r="W268">
-        <v>1.4</v>
-      </c>
-      <c r="X268">
-        <v>3</v>
-      </c>
-      <c r="Y268">
-        <v>2.85</v>
-      </c>
-      <c r="Z268">
-        <v>1.4</v>
-      </c>
-      <c r="AA268">
-        <v>7</v>
-      </c>
       <c r="AB268">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AC268">
-        <v>1.95</v>
+        <v>1.42</v>
       </c>
       <c r="AD268">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="AE268">
-        <v>3.55</v>
+        <v>6.1</v>
       </c>
       <c r="AF268">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AG268">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AH268">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AI268">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AJ268">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="AK268">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="AL268">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AM268">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="AN268">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AO268">
+        <v>1.17</v>
+      </c>
+      <c r="AP268">
+        <v>2.4</v>
+      </c>
+      <c r="AQ268">
+        <v>2.22</v>
+      </c>
+      <c r="AR268">
+        <v>0.38</v>
+      </c>
+      <c r="AS268">
+        <v>2.3</v>
+      </c>
+      <c r="AT268">
+        <v>0.33</v>
+      </c>
+      <c r="AU268">
+        <v>1.74</v>
+      </c>
+      <c r="AV268">
+        <v>1.33</v>
+      </c>
+      <c r="AW268">
+        <v>3.07</v>
+      </c>
+      <c r="AX268">
         <v>1.28</v>
       </c>
-      <c r="AP268">
-        <v>1.89</v>
-      </c>
-      <c r="AQ268">
-        <v>1.44</v>
-      </c>
-      <c r="AR268">
-        <v>0.89</v>
-      </c>
-      <c r="AS268">
-        <v>1.6</v>
-      </c>
-      <c r="AT268">
-        <v>0.8</v>
-      </c>
-      <c r="AU268">
-        <v>1.58</v>
-      </c>
-      <c r="AV268">
-        <v>1.23</v>
-      </c>
-      <c r="AW268">
-        <v>2.81</v>
-      </c>
-      <c r="AX268">
-        <v>1.48</v>
-      </c>
       <c r="AY268">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AZ268">
-        <v>3.25</v>
+        <v>4.55</v>
       </c>
       <c r="BA268">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="BB268">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="BC268">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="BD268">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="BE268">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="BF268">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG268">
         <v>4</v>
       </c>
       <c r="BH268">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ268">
         <v>9</v>
       </c>
       <c r="BK268">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:63">
@@ -53123,7 +53123,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>4926211</v>
+        <v>4926210</v>
       </c>
       <c r="C271" t="s">
         <v>63</v>
@@ -53138,175 +53138,175 @@
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H271" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J271">
         <v>0</v>
       </c>
       <c r="K271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L271">
         <v>4</v>
       </c>
       <c r="M271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N271">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O271" t="s">
         <v>283</v>
       </c>
       <c r="P271" t="s">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c r="Q271">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R271">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S271">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T271">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="U271">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="V271">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="W271">
+        <v>1.4</v>
+      </c>
+      <c r="X271">
+        <v>3</v>
+      </c>
+      <c r="Y271">
+        <v>2.85</v>
+      </c>
+      <c r="Z271">
+        <v>1.4</v>
+      </c>
+      <c r="AA271">
+        <v>7</v>
+      </c>
+      <c r="AB271">
+        <v>1.08</v>
+      </c>
+      <c r="AC271">
+        <v>1.95</v>
+      </c>
+      <c r="AD271">
+        <v>3.5</v>
+      </c>
+      <c r="AE271">
+        <v>3.55</v>
+      </c>
+      <c r="AF271">
+        <v>1.05</v>
+      </c>
+      <c r="AG271">
+        <v>11</v>
+      </c>
+      <c r="AH271">
+        <v>1.3</v>
+      </c>
+      <c r="AI271">
+        <v>3.5</v>
+      </c>
+      <c r="AJ271">
+        <v>1.94</v>
+      </c>
+      <c r="AK271">
+        <v>1.94</v>
+      </c>
+      <c r="AL271">
+        <v>1.77</v>
+      </c>
+      <c r="AM271">
+        <v>1.98</v>
+      </c>
+      <c r="AN271">
         <v>1.25</v>
       </c>
-      <c r="X271">
-        <v>3.75</v>
-      </c>
-      <c r="Y271">
-        <v>2.25</v>
-      </c>
-      <c r="Z271">
+      <c r="AO271">
+        <v>1.28</v>
+      </c>
+      <c r="AP271">
+        <v>1.89</v>
+      </c>
+      <c r="AQ271">
+        <v>1.44</v>
+      </c>
+      <c r="AR271">
+        <v>0.89</v>
+      </c>
+      <c r="AS271">
         <v>1.6</v>
       </c>
-      <c r="AA271">
-        <v>5</v>
-      </c>
-      <c r="AB271">
-        <v>1.15</v>
-      </c>
-      <c r="AC271">
-        <v>1.42</v>
-      </c>
-      <c r="AD271">
-        <v>4.7</v>
-      </c>
-      <c r="AE271">
-        <v>6.1</v>
-      </c>
-      <c r="AF271">
-        <v>1.01</v>
-      </c>
-      <c r="AG271">
-        <v>19</v>
-      </c>
-      <c r="AH271">
-        <v>1.16</v>
-      </c>
-      <c r="AI271">
-        <v>5</v>
-      </c>
-      <c r="AJ271">
-        <v>1.6</v>
-      </c>
-      <c r="AK271">
-        <v>2.3</v>
-      </c>
-      <c r="AL271">
+      <c r="AT271">
+        <v>0.8</v>
+      </c>
+      <c r="AU271">
+        <v>1.58</v>
+      </c>
+      <c r="AV271">
+        <v>1.23</v>
+      </c>
+      <c r="AW271">
+        <v>2.81</v>
+      </c>
+      <c r="AX271">
+        <v>1.48</v>
+      </c>
+      <c r="AY271">
+        <v>6</v>
+      </c>
+      <c r="AZ271">
+        <v>3.25</v>
+      </c>
+      <c r="BA271">
+        <v>1.31</v>
+      </c>
+      <c r="BB271">
         <v>1.57</v>
       </c>
-      <c r="AM271">
-        <v>2.3</v>
-      </c>
-      <c r="AN271">
-        <v>1.16</v>
-      </c>
-      <c r="AO271">
-        <v>1.17</v>
-      </c>
-      <c r="AP271">
-        <v>2.4</v>
-      </c>
-      <c r="AQ271">
-        <v>2.22</v>
-      </c>
-      <c r="AR271">
-        <v>0.38</v>
-      </c>
-      <c r="AS271">
-        <v>2.3</v>
-      </c>
-      <c r="AT271">
-        <v>0.33</v>
-      </c>
-      <c r="AU271">
-        <v>1.74</v>
-      </c>
-      <c r="AV271">
-        <v>1.33</v>
-      </c>
-      <c r="AW271">
-        <v>3.07</v>
-      </c>
-      <c r="AX271">
-        <v>1.28</v>
-      </c>
-      <c r="AY271">
-        <v>7.5</v>
-      </c>
-      <c r="AZ271">
-        <v>4.55</v>
-      </c>
-      <c r="BA271">
-        <v>1.22</v>
-      </c>
-      <c r="BB271">
-        <v>1.5</v>
-      </c>
       <c r="BC271">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="BD271">
-        <v>2.21</v>
+        <v>2.38</v>
       </c>
       <c r="BE271">
-        <v>2.98</v>
+        <v>3.65</v>
       </c>
       <c r="BF271">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG271">
         <v>4</v>
       </c>
       <c r="BH271">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ271">
         <v>9</v>
       </c>
       <c r="BK271">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -880,6 +880,39 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['19', '62']</t>
+  </si>
+  <si>
+    <t>['11', '55']</t>
+  </si>
+  <si>
+    <t>['38', '55', '75']</t>
+  </si>
+  <si>
+    <t>['33', '45+2', '53']</t>
+  </si>
+  <si>
+    <t>['56', '90']</t>
+  </si>
+  <si>
+    <t>['43', '45+4', '74', '77']</t>
+  </si>
+  <si>
+    <t>['18', '37']</t>
+  </si>
+  <si>
+    <t>['4', '11']</t>
+  </si>
+  <si>
+    <t>['42', '81']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['7', '79']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -988,9 +1021,6 @@
     <t>['54', '90+1']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['66', '88']</t>
   </si>
   <si>
@@ -1025,9 +1055,6 @@
   </si>
   <si>
     <t>['21', '75']</t>
-  </si>
-  <si>
-    <t>['19', '62']</t>
   </si>
   <si>
     <t>['37', '57']</t>
@@ -1177,10 +1204,16 @@
     <t>['2', '23', '63']</t>
   </si>
   <si>
+    <t>['41', '58']</t>
+  </si>
+  <si>
     <t>['51']</t>
   </si>
   <si>
-    <t>['41', '58']</t>
+    <t>['15', '24']</t>
+  </si>
+  <si>
+    <t>['31', '47']</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK280"/>
+  <dimension ref="A1:BK294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1873,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT2">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1977,7 +2010,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2064,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT3">
         <v>0.6</v>
@@ -2258,7 +2291,7 @@
         <v>1.3</v>
       </c>
       <c r="AT4">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2359,7 +2392,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2446,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2550,7 +2583,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2828,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT7">
         <v>0.45</v>
@@ -3019,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3123,7 +3156,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3314,7 +3347,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3505,7 +3538,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3592,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1.18</v>
@@ -3696,7 +3729,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3786,7 +3819,7 @@
         <v>1.9</v>
       </c>
       <c r="AT12">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3974,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT13">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4269,7 +4302,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4359,7 +4392,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4547,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT16">
         <v>0.4</v>
@@ -4738,10 +4771,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT17">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4929,10 +4962,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT18">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU18">
         <v>2.18</v>
@@ -5123,7 +5156,7 @@
         <v>2.4</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5502,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT21">
         <v>1.44</v>
@@ -5797,7 +5830,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5887,7 +5920,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6075,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU24">
         <v>1.31</v>
@@ -6266,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <v>1.1</v>
@@ -6648,10 +6681,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT27">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU27">
         <v>2.09</v>
@@ -6839,10 +6872,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT28">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6943,7 +6976,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7412,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT31">
         <v>1.22</v>
@@ -7988,7 +8021,7 @@
         <v>2.3</v>
       </c>
       <c r="AT34">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>1.59</v>
@@ -8176,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT35">
         <v>0.89</v>
@@ -8367,10 +8400,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT36">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8558,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT37">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8749,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT38">
         <v>0.45</v>
@@ -8853,7 +8886,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8943,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9044,7 +9077,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9322,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT41">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -9516,7 +9549,7 @@
         <v>2</v>
       </c>
       <c r="AT42">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU42">
         <v>1.38</v>
@@ -9704,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>2</v>
@@ -9895,10 +9928,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT44">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU44">
         <v>2.1</v>
@@ -9999,7 +10032,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10086,10 +10119,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT45">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10381,7 +10414,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10572,7 +10605,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10662,7 +10695,7 @@
         <v>1.67</v>
       </c>
       <c r="AT48">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.74</v>
@@ -10763,7 +10796,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10850,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT49">
         <v>1.1</v>
@@ -11041,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT50">
         <v>0.33</v>
@@ -11145,7 +11178,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11336,7 +11369,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11423,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT52">
         <v>0.73</v>
@@ -11617,7 +11650,7 @@
         <v>2.44</v>
       </c>
       <c r="AT53">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11805,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>0.6</v>
@@ -11909,7 +11942,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12190,7 +12223,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12381,7 +12414,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU57">
         <v>1.23</v>
@@ -12482,7 +12515,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12673,7 +12706,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12763,7 +12796,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU59">
         <v>1.59</v>
@@ -12864,7 +12897,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12951,10 +12984,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT60">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>1.52</v>
@@ -13055,7 +13088,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13145,7 +13178,7 @@
         <v>1.3</v>
       </c>
       <c r="AT61">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU61">
         <v>1.6</v>
@@ -13246,7 +13279,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13333,7 +13366,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT62">
         <v>0.8</v>
@@ -13437,7 +13470,7 @@
         <v>146</v>
       </c>
       <c r="P63" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13527,7 +13560,7 @@
         <v>1.64</v>
       </c>
       <c r="AT63">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU63">
         <v>1.34</v>
@@ -13718,7 +13751,7 @@
         <v>2.44</v>
       </c>
       <c r="AT64">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU64">
         <v>1.56</v>
@@ -13819,7 +13852,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13906,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT65">
         <v>1.22</v>
@@ -14097,10 +14130,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT66">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU66">
         <v>1.14</v>
@@ -14201,7 +14234,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14288,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT67">
         <v>1.44</v>
@@ -14392,7 +14425,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14583,7 +14616,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14861,7 +14894,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>0.4</v>
@@ -14965,7 +14998,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15052,7 +15085,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT71">
         <v>1.1</v>
@@ -15156,7 +15189,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15243,7 +15276,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT72">
         <v>1.2</v>
@@ -15437,7 +15470,7 @@
         <v>2.4</v>
       </c>
       <c r="AT73">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU73">
         <v>1.3</v>
@@ -15538,7 +15571,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15816,10 +15849,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT75">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU75">
         <v>1.48</v>
@@ -16007,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT76">
         <v>0.33</v>
@@ -16198,10 +16231,10 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT77">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU77">
         <v>2.05</v>
@@ -16392,7 +16425,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.12</v>
@@ -16580,10 +16613,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT79">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU79">
         <v>1.27</v>
@@ -16771,7 +16804,7 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT80">
         <v>1.18</v>
@@ -17156,7 +17189,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT82">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU82">
         <v>1.36</v>
@@ -17257,7 +17290,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17344,10 +17377,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT83">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU83">
         <v>1.68</v>
@@ -18108,7 +18141,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT87">
         <v>0.9</v>
@@ -18403,7 +18436,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18681,10 +18714,10 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT90">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU90">
         <v>1.26</v>
@@ -18875,7 +18908,7 @@
         <v>2</v>
       </c>
       <c r="AT91">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU91">
         <v>1.97</v>
@@ -19257,7 +19290,7 @@
         <v>2.44</v>
       </c>
       <c r="AT93">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU93">
         <v>1.29</v>
@@ -19445,10 +19478,10 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT94">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -19636,7 +19669,7 @@
         <v>0.67</v>
       </c>
       <c r="AS95">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT95">
         <v>0.4</v>
@@ -20018,7 +20051,7 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT97">
         <v>1.44</v>
@@ -20212,7 +20245,7 @@
         <v>1.9</v>
       </c>
       <c r="AT98">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU98">
         <v>2.05</v>
@@ -20313,7 +20346,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20591,10 +20624,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT100">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.48</v>
@@ -20695,7 +20728,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20782,7 +20815,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT101">
         <v>0.8</v>
@@ -20886,7 +20919,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20976,7 +21009,7 @@
         <v>1.3</v>
       </c>
       <c r="AT102">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU102">
         <v>1.34</v>
@@ -21164,10 +21197,10 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT103">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -21268,7 +21301,7 @@
         <v>170</v>
       </c>
       <c r="P104" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21358,7 +21391,7 @@
         <v>1.6</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU104">
         <v>1.41</v>
@@ -21549,7 +21582,7 @@
         <v>1.64</v>
       </c>
       <c r="AT105">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU105">
         <v>1.29</v>
@@ -21740,7 +21773,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU106">
         <v>1.15</v>
@@ -21928,10 +21961,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT107">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU107">
         <v>1.38</v>
@@ -22032,7 +22065,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22119,7 +22152,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT108">
         <v>1.67</v>
@@ -22501,7 +22534,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT110">
         <v>0.73</v>
@@ -22605,7 +22638,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22692,7 +22725,7 @@
         <v>1.67</v>
       </c>
       <c r="AS111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT111">
         <v>1.44</v>
@@ -22796,7 +22829,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22886,7 +22919,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU112">
         <v>2.2</v>
@@ -23265,10 +23298,10 @@
         <v>0.25</v>
       </c>
       <c r="AS114">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT114">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU114">
         <v>1.17</v>
@@ -23456,10 +23489,10 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT115">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU115">
         <v>1.21</v>
@@ -23560,7 +23593,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23751,7 +23784,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23942,7 +23975,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24029,10 +24062,10 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT118">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.38</v>
@@ -24133,7 +24166,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24515,7 +24548,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24602,10 +24635,10 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT121">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU121">
         <v>1.3</v>
@@ -25178,7 +25211,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -25366,7 +25399,7 @@
         <v>2.25</v>
       </c>
       <c r="AS125">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT125">
         <v>1.18</v>
@@ -25557,10 +25590,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT126">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -25748,7 +25781,7 @@
         <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT127">
         <v>0.8</v>
@@ -25852,7 +25885,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25939,7 +25972,7 @@
         <v>0</v>
       </c>
       <c r="AS128">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT128">
         <v>0.33</v>
@@ -26512,10 +26545,10 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT131">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU131">
         <v>1.42</v>
@@ -26703,10 +26736,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT132">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU132">
         <v>1.23</v>
@@ -26807,7 +26840,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26894,10 +26927,10 @@
         <v>0.2</v>
       </c>
       <c r="AS133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT133">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU133">
         <v>1.66</v>
@@ -26998,7 +27031,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27085,7 +27118,7 @@
         <v>0</v>
       </c>
       <c r="AS134">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT134">
         <v>0.45</v>
@@ -27279,7 +27312,7 @@
         <v>1.33</v>
       </c>
       <c r="AT135">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU135">
         <v>1.16</v>
@@ -27380,7 +27413,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27852,7 +27885,7 @@
         <v>1.9</v>
       </c>
       <c r="AT138">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU138">
         <v>2.02</v>
@@ -28040,7 +28073,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT139">
         <v>0.9</v>
@@ -28144,7 +28177,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28231,10 +28264,10 @@
         <v>1.75</v>
       </c>
       <c r="AS140">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT140">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU140">
         <v>1.27</v>
@@ -28422,10 +28455,10 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT141">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU141">
         <v>1.54</v>
@@ -28526,7 +28559,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28616,7 +28649,7 @@
         <v>1.3</v>
       </c>
       <c r="AT142">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU142">
         <v>1.33</v>
@@ -28804,10 +28837,10 @@
         <v>1.4</v>
       </c>
       <c r="AS143">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT143">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU143">
         <v>1.25</v>
@@ -28995,7 +29028,7 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT144">
         <v>0.8</v>
@@ -29186,7 +29219,7 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT145">
         <v>1.67</v>
@@ -29380,7 +29413,7 @@
         <v>1.6</v>
       </c>
       <c r="AT146">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU146">
         <v>1.58</v>
@@ -29571,7 +29604,7 @@
         <v>2.44</v>
       </c>
       <c r="AT147">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU147">
         <v>1.24</v>
@@ -29759,10 +29792,10 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT148">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>1.31</v>
@@ -29863,7 +29896,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29953,7 +29986,7 @@
         <v>1</v>
       </c>
       <c r="AT149">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU149">
         <v>1.91</v>
@@ -30054,7 +30087,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30245,7 +30278,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30335,7 +30368,7 @@
         <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU151">
         <v>1.3</v>
@@ -30436,7 +30469,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30523,7 +30556,7 @@
         <v>0.33</v>
       </c>
       <c r="AS152">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT152">
         <v>0.73</v>
@@ -30908,7 +30941,7 @@
         <v>1.6</v>
       </c>
       <c r="AT154">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -31009,7 +31042,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31096,7 +31129,7 @@
         <v>0.8</v>
       </c>
       <c r="AS155">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT155">
         <v>1.1</v>
@@ -31200,7 +31233,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31287,7 +31320,7 @@
         <v>1.75</v>
       </c>
       <c r="AS156">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT156">
         <v>1.67</v>
@@ -31391,7 +31424,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31669,10 +31702,10 @@
         <v>2</v>
       </c>
       <c r="AS158">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT158">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU158">
         <v>1.41</v>
@@ -31860,7 +31893,7 @@
         <v>0.6</v>
       </c>
       <c r="AS159">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT159">
         <v>0.4</v>
@@ -32051,7 +32084,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT160">
         <v>1.18</v>
@@ -32346,7 +32379,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32537,7 +32570,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32627,7 +32660,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT163">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32728,7 +32761,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32818,7 +32851,7 @@
         <v>1</v>
       </c>
       <c r="AT164">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU164">
         <v>1.78</v>
@@ -33009,7 +33042,7 @@
         <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU165">
         <v>1.3</v>
@@ -33388,10 +33421,10 @@
         <v>0.29</v>
       </c>
       <c r="AS167">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT167">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU167">
         <v>1.42</v>
@@ -33579,10 +33612,10 @@
         <v>0.5</v>
       </c>
       <c r="AS168">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT168">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU168">
         <v>1.41</v>
@@ -33770,10 +33803,10 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT169">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -33874,7 +33907,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -33964,7 +33997,7 @@
         <v>1.3</v>
       </c>
       <c r="AT170">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU170">
         <v>1.31</v>
@@ -34152,7 +34185,7 @@
         <v>0.5</v>
       </c>
       <c r="AS171">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT171">
         <v>0.45</v>
@@ -34343,10 +34376,10 @@
         <v>0.4</v>
       </c>
       <c r="AS172">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT172">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU172">
         <v>1.99</v>
@@ -34537,7 +34570,7 @@
         <v>2.3</v>
       </c>
       <c r="AT173">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU173">
         <v>1.67</v>
@@ -34638,7 +34671,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34725,7 +34758,7 @@
         <v>0.6</v>
       </c>
       <c r="AS174">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT174">
         <v>0.33</v>
@@ -34916,10 +34949,10 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT175">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU175">
         <v>1.37</v>
@@ -35107,10 +35140,10 @@
         <v>0.6</v>
       </c>
       <c r="AS176">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT176">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU176">
         <v>1.23</v>
@@ -35211,7 +35244,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35402,7 +35435,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35489,10 +35522,10 @@
         <v>0.8</v>
       </c>
       <c r="AS178">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT178">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU178">
         <v>1.6</v>
@@ -35683,7 +35716,7 @@
         <v>1</v>
       </c>
       <c r="AT179">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU179">
         <v>1.84</v>
@@ -35784,7 +35817,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36065,7 +36098,7 @@
         <v>2.3</v>
       </c>
       <c r="AT181">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU181">
         <v>1.67</v>
@@ -36166,7 +36199,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36253,7 +36286,7 @@
         <v>1.6</v>
       </c>
       <c r="AS182">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT182">
         <v>1.67</v>
@@ -36447,7 +36480,7 @@
         <v>1.5</v>
       </c>
       <c r="AT183">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU183">
         <v>1.47</v>
@@ -36548,7 +36581,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36635,7 +36668,7 @@
         <v>0.8</v>
       </c>
       <c r="AS184">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT184">
         <v>0.89</v>
@@ -36739,7 +36772,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37121,7 +37154,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37312,7 +37345,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37399,10 +37432,10 @@
         <v>0.2</v>
       </c>
       <c r="AS188">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT188">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU188">
         <v>1.27</v>
@@ -37503,7 +37536,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37593,7 +37626,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT189">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU189">
         <v>1.61</v>
@@ -37781,7 +37814,7 @@
         <v>0.75</v>
       </c>
       <c r="AS190">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT190">
         <v>0.73</v>
@@ -38076,7 +38109,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38458,7 +38491,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38545,10 +38578,10 @@
         <v>1.14</v>
       </c>
       <c r="AS194">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT194">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU194">
         <v>1.42</v>
@@ -38736,7 +38769,7 @@
         <v>0.86</v>
       </c>
       <c r="AS195">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT195">
         <v>0.8</v>
@@ -38840,7 +38873,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38930,7 +38963,7 @@
         <v>1.67</v>
       </c>
       <c r="AT196">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU196">
         <v>1.54</v>
@@ -39031,7 +39064,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39121,7 +39154,7 @@
         <v>2.4</v>
       </c>
       <c r="AT197">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU197">
         <v>1.56</v>
@@ -39309,7 +39342,7 @@
         <v>0.5</v>
       </c>
       <c r="AS198">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT198">
         <v>0.33</v>
@@ -39503,7 +39536,7 @@
         <v>2.44</v>
       </c>
       <c r="AT199">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU199">
         <v>1.21</v>
@@ -39604,7 +39637,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39691,10 +39724,10 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT200">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU200">
         <v>1.44</v>
@@ -39882,10 +39915,10 @@
         <v>0.5</v>
       </c>
       <c r="AS201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT201">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU201">
         <v>1.55</v>
@@ -39986,7 +40019,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40177,7 +40210,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40455,7 +40488,7 @@
         <v>1.33</v>
       </c>
       <c r="AS204">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT204">
         <v>0.9</v>
@@ -40646,10 +40679,10 @@
         <v>0.57</v>
       </c>
       <c r="AS205">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT205">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU205">
         <v>1.65</v>
@@ -40750,7 +40783,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -40837,10 +40870,10 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT206">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU206">
         <v>1.61</v>
@@ -40941,7 +40974,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41028,7 +41061,7 @@
         <v>0.67</v>
       </c>
       <c r="AS207">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT207">
         <v>0.89</v>
@@ -41132,7 +41165,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41219,10 +41252,10 @@
         <v>1.43</v>
       </c>
       <c r="AS208">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT208">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU208">
         <v>1.79</v>
@@ -41323,7 +41356,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41792,10 +41825,10 @@
         <v>0.67</v>
       </c>
       <c r="AS211">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT211">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU211">
         <v>1.43</v>
@@ -41896,7 +41929,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42087,7 +42120,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42174,10 +42207,10 @@
         <v>1.13</v>
       </c>
       <c r="AS213">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT213">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU213">
         <v>1.9</v>
@@ -42365,10 +42398,10 @@
         <v>0.5</v>
       </c>
       <c r="AS214">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT214">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU214">
         <v>1.34</v>
@@ -42660,7 +42693,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42750,7 +42783,7 @@
         <v>1</v>
       </c>
       <c r="AT216">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU216">
         <v>1.87</v>
@@ -42938,7 +42971,7 @@
         <v>1.29</v>
       </c>
       <c r="AS217">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT217">
         <v>0.9</v>
@@ -43042,7 +43075,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43129,7 +43162,7 @@
         <v>0.29</v>
       </c>
       <c r="AS218">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT218">
         <v>0.6</v>
@@ -43233,7 +43266,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43323,7 +43356,7 @@
         <v>1.9</v>
       </c>
       <c r="AT219">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU219">
         <v>2</v>
@@ -43514,7 +43547,7 @@
         <v>1.67</v>
       </c>
       <c r="AT220">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU220">
         <v>1.63</v>
@@ -43702,10 +43735,10 @@
         <v>0.63</v>
       </c>
       <c r="AS221">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT221">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU221">
         <v>1.75</v>
@@ -43997,7 +44030,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44188,7 +44221,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44275,10 +44308,10 @@
         <v>1</v>
       </c>
       <c r="AS224">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT224">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU224">
         <v>1.34</v>
@@ -44466,10 +44499,10 @@
         <v>0.71</v>
       </c>
       <c r="AS225">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT225">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU225">
         <v>1.33</v>
@@ -44570,7 +44603,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44657,7 +44690,7 @@
         <v>1.25</v>
       </c>
       <c r="AS226">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT226">
         <v>1.1</v>
@@ -44761,7 +44794,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -44851,7 +44884,7 @@
         <v>1.64</v>
       </c>
       <c r="AT227">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU227">
         <v>1.5</v>
@@ -44952,7 +44985,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45039,7 +45072,7 @@
         <v>1.33</v>
       </c>
       <c r="AS228">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT228">
         <v>1.2</v>
@@ -45230,7 +45263,7 @@
         <v>0.43</v>
       </c>
       <c r="AS229">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT229">
         <v>0.4</v>
@@ -45421,10 +45454,10 @@
         <v>0.29</v>
       </c>
       <c r="AS230">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT230">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU230">
         <v>1.61</v>
@@ -45716,7 +45749,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45994,7 +46027,7 @@
         <v>1.67</v>
       </c>
       <c r="AS233">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT233">
         <v>1.44</v>
@@ -46289,7 +46322,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -46567,7 +46600,7 @@
         <v>1.57</v>
       </c>
       <c r="AS236">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT236">
         <v>1.2</v>
@@ -46758,10 +46791,10 @@
         <v>1.22</v>
       </c>
       <c r="AS237">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT237">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU237">
         <v>1.85</v>
@@ -46862,7 +46895,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47140,7 +47173,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT239">
         <v>1.18</v>
@@ -47331,10 +47364,10 @@
         <v>1</v>
       </c>
       <c r="AS240">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT240">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU240">
         <v>1.49</v>
@@ -47525,7 +47558,7 @@
         <v>2.44</v>
       </c>
       <c r="AT241">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU241">
         <v>1.31</v>
@@ -47626,7 +47659,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -47817,7 +47850,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -47904,10 +47937,10 @@
         <v>1</v>
       </c>
       <c r="AS243">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT243">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU243">
         <v>1.72</v>
@@ -48098,7 +48131,7 @@
         <v>1</v>
       </c>
       <c r="AT244">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU244">
         <v>1.94</v>
@@ -48477,10 +48510,10 @@
         <v>1.43</v>
       </c>
       <c r="AS246">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT246">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU246">
         <v>1.41</v>
@@ -48581,7 +48614,7 @@
         <v>264</v>
       </c>
       <c r="P247" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="Q247">
         <v>7</v>
@@ -48668,10 +48701,10 @@
         <v>0.63</v>
       </c>
       <c r="AS247">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT247">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU247">
         <v>1.58</v>
@@ -49053,7 +49086,7 @@
         <v>2</v>
       </c>
       <c r="AT249">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU249">
         <v>2.06</v>
@@ -49154,7 +49187,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49345,7 +49378,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49435,7 +49468,7 @@
         <v>1.5</v>
       </c>
       <c r="AT251">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU251">
         <v>1.53</v>
@@ -49727,7 +49760,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -49814,10 +49847,10 @@
         <v>1.29</v>
       </c>
       <c r="AS253">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT253">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU253">
         <v>1.69</v>
@@ -49918,7 +49951,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50005,7 +50038,7 @@
         <v>1.43</v>
       </c>
       <c r="AS254">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT254">
         <v>1.44</v>
@@ -50196,10 +50229,10 @@
         <v>0.67</v>
       </c>
       <c r="AS255">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT255">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU255">
         <v>1.38</v>
@@ -50300,7 +50333,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50387,10 +50420,10 @@
         <v>1.25</v>
       </c>
       <c r="AS256">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT256">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU256">
         <v>1.52</v>
@@ -50491,7 +50524,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -50769,7 +50802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS258">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT258">
         <v>1.2</v>
@@ -50873,7 +50906,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -50960,10 +50993,10 @@
         <v>0.44</v>
       </c>
       <c r="AS259">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT259">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU259">
         <v>1.76</v>
@@ -51151,7 +51184,7 @@
         <v>0.5</v>
       </c>
       <c r="AS260">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AT260">
         <v>0.4</v>
@@ -51255,7 +51288,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51446,7 +51479,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -51533,10 +51566,10 @@
         <v>1.56</v>
       </c>
       <c r="AS262">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT262">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU262">
         <v>1.65</v>
@@ -51828,7 +51861,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -52109,7 +52142,7 @@
         <v>1.5</v>
       </c>
       <c r="AT265">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU265">
         <v>1.61</v>
@@ -52401,7 +52434,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52592,7 +52625,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -53061,7 +53094,7 @@
         <v>1.33</v>
       </c>
       <c r="AS270">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT270">
         <v>1.2</v>
@@ -53634,10 +53667,10 @@
         <v>0.89</v>
       </c>
       <c r="AS273">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT273">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU273">
         <v>1.72</v>
@@ -53828,7 +53861,7 @@
         <v>1.64</v>
       </c>
       <c r="AT274">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU274">
         <v>1.55</v>
@@ -54019,7 +54052,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT275">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU275">
         <v>1.54</v>
@@ -54120,7 +54153,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54311,7 +54344,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54401,7 +54434,7 @@
         <v>2</v>
       </c>
       <c r="AT277">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU277">
         <v>1.93</v>
@@ -54460,7 +54493,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>4926217</v>
+        <v>4926219</v>
       </c>
       <c r="C278" t="s">
         <v>63</v>
@@ -54475,175 +54508,175 @@
         <v>0</v>
       </c>
       <c r="G278" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H278" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278">
         <v>0</v>
       </c>
       <c r="K278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O278" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="P278" t="s">
-        <v>387</v>
+        <v>96</v>
       </c>
       <c r="Q278">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R278">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S278">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T278">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="U278">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="V278">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W278">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X278">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y278">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="Z278">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA278">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB278">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AC278">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AD278">
         <v>3.5</v>
       </c>
       <c r="AE278">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AF278">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG278">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH278">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AI278">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ278">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AK278">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="AL278">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AM278">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AN278">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO278">
         <v>1.25</v>
       </c>
       <c r="AP278">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="AQ278">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR278">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AS278">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT278">
-        <v>0.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU278">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AV278">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="AW278">
-        <v>2.65</v>
+        <v>2.94</v>
       </c>
       <c r="AX278">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AY278">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="AZ278">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="BA278">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BB278">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="BC278">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="BD278">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="BE278">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="BF278">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG278">
         <v>4</v>
       </c>
       <c r="BH278">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BI278">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BJ278">
         <v>13</v>
       </c>
       <c r="BK278">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:63">
@@ -54693,7 +54726,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -54780,7 +54813,7 @@
         <v>1.25</v>
       </c>
       <c r="AS279">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT279">
         <v>1.44</v>
@@ -54842,7 +54875,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>4926219</v>
+        <v>4926217</v>
       </c>
       <c r="C280" t="s">
         <v>63</v>
@@ -54857,175 +54890,2849 @@
         <v>0</v>
       </c>
       <c r="G280" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H280" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280">
         <v>0</v>
       </c>
       <c r="K280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O280" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>96</v>
+        <v>397</v>
       </c>
       <c r="Q280">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R280">
+        <v>1</v>
+      </c>
+      <c r="S280">
+        <v>4</v>
+      </c>
+      <c r="T280">
+        <v>2.6</v>
+      </c>
+      <c r="U280">
+        <v>2.15</v>
+      </c>
+      <c r="V280">
+        <v>4.33</v>
+      </c>
+      <c r="W280">
+        <v>1.4</v>
+      </c>
+      <c r="X280">
+        <v>3</v>
+      </c>
+      <c r="Y280">
+        <v>2.85</v>
+      </c>
+      <c r="Z280">
+        <v>1.4</v>
+      </c>
+      <c r="AA280">
         <v>7</v>
       </c>
-      <c r="S280">
-        <v>12</v>
-      </c>
-      <c r="T280">
-        <v>2.75</v>
-      </c>
-      <c r="U280">
-        <v>2.25</v>
-      </c>
-      <c r="V280">
-        <v>3.75</v>
-      </c>
-      <c r="W280">
-        <v>1.36</v>
-      </c>
-      <c r="X280">
-        <v>3.1</v>
-      </c>
-      <c r="Y280">
-        <v>2.65</v>
-      </c>
-      <c r="Z280">
-        <v>1.44</v>
-      </c>
-      <c r="AA280">
-        <v>6.5</v>
-      </c>
       <c r="AB280">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AC280">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AD280">
         <v>3.5</v>
       </c>
       <c r="AE280">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AF280">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG280">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH280">
+        <v>1.3</v>
+      </c>
+      <c r="AI280">
+        <v>3.5</v>
+      </c>
+      <c r="AJ280">
+        <v>1.94</v>
+      </c>
+      <c r="AK280">
+        <v>1.94</v>
+      </c>
+      <c r="AL280">
+        <v>1.78</v>
+      </c>
+      <c r="AM280">
+        <v>2</v>
+      </c>
+      <c r="AN280">
         <v>1.25</v>
-      </c>
-      <c r="AI280">
-        <v>3.75</v>
-      </c>
-      <c r="AJ280">
-        <v>1.83</v>
-      </c>
-      <c r="AK280">
-        <v>2.05</v>
-      </c>
-      <c r="AL280">
-        <v>1.68</v>
-      </c>
-      <c r="AM280">
-        <v>2.15</v>
-      </c>
-      <c r="AN280">
-        <v>1.33</v>
       </c>
       <c r="AO280">
         <v>1.25</v>
       </c>
       <c r="AP280">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="AQ280">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="AR280">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AS280">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT280">
-        <v>1.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU280">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AV280">
-        <v>1.28</v>
+        <v>1.04</v>
       </c>
       <c r="AW280">
-        <v>2.94</v>
+        <v>2.65</v>
       </c>
       <c r="AX280">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AY280">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="AZ280">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="BA280">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BB280">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="BC280">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="BD280">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="BE280">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="BF280">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG280">
         <v>4</v>
       </c>
       <c r="BH280">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI280">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BJ280">
         <v>13</v>
       </c>
       <c r="BK280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:63">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>4926222</v>
+      </c>
+      <c r="C281" t="s">
+        <v>63</v>
+      </c>
+      <c r="D281" t="s">
+        <v>64</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45108.85416666666</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281" t="s">
+        <v>70</v>
+      </c>
+      <c r="H281" t="s">
+        <v>73</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281" t="s">
+        <v>287</v>
+      </c>
+      <c r="P281" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q281">
+        <v>2</v>
+      </c>
+      <c r="R281">
+        <v>7</v>
+      </c>
+      <c r="S281">
+        <v>9</v>
+      </c>
+      <c r="T281">
+        <v>3</v>
+      </c>
+      <c r="U281">
+        <v>2.15</v>
+      </c>
+      <c r="V281">
+        <v>3.2</v>
+      </c>
+      <c r="W281">
+        <v>1.35</v>
+      </c>
+      <c r="X281">
+        <v>3</v>
+      </c>
+      <c r="Y281">
+        <v>2.6</v>
+      </c>
+      <c r="Z281">
+        <v>1.45</v>
+      </c>
+      <c r="AA281">
+        <v>6.75</v>
+      </c>
+      <c r="AB281">
+        <v>1.1</v>
+      </c>
+      <c r="AC281">
+        <v>2.43</v>
+      </c>
+      <c r="AD281">
+        <v>3.5</v>
+      </c>
+      <c r="AE281">
+        <v>2.72</v>
+      </c>
+      <c r="AF281">
+        <v>1.04</v>
+      </c>
+      <c r="AG281">
+        <v>13.75</v>
+      </c>
+      <c r="AH281">
+        <v>1.25</v>
+      </c>
+      <c r="AI281">
+        <v>3.97</v>
+      </c>
+      <c r="AJ281">
+        <v>1.75</v>
+      </c>
+      <c r="AK281">
+        <v>2.01</v>
+      </c>
+      <c r="AL281">
+        <v>1.62</v>
+      </c>
+      <c r="AM281">
+        <v>2.2</v>
+      </c>
+      <c r="AN281">
+        <v>1.48</v>
+      </c>
+      <c r="AO281">
+        <v>1.3</v>
+      </c>
+      <c r="AP281">
+        <v>1.52</v>
+      </c>
+      <c r="AQ281">
+        <v>1.33</v>
+      </c>
+      <c r="AR281">
+        <v>0.88</v>
+      </c>
+      <c r="AS281">
+        <v>1.3</v>
+      </c>
+      <c r="AT281">
+        <v>0.89</v>
+      </c>
+      <c r="AU281">
+        <v>1.25</v>
+      </c>
+      <c r="AV281">
+        <v>1.19</v>
+      </c>
+      <c r="AW281">
+        <v>2.44</v>
+      </c>
+      <c r="AX281">
+        <v>0</v>
+      </c>
+      <c r="AY281">
+        <v>0</v>
+      </c>
+      <c r="AZ281">
+        <v>0</v>
+      </c>
+      <c r="BA281">
+        <v>0</v>
+      </c>
+      <c r="BB281">
+        <v>0</v>
+      </c>
+      <c r="BC281">
+        <v>1.88</v>
+      </c>
+      <c r="BD281">
+        <v>0</v>
+      </c>
+      <c r="BE281">
+        <v>0</v>
+      </c>
+      <c r="BF281">
+        <v>10</v>
+      </c>
+      <c r="BG281">
+        <v>5</v>
+      </c>
+      <c r="BH281">
+        <v>4</v>
+      </c>
+      <c r="BI281">
+        <v>4</v>
+      </c>
+      <c r="BJ281">
+        <v>14</v>
+      </c>
+      <c r="BK281">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:63">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>4926221</v>
+      </c>
+      <c r="C282" t="s">
+        <v>63</v>
+      </c>
+      <c r="D282" t="s">
+        <v>64</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45108.85416666666</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282" t="s">
+        <v>79</v>
+      </c>
+      <c r="H282" t="s">
+        <v>81</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>2</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>288</v>
+      </c>
+      <c r="P282" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q282">
+        <v>2</v>
+      </c>
+      <c r="R282">
+        <v>8</v>
+      </c>
+      <c r="S282">
+        <v>10</v>
+      </c>
+      <c r="T282">
+        <v>2.64</v>
+      </c>
+      <c r="U282">
+        <v>2.27</v>
+      </c>
+      <c r="V282">
+        <v>4.61</v>
+      </c>
+      <c r="W282">
+        <v>1.41</v>
+      </c>
+      <c r="X282">
+        <v>3.02</v>
+      </c>
+      <c r="Y282">
+        <v>3.03</v>
+      </c>
+      <c r="Z282">
+        <v>1.41</v>
+      </c>
+      <c r="AA282">
+        <v>6.5</v>
+      </c>
+      <c r="AB282">
+        <v>1.08</v>
+      </c>
+      <c r="AC282">
+        <v>1.95</v>
+      </c>
+      <c r="AD282">
+        <v>3.4</v>
+      </c>
+      <c r="AE282">
+        <v>3.88</v>
+      </c>
+      <c r="AF282">
+        <v>1.02</v>
+      </c>
+      <c r="AG282">
+        <v>8.9</v>
+      </c>
+      <c r="AH282">
+        <v>1.28</v>
+      </c>
+      <c r="AI282">
+        <v>3.26</v>
+      </c>
+      <c r="AJ282">
+        <v>1.92</v>
+      </c>
+      <c r="AK282">
+        <v>1.82</v>
+      </c>
+      <c r="AL282">
+        <v>1.81</v>
+      </c>
+      <c r="AM282">
+        <v>1.93</v>
+      </c>
+      <c r="AN282">
+        <v>1.29</v>
+      </c>
+      <c r="AO282">
+        <v>1.29</v>
+      </c>
+      <c r="AP282">
+        <v>1.85</v>
+      </c>
+      <c r="AQ282">
+        <v>2.3</v>
+      </c>
+      <c r="AR282">
+        <v>0.78</v>
+      </c>
+      <c r="AS282">
+        <v>2.36</v>
+      </c>
+      <c r="AT282">
+        <v>0.7</v>
+      </c>
+      <c r="AU282">
+        <v>1.9</v>
+      </c>
+      <c r="AV282">
+        <v>1.55</v>
+      </c>
+      <c r="AW282">
+        <v>3.45</v>
+      </c>
+      <c r="AX282">
+        <v>0</v>
+      </c>
+      <c r="AY282">
+        <v>0</v>
+      </c>
+      <c r="AZ282">
+        <v>0</v>
+      </c>
+      <c r="BA282">
+        <v>0</v>
+      </c>
+      <c r="BB282">
+        <v>0</v>
+      </c>
+      <c r="BC282">
+        <v>2</v>
+      </c>
+      <c r="BD282">
+        <v>0</v>
+      </c>
+      <c r="BE282">
+        <v>0</v>
+      </c>
+      <c r="BF282">
+        <v>4</v>
+      </c>
+      <c r="BG282">
+        <v>5</v>
+      </c>
+      <c r="BH282">
+        <v>2</v>
+      </c>
+      <c r="BI282">
+        <v>3</v>
+      </c>
+      <c r="BJ282">
+        <v>6</v>
+      </c>
+      <c r="BK282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:63">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>4926220</v>
+      </c>
+      <c r="C283" t="s">
+        <v>63</v>
+      </c>
+      <c r="D283" t="s">
+        <v>64</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45108.85416666666</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283" t="s">
+        <v>68</v>
+      </c>
+      <c r="H283" t="s">
+        <v>80</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>2</v>
+      </c>
+      <c r="K283">
+        <v>3</v>
+      </c>
+      <c r="L283">
+        <v>2</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
+        <v>4</v>
+      </c>
+      <c r="O283" t="s">
+        <v>289</v>
+      </c>
+      <c r="P283" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q283">
         <v>12</v>
+      </c>
+      <c r="R283">
+        <v>8</v>
+      </c>
+      <c r="S283">
+        <v>20</v>
+      </c>
+      <c r="T283">
+        <v>2.83</v>
+      </c>
+      <c r="U283">
+        <v>2.27</v>
+      </c>
+      <c r="V283">
+        <v>4.08</v>
+      </c>
+      <c r="W283">
+        <v>1.36</v>
+      </c>
+      <c r="X283">
+        <v>3.29</v>
+      </c>
+      <c r="Y283">
+        <v>2.63</v>
+      </c>
+      <c r="Z283">
+        <v>1.52</v>
+      </c>
+      <c r="AA283">
+        <v>6</v>
+      </c>
+      <c r="AB283">
+        <v>1.11</v>
+      </c>
+      <c r="AC283">
+        <v>2.1</v>
+      </c>
+      <c r="AD283">
+        <v>3.55</v>
+      </c>
+      <c r="AE283">
+        <v>3.26</v>
+      </c>
+      <c r="AF283">
+        <v>1</v>
+      </c>
+      <c r="AG283">
+        <v>10.5</v>
+      </c>
+      <c r="AH283">
+        <v>1.22</v>
+      </c>
+      <c r="AI283">
+        <v>3.8</v>
+      </c>
+      <c r="AJ283">
+        <v>1.72</v>
+      </c>
+      <c r="AK283">
+        <v>2.05</v>
+      </c>
+      <c r="AL283">
+        <v>1.6</v>
+      </c>
+      <c r="AM283">
+        <v>2.2</v>
+      </c>
+      <c r="AN283">
+        <v>1.33</v>
+      </c>
+      <c r="AO283">
+        <v>1.3</v>
+      </c>
+      <c r="AP283">
+        <v>1.73</v>
+      </c>
+      <c r="AQ283">
+        <v>3</v>
+      </c>
+      <c r="AR283">
+        <v>1.33</v>
+      </c>
+      <c r="AS283">
+        <v>2.82</v>
+      </c>
+      <c r="AT283">
+        <v>1.3</v>
+      </c>
+      <c r="AU283">
+        <v>1.32</v>
+      </c>
+      <c r="AV283">
+        <v>1.32</v>
+      </c>
+      <c r="AW283">
+        <v>2.64</v>
+      </c>
+      <c r="AX283">
+        <v>0</v>
+      </c>
+      <c r="AY283">
+        <v>0</v>
+      </c>
+      <c r="AZ283">
+        <v>0</v>
+      </c>
+      <c r="BA283">
+        <v>0</v>
+      </c>
+      <c r="BB283">
+        <v>0</v>
+      </c>
+      <c r="BC283">
+        <v>1.83</v>
+      </c>
+      <c r="BD283">
+        <v>0</v>
+      </c>
+      <c r="BE283">
+        <v>0</v>
+      </c>
+      <c r="BF283">
+        <v>8</v>
+      </c>
+      <c r="BG283">
+        <v>3</v>
+      </c>
+      <c r="BH283">
+        <v>11</v>
+      </c>
+      <c r="BI283">
+        <v>4</v>
+      </c>
+      <c r="BJ283">
+        <v>19</v>
+      </c>
+      <c r="BK283">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:63">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>4926224</v>
+      </c>
+      <c r="C284" t="s">
+        <v>63</v>
+      </c>
+      <c r="D284" t="s">
+        <v>64</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45108.85416666666</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284" t="s">
+        <v>71</v>
+      </c>
+      <c r="H284" t="s">
+        <v>82</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>3</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>4</v>
+      </c>
+      <c r="O284" t="s">
+        <v>290</v>
+      </c>
+      <c r="P284" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q284">
+        <v>13</v>
+      </c>
+      <c r="R284">
+        <v>3</v>
+      </c>
+      <c r="S284">
+        <v>16</v>
+      </c>
+      <c r="T284">
+        <v>2.3</v>
+      </c>
+      <c r="U284">
+        <v>2.3</v>
+      </c>
+      <c r="V284">
+        <v>4.33</v>
+      </c>
+      <c r="W284">
+        <v>1.33</v>
+      </c>
+      <c r="X284">
+        <v>3</v>
+      </c>
+      <c r="Y284">
+        <v>2.5</v>
+      </c>
+      <c r="Z284">
+        <v>1.48</v>
+      </c>
+      <c r="AA284">
+        <v>5.5</v>
+      </c>
+      <c r="AB284">
+        <v>1.11</v>
+      </c>
+      <c r="AC284">
+        <v>1.78</v>
+      </c>
+      <c r="AD284">
+        <v>3.7</v>
+      </c>
+      <c r="AE284">
+        <v>4.29</v>
+      </c>
+      <c r="AF284">
+        <v>1</v>
+      </c>
+      <c r="AG284">
+        <v>11</v>
+      </c>
+      <c r="AH284">
+        <v>1.22</v>
+      </c>
+      <c r="AI284">
+        <v>3.8</v>
+      </c>
+      <c r="AJ284">
+        <v>1.72</v>
+      </c>
+      <c r="AK284">
+        <v>2.05</v>
+      </c>
+      <c r="AL284">
+        <v>1.67</v>
+      </c>
+      <c r="AM284">
+        <v>2.1</v>
+      </c>
+      <c r="AN284">
+        <v>1.23</v>
+      </c>
+      <c r="AO284">
+        <v>1.26</v>
+      </c>
+      <c r="AP284">
+        <v>1.99</v>
+      </c>
+      <c r="AQ284">
+        <v>1.3</v>
+      </c>
+      <c r="AR284">
+        <v>1.1</v>
+      </c>
+      <c r="AS284">
+        <v>1.45</v>
+      </c>
+      <c r="AT284">
+        <v>1</v>
+      </c>
+      <c r="AU284">
+        <v>1.49</v>
+      </c>
+      <c r="AV284">
+        <v>1.06</v>
+      </c>
+      <c r="AW284">
+        <v>2.55</v>
+      </c>
+      <c r="AX284">
+        <v>0</v>
+      </c>
+      <c r="AY284">
+        <v>0</v>
+      </c>
+      <c r="AZ284">
+        <v>0</v>
+      </c>
+      <c r="BA284">
+        <v>0</v>
+      </c>
+      <c r="BB284">
+        <v>0</v>
+      </c>
+      <c r="BC284">
+        <v>1.98</v>
+      </c>
+      <c r="BD284">
+        <v>0</v>
+      </c>
+      <c r="BE284">
+        <v>0</v>
+      </c>
+      <c r="BF284">
+        <v>10</v>
+      </c>
+      <c r="BG284">
+        <v>5</v>
+      </c>
+      <c r="BH284">
+        <v>5</v>
+      </c>
+      <c r="BI284">
+        <v>4</v>
+      </c>
+      <c r="BJ284">
+        <v>15</v>
+      </c>
+      <c r="BK284">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:63">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>4926225</v>
+      </c>
+      <c r="C285" t="s">
+        <v>63</v>
+      </c>
+      <c r="D285" t="s">
+        <v>64</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45108.85416666666</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285" t="s">
+        <v>87</v>
+      </c>
+      <c r="H285" t="s">
+        <v>90</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>1</v>
+      </c>
+      <c r="O285" t="s">
+        <v>96</v>
+      </c>
+      <c r="P285" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q285">
+        <v>2</v>
+      </c>
+      <c r="R285">
+        <v>9</v>
+      </c>
+      <c r="S285">
+        <v>11</v>
+      </c>
+      <c r="T285">
+        <v>2.73</v>
+      </c>
+      <c r="U285">
+        <v>2.32</v>
+      </c>
+      <c r="V285">
+        <v>4.13</v>
+      </c>
+      <c r="W285">
+        <v>1.33</v>
+      </c>
+      <c r="X285">
+        <v>3</v>
+      </c>
+      <c r="Y285">
+        <v>2.5</v>
+      </c>
+      <c r="Z285">
+        <v>1.48</v>
+      </c>
+      <c r="AA285">
+        <v>5.75</v>
+      </c>
+      <c r="AB285">
+        <v>1.1</v>
+      </c>
+      <c r="AC285">
+        <v>2.05</v>
+      </c>
+      <c r="AD285">
+        <v>3.65</v>
+      </c>
+      <c r="AE285">
+        <v>3.3</v>
+      </c>
+      <c r="AF285">
+        <v>1.05</v>
+      </c>
+      <c r="AG285">
+        <v>8</v>
+      </c>
+      <c r="AH285">
+        <v>1.25</v>
+      </c>
+      <c r="AI285">
+        <v>3.6</v>
+      </c>
+      <c r="AJ285">
+        <v>1.72</v>
+      </c>
+      <c r="AK285">
+        <v>2.05</v>
+      </c>
+      <c r="AL285">
+        <v>1.67</v>
+      </c>
+      <c r="AM285">
+        <v>2.1</v>
+      </c>
+      <c r="AN285">
+        <v>1.3</v>
+      </c>
+      <c r="AO285">
+        <v>1.29</v>
+      </c>
+      <c r="AP285">
+        <v>1.79</v>
+      </c>
+      <c r="AQ285">
+        <v>1.5</v>
+      </c>
+      <c r="AR285">
+        <v>1.7</v>
+      </c>
+      <c r="AS285">
+        <v>1.36</v>
+      </c>
+      <c r="AT285">
+        <v>1.82</v>
+      </c>
+      <c r="AU285">
+        <v>1.47</v>
+      </c>
+      <c r="AV285">
+        <v>1.45</v>
+      </c>
+      <c r="AW285">
+        <v>2.92</v>
+      </c>
+      <c r="AX285">
+        <v>0</v>
+      </c>
+      <c r="AY285">
+        <v>0</v>
+      </c>
+      <c r="AZ285">
+        <v>0</v>
+      </c>
+      <c r="BA285">
+        <v>0</v>
+      </c>
+      <c r="BB285">
+        <v>0</v>
+      </c>
+      <c r="BC285">
+        <v>1.88</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>3</v>
+      </c>
+      <c r="BG285">
+        <v>8</v>
+      </c>
+      <c r="BH285">
+        <v>5</v>
+      </c>
+      <c r="BI285">
+        <v>9</v>
+      </c>
+      <c r="BJ285">
+        <v>8</v>
+      </c>
+      <c r="BK285">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:63">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>4926227</v>
+      </c>
+      <c r="C286" t="s">
+        <v>63</v>
+      </c>
+      <c r="D286" t="s">
+        <v>64</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45108.89583333334</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286" t="s">
+        <v>88</v>
+      </c>
+      <c r="H286" t="s">
+        <v>75</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>3</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>3</v>
+      </c>
+      <c r="O286" t="s">
+        <v>291</v>
+      </c>
+      <c r="P286" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q286">
+        <v>7</v>
+      </c>
+      <c r="R286">
+        <v>8</v>
+      </c>
+      <c r="S286">
+        <v>15</v>
+      </c>
+      <c r="T286">
+        <v>2.37</v>
+      </c>
+      <c r="U286">
+        <v>2.25</v>
+      </c>
+      <c r="V286">
+        <v>3.9</v>
+      </c>
+      <c r="W286">
+        <v>1.31</v>
+      </c>
+      <c r="X286">
+        <v>3.1</v>
+      </c>
+      <c r="Y286">
+        <v>2.4</v>
+      </c>
+      <c r="Z286">
+        <v>1.49</v>
+      </c>
+      <c r="AA286">
+        <v>5.75</v>
+      </c>
+      <c r="AB286">
+        <v>1.12</v>
+      </c>
+      <c r="AC286">
+        <v>1.9</v>
+      </c>
+      <c r="AD286">
+        <v>3.75</v>
+      </c>
+      <c r="AE286">
+        <v>3.68</v>
+      </c>
+      <c r="AF286">
+        <v>1.02</v>
+      </c>
+      <c r="AG286">
+        <v>15</v>
+      </c>
+      <c r="AH286">
+        <v>1.22</v>
+      </c>
+      <c r="AI286">
+        <v>4.2</v>
+      </c>
+      <c r="AJ286">
+        <v>1.62</v>
+      </c>
+      <c r="AK286">
+        <v>2.21</v>
+      </c>
+      <c r="AL286">
+        <v>1.63</v>
+      </c>
+      <c r="AM286">
+        <v>2.1</v>
+      </c>
+      <c r="AN286">
+        <v>1.26</v>
+      </c>
+      <c r="AO286">
+        <v>1.26</v>
+      </c>
+      <c r="AP286">
+        <v>1.88</v>
+      </c>
+      <c r="AQ286">
+        <v>1.3</v>
+      </c>
+      <c r="AR286">
+        <v>0.75</v>
+      </c>
+      <c r="AS286">
+        <v>1.45</v>
+      </c>
+      <c r="AT286">
+        <v>0.67</v>
+      </c>
+      <c r="AU286">
+        <v>1.72</v>
+      </c>
+      <c r="AV286">
+        <v>1.47</v>
+      </c>
+      <c r="AW286">
+        <v>3.19</v>
+      </c>
+      <c r="AX286">
+        <v>0</v>
+      </c>
+      <c r="AY286">
+        <v>0</v>
+      </c>
+      <c r="AZ286">
+        <v>0</v>
+      </c>
+      <c r="BA286">
+        <v>0</v>
+      </c>
+      <c r="BB286">
+        <v>0</v>
+      </c>
+      <c r="BC286">
+        <v>1.85</v>
+      </c>
+      <c r="BD286">
+        <v>0</v>
+      </c>
+      <c r="BE286">
+        <v>0</v>
+      </c>
+      <c r="BF286">
+        <v>5</v>
+      </c>
+      <c r="BG286">
+        <v>3</v>
+      </c>
+      <c r="BH286">
+        <v>10</v>
+      </c>
+      <c r="BI286">
+        <v>4</v>
+      </c>
+      <c r="BJ286">
+        <v>15</v>
+      </c>
+      <c r="BK286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:63">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>4926226</v>
+      </c>
+      <c r="C287" t="s">
+        <v>63</v>
+      </c>
+      <c r="D287" t="s">
+        <v>64</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45108.89583333334</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287" t="s">
+        <v>74</v>
+      </c>
+      <c r="H287" t="s">
+        <v>78</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>2</v>
+      </c>
+      <c r="O287" t="s">
+        <v>292</v>
+      </c>
+      <c r="P287" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q287">
+        <v>3</v>
+      </c>
+      <c r="R287">
+        <v>6</v>
+      </c>
+      <c r="S287">
+        <v>9</v>
+      </c>
+      <c r="T287">
+        <v>3.2</v>
+      </c>
+      <c r="U287">
+        <v>2.1</v>
+      </c>
+      <c r="V287">
+        <v>2.95</v>
+      </c>
+      <c r="W287">
+        <v>1.37</v>
+      </c>
+      <c r="X287">
+        <v>2.85</v>
+      </c>
+      <c r="Y287">
+        <v>2.7</v>
+      </c>
+      <c r="Z287">
+        <v>1.41</v>
+      </c>
+      <c r="AA287">
+        <v>6.75</v>
+      </c>
+      <c r="AB287">
+        <v>1.09</v>
+      </c>
+      <c r="AC287">
+        <v>2.8</v>
+      </c>
+      <c r="AD287">
+        <v>3.5</v>
+      </c>
+      <c r="AE287">
+        <v>2.37</v>
+      </c>
+      <c r="AF287">
+        <v>1.04</v>
+      </c>
+      <c r="AG287">
+        <v>12</v>
+      </c>
+      <c r="AH287">
+        <v>1.3</v>
+      </c>
+      <c r="AI287">
+        <v>3.5</v>
+      </c>
+      <c r="AJ287">
+        <v>1.79</v>
+      </c>
+      <c r="AK287">
+        <v>1.96</v>
+      </c>
+      <c r="AL287">
+        <v>1.7</v>
+      </c>
+      <c r="AM287">
+        <v>2</v>
+      </c>
+      <c r="AN287">
+        <v>1.53</v>
+      </c>
+      <c r="AO287">
+        <v>1.3</v>
+      </c>
+      <c r="AP287">
+        <v>1.43</v>
+      </c>
+      <c r="AQ287">
+        <v>1.89</v>
+      </c>
+      <c r="AR287">
+        <v>1.5</v>
+      </c>
+      <c r="AS287">
+        <v>2</v>
+      </c>
+      <c r="AT287">
+        <v>1.33</v>
+      </c>
+      <c r="AU287">
+        <v>1.33</v>
+      </c>
+      <c r="AV287">
+        <v>1.47</v>
+      </c>
+      <c r="AW287">
+        <v>2.8</v>
+      </c>
+      <c r="AX287">
+        <v>0</v>
+      </c>
+      <c r="AY287">
+        <v>0</v>
+      </c>
+      <c r="AZ287">
+        <v>0</v>
+      </c>
+      <c r="BA287">
+        <v>0</v>
+      </c>
+      <c r="BB287">
+        <v>0</v>
+      </c>
+      <c r="BC287">
+        <v>0</v>
+      </c>
+      <c r="BD287">
+        <v>0</v>
+      </c>
+      <c r="BE287">
+        <v>0</v>
+      </c>
+      <c r="BF287">
+        <v>3</v>
+      </c>
+      <c r="BG287">
+        <v>4</v>
+      </c>
+      <c r="BH287">
+        <v>3</v>
+      </c>
+      <c r="BI287">
+        <v>7</v>
+      </c>
+      <c r="BJ287">
+        <v>6</v>
+      </c>
+      <c r="BK287">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:63">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>4926228</v>
+      </c>
+      <c r="C288" t="s">
+        <v>63</v>
+      </c>
+      <c r="D288" t="s">
+        <v>64</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45108.89583333334</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288" t="s">
+        <v>89</v>
+      </c>
+      <c r="H288" t="s">
+        <v>77</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>4</v>
+      </c>
+      <c r="M288">
+        <v>1</v>
+      </c>
+      <c r="N288">
+        <v>5</v>
+      </c>
+      <c r="O288" t="s">
+        <v>293</v>
+      </c>
+      <c r="P288" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q288">
+        <v>8</v>
+      </c>
+      <c r="R288">
+        <v>4</v>
+      </c>
+      <c r="S288">
+        <v>12</v>
+      </c>
+      <c r="T288">
+        <v>2.7</v>
+      </c>
+      <c r="U288">
+        <v>2.1</v>
+      </c>
+      <c r="V288">
+        <v>3.6</v>
+      </c>
+      <c r="W288">
+        <v>1.37</v>
+      </c>
+      <c r="X288">
+        <v>2.8</v>
+      </c>
+      <c r="Y288">
+        <v>2.7</v>
+      </c>
+      <c r="Z288">
+        <v>1.4</v>
+      </c>
+      <c r="AA288">
+        <v>7</v>
+      </c>
+      <c r="AB288">
+        <v>1.08</v>
+      </c>
+      <c r="AC288">
+        <v>2.1</v>
+      </c>
+      <c r="AD288">
+        <v>3.5</v>
+      </c>
+      <c r="AE288">
+        <v>3.3</v>
+      </c>
+      <c r="AF288">
+        <v>1.04</v>
+      </c>
+      <c r="AG288">
+        <v>13</v>
+      </c>
+      <c r="AH288">
+        <v>1.28</v>
+      </c>
+      <c r="AI288">
+        <v>3.6</v>
+      </c>
+      <c r="AJ288">
+        <v>1.75</v>
+      </c>
+      <c r="AK288">
+        <v>2.01</v>
+      </c>
+      <c r="AL288">
+        <v>1.7</v>
+      </c>
+      <c r="AM288">
+        <v>2</v>
+      </c>
+      <c r="AN288">
+        <v>1.34</v>
+      </c>
+      <c r="AO288">
+        <v>1.28</v>
+      </c>
+      <c r="AP288">
+        <v>1.68</v>
+      </c>
+      <c r="AQ288">
+        <v>1.14</v>
+      </c>
+      <c r="AR288">
+        <v>0.7</v>
+      </c>
+      <c r="AS288">
+        <v>1.38</v>
+      </c>
+      <c r="AT288">
+        <v>0.64</v>
+      </c>
+      <c r="AU288">
+        <v>1.54</v>
+      </c>
+      <c r="AV288">
+        <v>1.2</v>
+      </c>
+      <c r="AW288">
+        <v>2.74</v>
+      </c>
+      <c r="AX288">
+        <v>0</v>
+      </c>
+      <c r="AY288">
+        <v>0</v>
+      </c>
+      <c r="AZ288">
+        <v>0</v>
+      </c>
+      <c r="BA288">
+        <v>0</v>
+      </c>
+      <c r="BB288">
+        <v>0</v>
+      </c>
+      <c r="BC288">
+        <v>0</v>
+      </c>
+      <c r="BD288">
+        <v>0</v>
+      </c>
+      <c r="BE288">
+        <v>0</v>
+      </c>
+      <c r="BF288">
+        <v>11</v>
+      </c>
+      <c r="BG288">
+        <v>4</v>
+      </c>
+      <c r="BH288">
+        <v>4</v>
+      </c>
+      <c r="BI288">
+        <v>2</v>
+      </c>
+      <c r="BJ288">
+        <v>15</v>
+      </c>
+      <c r="BK288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:63">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>4926229</v>
+      </c>
+      <c r="C289" t="s">
+        <v>63</v>
+      </c>
+      <c r="D289" t="s">
+        <v>64</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45108.89583333334</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289" t="s">
+        <v>65</v>
+      </c>
+      <c r="H289" t="s">
+        <v>69</v>
+      </c>
+      <c r="I289">
+        <v>2</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>2</v>
+      </c>
+      <c r="L289">
+        <v>2</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" t="s">
+        <v>294</v>
+      </c>
+      <c r="P289" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q289">
+        <v>9</v>
+      </c>
+      <c r="R289">
+        <v>3</v>
+      </c>
+      <c r="S289">
+        <v>12</v>
+      </c>
+      <c r="T289">
+        <v>2.35</v>
+      </c>
+      <c r="U289">
+        <v>2.2</v>
+      </c>
+      <c r="V289">
+        <v>4.2</v>
+      </c>
+      <c r="W289">
+        <v>1.35</v>
+      </c>
+      <c r="X289">
+        <v>2.95</v>
+      </c>
+      <c r="Y289">
+        <v>2.6</v>
+      </c>
+      <c r="Z289">
+        <v>1.43</v>
+      </c>
+      <c r="AA289">
+        <v>6.5</v>
+      </c>
+      <c r="AB289">
+        <v>1.1</v>
+      </c>
+      <c r="AC289">
+        <v>1.87</v>
+      </c>
+      <c r="AD289">
+        <v>3.65</v>
+      </c>
+      <c r="AE289">
+        <v>3.9</v>
+      </c>
+      <c r="AF289">
+        <v>1.03</v>
+      </c>
+      <c r="AG289">
+        <v>13</v>
+      </c>
+      <c r="AH289">
+        <v>1.25</v>
+      </c>
+      <c r="AI289">
+        <v>3.75</v>
+      </c>
+      <c r="AJ289">
+        <v>1.79</v>
+      </c>
+      <c r="AK289">
+        <v>1.96</v>
+      </c>
+      <c r="AL289">
+        <v>1.73</v>
+      </c>
+      <c r="AM289">
+        <v>1.95</v>
+      </c>
+      <c r="AN289">
+        <v>1.24</v>
+      </c>
+      <c r="AO289">
+        <v>1.26</v>
+      </c>
+      <c r="AP289">
+        <v>1.93</v>
+      </c>
+      <c r="AQ289">
+        <v>2.3</v>
+      </c>
+      <c r="AR289">
+        <v>1.1</v>
+      </c>
+      <c r="AS289">
+        <v>2.36</v>
+      </c>
+      <c r="AT289">
+        <v>1</v>
+      </c>
+      <c r="AU289">
+        <v>1.63</v>
+      </c>
+      <c r="AV289">
+        <v>1.54</v>
+      </c>
+      <c r="AW289">
+        <v>3.17</v>
+      </c>
+      <c r="AX289">
+        <v>0</v>
+      </c>
+      <c r="AY289">
+        <v>0</v>
+      </c>
+      <c r="AZ289">
+        <v>0</v>
+      </c>
+      <c r="BA289">
+        <v>0</v>
+      </c>
+      <c r="BB289">
+        <v>0</v>
+      </c>
+      <c r="BC289">
+        <v>1.95</v>
+      </c>
+      <c r="BD289">
+        <v>0</v>
+      </c>
+      <c r="BE289">
+        <v>0</v>
+      </c>
+      <c r="BF289">
+        <v>4</v>
+      </c>
+      <c r="BG289">
+        <v>3</v>
+      </c>
+      <c r="BH289">
+        <v>5</v>
+      </c>
+      <c r="BI289">
+        <v>11</v>
+      </c>
+      <c r="BJ289">
+        <v>9</v>
+      </c>
+      <c r="BK289">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:63">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>4926230</v>
+      </c>
+      <c r="C290" t="s">
+        <v>63</v>
+      </c>
+      <c r="D290" t="s">
+        <v>64</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45108.89583333334</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290" t="s">
+        <v>83</v>
+      </c>
+      <c r="H290" t="s">
+        <v>84</v>
+      </c>
+      <c r="I290">
+        <v>2</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>2</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>2</v>
+      </c>
+      <c r="O290" t="s">
+        <v>295</v>
+      </c>
+      <c r="P290" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q290">
+        <v>5</v>
+      </c>
+      <c r="R290">
+        <v>9</v>
+      </c>
+      <c r="S290">
+        <v>14</v>
+      </c>
+      <c r="T290">
+        <v>2.4</v>
+      </c>
+      <c r="U290">
+        <v>2.2</v>
+      </c>
+      <c r="V290">
+        <v>4</v>
+      </c>
+      <c r="W290">
+        <v>1.34</v>
+      </c>
+      <c r="X290">
+        <v>3</v>
+      </c>
+      <c r="Y290">
+        <v>2.5</v>
+      </c>
+      <c r="Z290">
+        <v>1.46</v>
+      </c>
+      <c r="AA290">
+        <v>6.25</v>
+      </c>
+      <c r="AB290">
+        <v>1.1</v>
+      </c>
+      <c r="AC290">
+        <v>1.86</v>
+      </c>
+      <c r="AD290">
+        <v>3.7</v>
+      </c>
+      <c r="AE290">
+        <v>3.89</v>
+      </c>
+      <c r="AF290">
+        <v>1.03</v>
+      </c>
+      <c r="AG290">
+        <v>13</v>
+      </c>
+      <c r="AH290">
+        <v>1.25</v>
+      </c>
+      <c r="AI290">
+        <v>3.75</v>
+      </c>
+      <c r="AJ290">
+        <v>1.72</v>
+      </c>
+      <c r="AK290">
+        <v>2.05</v>
+      </c>
+      <c r="AL290">
+        <v>1.66</v>
+      </c>
+      <c r="AM290">
+        <v>2.05</v>
+      </c>
+      <c r="AN290">
+        <v>1.25</v>
+      </c>
+      <c r="AO290">
+        <v>1.26</v>
+      </c>
+      <c r="AP290">
+        <v>1.88</v>
+      </c>
+      <c r="AQ290">
+        <v>1.9</v>
+      </c>
+      <c r="AR290">
+        <v>0.9</v>
+      </c>
+      <c r="AS290">
+        <v>2</v>
+      </c>
+      <c r="AT290">
+        <v>0.82</v>
+      </c>
+      <c r="AU290">
+        <v>1.61</v>
+      </c>
+      <c r="AV290">
+        <v>1.09</v>
+      </c>
+      <c r="AW290">
+        <v>2.7</v>
+      </c>
+      <c r="AX290">
+        <v>0</v>
+      </c>
+      <c r="AY290">
+        <v>0</v>
+      </c>
+      <c r="AZ290">
+        <v>0</v>
+      </c>
+      <c r="BA290">
+        <v>0</v>
+      </c>
+      <c r="BB290">
+        <v>0</v>
+      </c>
+      <c r="BC290">
+        <v>1.88</v>
+      </c>
+      <c r="BD290">
+        <v>0</v>
+      </c>
+      <c r="BE290">
+        <v>0</v>
+      </c>
+      <c r="BF290">
+        <v>8</v>
+      </c>
+      <c r="BG290">
+        <v>4</v>
+      </c>
+      <c r="BH290">
+        <v>8</v>
+      </c>
+      <c r="BI290">
+        <v>4</v>
+      </c>
+      <c r="BJ290">
+        <v>16</v>
+      </c>
+      <c r="BK290">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:63">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>4926223</v>
+      </c>
+      <c r="C291" t="s">
+        <v>63</v>
+      </c>
+      <c r="D291" t="s">
+        <v>64</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45108.91875</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291" t="s">
+        <v>91</v>
+      </c>
+      <c r="H291" t="s">
+        <v>86</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>1</v>
+      </c>
+      <c r="O291" t="s">
+        <v>96</v>
+      </c>
+      <c r="P291" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q291">
+        <v>10</v>
+      </c>
+      <c r="R291">
+        <v>3</v>
+      </c>
+      <c r="S291">
+        <v>13</v>
+      </c>
+      <c r="T291">
+        <v>2.8</v>
+      </c>
+      <c r="U291">
+        <v>2.15</v>
+      </c>
+      <c r="V291">
+        <v>3.6</v>
+      </c>
+      <c r="W291">
+        <v>1.36</v>
+      </c>
+      <c r="X291">
+        <v>2.88</v>
+      </c>
+      <c r="Y291">
+        <v>2.63</v>
+      </c>
+      <c r="Z291">
+        <v>1.43</v>
+      </c>
+      <c r="AA291">
+        <v>6</v>
+      </c>
+      <c r="AB291">
+        <v>1.09</v>
+      </c>
+      <c r="AC291">
+        <v>2.23</v>
+      </c>
+      <c r="AD291">
+        <v>3.5</v>
+      </c>
+      <c r="AE291">
+        <v>3.02</v>
+      </c>
+      <c r="AF291">
+        <v>1.01</v>
+      </c>
+      <c r="AG291">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH291">
+        <v>1.29</v>
+      </c>
+      <c r="AI291">
+        <v>3.4</v>
+      </c>
+      <c r="AJ291">
+        <v>1.82</v>
+      </c>
+      <c r="AK291">
+        <v>1.92</v>
+      </c>
+      <c r="AL291">
+        <v>1.71</v>
+      </c>
+      <c r="AM291">
+        <v>2.06</v>
+      </c>
+      <c r="AN291">
+        <v>1.38</v>
+      </c>
+      <c r="AO291">
+        <v>1.33</v>
+      </c>
+      <c r="AP291">
+        <v>1.62</v>
+      </c>
+      <c r="AQ291">
+        <v>2.63</v>
+      </c>
+      <c r="AR291">
+        <v>0.55</v>
+      </c>
+      <c r="AS291">
+        <v>2.33</v>
+      </c>
+      <c r="AT291">
+        <v>0.75</v>
+      </c>
+      <c r="AU291">
+        <v>1.4</v>
+      </c>
+      <c r="AV291">
+        <v>1.02</v>
+      </c>
+      <c r="AW291">
+        <v>2.42</v>
+      </c>
+      <c r="AX291">
+        <v>0</v>
+      </c>
+      <c r="AY291">
+        <v>0</v>
+      </c>
+      <c r="AZ291">
+        <v>0</v>
+      </c>
+      <c r="BA291">
+        <v>0</v>
+      </c>
+      <c r="BB291">
+        <v>0</v>
+      </c>
+      <c r="BC291">
+        <v>1.98</v>
+      </c>
+      <c r="BD291">
+        <v>0</v>
+      </c>
+      <c r="BE291">
+        <v>0</v>
+      </c>
+      <c r="BF291">
+        <v>4</v>
+      </c>
+      <c r="BG291">
+        <v>8</v>
+      </c>
+      <c r="BH291">
+        <v>9</v>
+      </c>
+      <c r="BI291">
+        <v>3</v>
+      </c>
+      <c r="BJ291">
+        <v>13</v>
+      </c>
+      <c r="BK291">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:63">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>4926231</v>
+      </c>
+      <c r="C292" t="s">
+        <v>63</v>
+      </c>
+      <c r="D292" t="s">
+        <v>64</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45108.97916666666</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292" t="s">
+        <v>85</v>
+      </c>
+      <c r="H292" t="s">
+        <v>93</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>2</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>2</v>
+      </c>
+      <c r="N292">
+        <v>4</v>
+      </c>
+      <c r="O292" t="s">
+        <v>296</v>
+      </c>
+      <c r="P292" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q292">
+        <v>7</v>
+      </c>
+      <c r="R292">
+        <v>5</v>
+      </c>
+      <c r="S292">
+        <v>12</v>
+      </c>
+      <c r="T292">
+        <v>2.65</v>
+      </c>
+      <c r="U292">
+        <v>2.35</v>
+      </c>
+      <c r="V292">
+        <v>3.6</v>
+      </c>
+      <c r="W292">
+        <v>1.3</v>
+      </c>
+      <c r="X292">
+        <v>3.4</v>
+      </c>
+      <c r="Y292">
+        <v>2.45</v>
+      </c>
+      <c r="Z292">
+        <v>1.52</v>
+      </c>
+      <c r="AA292">
+        <v>5.5</v>
+      </c>
+      <c r="AB292">
+        <v>1.12</v>
+      </c>
+      <c r="AC292">
+        <v>2.02</v>
+      </c>
+      <c r="AD292">
+        <v>3.7</v>
+      </c>
+      <c r="AE292">
+        <v>3.34</v>
+      </c>
+      <c r="AF292">
+        <v>1.01</v>
+      </c>
+      <c r="AG292">
+        <v>12</v>
+      </c>
+      <c r="AH292">
+        <v>1.17</v>
+      </c>
+      <c r="AI292">
+        <v>4.3</v>
+      </c>
+      <c r="AJ292">
+        <v>1.6</v>
+      </c>
+      <c r="AK292">
+        <v>2.25</v>
+      </c>
+      <c r="AL292">
+        <v>1.59</v>
+      </c>
+      <c r="AM292">
+        <v>2.33</v>
+      </c>
+      <c r="AN292">
+        <v>1.25</v>
+      </c>
+      <c r="AO292">
+        <v>1.28</v>
+      </c>
+      <c r="AP292">
+        <v>1.7</v>
+      </c>
+      <c r="AQ292">
+        <v>2.1</v>
+      </c>
+      <c r="AR292">
+        <v>0.7</v>
+      </c>
+      <c r="AS292">
+        <v>2</v>
+      </c>
+      <c r="AT292">
+        <v>0.73</v>
+      </c>
+      <c r="AU292">
+        <v>1.43</v>
+      </c>
+      <c r="AV292">
+        <v>1.25</v>
+      </c>
+      <c r="AW292">
+        <v>2.68</v>
+      </c>
+      <c r="AX292">
+        <v>0</v>
+      </c>
+      <c r="AY292">
+        <v>0</v>
+      </c>
+      <c r="AZ292">
+        <v>0</v>
+      </c>
+      <c r="BA292">
+        <v>0</v>
+      </c>
+      <c r="BB292">
+        <v>0</v>
+      </c>
+      <c r="BC292">
+        <v>1.83</v>
+      </c>
+      <c r="BD292">
+        <v>0</v>
+      </c>
+      <c r="BE292">
+        <v>0</v>
+      </c>
+      <c r="BF292">
+        <v>4</v>
+      </c>
+      <c r="BG292">
+        <v>8</v>
+      </c>
+      <c r="BH292">
+        <v>7</v>
+      </c>
+      <c r="BI292">
+        <v>3</v>
+      </c>
+      <c r="BJ292">
+        <v>11</v>
+      </c>
+      <c r="BK292">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:63">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>4926232</v>
+      </c>
+      <c r="C293" t="s">
+        <v>63</v>
+      </c>
+      <c r="D293" t="s">
+        <v>64</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45108.97916666666</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293" t="s">
+        <v>76</v>
+      </c>
+      <c r="H293" t="s">
+        <v>92</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>1</v>
+      </c>
+      <c r="O293" t="s">
+        <v>297</v>
+      </c>
+      <c r="P293" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q293">
+        <v>4</v>
+      </c>
+      <c r="R293">
+        <v>1</v>
+      </c>
+      <c r="S293">
+        <v>5</v>
+      </c>
+      <c r="T293">
+        <v>2.47</v>
+      </c>
+      <c r="U293">
+        <v>2.27</v>
+      </c>
+      <c r="V293">
+        <v>5.13</v>
+      </c>
+      <c r="W293">
+        <v>1.35</v>
+      </c>
+      <c r="X293">
+        <v>2.9</v>
+      </c>
+      <c r="Y293">
+        <v>2.7</v>
+      </c>
+      <c r="Z293">
+        <v>1.4</v>
+      </c>
+      <c r="AA293">
+        <v>6.3</v>
+      </c>
+      <c r="AB293">
+        <v>1.08</v>
+      </c>
+      <c r="AC293">
+        <v>1.8</v>
+      </c>
+      <c r="AD293">
+        <v>3.8</v>
+      </c>
+      <c r="AE293">
+        <v>4.06</v>
+      </c>
+      <c r="AF293">
+        <v>1.02</v>
+      </c>
+      <c r="AG293">
+        <v>9.5</v>
+      </c>
+      <c r="AH293">
+        <v>1.25</v>
+      </c>
+      <c r="AI293">
+        <v>3.5</v>
+      </c>
+      <c r="AJ293">
+        <v>1.87</v>
+      </c>
+      <c r="AK293">
+        <v>1.87</v>
+      </c>
+      <c r="AL293">
+        <v>1.91</v>
+      </c>
+      <c r="AM293">
+        <v>1.91</v>
+      </c>
+      <c r="AN293">
+        <v>1.2</v>
+      </c>
+      <c r="AO293">
+        <v>1.27</v>
+      </c>
+      <c r="AP293">
+        <v>1.85</v>
+      </c>
+      <c r="AQ293">
+        <v>1.64</v>
+      </c>
+      <c r="AR293">
+        <v>0.5</v>
+      </c>
+      <c r="AS293">
+        <v>1.75</v>
+      </c>
+      <c r="AT293">
+        <v>0.45</v>
+      </c>
+      <c r="AU293">
+        <v>1.64</v>
+      </c>
+      <c r="AV293">
+        <v>1.32</v>
+      </c>
+      <c r="AW293">
+        <v>2.96</v>
+      </c>
+      <c r="AX293">
+        <v>0</v>
+      </c>
+      <c r="AY293">
+        <v>0</v>
+      </c>
+      <c r="AZ293">
+        <v>0</v>
+      </c>
+      <c r="BA293">
+        <v>0</v>
+      </c>
+      <c r="BB293">
+        <v>0</v>
+      </c>
+      <c r="BC293">
+        <v>0</v>
+      </c>
+      <c r="BD293">
+        <v>0</v>
+      </c>
+      <c r="BE293">
+        <v>0</v>
+      </c>
+      <c r="BF293">
+        <v>6</v>
+      </c>
+      <c r="BG293">
+        <v>3</v>
+      </c>
+      <c r="BH293">
+        <v>3</v>
+      </c>
+      <c r="BI293">
+        <v>3</v>
+      </c>
+      <c r="BJ293">
+        <v>9</v>
+      </c>
+      <c r="BK293">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:63">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>4926233</v>
+      </c>
+      <c r="C294" t="s">
+        <v>63</v>
+      </c>
+      <c r="D294" t="s">
+        <v>64</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45109.70833333334</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294" t="s">
+        <v>66</v>
+      </c>
+      <c r="H294" t="s">
+        <v>72</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>2</v>
+      </c>
+      <c r="O294" t="s">
+        <v>298</v>
+      </c>
+      <c r="P294" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q294">
+        <v>6</v>
+      </c>
+      <c r="R294">
+        <v>3</v>
+      </c>
+      <c r="S294">
+        <v>9</v>
+      </c>
+      <c r="T294">
+        <v>3.13</v>
+      </c>
+      <c r="U294">
+        <v>2.24</v>
+      </c>
+      <c r="V294">
+        <v>3.67</v>
+      </c>
+      <c r="W294">
+        <v>1.37</v>
+      </c>
+      <c r="X294">
+        <v>3.25</v>
+      </c>
+      <c r="Y294">
+        <v>2.64</v>
+      </c>
+      <c r="Z294">
+        <v>1.52</v>
+      </c>
+      <c r="AA294">
+        <v>5.3</v>
+      </c>
+      <c r="AB294">
+        <v>1.12</v>
+      </c>
+      <c r="AC294">
+        <v>1.82</v>
+      </c>
+      <c r="AD294">
+        <v>3.55</v>
+      </c>
+      <c r="AE294">
+        <v>3.85</v>
+      </c>
+      <c r="AF294">
+        <v>1.01</v>
+      </c>
+      <c r="AG294">
+        <v>12</v>
+      </c>
+      <c r="AH294">
+        <v>1.17</v>
+      </c>
+      <c r="AI294">
+        <v>4.3</v>
+      </c>
+      <c r="AJ294">
+        <v>1.65</v>
+      </c>
+      <c r="AK294">
+        <v>2.06</v>
+      </c>
+      <c r="AL294">
+        <v>1.57</v>
+      </c>
+      <c r="AM294">
+        <v>2.3</v>
+      </c>
+      <c r="AN294">
+        <v>1.44</v>
+      </c>
+      <c r="AO294">
+        <v>1.22</v>
+      </c>
+      <c r="AP294">
+        <v>1.62</v>
+      </c>
+      <c r="AQ294">
+        <v>2.1</v>
+      </c>
+      <c r="AR294">
+        <v>1.22</v>
+      </c>
+      <c r="AS294">
+        <v>2.18</v>
+      </c>
+      <c r="AT294">
+        <v>1.1</v>
+      </c>
+      <c r="AU294">
+        <v>1.7</v>
+      </c>
+      <c r="AV294">
+        <v>1.45</v>
+      </c>
+      <c r="AW294">
+        <v>3.15</v>
+      </c>
+      <c r="AX294">
+        <v>0</v>
+      </c>
+      <c r="AY294">
+        <v>0</v>
+      </c>
+      <c r="AZ294">
+        <v>0</v>
+      </c>
+      <c r="BA294">
+        <v>0</v>
+      </c>
+      <c r="BB294">
+        <v>0</v>
+      </c>
+      <c r="BC294">
+        <v>0</v>
+      </c>
+      <c r="BD294">
+        <v>0</v>
+      </c>
+      <c r="BE294">
+        <v>0</v>
+      </c>
+      <c r="BF294">
+        <v>8</v>
+      </c>
+      <c r="BG294">
+        <v>2</v>
+      </c>
+      <c r="BH294">
+        <v>1</v>
+      </c>
+      <c r="BI294">
+        <v>5</v>
+      </c>
+      <c r="BJ294">
+        <v>9</v>
+      </c>
+      <c r="BK294">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="418">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -913,16 +913,43 @@
     <t>['7', '79']</t>
   </si>
   <si>
-    <t>['16', '22', '77', '84']</t>
+    <t>['57', '90']</t>
   </si>
   <si>
-    <t>['57', '90']</t>
+    <t>['16', '22', '77', '84']</t>
   </si>
   <si>
     <t>['26', '73']</t>
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['14', '24']</t>
+  </si>
+  <si>
+    <t>['58', '85']</t>
+  </si>
+  <si>
+    <t>['65', '77']</t>
+  </si>
+  <si>
+    <t>['45+2', '90+8']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['31', '62']</t>
+  </si>
+  <si>
+    <t>['23', '41', '78', '88']</t>
+  </si>
+  <si>
+    <t>['24', '72']</t>
+  </si>
+  <si>
+    <t>['15', '45+1', '76']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -995,9 +1022,6 @@
   </si>
   <si>
     <t>['71']</t>
-  </si>
-  <si>
-    <t>['85']</t>
   </si>
   <si>
     <t>['23', '54', '69', '77']</t>
@@ -1226,6 +1250,24 @@
   </si>
   <si>
     <t>['23', '69']</t>
+  </si>
+  <si>
+    <t>['52', '68']</t>
+  </si>
+  <si>
+    <t>['59', '68']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['25', '62']</t>
+  </si>
+  <si>
+    <t>['35', '45', '51', '90+5']</t>
+  </si>
+  <si>
+    <t>['60', '76', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK299"/>
+  <dimension ref="A1:BK313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1921,7 +1963,7 @@
         <v>2.36</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2022,7 +2064,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -2112,7 +2154,7 @@
         <v>2.18</v>
       </c>
       <c r="AT3">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2300,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT4">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2404,7 +2446,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2595,7 +2637,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2682,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT6">
         <v>0.36</v>
@@ -3168,7 +3210,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3359,7 +3401,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3449,7 +3491,7 @@
         <v>1.64</v>
       </c>
       <c r="AT10">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3550,7 +3592,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3741,7 +3783,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3828,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT12">
         <v>1.82</v>
@@ -4213,7 +4255,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4314,7 +4356,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4401,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT15">
         <v>0.64</v>
@@ -4783,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT17">
         <v>1.17</v>
@@ -4977,7 +5019,7 @@
         <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>2.18</v>
@@ -5356,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT20">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5550,7 +5592,7 @@
         <v>1.58</v>
       </c>
       <c r="AT21">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU21">
         <v>0.93</v>
@@ -5842,7 +5884,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5929,10 +5971,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6502,10 +6544,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT26">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6988,7 +7030,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7075,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT29">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.85</v>
@@ -7266,10 +7308,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT30">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU30">
         <v>2.28</v>
@@ -7460,7 +7502,7 @@
         <v>2.82</v>
       </c>
       <c r="AT31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -7648,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
+        <v>1.45</v>
+      </c>
+      <c r="AT32">
         <v>1.5</v>
-      </c>
-      <c r="AT32">
-        <v>1.67</v>
       </c>
       <c r="AU32">
         <v>1.43</v>
@@ -7842,7 +7884,7 @@
         <v>1.6</v>
       </c>
       <c r="AT33">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -8221,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT35">
         <v>0.9</v>
@@ -8603,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT37">
         <v>0.7</v>
@@ -8898,7 +8940,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8985,10 +9027,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT39">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9089,7 +9131,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9179,7 +9221,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU40">
         <v>1.06</v>
@@ -9558,10 +9600,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT42">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU42">
         <v>1.38</v>
@@ -10044,7 +10086,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10131,10 +10173,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT45">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10325,7 +10367,7 @@
         <v>2.4</v>
       </c>
       <c r="AT46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -10426,7 +10468,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10513,7 +10555,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
         <v>0.9</v>
@@ -10617,7 +10659,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10808,7 +10850,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11086,10 +11128,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT50">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -11190,7 +11232,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11277,10 +11319,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT51">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU51">
         <v>0.99</v>
@@ -11381,7 +11423,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11471,7 +11513,7 @@
         <v>1.82</v>
       </c>
       <c r="AT52">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>1.33</v>
@@ -11659,10 +11701,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT53">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11853,7 +11895,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU54">
         <v>1.38</v>
@@ -11954,7 +11996,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12041,7 +12083,7 @@
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT55">
         <v>1.18</v>
@@ -12232,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT56">
         <v>0.67</v>
@@ -12527,7 +12569,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12617,7 +12659,7 @@
         <v>2.3</v>
       </c>
       <c r="AT58">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>1.5</v>
@@ -12718,7 +12760,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12805,10 +12847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT59">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU59">
         <v>1.59</v>
@@ -12909,7 +12951,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13100,7 +13142,7 @@
         <v>144</v>
       </c>
       <c r="P61" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13187,7 +13229,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT61">
         <v>0.7</v>
@@ -13291,7 +13333,7 @@
         <v>145</v>
       </c>
       <c r="P62" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="Q62">
         <v>8</v>
@@ -13378,10 +13420,10 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT62">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.31</v>
@@ -13482,7 +13524,7 @@
         <v>146</v>
       </c>
       <c r="P63" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13760,10 +13802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT64">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU64">
         <v>1.56</v>
@@ -13864,7 +13906,7 @@
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13954,7 +13996,7 @@
         <v>1.45</v>
       </c>
       <c r="AT65">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU65">
         <v>2.67</v>
@@ -14142,7 +14184,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT66">
         <v>0.67</v>
@@ -14246,7 +14288,7 @@
         <v>96</v>
       </c>
       <c r="P67" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14336,7 +14378,7 @@
         <v>2.36</v>
       </c>
       <c r="AT67">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU67">
         <v>1.3</v>
@@ -14437,7 +14479,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14524,10 +14566,10 @@
         <v>3</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT68">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU68">
         <v>1.9</v>
@@ -14628,7 +14670,7 @@
         <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14715,10 +14757,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT69">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU69">
         <v>1.85</v>
@@ -15010,7 +15052,7 @@
         <v>150</v>
       </c>
       <c r="P71" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q71">
         <v>10</v>
@@ -15097,7 +15139,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
         <v>1.09</v>
@@ -15201,7 +15243,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15291,7 +15333,7 @@
         <v>1.58</v>
       </c>
       <c r="AT72">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU72">
         <v>1.24</v>
@@ -15482,7 +15524,7 @@
         <v>2.4</v>
       </c>
       <c r="AT73">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU73">
         <v>1.3</v>
@@ -15583,7 +15625,7 @@
         <v>118</v>
       </c>
       <c r="P74" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q74">
         <v>13</v>
@@ -15670,10 +15712,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT74">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15861,7 +15903,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT75">
         <v>1.82</v>
@@ -16055,7 +16097,7 @@
         <v>2.82</v>
       </c>
       <c r="AT76">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU76">
         <v>1.31</v>
@@ -16434,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT78">
         <v>1.17</v>
@@ -17010,7 +17052,7 @@
         <v>2.3</v>
       </c>
       <c r="AT81">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -17198,7 +17240,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT82">
         <v>1.2</v>
@@ -17302,7 +17344,7 @@
         <v>155</v>
       </c>
       <c r="P83" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17580,7 +17622,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT84">
         <v>0.45</v>
@@ -17774,7 +17816,7 @@
         <v>1.6</v>
       </c>
       <c r="AT85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>1.58</v>
@@ -18156,7 +18198,7 @@
         <v>1.27</v>
       </c>
       <c r="AT87">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -18344,10 +18386,10 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT88">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU88">
         <v>1.29</v>
@@ -18448,7 +18490,7 @@
         <v>96</v>
       </c>
       <c r="P89" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18535,7 +18577,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT89">
         <v>0.9</v>
@@ -18729,7 +18771,7 @@
         <v>2.82</v>
       </c>
       <c r="AT90">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.26</v>
@@ -18917,10 +18959,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT91">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU91">
         <v>1.97</v>
@@ -19108,7 +19150,7 @@
         <v>3</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT92">
         <v>1.18</v>
@@ -19299,7 +19341,7 @@
         <v>0.67</v>
       </c>
       <c r="AS93">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT93">
         <v>0.73</v>
@@ -19872,7 +19914,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT96">
         <v>1.09</v>
@@ -20066,7 +20108,7 @@
         <v>1.75</v>
       </c>
       <c r="AT97">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU97">
         <v>1.83</v>
@@ -20254,7 +20296,7 @@
         <v>0.33</v>
       </c>
       <c r="AS98">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT98">
         <v>0.64</v>
@@ -20448,7 +20490,7 @@
         <v>1.6</v>
       </c>
       <c r="AT99">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU99">
         <v>1.49</v>
@@ -20636,7 +20678,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT100">
         <v>1.17</v>
@@ -20740,7 +20782,7 @@
         <v>167</v>
       </c>
       <c r="P101" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20827,10 +20869,10 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT101">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>1.25</v>
@@ -20931,7 +20973,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21018,7 +21060,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT102">
         <v>0.82</v>
@@ -21209,10 +21251,10 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT103">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU103">
         <v>1.63</v>
@@ -21400,7 +21442,7 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT104">
         <v>0.45</v>
@@ -21782,10 +21824,10 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU106">
         <v>1.15</v>
@@ -22077,7 +22119,7 @@
         <v>173</v>
       </c>
       <c r="P108" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -22164,10 +22206,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT108">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU108">
         <v>1.02</v>
@@ -22358,7 +22400,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU109">
         <v>1.13</v>
@@ -22549,7 +22591,7 @@
         <v>2</v>
       </c>
       <c r="AT110">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU110">
         <v>1.56</v>
@@ -22650,7 +22692,7 @@
         <v>176</v>
       </c>
       <c r="P111" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22740,7 +22782,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU111">
         <v>1.69</v>
@@ -22841,7 +22883,7 @@
         <v>177</v>
       </c>
       <c r="P112" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22928,7 +22970,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT112">
         <v>1.2</v>
@@ -23119,7 +23161,7 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT113">
         <v>0.9</v>
@@ -23501,7 +23543,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT115">
         <v>0.7</v>
@@ -23605,7 +23647,7 @@
         <v>181</v>
       </c>
       <c r="P116" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23695,7 +23737,7 @@
         <v>2.4</v>
       </c>
       <c r="AT116">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU116">
         <v>1.46</v>
@@ -23796,7 +23838,7 @@
         <v>182</v>
       </c>
       <c r="P117" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23886,7 +23928,7 @@
         <v>1.6</v>
       </c>
       <c r="AT117">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU117">
         <v>1.49</v>
@@ -23987,7 +24029,7 @@
         <v>183</v>
       </c>
       <c r="P118" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -24178,7 +24220,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24456,10 +24498,10 @@
         <v>0</v>
       </c>
       <c r="AS120">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT120">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU120">
         <v>1.28</v>
@@ -24560,7 +24602,7 @@
         <v>185</v>
       </c>
       <c r="P121" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24838,10 +24880,10 @@
         <v>0.33</v>
       </c>
       <c r="AS122">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT122">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -25029,10 +25071,10 @@
         <v>2.25</v>
       </c>
       <c r="AS123">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT123">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -25220,10 +25262,10 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU124">
         <v>1.96</v>
@@ -25796,7 +25838,7 @@
         <v>2.36</v>
       </c>
       <c r="AT127">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU127">
         <v>1.32</v>
@@ -25897,7 +25939,7 @@
         <v>192</v>
       </c>
       <c r="P128" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -25984,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="AS128">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT128">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU128">
         <v>1.75</v>
@@ -26175,7 +26217,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT129">
         <v>1.09</v>
@@ -26369,7 +26411,7 @@
         <v>2.4</v>
       </c>
       <c r="AT130">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU130">
         <v>1.54</v>
@@ -26748,10 +26790,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT132">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU132">
         <v>1.23</v>
@@ -26852,7 +26894,7 @@
         <v>189</v>
       </c>
       <c r="P133" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -27043,7 +27085,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27321,7 +27363,7 @@
         <v>0.4</v>
       </c>
       <c r="AS135">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT135">
         <v>0.7</v>
@@ -27425,7 +27467,7 @@
         <v>197</v>
       </c>
       <c r="P136" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q136">
         <v>11</v>
@@ -27515,7 +27557,7 @@
         <v>1.64</v>
       </c>
       <c r="AT136">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU136">
         <v>1.44</v>
@@ -27703,10 +27745,10 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT137">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU137">
         <v>1.87</v>
@@ -27894,7 +27936,7 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT138">
         <v>0.82</v>
@@ -28085,10 +28127,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT139">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU139">
         <v>1.22</v>
@@ -28276,10 +28318,10 @@
         <v>1.75</v>
       </c>
       <c r="AS140">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT140">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU140">
         <v>1.27</v>
@@ -28571,7 +28613,7 @@
         <v>199</v>
       </c>
       <c r="P142" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28658,10 +28700,10 @@
         <v>0.4</v>
       </c>
       <c r="AS142">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT142">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU142">
         <v>1.33</v>
@@ -29043,7 +29085,7 @@
         <v>1.27</v>
       </c>
       <c r="AT144">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -29231,10 +29273,10 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT145">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU145">
         <v>1.17</v>
@@ -29422,10 +29464,10 @@
         <v>0.25</v>
       </c>
       <c r="AS146">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT146">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU146">
         <v>1.58</v>
@@ -29613,7 +29655,7 @@
         <v>0.75</v>
       </c>
       <c r="AS147">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT147">
         <v>1.82</v>
@@ -29908,7 +29950,7 @@
         <v>170</v>
       </c>
       <c r="P149" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29995,7 +30037,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT149">
         <v>0.82</v>
@@ -30099,7 +30141,7 @@
         <v>204</v>
       </c>
       <c r="P150" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -30186,7 +30228,7 @@
         <v>1.8</v>
       </c>
       <c r="AS150">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT150">
         <v>1.18</v>
@@ -30290,7 +30332,7 @@
         <v>205</v>
       </c>
       <c r="P151" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30380,7 +30422,7 @@
         <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU151">
         <v>1.3</v>
@@ -30481,7 +30523,7 @@
         <v>206</v>
       </c>
       <c r="P152" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30571,7 +30613,7 @@
         <v>1.75</v>
       </c>
       <c r="AT152">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU152">
         <v>1.67</v>
@@ -30759,10 +30801,10 @@
         <v>2</v>
       </c>
       <c r="AS153">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT153">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU153">
         <v>1.16</v>
@@ -30950,10 +30992,10 @@
         <v>0.33</v>
       </c>
       <c r="AS154">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT154">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -31054,7 +31096,7 @@
         <v>208</v>
       </c>
       <c r="P155" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31245,7 +31287,7 @@
         <v>209</v>
       </c>
       <c r="P156" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31332,10 +31374,10 @@
         <v>1.75</v>
       </c>
       <c r="AS156">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT156">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU156">
         <v>1.85</v>
@@ -31436,7 +31478,7 @@
         <v>210</v>
       </c>
       <c r="P157" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31523,10 +31565,10 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT157">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU157">
         <v>1.54</v>
@@ -31717,7 +31759,7 @@
         <v>1.27</v>
       </c>
       <c r="AT158">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU158">
         <v>1.41</v>
@@ -31905,7 +31947,7 @@
         <v>0.6</v>
       </c>
       <c r="AS159">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT159">
         <v>0.36</v>
@@ -32290,7 +32332,7 @@
         <v>1.64</v>
       </c>
       <c r="AT161">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU161">
         <v>1.45</v>
@@ -32391,7 +32433,7 @@
         <v>96</v>
       </c>
       <c r="P162" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32478,10 +32520,10 @@
         <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT162">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU162">
         <v>1.32</v>
@@ -32582,7 +32624,7 @@
         <v>213</v>
       </c>
       <c r="P163" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32669,10 +32711,10 @@
         <v>0.8</v>
       </c>
       <c r="AS163">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT163">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32773,7 +32815,7 @@
         <v>96</v>
       </c>
       <c r="P164" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32860,7 +32902,7 @@
         <v>1.2</v>
       </c>
       <c r="AS164">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT164">
         <v>1.2</v>
@@ -33242,10 +33284,10 @@
         <v>0.4</v>
       </c>
       <c r="AS166">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT166">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU166">
         <v>2</v>
@@ -33436,7 +33478,7 @@
         <v>1.58</v>
       </c>
       <c r="AT167">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU167">
         <v>1.42</v>
@@ -33624,7 +33666,7 @@
         <v>0.5</v>
       </c>
       <c r="AS168">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT168">
         <v>0.7</v>
@@ -33919,7 +33961,7 @@
         <v>217</v>
       </c>
       <c r="P170" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34006,7 +34048,7 @@
         <v>0.75</v>
       </c>
       <c r="AS170">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT170">
         <v>1</v>
@@ -34388,7 +34430,7 @@
         <v>0.4</v>
       </c>
       <c r="AS172">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT172">
         <v>0.73</v>
@@ -34683,7 +34725,7 @@
         <v>220</v>
       </c>
       <c r="P174" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34773,7 +34815,7 @@
         <v>2.36</v>
       </c>
       <c r="AT174">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU174">
         <v>1.55</v>
@@ -34961,7 +35003,7 @@
         <v>0.25</v>
       </c>
       <c r="AS175">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT175">
         <v>0.45</v>
@@ -35256,7 +35298,7 @@
         <v>223</v>
       </c>
       <c r="P177" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35343,10 +35385,10 @@
         <v>0.71</v>
       </c>
       <c r="AS177">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT177">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU177">
         <v>1.99</v>
@@ -35447,7 +35489,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35537,7 +35579,7 @@
         <v>1.75</v>
       </c>
       <c r="AT178">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU178">
         <v>1.6</v>
@@ -35725,7 +35767,7 @@
         <v>0.67</v>
       </c>
       <c r="AS179">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT179">
         <v>0.64</v>
@@ -35829,7 +35871,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35916,7 +35958,7 @@
         <v>0.43</v>
       </c>
       <c r="AS180">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT180">
         <v>0.45</v>
@@ -36110,7 +36152,7 @@
         <v>2.3</v>
       </c>
       <c r="AT181">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU181">
         <v>1.67</v>
@@ -36211,7 +36253,7 @@
         <v>133</v>
       </c>
       <c r="P182" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -36301,7 +36343,7 @@
         <v>1.27</v>
       </c>
       <c r="AT182">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU182">
         <v>1.37</v>
@@ -36489,7 +36531,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT183">
         <v>0.73</v>
@@ -36593,7 +36635,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36784,7 +36826,7 @@
         <v>105</v>
       </c>
       <c r="P185" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36871,10 +36913,10 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT185">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU185">
         <v>1.29</v>
@@ -37166,7 +37208,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37253,10 +37295,10 @@
         <v>0.83</v>
       </c>
       <c r="AS187">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT187">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU187">
         <v>1.19</v>
@@ -37357,7 +37399,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37548,7 +37590,7 @@
         <v>231</v>
       </c>
       <c r="P189" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37635,7 +37677,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT189">
         <v>1.82</v>
@@ -37829,7 +37871,7 @@
         <v>2</v>
       </c>
       <c r="AT190">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU190">
         <v>1.53</v>
@@ -38017,10 +38059,10 @@
         <v>0.33</v>
       </c>
       <c r="AS191">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT191">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU191">
         <v>1.97</v>
@@ -38121,7 +38163,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38399,10 +38441,10 @@
         <v>1.67</v>
       </c>
       <c r="AS193">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT193">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU193">
         <v>2.02</v>
@@ -38503,7 +38545,7 @@
         <v>235</v>
       </c>
       <c r="P194" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q194">
         <v>3</v>
@@ -38590,7 +38632,7 @@
         <v>1.14</v>
       </c>
       <c r="AS194">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT194">
         <v>1.17</v>
@@ -38784,7 +38826,7 @@
         <v>1.58</v>
       </c>
       <c r="AT195">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU195">
         <v>1.42</v>
@@ -38885,7 +38927,7 @@
         <v>236</v>
       </c>
       <c r="P196" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38975,7 +39017,7 @@
         <v>1.6</v>
       </c>
       <c r="AT196">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU196">
         <v>1.54</v>
@@ -39076,7 +39118,7 @@
         <v>237</v>
       </c>
       <c r="P197" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39354,10 +39396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS198">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT198">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU198">
         <v>1.31</v>
@@ -39545,10 +39587,10 @@
         <v>1.17</v>
       </c>
       <c r="AS199">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT199">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU199">
         <v>1.21</v>
@@ -39649,7 +39691,7 @@
         <v>239</v>
       </c>
       <c r="P200" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -39736,7 +39778,7 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT200">
         <v>1.82</v>
@@ -40031,7 +40073,7 @@
         <v>96</v>
       </c>
       <c r="P202" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40118,10 +40160,10 @@
         <v>1.2</v>
       </c>
       <c r="AS202">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT202">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU202">
         <v>1.6</v>
@@ -40222,7 +40264,7 @@
         <v>96</v>
       </c>
       <c r="P203" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40309,7 +40351,7 @@
         <v>1.17</v>
       </c>
       <c r="AS203">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT203">
         <v>1.09</v>
@@ -40503,7 +40545,7 @@
         <v>2</v>
       </c>
       <c r="AT204">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU204">
         <v>1.47</v>
@@ -40795,7 +40837,7 @@
         <v>241</v>
       </c>
       <c r="P206" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -40986,7 +41028,7 @@
         <v>242</v>
       </c>
       <c r="P207" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q207">
         <v>6</v>
@@ -41177,7 +41219,7 @@
         <v>243</v>
       </c>
       <c r="P208" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -41267,7 +41309,7 @@
         <v>2.18</v>
       </c>
       <c r="AT208">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU208">
         <v>1.79</v>
@@ -41368,7 +41410,7 @@
         <v>244</v>
       </c>
       <c r="P209" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41458,7 +41500,7 @@
         <v>1.6</v>
       </c>
       <c r="AT209">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU209">
         <v>1.63</v>
@@ -41837,7 +41879,7 @@
         <v>0.67</v>
       </c>
       <c r="AS211">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT211">
         <v>1</v>
@@ -41941,7 +41983,7 @@
         <v>245</v>
       </c>
       <c r="P212" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -42028,7 +42070,7 @@
         <v>0.38</v>
       </c>
       <c r="AS212">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT212">
         <v>0.45</v>
@@ -42132,7 +42174,7 @@
         <v>246</v>
       </c>
       <c r="P213" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q213">
         <v>7</v>
@@ -42219,7 +42261,7 @@
         <v>1.13</v>
       </c>
       <c r="AS213">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT213">
         <v>0.82</v>
@@ -42705,7 +42747,7 @@
         <v>248</v>
       </c>
       <c r="P216" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q216">
         <v>8</v>
@@ -42792,7 +42834,7 @@
         <v>0.29</v>
       </c>
       <c r="AS216">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT216">
         <v>0.73</v>
@@ -42986,7 +43028,7 @@
         <v>1.45</v>
       </c>
       <c r="AT217">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU217">
         <v>1.69</v>
@@ -43087,7 +43129,7 @@
         <v>96</v>
       </c>
       <c r="P218" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43177,7 +43219,7 @@
         <v>1.75</v>
       </c>
       <c r="AT218">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU218">
         <v>1.57</v>
@@ -43278,7 +43320,7 @@
         <v>250</v>
       </c>
       <c r="P219" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -43365,7 +43407,7 @@
         <v>0.33</v>
       </c>
       <c r="AS219">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT219">
         <v>0.45</v>
@@ -43559,7 +43601,7 @@
         <v>1.6</v>
       </c>
       <c r="AT220">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU220">
         <v>1.63</v>
@@ -44042,7 +44084,7 @@
         <v>96</v>
       </c>
       <c r="P223" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -44129,10 +44171,10 @@
         <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT223">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU223">
         <v>1.62</v>
@@ -44233,7 +44275,7 @@
         <v>187</v>
       </c>
       <c r="P224" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44615,7 +44657,7 @@
         <v>252</v>
       </c>
       <c r="P226" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44702,7 +44744,7 @@
         <v>1.25</v>
       </c>
       <c r="AS226">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT226">
         <v>1.09</v>
@@ -44806,7 +44848,7 @@
         <v>187</v>
       </c>
       <c r="P227" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q227">
         <v>12</v>
@@ -44997,7 +45039,7 @@
         <v>253</v>
       </c>
       <c r="P228" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45087,7 +45129,7 @@
         <v>1.82</v>
       </c>
       <c r="AT228">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU228">
         <v>1.31</v>
@@ -45275,7 +45317,7 @@
         <v>0.43</v>
       </c>
       <c r="AS229">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT229">
         <v>0.36</v>
@@ -45657,10 +45699,10 @@
         <v>0.63</v>
       </c>
       <c r="AS231">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT231">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU231">
         <v>1.58</v>
@@ -45761,7 +45803,7 @@
         <v>111</v>
       </c>
       <c r="P232" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q232">
         <v>4</v>
@@ -45848,10 +45890,10 @@
         <v>0.67</v>
       </c>
       <c r="AS232">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT232">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU232">
         <v>2</v>
@@ -46042,7 +46084,7 @@
         <v>1.82</v>
       </c>
       <c r="AT233">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU233">
         <v>1.33</v>
@@ -46230,10 +46272,10 @@
         <v>0.88</v>
       </c>
       <c r="AS234">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT234">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU234">
         <v>1.99</v>
@@ -46334,7 +46376,7 @@
         <v>256</v>
       </c>
       <c r="P235" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -46421,10 +46463,10 @@
         <v>1.43</v>
       </c>
       <c r="AS235">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT235">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU235">
         <v>1.32</v>
@@ -46612,10 +46654,10 @@
         <v>1.57</v>
       </c>
       <c r="AS236">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT236">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU236">
         <v>1.52</v>
@@ -46907,7 +46949,7 @@
         <v>258</v>
       </c>
       <c r="P238" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -46997,7 +47039,7 @@
         <v>2.4</v>
       </c>
       <c r="AT238">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU238">
         <v>1.57</v>
@@ -47185,7 +47227,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT239">
         <v>1.18</v>
@@ -47567,7 +47609,7 @@
         <v>1.5</v>
       </c>
       <c r="AS241">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT241">
         <v>1.2</v>
@@ -47671,7 +47713,7 @@
         <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -47758,7 +47800,7 @@
         <v>0.57</v>
       </c>
       <c r="AS242">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT242">
         <v>0.9</v>
@@ -47862,7 +47904,7 @@
         <v>262</v>
       </c>
       <c r="P243" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q243">
         <v>2</v>
@@ -47952,7 +47994,7 @@
         <v>1.45</v>
       </c>
       <c r="AT243">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU243">
         <v>1.72</v>
@@ -48140,10 +48182,10 @@
         <v>0.38</v>
       </c>
       <c r="AS244">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT244">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU244">
         <v>1.94</v>
@@ -48331,10 +48373,10 @@
         <v>1.71</v>
       </c>
       <c r="AS245">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT245">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU245">
         <v>1.89</v>
@@ -48525,7 +48567,7 @@
         <v>2</v>
       </c>
       <c r="AT246">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU246">
         <v>1.41</v>
@@ -48626,7 +48668,7 @@
         <v>264</v>
       </c>
       <c r="P247" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="Q247">
         <v>7</v>
@@ -48907,7 +48949,7 @@
         <v>1.5</v>
       </c>
       <c r="AT248">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU248">
         <v>1.53</v>
@@ -49095,7 +49137,7 @@
         <v>0.25</v>
       </c>
       <c r="AS249">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT249">
         <v>0.45</v>
@@ -49199,7 +49241,7 @@
         <v>265</v>
       </c>
       <c r="P250" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q250">
         <v>2</v>
@@ -49390,7 +49432,7 @@
         <v>230</v>
       </c>
       <c r="P251" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q251">
         <v>4</v>
@@ -49477,7 +49519,7 @@
         <v>1.38</v>
       </c>
       <c r="AS251">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT251">
         <v>1.82</v>
@@ -49671,7 +49713,7 @@
         <v>2.4</v>
       </c>
       <c r="AT252">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU252">
         <v>1.53</v>
@@ -49772,7 +49814,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q253">
         <v>8</v>
@@ -49963,7 +50005,7 @@
         <v>267</v>
       </c>
       <c r="P254" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50053,7 +50095,7 @@
         <v>2.36</v>
       </c>
       <c r="AT254">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU254">
         <v>1.66</v>
@@ -50345,7 +50387,7 @@
         <v>268</v>
       </c>
       <c r="P256" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50435,7 +50477,7 @@
         <v>1.58</v>
       </c>
       <c r="AT256">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU256">
         <v>1.52</v>
@@ -50536,7 +50578,7 @@
         <v>269</v>
       </c>
       <c r="P257" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q257">
         <v>6</v>
@@ -50623,7 +50665,7 @@
         <v>1.11</v>
       </c>
       <c r="AS257">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT257">
         <v>1.09</v>
@@ -50814,10 +50856,10 @@
         <v>1.5</v>
       </c>
       <c r="AS258">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT258">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU258">
         <v>1.37</v>
@@ -50918,7 +50960,7 @@
         <v>271</v>
       </c>
       <c r="P259" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51008,7 +51050,7 @@
         <v>2.18</v>
       </c>
       <c r="AT259">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU259">
         <v>1.76</v>
@@ -51300,7 +51342,7 @@
         <v>273</v>
       </c>
       <c r="P261" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q261">
         <v>1</v>
@@ -51387,10 +51429,10 @@
         <v>0.67</v>
       </c>
       <c r="AS261">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AT261">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU261">
         <v>1.33</v>
@@ -51491,7 +51533,7 @@
         <v>274</v>
       </c>
       <c r="P262" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q262">
         <v>4</v>
@@ -51769,10 +51811,10 @@
         <v>1.38</v>
       </c>
       <c r="AS263">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT263">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU263">
         <v>1.98</v>
@@ -51873,7 +51915,7 @@
         <v>276</v>
       </c>
       <c r="P264" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q264">
         <v>6</v>
@@ -51960,10 +52002,10 @@
         <v>0.7</v>
       </c>
       <c r="AS264">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT264">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU264">
         <v>1.93</v>
@@ -52345,7 +52387,7 @@
         <v>1.64</v>
       </c>
       <c r="AT266">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU266">
         <v>1.5</v>
@@ -52446,7 +52488,7 @@
         <v>279</v>
       </c>
       <c r="P267" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q267">
         <v>3</v>
@@ -52637,7 +52679,7 @@
         <v>280</v>
       </c>
       <c r="P268" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q268">
         <v>2</v>
@@ -52727,7 +52769,7 @@
         <v>2.3</v>
       </c>
       <c r="AT268">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AU268">
         <v>1.74</v>
@@ -52915,10 +52957,10 @@
         <v>1.63</v>
       </c>
       <c r="AS269">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT269">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU269">
         <v>1.49</v>
@@ -53106,10 +53148,10 @@
         <v>1.33</v>
       </c>
       <c r="AS270">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT270">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU270">
         <v>1.94</v>
@@ -53297,10 +53339,10 @@
         <v>0.89</v>
       </c>
       <c r="AS271">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT271">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU271">
         <v>1.58</v>
@@ -53488,7 +53530,7 @@
         <v>0.4</v>
       </c>
       <c r="AS272">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT272">
         <v>0.45</v>
@@ -54061,7 +54103,7 @@
         <v>0.67</v>
       </c>
       <c r="AS275">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT275">
         <v>0.73</v>
@@ -54165,7 +54207,7 @@
         <v>285</v>
       </c>
       <c r="P276" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q276">
         <v>7</v>
@@ -54252,7 +54294,7 @@
         <v>1.2</v>
       </c>
       <c r="AS276">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT276">
         <v>1.18</v>
@@ -54356,7 +54398,7 @@
         <v>286</v>
       </c>
       <c r="P277" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -54443,7 +54485,7 @@
         <v>0.43</v>
       </c>
       <c r="AS277">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT277">
         <v>0.67</v>
@@ -54637,7 +54679,7 @@
         <v>1.75</v>
       </c>
       <c r="AT278">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU278">
         <v>1.66</v>
@@ -54738,7 +54780,7 @@
         <v>287</v>
       </c>
       <c r="P279" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q279">
         <v>6</v>
@@ -54828,7 +54870,7 @@
         <v>2</v>
       </c>
       <c r="AT279">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU279">
         <v>1.38</v>
@@ -54929,7 +54971,7 @@
         <v>213</v>
       </c>
       <c r="P280" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -55019,7 +55061,7 @@
         <v>1.5</v>
       </c>
       <c r="AT280">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU280">
         <v>1.61</v>
@@ -55120,7 +55162,7 @@
         <v>287</v>
       </c>
       <c r="P281" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q281">
         <v>2</v>
@@ -55210,7 +55252,7 @@
         <v>1.27</v>
       </c>
       <c r="AT281">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU281">
         <v>1.25</v>
@@ -55398,7 +55440,7 @@
         <v>0.78</v>
       </c>
       <c r="AS282">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT282">
         <v>0.7</v>
@@ -55502,7 +55544,7 @@
         <v>289</v>
       </c>
       <c r="P283" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q283">
         <v>12</v>
@@ -55592,7 +55634,7 @@
         <v>2.82</v>
       </c>
       <c r="AT283">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU283">
         <v>1.32</v>
@@ -55971,7 +56013,7 @@
         <v>1.7</v>
       </c>
       <c r="AS285">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT285">
         <v>1.82</v>
@@ -56544,7 +56586,7 @@
         <v>0.7</v>
       </c>
       <c r="AS288">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT288">
         <v>0.64</v>
@@ -57030,7 +57072,7 @@
         <v>96</v>
       </c>
       <c r="P291" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q291">
         <v>10</v>
@@ -57117,10 +57159,10 @@
         <v>0.55</v>
       </c>
       <c r="AS291">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT291">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU291">
         <v>1.4</v>
@@ -57221,7 +57263,7 @@
         <v>296</v>
       </c>
       <c r="P292" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q292">
         <v>7</v>
@@ -57693,7 +57735,7 @@
         <v>2.18</v>
       </c>
       <c r="AT294">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU294">
         <v>1.7</v>
@@ -57752,7 +57794,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>4926235</v>
+        <v>4926234</v>
       </c>
       <c r="C295" t="s">
         <v>63</v>
@@ -57767,25 +57809,25 @@
         <v>0</v>
       </c>
       <c r="G295" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H295" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N295">
         <v>4</v>
@@ -57794,148 +57836,148 @@
         <v>299</v>
       </c>
       <c r="P295" t="s">
-        <v>96</v>
+        <v>411</v>
       </c>
       <c r="Q295">
+        <v>2</v>
+      </c>
+      <c r="R295">
+        <v>5</v>
+      </c>
+      <c r="S295">
+        <v>7</v>
+      </c>
+      <c r="T295">
+        <v>3.1</v>
+      </c>
+      <c r="U295">
+        <v>2.25</v>
+      </c>
+      <c r="V295">
+        <v>3.2</v>
+      </c>
+      <c r="W295">
+        <v>1.33</v>
+      </c>
+      <c r="X295">
+        <v>3.25</v>
+      </c>
+      <c r="Y295">
+        <v>2.63</v>
+      </c>
+      <c r="Z295">
+        <v>1.44</v>
+      </c>
+      <c r="AA295">
+        <v>6.5</v>
+      </c>
+      <c r="AB295">
+        <v>1.11</v>
+      </c>
+      <c r="AC295">
+        <v>2.2</v>
+      </c>
+      <c r="AD295">
+        <v>3.6</v>
+      </c>
+      <c r="AE295">
+        <v>2.9</v>
+      </c>
+      <c r="AF295">
+        <v>1.03</v>
+      </c>
+      <c r="AG295">
+        <v>16</v>
+      </c>
+      <c r="AH295">
+        <v>1.19</v>
+      </c>
+      <c r="AI295">
+        <v>4.33</v>
+      </c>
+      <c r="AJ295">
+        <v>1.67</v>
+      </c>
+      <c r="AK295">
+        <v>2.1</v>
+      </c>
+      <c r="AL295">
+        <v>1.57</v>
+      </c>
+      <c r="AM295">
+        <v>2.25</v>
+      </c>
+      <c r="AN295">
+        <v>1.65</v>
+      </c>
+      <c r="AO295">
+        <v>1.31</v>
+      </c>
+      <c r="AP295">
+        <v>1.42</v>
+      </c>
+      <c r="AQ295">
+        <v>1.3</v>
+      </c>
+      <c r="AR295">
+        <v>0.89</v>
+      </c>
+      <c r="AS295">
+        <v>1.27</v>
+      </c>
+      <c r="AT295">
+        <v>0.9</v>
+      </c>
+      <c r="AU295">
+        <v>1.31</v>
+      </c>
+      <c r="AV295">
+        <v>1.36</v>
+      </c>
+      <c r="AW295">
+        <v>2.67</v>
+      </c>
+      <c r="AX295">
+        <v>2.5</v>
+      </c>
+      <c r="AY295">
+        <v>6.5</v>
+      </c>
+      <c r="AZ295">
+        <v>1.83</v>
+      </c>
+      <c r="BA295">
+        <v>1.47</v>
+      </c>
+      <c r="BB295">
+        <v>1.78</v>
+      </c>
+      <c r="BC295">
+        <v>2.22</v>
+      </c>
+      <c r="BD295">
+        <v>2.93</v>
+      </c>
+      <c r="BE295">
+        <v>4.2</v>
+      </c>
+      <c r="BF295">
+        <v>6</v>
+      </c>
+      <c r="BG295">
+        <v>5</v>
+      </c>
+      <c r="BH295">
+        <v>2</v>
+      </c>
+      <c r="BI295">
+        <v>7</v>
+      </c>
+      <c r="BJ295">
         <v>8</v>
       </c>
-      <c r="R295">
-        <v>2</v>
-      </c>
-      <c r="S295">
-        <v>10</v>
-      </c>
-      <c r="T295">
-        <v>2.63</v>
-      </c>
-      <c r="U295">
-        <v>2.2</v>
-      </c>
-      <c r="V295">
-        <v>4.33</v>
-      </c>
-      <c r="W295">
-        <v>1.4</v>
-      </c>
-      <c r="X295">
-        <v>2.75</v>
-      </c>
-      <c r="Y295">
-        <v>2.75</v>
-      </c>
-      <c r="Z295">
-        <v>1.4</v>
-      </c>
-      <c r="AA295">
-        <v>8</v>
-      </c>
-      <c r="AB295">
-        <v>1.08</v>
-      </c>
-      <c r="AC295">
-        <v>2</v>
-      </c>
-      <c r="AD295">
-        <v>3.5</v>
-      </c>
-      <c r="AE295">
-        <v>3.6</v>
-      </c>
-      <c r="AF295">
-        <v>1.01</v>
-      </c>
-      <c r="AG295">
-        <v>10.5</v>
-      </c>
-      <c r="AH295">
-        <v>1.16</v>
-      </c>
-      <c r="AI295">
-        <v>4.5</v>
-      </c>
-      <c r="AJ295">
-        <v>1.85</v>
-      </c>
-      <c r="AK295">
-        <v>1.85</v>
-      </c>
-      <c r="AL295">
-        <v>1.8</v>
-      </c>
-      <c r="AM295">
-        <v>1.95</v>
-      </c>
-      <c r="AN295">
-        <v>1.1</v>
-      </c>
-      <c r="AO295">
-        <v>1.18</v>
-      </c>
-      <c r="AP295">
-        <v>2.76</v>
-      </c>
-      <c r="AQ295">
-        <v>1.45</v>
-      </c>
-      <c r="AR295">
-        <v>0.4</v>
-      </c>
-      <c r="AS295">
-        <v>1.58</v>
-      </c>
-      <c r="AT295">
-        <v>0.36</v>
-      </c>
-      <c r="AU295">
-        <v>1.54</v>
-      </c>
-      <c r="AV295">
-        <v>1.09</v>
-      </c>
-      <c r="AW295">
-        <v>2.63</v>
-      </c>
-      <c r="AX295">
-        <v>1.32</v>
-      </c>
-      <c r="AY295">
-        <v>7</v>
-      </c>
-      <c r="AZ295">
-        <v>4.25</v>
-      </c>
-      <c r="BA295">
-        <v>1.25</v>
-      </c>
-      <c r="BB295">
-        <v>1.47</v>
-      </c>
-      <c r="BC295">
-        <v>1.83</v>
-      </c>
-      <c r="BD295">
-        <v>2.45</v>
-      </c>
-      <c r="BE295">
-        <v>3.4</v>
-      </c>
-      <c r="BF295">
-        <v>10</v>
-      </c>
-      <c r="BG295">
-        <v>0</v>
-      </c>
-      <c r="BH295">
-        <v>5</v>
-      </c>
-      <c r="BI295">
-        <v>5</v>
-      </c>
-      <c r="BJ295">
-        <v>15</v>
-      </c>
       <c r="BK295">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:63">
@@ -57943,7 +57985,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>4926234</v>
+        <v>4926235</v>
       </c>
       <c r="C296" t="s">
         <v>63</v>
@@ -57958,25 +58000,25 @@
         <v>0</v>
       </c>
       <c r="G296" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H296" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N296">
         <v>4</v>
@@ -57985,148 +58027,148 @@
         <v>300</v>
       </c>
       <c r="P296" t="s">
-        <v>403</v>
+        <v>96</v>
       </c>
       <c r="Q296">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R296">
+        <v>2</v>
+      </c>
+      <c r="S296">
+        <v>10</v>
+      </c>
+      <c r="T296">
+        <v>2.63</v>
+      </c>
+      <c r="U296">
+        <v>2.2</v>
+      </c>
+      <c r="V296">
+        <v>4.33</v>
+      </c>
+      <c r="W296">
+        <v>1.4</v>
+      </c>
+      <c r="X296">
+        <v>2.75</v>
+      </c>
+      <c r="Y296">
+        <v>2.75</v>
+      </c>
+      <c r="Z296">
+        <v>1.4</v>
+      </c>
+      <c r="AA296">
+        <v>8</v>
+      </c>
+      <c r="AB296">
+        <v>1.08</v>
+      </c>
+      <c r="AC296">
+        <v>2</v>
+      </c>
+      <c r="AD296">
+        <v>3.5</v>
+      </c>
+      <c r="AE296">
+        <v>3.6</v>
+      </c>
+      <c r="AF296">
+        <v>1.01</v>
+      </c>
+      <c r="AG296">
+        <v>10.5</v>
+      </c>
+      <c r="AH296">
+        <v>1.16</v>
+      </c>
+      <c r="AI296">
+        <v>4.5</v>
+      </c>
+      <c r="AJ296">
+        <v>1.85</v>
+      </c>
+      <c r="AK296">
+        <v>1.85</v>
+      </c>
+      <c r="AL296">
+        <v>1.8</v>
+      </c>
+      <c r="AM296">
+        <v>1.95</v>
+      </c>
+      <c r="AN296">
+        <v>1.1</v>
+      </c>
+      <c r="AO296">
+        <v>1.18</v>
+      </c>
+      <c r="AP296">
+        <v>2.76</v>
+      </c>
+      <c r="AQ296">
+        <v>1.45</v>
+      </c>
+      <c r="AR296">
+        <v>0.4</v>
+      </c>
+      <c r="AS296">
+        <v>1.58</v>
+      </c>
+      <c r="AT296">
+        <v>0.36</v>
+      </c>
+      <c r="AU296">
+        <v>1.54</v>
+      </c>
+      <c r="AV296">
+        <v>1.09</v>
+      </c>
+      <c r="AW296">
+        <v>2.63</v>
+      </c>
+      <c r="AX296">
+        <v>1.32</v>
+      </c>
+      <c r="AY296">
+        <v>7</v>
+      </c>
+      <c r="AZ296">
+        <v>4.25</v>
+      </c>
+      <c r="BA296">
+        <v>1.25</v>
+      </c>
+      <c r="BB296">
+        <v>1.47</v>
+      </c>
+      <c r="BC296">
+        <v>1.83</v>
+      </c>
+      <c r="BD296">
+        <v>2.45</v>
+      </c>
+      <c r="BE296">
+        <v>3.4</v>
+      </c>
+      <c r="BF296">
+        <v>10</v>
+      </c>
+      <c r="BG296">
+        <v>0</v>
+      </c>
+      <c r="BH296">
         <v>5</v>
       </c>
-      <c r="S296">
-        <v>7</v>
-      </c>
-      <c r="T296">
-        <v>3.1</v>
-      </c>
-      <c r="U296">
-        <v>2.25</v>
-      </c>
-      <c r="V296">
-        <v>3.2</v>
-      </c>
-      <c r="W296">
-        <v>1.33</v>
-      </c>
-      <c r="X296">
-        <v>3.25</v>
-      </c>
-      <c r="Y296">
-        <v>2.63</v>
-      </c>
-      <c r="Z296">
-        <v>1.44</v>
-      </c>
-      <c r="AA296">
-        <v>6.5</v>
-      </c>
-      <c r="AB296">
-        <v>1.11</v>
-      </c>
-      <c r="AC296">
-        <v>2.2</v>
-      </c>
-      <c r="AD296">
-        <v>3.6</v>
-      </c>
-      <c r="AE296">
-        <v>2.9</v>
-      </c>
-      <c r="AF296">
-        <v>1.03</v>
-      </c>
-      <c r="AG296">
-        <v>16</v>
-      </c>
-      <c r="AH296">
-        <v>1.19</v>
-      </c>
-      <c r="AI296">
-        <v>4.33</v>
-      </c>
-      <c r="AJ296">
-        <v>1.67</v>
-      </c>
-      <c r="AK296">
-        <v>2.1</v>
-      </c>
-      <c r="AL296">
-        <v>1.57</v>
-      </c>
-      <c r="AM296">
-        <v>2.25</v>
-      </c>
-      <c r="AN296">
-        <v>1.65</v>
-      </c>
-      <c r="AO296">
-        <v>1.31</v>
-      </c>
-      <c r="AP296">
-        <v>1.42</v>
-      </c>
-      <c r="AQ296">
-        <v>1.3</v>
-      </c>
-      <c r="AR296">
-        <v>0.89</v>
-      </c>
-      <c r="AS296">
-        <v>1.27</v>
-      </c>
-      <c r="AT296">
-        <v>0.9</v>
-      </c>
-      <c r="AU296">
-        <v>1.31</v>
-      </c>
-      <c r="AV296">
-        <v>1.36</v>
-      </c>
-      <c r="AW296">
-        <v>2.67</v>
-      </c>
-      <c r="AX296">
-        <v>2.5</v>
-      </c>
-      <c r="AY296">
-        <v>6.5</v>
-      </c>
-      <c r="AZ296">
-        <v>1.83</v>
-      </c>
-      <c r="BA296">
-        <v>1.47</v>
-      </c>
-      <c r="BB296">
-        <v>1.78</v>
-      </c>
-      <c r="BC296">
-        <v>2.22</v>
-      </c>
-      <c r="BD296">
-        <v>2.93</v>
-      </c>
-      <c r="BE296">
-        <v>4.2</v>
-      </c>
-      <c r="BF296">
-        <v>6</v>
-      </c>
-      <c r="BG296">
+      <c r="BI296">
         <v>5</v>
       </c>
-      <c r="BH296">
-        <v>2</v>
-      </c>
-      <c r="BI296">
-        <v>7</v>
-      </c>
       <c r="BJ296">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BK296">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:63">
@@ -58176,7 +58218,7 @@
         <v>96</v>
       </c>
       <c r="P297" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -58454,7 +58496,7 @@
         <v>1.33</v>
       </c>
       <c r="AS298">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT298">
         <v>1.2</v>
@@ -58700,6 +58742,2680 @@
       </c>
       <c r="BK299">
         <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:63">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>4926240</v>
+      </c>
+      <c r="C300" t="s">
+        <v>63</v>
+      </c>
+      <c r="D300" t="s">
+        <v>64</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45115.85416666666</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300" t="s">
+        <v>67</v>
+      </c>
+      <c r="H300" t="s">
+        <v>68</v>
+      </c>
+      <c r="I300">
+        <v>2</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>2</v>
+      </c>
+      <c r="L300">
+        <v>2</v>
+      </c>
+      <c r="M300">
+        <v>2</v>
+      </c>
+      <c r="N300">
+        <v>4</v>
+      </c>
+      <c r="O300" t="s">
+        <v>303</v>
+      </c>
+      <c r="P300" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q300">
+        <v>3</v>
+      </c>
+      <c r="R300">
+        <v>4</v>
+      </c>
+      <c r="S300">
+        <v>7</v>
+      </c>
+      <c r="T300">
+        <v>2.7</v>
+      </c>
+      <c r="U300">
+        <v>2.15</v>
+      </c>
+      <c r="V300">
+        <v>3.5</v>
+      </c>
+      <c r="W300">
+        <v>1.35</v>
+      </c>
+      <c r="X300">
+        <v>2.95</v>
+      </c>
+      <c r="Y300">
+        <v>2.55</v>
+      </c>
+      <c r="Z300">
+        <v>1.44</v>
+      </c>
+      <c r="AA300">
+        <v>6.25</v>
+      </c>
+      <c r="AB300">
+        <v>1.1</v>
+      </c>
+      <c r="AC300">
+        <v>2.06</v>
+      </c>
+      <c r="AD300">
+        <v>3.45</v>
+      </c>
+      <c r="AE300">
+        <v>2.82</v>
+      </c>
+      <c r="AF300">
+        <v>1.04</v>
+      </c>
+      <c r="AG300">
+        <v>12</v>
+      </c>
+      <c r="AH300">
+        <v>1.28</v>
+      </c>
+      <c r="AI300">
+        <v>3.75</v>
+      </c>
+      <c r="AJ300">
+        <v>1.86</v>
+      </c>
+      <c r="AK300">
+        <v>2.02</v>
+      </c>
+      <c r="AL300">
+        <v>1.65</v>
+      </c>
+      <c r="AM300">
+        <v>2.1</v>
+      </c>
+      <c r="AN300">
+        <v>1.35</v>
+      </c>
+      <c r="AO300">
+        <v>1.28</v>
+      </c>
+      <c r="AP300">
+        <v>1.65</v>
+      </c>
+      <c r="AQ300">
+        <v>1.3</v>
+      </c>
+      <c r="AR300">
+        <v>1.44</v>
+      </c>
+      <c r="AS300">
+        <v>1.27</v>
+      </c>
+      <c r="AT300">
+        <v>1.4</v>
+      </c>
+      <c r="AU300">
+        <v>1.31</v>
+      </c>
+      <c r="AV300">
+        <v>1.45</v>
+      </c>
+      <c r="AW300">
+        <v>2.76</v>
+      </c>
+      <c r="AX300">
+        <v>1.55</v>
+      </c>
+      <c r="AY300">
+        <v>6</v>
+      </c>
+      <c r="AZ300">
+        <v>3</v>
+      </c>
+      <c r="BA300">
+        <v>1.26</v>
+      </c>
+      <c r="BB300">
+        <v>1.57</v>
+      </c>
+      <c r="BC300">
+        <v>1.93</v>
+      </c>
+      <c r="BD300">
+        <v>2.37</v>
+      </c>
+      <c r="BE300">
+        <v>3.5</v>
+      </c>
+      <c r="BF300">
+        <v>4</v>
+      </c>
+      <c r="BG300">
+        <v>5</v>
+      </c>
+      <c r="BH300">
+        <v>4</v>
+      </c>
+      <c r="BI300">
+        <v>3</v>
+      </c>
+      <c r="BJ300">
+        <v>8</v>
+      </c>
+      <c r="BK300">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:63">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>4926247</v>
+      </c>
+      <c r="C301" t="s">
+        <v>63</v>
+      </c>
+      <c r="D301" t="s">
+        <v>64</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45115.85416666666</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301" t="s">
+        <v>81</v>
+      </c>
+      <c r="H301" t="s">
+        <v>80</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>2</v>
+      </c>
+      <c r="M301">
+        <v>1</v>
+      </c>
+      <c r="N301">
+        <v>3</v>
+      </c>
+      <c r="O301" t="s">
+        <v>304</v>
+      </c>
+      <c r="P301" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q301">
+        <v>9</v>
+      </c>
+      <c r="R301">
+        <v>5</v>
+      </c>
+      <c r="S301">
+        <v>14</v>
+      </c>
+      <c r="T301">
+        <v>2.5</v>
+      </c>
+      <c r="U301">
+        <v>2.2</v>
+      </c>
+      <c r="V301">
+        <v>4.5</v>
+      </c>
+      <c r="W301">
+        <v>1.4</v>
+      </c>
+      <c r="X301">
+        <v>2.75</v>
+      </c>
+      <c r="Y301">
+        <v>3</v>
+      </c>
+      <c r="Z301">
+        <v>1.36</v>
+      </c>
+      <c r="AA301">
+        <v>8</v>
+      </c>
+      <c r="AB301">
+        <v>1.08</v>
+      </c>
+      <c r="AC301">
+        <v>1.84</v>
+      </c>
+      <c r="AD301">
+        <v>3.62</v>
+      </c>
+      <c r="AE301">
+        <v>4.46</v>
+      </c>
+      <c r="AF301">
+        <v>1.05</v>
+      </c>
+      <c r="AG301">
+        <v>10</v>
+      </c>
+      <c r="AH301">
+        <v>1.36</v>
+      </c>
+      <c r="AI301">
+        <v>3.2</v>
+      </c>
+      <c r="AJ301">
+        <v>2.03</v>
+      </c>
+      <c r="AK301">
+        <v>1.81</v>
+      </c>
+      <c r="AL301">
+        <v>1.91</v>
+      </c>
+      <c r="AM301">
+        <v>1.91</v>
+      </c>
+      <c r="AN301">
+        <v>1.25</v>
+      </c>
+      <c r="AO301">
+        <v>1.25</v>
+      </c>
+      <c r="AP301">
+        <v>1.9</v>
+      </c>
+      <c r="AQ301">
+        <v>1.6</v>
+      </c>
+      <c r="AR301">
+        <v>1.3</v>
+      </c>
+      <c r="AS301">
+        <v>1.73</v>
+      </c>
+      <c r="AT301">
+        <v>1.18</v>
+      </c>
+      <c r="AU301">
+        <v>1.56</v>
+      </c>
+      <c r="AV301">
+        <v>1.28</v>
+      </c>
+      <c r="AW301">
+        <v>2.84</v>
+      </c>
+      <c r="AX301">
+        <v>1.37</v>
+      </c>
+      <c r="AY301">
+        <v>9</v>
+      </c>
+      <c r="AZ301">
+        <v>3.83</v>
+      </c>
+      <c r="BA301">
+        <v>1.26</v>
+      </c>
+      <c r="BB301">
+        <v>1.57</v>
+      </c>
+      <c r="BC301">
+        <v>1.93</v>
+      </c>
+      <c r="BD301">
+        <v>2.38</v>
+      </c>
+      <c r="BE301">
+        <v>3.2</v>
+      </c>
+      <c r="BF301">
+        <v>8</v>
+      </c>
+      <c r="BG301">
+        <v>4</v>
+      </c>
+      <c r="BH301">
+        <v>7</v>
+      </c>
+      <c r="BI301">
+        <v>5</v>
+      </c>
+      <c r="BJ301">
+        <v>15</v>
+      </c>
+      <c r="BK301">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:63">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>4926241</v>
+      </c>
+      <c r="C302" t="s">
+        <v>63</v>
+      </c>
+      <c r="D302" t="s">
+        <v>64</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45115.85416666666</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302" t="s">
+        <v>79</v>
+      </c>
+      <c r="H302" t="s">
+        <v>86</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302">
+        <v>1</v>
+      </c>
+      <c r="N302">
+        <v>2</v>
+      </c>
+      <c r="O302" t="s">
+        <v>265</v>
+      </c>
+      <c r="P302" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q302">
+        <v>3</v>
+      </c>
+      <c r="R302">
+        <v>6</v>
+      </c>
+      <c r="S302">
+        <v>9</v>
+      </c>
+      <c r="T302">
+        <v>2.2</v>
+      </c>
+      <c r="U302">
+        <v>2.15</v>
+      </c>
+      <c r="V302">
+        <v>4.8</v>
+      </c>
+      <c r="W302">
+        <v>1.4</v>
+      </c>
+      <c r="X302">
+        <v>2.75</v>
+      </c>
+      <c r="Y302">
+        <v>2.7</v>
+      </c>
+      <c r="Z302">
+        <v>1.4</v>
+      </c>
+      <c r="AA302">
+        <v>6.5</v>
+      </c>
+      <c r="AB302">
+        <v>1.08</v>
+      </c>
+      <c r="AC302">
+        <v>1.63</v>
+      </c>
+      <c r="AD302">
+        <v>3.61</v>
+      </c>
+      <c r="AE302">
+        <v>4.15</v>
+      </c>
+      <c r="AF302">
+        <v>1.02</v>
+      </c>
+      <c r="AG302">
+        <v>9.5</v>
+      </c>
+      <c r="AH302">
+        <v>1.25</v>
+      </c>
+      <c r="AI302">
+        <v>3.5</v>
+      </c>
+      <c r="AJ302">
+        <v>1.8</v>
+      </c>
+      <c r="AK302">
+        <v>1.8</v>
+      </c>
+      <c r="AL302">
+        <v>1.75</v>
+      </c>
+      <c r="AM302">
+        <v>1.95</v>
+      </c>
+      <c r="AN302">
+        <v>1.12</v>
+      </c>
+      <c r="AO302">
+        <v>1.25</v>
+      </c>
+      <c r="AP302">
+        <v>2.1</v>
+      </c>
+      <c r="AQ302">
+        <v>2.36</v>
+      </c>
+      <c r="AR302">
+        <v>0.75</v>
+      </c>
+      <c r="AS302">
+        <v>2.25</v>
+      </c>
+      <c r="AT302">
+        <v>0.77</v>
+      </c>
+      <c r="AU302">
+        <v>1.81</v>
+      </c>
+      <c r="AV302">
+        <v>1.06</v>
+      </c>
+      <c r="AW302">
+        <v>2.87</v>
+      </c>
+      <c r="AX302">
+        <v>1.28</v>
+      </c>
+      <c r="AY302">
+        <v>7</v>
+      </c>
+      <c r="AZ302">
+        <v>4.6</v>
+      </c>
+      <c r="BA302">
+        <v>1.29</v>
+      </c>
+      <c r="BB302">
+        <v>1.6</v>
+      </c>
+      <c r="BC302">
+        <v>1.97</v>
+      </c>
+      <c r="BD302">
+        <v>2.45</v>
+      </c>
+      <c r="BE302">
+        <v>3.75</v>
+      </c>
+      <c r="BF302">
+        <v>6</v>
+      </c>
+      <c r="BG302">
+        <v>10</v>
+      </c>
+      <c r="BH302">
+        <v>5</v>
+      </c>
+      <c r="BI302">
+        <v>4</v>
+      </c>
+      <c r="BJ302">
+        <v>11</v>
+      </c>
+      <c r="BK302">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:63">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>4926248</v>
+      </c>
+      <c r="C303" t="s">
+        <v>63</v>
+      </c>
+      <c r="D303" t="s">
+        <v>64</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45115.85416666666</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303" t="s">
+        <v>87</v>
+      </c>
+      <c r="H303" t="s">
+        <v>83</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303" t="s">
+        <v>96</v>
+      </c>
+      <c r="P303" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q303">
+        <v>5</v>
+      </c>
+      <c r="R303">
+        <v>7</v>
+      </c>
+      <c r="S303">
+        <v>12</v>
+      </c>
+      <c r="T303">
+        <v>3</v>
+      </c>
+      <c r="U303">
+        <v>2.25</v>
+      </c>
+      <c r="V303">
+        <v>3.3</v>
+      </c>
+      <c r="W303">
+        <v>1.35</v>
+      </c>
+      <c r="X303">
+        <v>3.25</v>
+      </c>
+      <c r="Y303">
+        <v>2.6</v>
+      </c>
+      <c r="Z303">
+        <v>1.47</v>
+      </c>
+      <c r="AA303">
+        <v>6</v>
+      </c>
+      <c r="AB303">
+        <v>1.11</v>
+      </c>
+      <c r="AC303">
+        <v>1.97</v>
+      </c>
+      <c r="AD303">
+        <v>3.38</v>
+      </c>
+      <c r="AE303">
+        <v>3.05</v>
+      </c>
+      <c r="AF303">
+        <v>1.03</v>
+      </c>
+      <c r="AG303">
+        <v>13</v>
+      </c>
+      <c r="AH303">
+        <v>1.22</v>
+      </c>
+      <c r="AI303">
+        <v>4</v>
+      </c>
+      <c r="AJ303">
+        <v>1.8</v>
+      </c>
+      <c r="AK303">
+        <v>1.8</v>
+      </c>
+      <c r="AL303">
+        <v>1.6</v>
+      </c>
+      <c r="AM303">
+        <v>2.25</v>
+      </c>
+      <c r="AN303">
+        <v>1.45</v>
+      </c>
+      <c r="AO303">
+        <v>1.25</v>
+      </c>
+      <c r="AP303">
+        <v>1.57</v>
+      </c>
+      <c r="AQ303">
+        <v>1.36</v>
+      </c>
+      <c r="AR303">
+        <v>1.44</v>
+      </c>
+      <c r="AS303">
+        <v>1.25</v>
+      </c>
+      <c r="AT303">
+        <v>1.6</v>
+      </c>
+      <c r="AU303">
+        <v>1.43</v>
+      </c>
+      <c r="AV303">
+        <v>1.37</v>
+      </c>
+      <c r="AW303">
+        <v>2.8</v>
+      </c>
+      <c r="AX303">
+        <v>2.1</v>
+      </c>
+      <c r="AY303">
+        <v>8</v>
+      </c>
+      <c r="AZ303">
+        <v>1.95</v>
+      </c>
+      <c r="BA303">
+        <v>1.25</v>
+      </c>
+      <c r="BB303">
+        <v>1.47</v>
+      </c>
+      <c r="BC303">
+        <v>1.88</v>
+      </c>
+      <c r="BD303">
+        <v>2.4</v>
+      </c>
+      <c r="BE303">
+        <v>3.4</v>
+      </c>
+      <c r="BF303">
+        <v>4</v>
+      </c>
+      <c r="BG303">
+        <v>7</v>
+      </c>
+      <c r="BH303">
+        <v>5</v>
+      </c>
+      <c r="BI303">
+        <v>9</v>
+      </c>
+      <c r="BJ303">
+        <v>9</v>
+      </c>
+      <c r="BK303">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:63">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>4926242</v>
+      </c>
+      <c r="C304" t="s">
+        <v>63</v>
+      </c>
+      <c r="D304" t="s">
+        <v>64</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45115.85416666666</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304" t="s">
+        <v>69</v>
+      </c>
+      <c r="H304" t="s">
+        <v>70</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>2</v>
+      </c>
+      <c r="M304">
+        <v>2</v>
+      </c>
+      <c r="N304">
+        <v>4</v>
+      </c>
+      <c r="O304" t="s">
+        <v>305</v>
+      </c>
+      <c r="P304" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q304">
+        <v>6</v>
+      </c>
+      <c r="R304">
+        <v>2</v>
+      </c>
+      <c r="S304">
+        <v>8</v>
+      </c>
+      <c r="T304">
+        <v>2.1</v>
+      </c>
+      <c r="U304">
+        <v>2.4</v>
+      </c>
+      <c r="V304">
+        <v>5.5</v>
+      </c>
+      <c r="W304">
+        <v>1.33</v>
+      </c>
+      <c r="X304">
+        <v>3.3</v>
+      </c>
+      <c r="Y304">
+        <v>2.55</v>
+      </c>
+      <c r="Z304">
+        <v>1.5</v>
+      </c>
+      <c r="AA304">
+        <v>6</v>
+      </c>
+      <c r="AB304">
+        <v>1.11</v>
+      </c>
+      <c r="AC304">
+        <v>1.65</v>
+      </c>
+      <c r="AD304">
+        <v>3.7</v>
+      </c>
+      <c r="AE304">
+        <v>3.94</v>
+      </c>
+      <c r="AF304">
+        <v>1.03</v>
+      </c>
+      <c r="AG304">
+        <v>13</v>
+      </c>
+      <c r="AH304">
+        <v>1.22</v>
+      </c>
+      <c r="AI304">
+        <v>4.2</v>
+      </c>
+      <c r="AJ304">
+        <v>1.72</v>
+      </c>
+      <c r="AK304">
+        <v>2.12</v>
+      </c>
+      <c r="AL304">
+        <v>1.78</v>
+      </c>
+      <c r="AM304">
+        <v>2</v>
+      </c>
+      <c r="AN304">
+        <v>1.14</v>
+      </c>
+      <c r="AO304">
+        <v>1.18</v>
+      </c>
+      <c r="AP304">
+        <v>2.45</v>
+      </c>
+      <c r="AQ304">
+        <v>1.5</v>
+      </c>
+      <c r="AR304">
+        <v>0.33</v>
+      </c>
+      <c r="AS304">
+        <v>1.45</v>
+      </c>
+      <c r="AT304">
+        <v>0.4</v>
+      </c>
+      <c r="AU304">
+        <v>1.5</v>
+      </c>
+      <c r="AV304">
+        <v>1.31</v>
+      </c>
+      <c r="AW304">
+        <v>2.81</v>
+      </c>
+      <c r="AX304">
+        <v>1.45</v>
+      </c>
+      <c r="AY304">
+        <v>8.5</v>
+      </c>
+      <c r="AZ304">
+        <v>3.33</v>
+      </c>
+      <c r="BA304">
+        <v>1.33</v>
+      </c>
+      <c r="BB304">
+        <v>1.68</v>
+      </c>
+      <c r="BC304">
+        <v>2.07</v>
+      </c>
+      <c r="BD304">
+        <v>2.76</v>
+      </c>
+      <c r="BE304">
+        <v>3.74</v>
+      </c>
+      <c r="BF304">
+        <v>10</v>
+      </c>
+      <c r="BG304">
+        <v>7</v>
+      </c>
+      <c r="BH304">
+        <v>6</v>
+      </c>
+      <c r="BI304">
+        <v>3</v>
+      </c>
+      <c r="BJ304">
+        <v>16</v>
+      </c>
+      <c r="BK304">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:63">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>4926246</v>
+      </c>
+      <c r="C305" t="s">
+        <v>63</v>
+      </c>
+      <c r="D305" t="s">
+        <v>64</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45115.85416666666</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305" t="s">
+        <v>91</v>
+      </c>
+      <c r="H305" t="s">
+        <v>66</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+      <c r="M305">
+        <v>1</v>
+      </c>
+      <c r="N305">
+        <v>1</v>
+      </c>
+      <c r="O305" t="s">
+        <v>96</v>
+      </c>
+      <c r="P305" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q305">
+        <v>3</v>
+      </c>
+      <c r="R305">
+        <v>3</v>
+      </c>
+      <c r="S305">
+        <v>6</v>
+      </c>
+      <c r="T305">
+        <v>2.88</v>
+      </c>
+      <c r="U305">
+        <v>2.3</v>
+      </c>
+      <c r="V305">
+        <v>3.4</v>
+      </c>
+      <c r="W305">
+        <v>1.33</v>
+      </c>
+      <c r="X305">
+        <v>3.25</v>
+      </c>
+      <c r="Y305">
+        <v>2.5</v>
+      </c>
+      <c r="Z305">
+        <v>1.5</v>
+      </c>
+      <c r="AA305">
+        <v>6.5</v>
+      </c>
+      <c r="AB305">
+        <v>1.11</v>
+      </c>
+      <c r="AC305">
+        <v>1.83</v>
+      </c>
+      <c r="AD305">
+        <v>3.52</v>
+      </c>
+      <c r="AE305">
+        <v>3.32</v>
+      </c>
+      <c r="AF305">
+        <v>1.03</v>
+      </c>
+      <c r="AG305">
+        <v>16</v>
+      </c>
+      <c r="AH305">
+        <v>1.21</v>
+      </c>
+      <c r="AI305">
+        <v>4.4</v>
+      </c>
+      <c r="AJ305">
+        <v>1.7</v>
+      </c>
+      <c r="AK305">
+        <v>2.15</v>
+      </c>
+      <c r="AL305">
+        <v>1.62</v>
+      </c>
+      <c r="AM305">
+        <v>2.2</v>
+      </c>
+      <c r="AN305">
+        <v>1.38</v>
+      </c>
+      <c r="AO305">
+        <v>1.28</v>
+      </c>
+      <c r="AP305">
+        <v>1.62</v>
+      </c>
+      <c r="AQ305">
+        <v>2.33</v>
+      </c>
+      <c r="AR305">
+        <v>0.8</v>
+      </c>
+      <c r="AS305">
+        <v>2.1</v>
+      </c>
+      <c r="AT305">
+        <v>1</v>
+      </c>
+      <c r="AU305">
+        <v>1.4</v>
+      </c>
+      <c r="AV305">
+        <v>1.2</v>
+      </c>
+      <c r="AW305">
+        <v>2.6</v>
+      </c>
+      <c r="AX305">
+        <v>1.91</v>
+      </c>
+      <c r="AY305">
+        <v>8</v>
+      </c>
+      <c r="AZ305">
+        <v>2.2</v>
+      </c>
+      <c r="BA305">
+        <v>1.23</v>
+      </c>
+      <c r="BB305">
+        <v>1.44</v>
+      </c>
+      <c r="BC305">
+        <v>1.83</v>
+      </c>
+      <c r="BD305">
+        <v>2.35</v>
+      </c>
+      <c r="BE305">
+        <v>3.25</v>
+      </c>
+      <c r="BF305">
+        <v>2</v>
+      </c>
+      <c r="BG305">
+        <v>4</v>
+      </c>
+      <c r="BH305">
+        <v>9</v>
+      </c>
+      <c r="BI305">
+        <v>2</v>
+      </c>
+      <c r="BJ305">
+        <v>11</v>
+      </c>
+      <c r="BK305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:63">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>4926249</v>
+      </c>
+      <c r="C306" t="s">
+        <v>63</v>
+      </c>
+      <c r="D306" t="s">
+        <v>64</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45115.89583333334</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306" t="s">
+        <v>82</v>
+      </c>
+      <c r="H306" t="s">
+        <v>65</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>1</v>
+      </c>
+      <c r="O306" t="s">
+        <v>117</v>
+      </c>
+      <c r="P306" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q306">
+        <v>2</v>
+      </c>
+      <c r="R306">
+        <v>10</v>
+      </c>
+      <c r="S306">
+        <v>12</v>
+      </c>
+      <c r="T306">
+        <v>3</v>
+      </c>
+      <c r="U306">
+        <v>2.2</v>
+      </c>
+      <c r="V306">
+        <v>3.5</v>
+      </c>
+      <c r="W306">
+        <v>1.36</v>
+      </c>
+      <c r="X306">
+        <v>3</v>
+      </c>
+      <c r="Y306">
+        <v>2.75</v>
+      </c>
+      <c r="Z306">
+        <v>1.4</v>
+      </c>
+      <c r="AA306">
+        <v>8</v>
+      </c>
+      <c r="AB306">
+        <v>1.08</v>
+      </c>
+      <c r="AC306">
+        <v>2.36</v>
+      </c>
+      <c r="AD306">
+        <v>3.38</v>
+      </c>
+      <c r="AE306">
+        <v>3.07</v>
+      </c>
+      <c r="AF306">
+        <v>1.04</v>
+      </c>
+      <c r="AG306">
+        <v>13</v>
+      </c>
+      <c r="AH306">
+        <v>1.28</v>
+      </c>
+      <c r="AI306">
+        <v>3.6</v>
+      </c>
+      <c r="AJ306">
+        <v>1.91</v>
+      </c>
+      <c r="AK306">
+        <v>1.92</v>
+      </c>
+      <c r="AL306">
+        <v>1.7</v>
+      </c>
+      <c r="AM306">
+        <v>2.05</v>
+      </c>
+      <c r="AN306">
+        <v>1.4</v>
+      </c>
+      <c r="AO306">
+        <v>1.25</v>
+      </c>
+      <c r="AP306">
+        <v>1.6</v>
+      </c>
+      <c r="AQ306">
+        <v>1.33</v>
+      </c>
+      <c r="AR306">
+        <v>1.2</v>
+      </c>
+      <c r="AS306">
+        <v>1.5</v>
+      </c>
+      <c r="AT306">
+        <v>1.09</v>
+      </c>
+      <c r="AU306">
+        <v>1.16</v>
+      </c>
+      <c r="AV306">
+        <v>1.1</v>
+      </c>
+      <c r="AW306">
+        <v>2.26</v>
+      </c>
+      <c r="AX306">
+        <v>1.95</v>
+      </c>
+      <c r="AY306">
+        <v>8</v>
+      </c>
+      <c r="AZ306">
+        <v>2.1</v>
+      </c>
+      <c r="BA306">
+        <v>1.26</v>
+      </c>
+      <c r="BB306">
+        <v>1.5</v>
+      </c>
+      <c r="BC306">
+        <v>2</v>
+      </c>
+      <c r="BD306">
+        <v>2.5</v>
+      </c>
+      <c r="BE306">
+        <v>3.5</v>
+      </c>
+      <c r="BF306">
+        <v>2</v>
+      </c>
+      <c r="BG306">
+        <v>3</v>
+      </c>
+      <c r="BH306">
+        <v>3</v>
+      </c>
+      <c r="BI306">
+        <v>8</v>
+      </c>
+      <c r="BJ306">
+        <v>5</v>
+      </c>
+      <c r="BK306">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:63">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>4926250</v>
+      </c>
+      <c r="C307" t="s">
+        <v>63</v>
+      </c>
+      <c r="D307" t="s">
+        <v>64</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45115.89583333334</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307" t="s">
+        <v>92</v>
+      </c>
+      <c r="H307" t="s">
+        <v>88</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
+        <v>2</v>
+      </c>
+      <c r="L307">
+        <v>2</v>
+      </c>
+      <c r="M307">
+        <v>2</v>
+      </c>
+      <c r="N307">
+        <v>4</v>
+      </c>
+      <c r="O307" t="s">
+        <v>306</v>
+      </c>
+      <c r="P307" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q307">
+        <v>5</v>
+      </c>
+      <c r="R307">
+        <v>4</v>
+      </c>
+      <c r="S307">
+        <v>9</v>
+      </c>
+      <c r="T307">
+        <v>2.75</v>
+      </c>
+      <c r="U307">
+        <v>2.25</v>
+      </c>
+      <c r="V307">
+        <v>3.75</v>
+      </c>
+      <c r="W307">
+        <v>1.36</v>
+      </c>
+      <c r="X307">
+        <v>3</v>
+      </c>
+      <c r="Y307">
+        <v>2.63</v>
+      </c>
+      <c r="Z307">
+        <v>1.44</v>
+      </c>
+      <c r="AA307">
+        <v>7</v>
+      </c>
+      <c r="AB307">
+        <v>1.1</v>
+      </c>
+      <c r="AC307">
+        <v>2.05</v>
+      </c>
+      <c r="AD307">
+        <v>3.6</v>
+      </c>
+      <c r="AE307">
+        <v>3.52</v>
+      </c>
+      <c r="AF307">
+        <v>1.03</v>
+      </c>
+      <c r="AG307">
+        <v>13</v>
+      </c>
+      <c r="AH307">
+        <v>1.25</v>
+      </c>
+      <c r="AI307">
+        <v>3.75</v>
+      </c>
+      <c r="AJ307">
+        <v>1.77</v>
+      </c>
+      <c r="AK307">
+        <v>2.05</v>
+      </c>
+      <c r="AL307">
+        <v>1.67</v>
+      </c>
+      <c r="AM307">
+        <v>2.1</v>
+      </c>
+      <c r="AN307">
+        <v>1.35</v>
+      </c>
+      <c r="AO307">
+        <v>1.25</v>
+      </c>
+      <c r="AP307">
+        <v>1.75</v>
+      </c>
+      <c r="AQ307">
+        <v>2.44</v>
+      </c>
+      <c r="AR307">
+        <v>0.73</v>
+      </c>
+      <c r="AS307">
+        <v>2.3</v>
+      </c>
+      <c r="AT307">
+        <v>0.75</v>
+      </c>
+      <c r="AU307">
+        <v>1.35</v>
+      </c>
+      <c r="AV307">
+        <v>1.47</v>
+      </c>
+      <c r="AW307">
+        <v>2.82</v>
+      </c>
+      <c r="AX307">
+        <v>2.63</v>
+      </c>
+      <c r="AY307">
+        <v>8</v>
+      </c>
+      <c r="AZ307">
+        <v>1.69</v>
+      </c>
+      <c r="BA307">
+        <v>1.22</v>
+      </c>
+      <c r="BB307">
+        <v>1.42</v>
+      </c>
+      <c r="BC307">
+        <v>1.83</v>
+      </c>
+      <c r="BD307">
+        <v>2.25</v>
+      </c>
+      <c r="BE307">
+        <v>3.1</v>
+      </c>
+      <c r="BF307">
+        <v>7</v>
+      </c>
+      <c r="BG307">
+        <v>4</v>
+      </c>
+      <c r="BH307">
+        <v>6</v>
+      </c>
+      <c r="BI307">
+        <v>1</v>
+      </c>
+      <c r="BJ307">
+        <v>13</v>
+      </c>
+      <c r="BK307">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:63">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>4926251</v>
+      </c>
+      <c r="C308" t="s">
+        <v>63</v>
+      </c>
+      <c r="D308" t="s">
+        <v>64</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45115.89583333334</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308" t="s">
+        <v>89</v>
+      </c>
+      <c r="H308" t="s">
+        <v>73</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>2</v>
+      </c>
+      <c r="K308">
+        <v>2</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308">
+        <v>4</v>
+      </c>
+      <c r="N308">
+        <v>5</v>
+      </c>
+      <c r="O308" t="s">
+        <v>307</v>
+      </c>
+      <c r="P308" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q308">
+        <v>14</v>
+      </c>
+      <c r="R308">
+        <v>5</v>
+      </c>
+      <c r="S308">
+        <v>19</v>
+      </c>
+      <c r="T308">
+        <v>2.4</v>
+      </c>
+      <c r="U308">
+        <v>2.38</v>
+      </c>
+      <c r="V308">
+        <v>4</v>
+      </c>
+      <c r="W308">
+        <v>1.3</v>
+      </c>
+      <c r="X308">
+        <v>3.4</v>
+      </c>
+      <c r="Y308">
+        <v>2.5</v>
+      </c>
+      <c r="Z308">
+        <v>1.5</v>
+      </c>
+      <c r="AA308">
+        <v>6</v>
+      </c>
+      <c r="AB308">
+        <v>1.13</v>
+      </c>
+      <c r="AC308">
+        <v>1.84</v>
+      </c>
+      <c r="AD308">
+        <v>3.79</v>
+      </c>
+      <c r="AE308">
+        <v>4.1</v>
+      </c>
+      <c r="AF308">
+        <v>1.02</v>
+      </c>
+      <c r="AG308">
+        <v>15</v>
+      </c>
+      <c r="AH308">
+        <v>1.2</v>
+      </c>
+      <c r="AI308">
+        <v>4.33</v>
+      </c>
+      <c r="AJ308">
+        <v>1.74</v>
+      </c>
+      <c r="AK308">
+        <v>2.09</v>
+      </c>
+      <c r="AL308">
+        <v>1.62</v>
+      </c>
+      <c r="AM308">
+        <v>2.2</v>
+      </c>
+      <c r="AN308">
+        <v>1.25</v>
+      </c>
+      <c r="AO308">
+        <v>1.2</v>
+      </c>
+      <c r="AP308">
+        <v>1.95</v>
+      </c>
+      <c r="AQ308">
+        <v>1.38</v>
+      </c>
+      <c r="AR308">
+        <v>0.89</v>
+      </c>
+      <c r="AS308">
+        <v>1.22</v>
+      </c>
+      <c r="AT308">
+        <v>1.1</v>
+      </c>
+      <c r="AU308">
+        <v>1.62</v>
+      </c>
+      <c r="AV308">
+        <v>1.21</v>
+      </c>
+      <c r="AW308">
+        <v>2.83</v>
+      </c>
+      <c r="AX308">
+        <v>1.59</v>
+      </c>
+      <c r="AY308">
+        <v>8.5</v>
+      </c>
+      <c r="AZ308">
+        <v>2.89</v>
+      </c>
+      <c r="BA308">
+        <v>1.21</v>
+      </c>
+      <c r="BB308">
+        <v>1.4</v>
+      </c>
+      <c r="BC308">
+        <v>1.71</v>
+      </c>
+      <c r="BD308">
+        <v>2.2</v>
+      </c>
+      <c r="BE308">
+        <v>3</v>
+      </c>
+      <c r="BF308">
+        <v>8</v>
+      </c>
+      <c r="BG308">
+        <v>9</v>
+      </c>
+      <c r="BH308">
+        <v>12</v>
+      </c>
+      <c r="BI308">
+        <v>5</v>
+      </c>
+      <c r="BJ308">
+        <v>20</v>
+      </c>
+      <c r="BK308">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:63">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>4926252</v>
+      </c>
+      <c r="C309" t="s">
+        <v>63</v>
+      </c>
+      <c r="D309" t="s">
+        <v>64</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45115.9375</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309" t="s">
+        <v>84</v>
+      </c>
+      <c r="H309" t="s">
+        <v>74</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+      <c r="K309">
+        <v>2</v>
+      </c>
+      <c r="L309">
+        <v>2</v>
+      </c>
+      <c r="M309">
+        <v>1</v>
+      </c>
+      <c r="N309">
+        <v>3</v>
+      </c>
+      <c r="O309" t="s">
+        <v>308</v>
+      </c>
+      <c r="P309" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q309">
+        <v>6</v>
+      </c>
+      <c r="R309">
+        <v>1</v>
+      </c>
+      <c r="S309">
+        <v>7</v>
+      </c>
+      <c r="T309">
+        <v>2.65</v>
+      </c>
+      <c r="U309">
+        <v>2</v>
+      </c>
+      <c r="V309">
+        <v>4.1</v>
+      </c>
+      <c r="W309">
+        <v>1.45</v>
+      </c>
+      <c r="X309">
+        <v>2.5</v>
+      </c>
+      <c r="Y309">
+        <v>3.4</v>
+      </c>
+      <c r="Z309">
+        <v>1.27</v>
+      </c>
+      <c r="AA309">
+        <v>7.5</v>
+      </c>
+      <c r="AB309">
+        <v>1.06</v>
+      </c>
+      <c r="AC309">
+        <v>1.83</v>
+      </c>
+      <c r="AD309">
+        <v>3.26</v>
+      </c>
+      <c r="AE309">
+        <v>3.59</v>
+      </c>
+      <c r="AF309">
+        <v>1.05</v>
+      </c>
+      <c r="AG309">
+        <v>7.5</v>
+      </c>
+      <c r="AH309">
+        <v>1.35</v>
+      </c>
+      <c r="AI309">
+        <v>2.9</v>
+      </c>
+      <c r="AJ309">
+        <v>2.18</v>
+      </c>
+      <c r="AK309">
+        <v>1.68</v>
+      </c>
+      <c r="AL309">
+        <v>1.9</v>
+      </c>
+      <c r="AM309">
+        <v>1.8</v>
+      </c>
+      <c r="AN309">
+        <v>1.22</v>
+      </c>
+      <c r="AO309">
+        <v>1.32</v>
+      </c>
+      <c r="AP309">
+        <v>1.7</v>
+      </c>
+      <c r="AQ309">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR309">
+        <v>0.9</v>
+      </c>
+      <c r="AS309">
+        <v>0.8</v>
+      </c>
+      <c r="AT309">
+        <v>0.82</v>
+      </c>
+      <c r="AU309">
+        <v>1.48</v>
+      </c>
+      <c r="AV309">
+        <v>1.3</v>
+      </c>
+      <c r="AW309">
+        <v>2.78</v>
+      </c>
+      <c r="AX309">
+        <v>1.64</v>
+      </c>
+      <c r="AY309">
+        <v>8</v>
+      </c>
+      <c r="AZ309">
+        <v>2.77</v>
+      </c>
+      <c r="BA309">
+        <v>1.3</v>
+      </c>
+      <c r="BB309">
+        <v>1.57</v>
+      </c>
+      <c r="BC309">
+        <v>1.98</v>
+      </c>
+      <c r="BD309">
+        <v>2.7</v>
+      </c>
+      <c r="BE309">
+        <v>3.8</v>
+      </c>
+      <c r="BF309">
+        <v>5</v>
+      </c>
+      <c r="BG309">
+        <v>4</v>
+      </c>
+      <c r="BH309">
+        <v>6</v>
+      </c>
+      <c r="BI309">
+        <v>4</v>
+      </c>
+      <c r="BJ309">
+        <v>11</v>
+      </c>
+      <c r="BK309">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:63">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>4926253</v>
+      </c>
+      <c r="C310" t="s">
+        <v>63</v>
+      </c>
+      <c r="D310" t="s">
+        <v>64</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45115.9375</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310" t="s">
+        <v>90</v>
+      </c>
+      <c r="H310" t="s">
+        <v>71</v>
+      </c>
+      <c r="I310">
+        <v>2</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>2</v>
+      </c>
+      <c r="L310">
+        <v>4</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>4</v>
+      </c>
+      <c r="O310" t="s">
+        <v>309</v>
+      </c>
+      <c r="P310" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q310">
+        <v>5</v>
+      </c>
+      <c r="R310">
+        <v>2</v>
+      </c>
+      <c r="S310">
+        <v>7</v>
+      </c>
+      <c r="T310">
+        <v>2.75</v>
+      </c>
+      <c r="U310">
+        <v>2.05</v>
+      </c>
+      <c r="V310">
+        <v>3.6</v>
+      </c>
+      <c r="W310">
+        <v>1.38</v>
+      </c>
+      <c r="X310">
+        <v>2.8</v>
+      </c>
+      <c r="Y310">
+        <v>2.7</v>
+      </c>
+      <c r="Z310">
+        <v>1.41</v>
+      </c>
+      <c r="AA310">
+        <v>6.75</v>
+      </c>
+      <c r="AB310">
+        <v>1.09</v>
+      </c>
+      <c r="AC310">
+        <v>2.07</v>
+      </c>
+      <c r="AD310">
+        <v>3.37</v>
+      </c>
+      <c r="AE310">
+        <v>2.87</v>
+      </c>
+      <c r="AF310">
+        <v>1.06</v>
+      </c>
+      <c r="AG310">
+        <v>9</v>
+      </c>
+      <c r="AH310">
+        <v>1.28</v>
+      </c>
+      <c r="AI310">
+        <v>3.4</v>
+      </c>
+      <c r="AJ310">
+        <v>1.8</v>
+      </c>
+      <c r="AK310">
+        <v>1.8</v>
+      </c>
+      <c r="AL310">
+        <v>1.7</v>
+      </c>
+      <c r="AM310">
+        <v>2</v>
+      </c>
+      <c r="AN310">
+        <v>1.34</v>
+      </c>
+      <c r="AO310">
+        <v>1.31</v>
+      </c>
+      <c r="AP310">
+        <v>1.63</v>
+      </c>
+      <c r="AQ310">
+        <v>1</v>
+      </c>
+      <c r="AR310">
+        <v>1.67</v>
+      </c>
+      <c r="AS310">
+        <v>1.18</v>
+      </c>
+      <c r="AT310">
+        <v>1.5</v>
+      </c>
+      <c r="AU310">
+        <v>1.96</v>
+      </c>
+      <c r="AV310">
+        <v>1.29</v>
+      </c>
+      <c r="AW310">
+        <v>3.25</v>
+      </c>
+      <c r="AX310">
+        <v>1.64</v>
+      </c>
+      <c r="AY310">
+        <v>8</v>
+      </c>
+      <c r="AZ310">
+        <v>2.77</v>
+      </c>
+      <c r="BA310">
+        <v>1.26</v>
+      </c>
+      <c r="BB310">
+        <v>1.5</v>
+      </c>
+      <c r="BC310">
+        <v>1.98</v>
+      </c>
+      <c r="BD310">
+        <v>2.5</v>
+      </c>
+      <c r="BE310">
+        <v>3.5</v>
+      </c>
+      <c r="BF310">
+        <v>7</v>
+      </c>
+      <c r="BG310">
+        <v>5</v>
+      </c>
+      <c r="BH310">
+        <v>5</v>
+      </c>
+      <c r="BI310">
+        <v>4</v>
+      </c>
+      <c r="BJ310">
+        <v>12</v>
+      </c>
+      <c r="BK310">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:63">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>4926256</v>
+      </c>
+      <c r="C311" t="s">
+        <v>63</v>
+      </c>
+      <c r="D311" t="s">
+        <v>64</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45115.97916666666</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311" t="s">
+        <v>75</v>
+      </c>
+      <c r="H311" t="s">
+        <v>76</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>1</v>
+      </c>
+      <c r="L311">
+        <v>2</v>
+      </c>
+      <c r="M311">
+        <v>3</v>
+      </c>
+      <c r="N311">
+        <v>5</v>
+      </c>
+      <c r="O311" t="s">
+        <v>310</v>
+      </c>
+      <c r="P311" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q311">
+        <v>8</v>
+      </c>
+      <c r="R311">
+        <v>7</v>
+      </c>
+      <c r="S311">
+        <v>15</v>
+      </c>
+      <c r="T311">
+        <v>2.75</v>
+      </c>
+      <c r="U311">
+        <v>2.2</v>
+      </c>
+      <c r="V311">
+        <v>4</v>
+      </c>
+      <c r="W311">
+        <v>1.4</v>
+      </c>
+      <c r="X311">
+        <v>2.75</v>
+      </c>
+      <c r="Y311">
+        <v>2.75</v>
+      </c>
+      <c r="Z311">
+        <v>1.4</v>
+      </c>
+      <c r="AA311">
+        <v>8</v>
+      </c>
+      <c r="AB311">
+        <v>1.08</v>
+      </c>
+      <c r="AC311">
+        <v>2.08</v>
+      </c>
+      <c r="AD311">
+        <v>3.49</v>
+      </c>
+      <c r="AE311">
+        <v>3.56</v>
+      </c>
+      <c r="AF311">
+        <v>1.04</v>
+      </c>
+      <c r="AG311">
+        <v>11</v>
+      </c>
+      <c r="AH311">
+        <v>1.3</v>
+      </c>
+      <c r="AI311">
+        <v>3.5</v>
+      </c>
+      <c r="AJ311">
+        <v>1.89</v>
+      </c>
+      <c r="AK311">
+        <v>1.92</v>
+      </c>
+      <c r="AL311">
+        <v>1.75</v>
+      </c>
+      <c r="AM311">
+        <v>2</v>
+      </c>
+      <c r="AN311">
+        <v>1.3</v>
+      </c>
+      <c r="AO311">
+        <v>1.29</v>
+      </c>
+      <c r="AP311">
+        <v>1.72</v>
+      </c>
+      <c r="AQ311">
+        <v>1.9</v>
+      </c>
+      <c r="AR311">
+        <v>1.22</v>
+      </c>
+      <c r="AS311">
+        <v>1.73</v>
+      </c>
+      <c r="AT311">
+        <v>1.4</v>
+      </c>
+      <c r="AU311">
+        <v>1.82</v>
+      </c>
+      <c r="AV311">
+        <v>1.25</v>
+      </c>
+      <c r="AW311">
+        <v>3.07</v>
+      </c>
+      <c r="AX311">
+        <v>1.59</v>
+      </c>
+      <c r="AY311">
+        <v>8.5</v>
+      </c>
+      <c r="AZ311">
+        <v>2.78</v>
+      </c>
+      <c r="BA311">
+        <v>1.21</v>
+      </c>
+      <c r="BB311">
+        <v>1.4</v>
+      </c>
+      <c r="BC311">
+        <v>1.71</v>
+      </c>
+      <c r="BD311">
+        <v>2.2</v>
+      </c>
+      <c r="BE311">
+        <v>3</v>
+      </c>
+      <c r="BF311">
+        <v>6</v>
+      </c>
+      <c r="BG311">
+        <v>7</v>
+      </c>
+      <c r="BH311">
+        <v>6</v>
+      </c>
+      <c r="BI311">
+        <v>6</v>
+      </c>
+      <c r="BJ311">
+        <v>12</v>
+      </c>
+      <c r="BK311">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:63">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>4926255</v>
+      </c>
+      <c r="C312" t="s">
+        <v>63</v>
+      </c>
+      <c r="D312" t="s">
+        <v>64</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45115.97916666666</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312" t="s">
+        <v>78</v>
+      </c>
+      <c r="H312" t="s">
+        <v>85</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>1</v>
+      </c>
+      <c r="K312">
+        <v>2</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+      <c r="N312">
+        <v>2</v>
+      </c>
+      <c r="O312" t="s">
+        <v>178</v>
+      </c>
+      <c r="P312" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q312">
+        <v>7</v>
+      </c>
+      <c r="R312">
+        <v>7</v>
+      </c>
+      <c r="S312">
+        <v>14</v>
+      </c>
+      <c r="T312">
+        <v>1.75</v>
+      </c>
+      <c r="U312">
+        <v>2.6</v>
+      </c>
+      <c r="V312">
+        <v>5.3</v>
+      </c>
+      <c r="W312">
+        <v>1.28</v>
+      </c>
+      <c r="X312">
+        <v>3.3</v>
+      </c>
+      <c r="Y312">
+        <v>2.35</v>
+      </c>
+      <c r="Z312">
+        <v>1.52</v>
+      </c>
+      <c r="AA312">
+        <v>5.2</v>
+      </c>
+      <c r="AB312">
+        <v>1.12</v>
+      </c>
+      <c r="AC312">
+        <v>1.48</v>
+      </c>
+      <c r="AD312">
+        <v>3.99</v>
+      </c>
+      <c r="AE312">
+        <v>4.92</v>
+      </c>
+      <c r="AF312">
+        <v>1.04</v>
+      </c>
+      <c r="AG312">
+        <v>12</v>
+      </c>
+      <c r="AH312">
+        <v>1.13</v>
+      </c>
+      <c r="AI312">
+        <v>5</v>
+      </c>
+      <c r="AJ312">
+        <v>1.72</v>
+      </c>
+      <c r="AK312">
+        <v>2.12</v>
+      </c>
+      <c r="AL312">
+        <v>1.65</v>
+      </c>
+      <c r="AM312">
+        <v>2.1</v>
+      </c>
+      <c r="AN312">
+        <v>1.06</v>
+      </c>
+      <c r="AO312">
+        <v>1.17</v>
+      </c>
+      <c r="AP312">
+        <v>2.7</v>
+      </c>
+      <c r="AQ312">
+        <v>2</v>
+      </c>
+      <c r="AR312">
+        <v>0.6</v>
+      </c>
+      <c r="AS312">
+        <v>1.91</v>
+      </c>
+      <c r="AT312">
+        <v>0.64</v>
+      </c>
+      <c r="AU312">
+        <v>1.95</v>
+      </c>
+      <c r="AV312">
+        <v>1.15</v>
+      </c>
+      <c r="AW312">
+        <v>3.1</v>
+      </c>
+      <c r="AX312">
+        <v>1.37</v>
+      </c>
+      <c r="AY312">
+        <v>9.5</v>
+      </c>
+      <c r="AZ312">
+        <v>3.69</v>
+      </c>
+      <c r="BA312">
+        <v>1.12</v>
+      </c>
+      <c r="BB312">
+        <v>1.32</v>
+      </c>
+      <c r="BC312">
+        <v>1.57</v>
+      </c>
+      <c r="BD312">
+        <v>1.98</v>
+      </c>
+      <c r="BE312">
+        <v>2.65</v>
+      </c>
+      <c r="BF312">
+        <v>7</v>
+      </c>
+      <c r="BG312">
+        <v>4</v>
+      </c>
+      <c r="BH312">
+        <v>6</v>
+      </c>
+      <c r="BI312">
+        <v>3</v>
+      </c>
+      <c r="BJ312">
+        <v>13</v>
+      </c>
+      <c r="BK312">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:63">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>4926254</v>
+      </c>
+      <c r="C313" t="s">
+        <v>63</v>
+      </c>
+      <c r="D313" t="s">
+        <v>64</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45115.97916666666</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313" t="s">
+        <v>93</v>
+      </c>
+      <c r="H313" t="s">
+        <v>72</v>
+      </c>
+      <c r="I313">
+        <v>2</v>
+      </c>
+      <c r="J313">
+        <v>1</v>
+      </c>
+      <c r="K313">
+        <v>3</v>
+      </c>
+      <c r="L313">
+        <v>3</v>
+      </c>
+      <c r="M313">
+        <v>1</v>
+      </c>
+      <c r="N313">
+        <v>4</v>
+      </c>
+      <c r="O313" t="s">
+        <v>311</v>
+      </c>
+      <c r="P313" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q313">
+        <v>4</v>
+      </c>
+      <c r="R313">
+        <v>1</v>
+      </c>
+      <c r="S313">
+        <v>5</v>
+      </c>
+      <c r="T313">
+        <v>2.87</v>
+      </c>
+      <c r="U313">
+        <v>2.1</v>
+      </c>
+      <c r="V313">
+        <v>3.4</v>
+      </c>
+      <c r="W313">
+        <v>1.38</v>
+      </c>
+      <c r="X313">
+        <v>2.8</v>
+      </c>
+      <c r="Y313">
+        <v>2.7</v>
+      </c>
+      <c r="Z313">
+        <v>1.4</v>
+      </c>
+      <c r="AA313">
+        <v>7</v>
+      </c>
+      <c r="AB313">
+        <v>1.09</v>
+      </c>
+      <c r="AC313">
+        <v>2.19</v>
+      </c>
+      <c r="AD313">
+        <v>3.35</v>
+      </c>
+      <c r="AE313">
+        <v>2.66</v>
+      </c>
+      <c r="AF313">
+        <v>1.05</v>
+      </c>
+      <c r="AG313">
+        <v>9.25</v>
+      </c>
+      <c r="AH313">
+        <v>1.28</v>
+      </c>
+      <c r="AI313">
+        <v>3.4</v>
+      </c>
+      <c r="AJ313">
+        <v>1.8</v>
+      </c>
+      <c r="AK313">
+        <v>1.8</v>
+      </c>
+      <c r="AL313">
+        <v>1.7</v>
+      </c>
+      <c r="AM313">
+        <v>2</v>
+      </c>
+      <c r="AN313">
+        <v>1.39</v>
+      </c>
+      <c r="AO313">
+        <v>1.3</v>
+      </c>
+      <c r="AP313">
+        <v>1.57</v>
+      </c>
+      <c r="AQ313">
+        <v>1.22</v>
+      </c>
+      <c r="AR313">
+        <v>1.1</v>
+      </c>
+      <c r="AS313">
+        <v>1.4</v>
+      </c>
+      <c r="AT313">
+        <v>1</v>
+      </c>
+      <c r="AU313">
+        <v>1.76</v>
+      </c>
+      <c r="AV313">
+        <v>1.4</v>
+      </c>
+      <c r="AW313">
+        <v>3.16</v>
+      </c>
+      <c r="AX313">
+        <v>1.69</v>
+      </c>
+      <c r="AY313">
+        <v>8</v>
+      </c>
+      <c r="AZ313">
+        <v>2.54</v>
+      </c>
+      <c r="BA313">
+        <v>1.2</v>
+      </c>
+      <c r="BB313">
+        <v>1.39</v>
+      </c>
+      <c r="BC313">
+        <v>1.7</v>
+      </c>
+      <c r="BD313">
+        <v>2.2</v>
+      </c>
+      <c r="BE313">
+        <v>3</v>
+      </c>
+      <c r="BF313">
+        <v>8</v>
+      </c>
+      <c r="BG313">
+        <v>3</v>
+      </c>
+      <c r="BH313">
+        <v>7</v>
+      </c>
+      <c r="BI313">
+        <v>5</v>
+      </c>
+      <c r="BJ313">
+        <v>15</v>
+      </c>
+      <c r="BK313">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
